--- a/school_colors/school_colors.xlsx
+++ b/school_colors/school_colors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="1246">
   <si>
     <t xml:space="preserve">School</t>
   </si>
@@ -2957,6 +2957,18 @@
   </si>
   <si>
     <t xml:space="preserve">SUU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Francis (PA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#BD1F25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#8E908F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFrPA</t>
   </si>
   <si>
     <t xml:space="preserve">Stanford</t>
@@ -3756,7 +3768,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3782,6 +3794,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3834,7 +3853,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3853,6 +3872,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3966,11 +3993,11 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G72" activeCellId="0" sqref="G72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F187" activeCellId="0" sqref="F187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.71"/>
@@ -11978,31 +12005,27 @@
       <c r="Z186" s="3"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="6" t="s">
         <v>981</v>
       </c>
       <c r="D187" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E187:Z187),")")</f>
-        <v>(STANFORD|STAN|STA|SU)</v>
-      </c>
-      <c r="E187" s="3" t="s">
+        <v>(SFrPA)</v>
+      </c>
+      <c r="E187" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="F187" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>965</v>
-      </c>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
@@ -12022,28 +12045,30 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>987</v>
       </c>
       <c r="D188" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E188:Z188),")")</f>
-        <v>(SFAFB|SFA)</v>
-      </c>
-      <c r="E188" s="0" t="s">
+        <v>(STANFORD|STAN|STA|SU)</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
+      <c r="H188" s="3" t="s">
+        <v>965</v>
+      </c>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
@@ -12061,21 +12086,21 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>990</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>991</v>
       </c>
       <c r="D189" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E189:Z189),")")</f>
-        <v>(STONY BROOK|SBU)</v>
-      </c>
-      <c r="E189" s="3" t="s">
+        <v>(SFAFB|SFA)</v>
+      </c>
+      <c r="E189" s="0" t="s">
         <v>992</v>
       </c>
       <c r="F189" s="3" t="s">
@@ -12107,24 +12132,22 @@
         <v>994</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>995</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>996</v>
       </c>
       <c r="D190" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E190:Z190),")")</f>
-        <v>(SYRACUSE|SU|SYR)</v>
+        <v>(STONY BROOK|SBU)</v>
       </c>
       <c r="E190" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="F190" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="F190" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>998</v>
-      </c>
+      <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
@@ -12147,23 +12170,27 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>1000</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>1001</v>
       </c>
       <c r="D191" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E191:Z191),")")</f>
-        <v>(TCU)</v>
+        <v>(SYRACUSE|SU|SYR)</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
+        <v>1001</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>1002</v>
+      </c>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
@@ -12184,29 +12211,26 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>73</v>
+        <v>1004</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>464</v>
+        <v>1005</v>
       </c>
       <c r="D192" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E192:Z192),")")</f>
-        <v>(TEMPLE|TEM|TU)</v>
+        <v>(TCU)</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="F192" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>1005</v>
-      </c>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
@@ -12231,23 +12255,23 @@
         <v>1006</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1007</v>
+        <v>73</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1008</v>
+        <v>464</v>
       </c>
       <c r="D193" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E193:Z193),")")</f>
-        <v>(TENNESSEE|TEN|UT)</v>
+        <v>(TEMPLE|TEM|TU)</v>
       </c>
       <c r="E193" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G193" s="3" t="s">
         <v>1009</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>1011</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
@@ -12268,19 +12292,19 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>1012</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D194" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E194:Z194),")")</f>
-        <v>(TENNESSEE ST|TSU)</v>
+        <v>(TENNESSEE|TEN|UT)</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>1013</v>
@@ -12288,8 +12312,9 @@
       <c r="F194" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
+      <c r="G194" s="3" t="s">
+        <v>1015</v>
+      </c>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
@@ -12311,23 +12336,23 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1016</v>
+        <v>256</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1017</v>
+        <v>30</v>
       </c>
       <c r="D195" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E195:Z195),")")</f>
-        <v>(TENNESSEE TECH|TTU)</v>
+        <v>(TENNESSEE ST|TSU)</v>
       </c>
       <c r="E195" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -12350,29 +12375,28 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="C196" s="2" t="s">
         <v>1021</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>1022</v>
       </c>
       <c r="D196" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E196:Z196),")")</f>
-        <v>(TEXAS|TEX|UT)</v>
+        <v>(TENNESSEE TECH|TTU)</v>
       </c>
       <c r="E196" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F196" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="F196" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>1011</v>
-      </c>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
@@ -12394,17 +12418,17 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D197" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E197:Z197),")")</f>
-        <v>(TEXAS A&amp;M|TEXASAM|TAMU|TAM)</v>
+        <v>(TEXAS|TEX|UT)</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>1027</v>
@@ -12413,11 +12437,9 @@
         <v>1028</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>1030</v>
-      </c>
+        <v>1015</v>
+      </c>
+      <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
@@ -12436,31 +12458,32 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1033</v>
+        <v>30</v>
       </c>
       <c r="D198" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E198:Z198),")")</f>
-        <v>(TEXAS SOUTHERN|TSU|TXSOFB)</v>
+        <v>(TEXAS A&amp;M|TEXASAM|TAMU|TAM)</v>
       </c>
       <c r="E198" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H198" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="F198" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
@@ -12479,35 +12502,32 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>1037</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>1038</v>
       </c>
       <c r="D199" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E199:Z199),")")</f>
-        <v>(TEXAS STATE|TEXSTATE|TSU|TXST|TXS)</v>
+        <v>(TEXAS SOUTHERN|TSU|TXSOFB)</v>
       </c>
       <c r="E199" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G199" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="F199" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H199" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I199" s="3" t="s">
-        <v>1042</v>
-      </c>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
@@ -12525,36 +12545,35 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>327</v>
+        <v>1041</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>36</v>
+        <v>1042</v>
       </c>
       <c r="D200" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E200:Z200),")")</f>
-        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
+        <v>(TEXAS STATE|TEXSTATE|TSU|TXST|TXS)</v>
       </c>
       <c r="E200" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F200" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="F200" s="3" t="s">
-        <v>1019</v>
-      </c>
       <c r="G200" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H200" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="H200" s="3" t="s">
+      <c r="I200" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="I200" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
@@ -12572,31 +12591,35 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1049</v>
+        <v>327</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1050</v>
+        <v>36</v>
       </c>
       <c r="D201" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E201:Z201),")")</f>
-        <v>(CIT|THE CITADEL|THECITADEL)</v>
+        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
       </c>
       <c r="E201" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I201" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="F201" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G201" s="0" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
@@ -12617,30 +12640,28 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>1054</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>1056</v>
       </c>
       <c r="D202" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E202:Z202),")")</f>
-        <v>(TOLEDO|TOL|UTo|UT)</v>
+        <v>(CIT|THE CITADEL|THECITADEL)</v>
       </c>
       <c r="E202" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G202" s="0" t="s">
         <v>1057</v>
       </c>
-      <c r="F202" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G202" s="0" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H202" s="3" t="s">
-        <v>1011</v>
-      </c>
+      <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
@@ -12660,28 +12681,32 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>1060</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>1062</v>
       </c>
       <c r="D203" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E203:Z203),")")</f>
-        <v>(TOWSON|TOW)</v>
+        <v>(TOLEDO|TOL|UTo|UT)</v>
       </c>
       <c r="E203" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G203" s="0" t="s">
         <v>1063</v>
       </c>
-      <c r="F203" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
+      <c r="H203" s="3" t="s">
+        <v>1015</v>
+      </c>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
@@ -12701,29 +12726,28 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>1066</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>1067</v>
       </c>
       <c r="D204" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E204:Z204),")")</f>
-        <v>(TROY|TRO|TRY)</v>
+        <v>(TOWSON|TOW)</v>
       </c>
       <c r="E204" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F204" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="F204" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>1070</v>
-      </c>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
@@ -12743,28 +12767,29 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>1071</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>1072</v>
       </c>
       <c r="D205" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E205:Z205),")")</f>
-        <v>(TLN|TULANE)</v>
+        <v>(TROY|TRO|TRY)</v>
       </c>
       <c r="E205" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F205" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="F205" s="3" t="s">
+      <c r="G205" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
@@ -12789,14 +12814,14 @@
         <v>1075</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>1076</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="D206" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E206:Z206),")")</f>
-        <v>(TULSA|TLS|Tul|TUL)</v>
+        <v>(TLN|TULANE)</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>1077</v>
@@ -12804,12 +12829,8 @@
       <c r="F206" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="G206" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H206" s="3" t="s">
-        <v>1080</v>
-      </c>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
@@ -12831,24 +12852,30 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>956</v>
+        <v>1080</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1082</v>
+        <v>414</v>
       </c>
       <c r="D207" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E207:Z207),")")</f>
-        <v>(UAB)</v>
+        <v>(TULSA|TLS|Tul|TUL)</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
+      <c r="F207" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>1084</v>
+      </c>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
@@ -12870,24 +12897,22 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>198</v>
+        <v>956</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>387</v>
+        <v>1086</v>
       </c>
       <c r="D208" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E208:Z208),")")</f>
-        <v>(UC DAVIS|UCD)</v>
+        <v>(UAB)</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F208" s="3" t="s">
         <v>1085</v>
       </c>
+      <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
@@ -12911,22 +12936,24 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1087</v>
+        <v>198</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>36</v>
+        <v>387</v>
       </c>
       <c r="D209" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E209:Z209),")")</f>
-        <v>(UCF)</v>
+        <v>(UC DAVIS|UCD)</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F209" s="3"/>
+        <v>1088</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>1089</v>
+      </c>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
@@ -12950,24 +12977,22 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="D210" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E210:Z210),")")</f>
-        <v>(UCLA|UCL)</v>
+        <v>(UCF)</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F210" s="3" t="s">
         <v>1090</v>
       </c>
+      <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
@@ -12991,30 +13016,26 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1093</v>
+        <v>120</v>
       </c>
       <c r="D211" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E211:Z211),")")</f>
-        <v>(MASSACHUSETTS|UMASS|UMA|MAS)</v>
+        <v>(UCLA|UCL)</v>
       </c>
       <c r="E211" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F211" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="F211" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G211" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H211" s="3" t="s">
-        <v>1097</v>
-      </c>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
@@ -13034,30 +13055,32 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D212" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E212:Z212),")")</f>
-        <v>(LV|NLV|UNLV)</v>
+        <v>(MASSACHUSETTS|UMASS|UMA|MAS)</v>
       </c>
       <c r="E212" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H212" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="F212" s="0" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
@@ -13077,25 +13100,29 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>929</v>
+        <v>1102</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>454</v>
+        <v>1103</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>283</v>
+        <v>1104</v>
       </c>
       <c r="D213" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E213:Z213),")")</f>
-        <v>(USC)</v>
+        <v>(LV|NLV|UNLV)</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
+        <v>1105</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>1102</v>
+      </c>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
@@ -13118,27 +13145,23 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>1103</v>
+        <v>929</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1104</v>
+        <v>454</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1105</v>
+        <v>283</v>
       </c>
       <c r="D214" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E214:Z214),")")</f>
-        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
+        <v>(USC)</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G214" s="3" t="s">
-        <v>1108</v>
-      </c>
+        <v>929</v>
+      </c>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
@@ -13161,33 +13184,29 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>1109</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D215" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E215:Z215),")")</f>
-        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
+        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
       </c>
       <c r="E215" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F215" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="G215" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="G215" s="3" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H215" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="I215" s="3" t="s">
-        <v>1115</v>
-      </c>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
@@ -13208,29 +13227,33 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>327</v>
+        <v>1114</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1117</v>
+        <v>95</v>
       </c>
       <c r="D216" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E216:Z216),")")</f>
-        <v>(UTAH|UTA|UTE)</v>
+        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
       </c>
       <c r="E216" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H216" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="F216" s="3" t="s">
+      <c r="I216" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="G216" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
@@ -13249,32 +13272,31 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>1121</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D217" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E217:Z217),")")</f>
-        <v>(UTAH ST|UTAHST|USU|US)</v>
+        <v>(UTAH|UTA|UTE)</v>
       </c>
       <c r="E217" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F217" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="G217" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="G217" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="H217" s="3" t="s">
-        <v>1126</v>
-      </c>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
@@ -13293,19 +13315,19 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1007</v>
+        <v>1126</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D218" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E218:Z218),")")</f>
-        <v>(UTEP|TEP|UTE)</v>
+        <v>(UTAH ST|UTAHST|USU|US)</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>1127</v>
@@ -13314,10 +13336,11 @@
         <v>1128</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
+        <v>1129</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>1130</v>
+      </c>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
@@ -13336,19 +13359,19 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>36</v>
+        <v>1011</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1130</v>
+        <v>19</v>
       </c>
       <c r="D219" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E219:Z219),")")</f>
-        <v>(VANDERBILT|VANDY|VAN|VU)</v>
+        <v>(UTEP|TEP|UTE)</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>1131</v>
@@ -13357,11 +13380,10 @@
         <v>1132</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H219" s="3" t="s">
-        <v>1134</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
@@ -13380,29 +13402,32 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>658</v>
+        <v>36</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D220" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E220:Z220),")")</f>
-        <v>(VILLANOVA|VU)</v>
+        <v>(VANDERBILT|VANDY|VAN|VU)</v>
       </c>
       <c r="E220" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G220" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="F220" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
+      <c r="H220" s="3" t="s">
+        <v>1138</v>
+      </c>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
@@ -13423,27 +13448,25 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1139</v>
+        <v>658</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>1140</v>
       </c>
       <c r="D221" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E221:Z221),")")</f>
-        <v>(VIRGINIA|VA|UVA)</v>
+        <v>(VILLANOVA|VU)</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>1141</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>1143</v>
-      </c>
+        <v>1138</v>
+      </c>
+      <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
@@ -13466,33 +13489,29 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>1144</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>1146</v>
       </c>
       <c r="D222" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E222:Z222),")")</f>
-        <v>(VIRGINIA TECH|VATECH|VT|VaT|VAT)</v>
+        <v>(VIRGINIA|VA|UVA)</v>
       </c>
       <c r="E222" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G222" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="F222" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H222" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="I222" s="3" t="s">
-        <v>1151</v>
-      </c>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
@@ -13513,25 +13532,33 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>577</v>
+        <v>1150</v>
       </c>
       <c r="D223" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E223:Z223),")")</f>
-        <v>(VMI)</v>
+        <v>(VIRGINIA TECH|VATECH|VT|VaT|VAT)</v>
       </c>
       <c r="E223" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F223" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
+      <c r="G223" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>1155</v>
+      </c>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
@@ -13552,24 +13579,22 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1156</v>
+        <v>577</v>
       </c>
       <c r="D224" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E224:Z224),")")</f>
-        <v>(WAGNER|WAG)</v>
+        <v>(VMI)</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>1158</v>
-      </c>
+        <v>1156</v>
+      </c>
+      <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
@@ -13591,19 +13616,19 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="C225" s="2" t="s">
         <v>1160</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D225" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E225:Z225),")")</f>
-        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
+        <v>(WAGNER|WAG)</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>1161</v>
@@ -13611,12 +13636,8 @@
       <c r="F225" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="G225" s="0" t="s">
-        <v>1163</v>
-      </c>
-      <c r="H225" s="3" t="s">
-        <v>1164</v>
-      </c>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
@@ -13636,35 +13657,33 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1167</v>
+        <v>36</v>
       </c>
       <c r="D226" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E226:Z226),")")</f>
-        <v>(WASHINGTON|WASH|UW|WAS|U W)</v>
+        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
       </c>
       <c r="E226" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G226" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H226" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="F226" s="3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G226" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H226" s="3" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I226" s="3" t="s">
-        <v>1172</v>
-      </c>
+      <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
@@ -13685,31 +13704,33 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="D227" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E227:Z227),")")</f>
-        <v>(WASHINGTON ST|WSU|WASHST|COU)</v>
+        <v>(WASHINGTON|WASH|UW|WAS|U W)</v>
       </c>
       <c r="E227" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I227" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="F227" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G227" s="3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H227" s="3" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
@@ -13728,32 +13749,33 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D228" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E228:Z228),")")</f>
-        <v>(WEBER ST|WEBERST|WEBER|WSU)</v>
+        <v>(WASHINGTON ST|WSU|WASHST|COU)</v>
       </c>
       <c r="E228" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H228" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="F228" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G228" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H228" s="3" t="s">
-        <v>1177</v>
-      </c>
+      <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
@@ -13772,19 +13794,19 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>1186</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>957</v>
       </c>
       <c r="D229" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E229:Z229),")")</f>
-        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
+        <v>(WEBER ST|WEBERST|WEBER|WSU)</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>1187</v>
@@ -13796,9 +13818,8 @@
         <v>1189</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I229" s="3"/>
+        <v>1181</v>
+      </c>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
@@ -13819,29 +13840,29 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1192</v>
+        <v>198</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1193</v>
+        <v>957</v>
       </c>
       <c r="D230" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E230:Z230),")")</f>
-        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCU)</v>
+        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
       </c>
       <c r="E230" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H230" s="3" t="s">
         <v>1194</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H230" s="3" t="s">
-        <v>1197</v>
       </c>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
@@ -13864,26 +13885,30 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>54</v>
+        <v>1197</v>
       </c>
       <c r="D231" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E231:Z231),")")</f>
-        <v>(WESTRN ILLINOIS|WIU)</v>
+        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCU)</v>
       </c>
       <c r="E231" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G231" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="F231" s="3" t="s">
+      <c r="H231" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
@@ -13908,14 +13933,14 @@
         <v>1202</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>381</v>
+        <v>1203</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1203</v>
+        <v>54</v>
       </c>
       <c r="D232" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E232:Z232),")")</f>
-        <v>(WESTRN KENTUCKY|WKU|WESTERNKY)</v>
+        <v>(WESTRN ILLINOIS|WIU)</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>1204</v>
@@ -13923,9 +13948,7 @@
       <c r="F232" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="G232" s="3" t="s">
-        <v>1206</v>
-      </c>
+      <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
@@ -13948,30 +13971,28 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>1207</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>1209</v>
       </c>
       <c r="D233" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E233:Z233),")")</f>
-        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMI)</v>
+        <v>(WESTRN KENTUCKY|WKU|WESTERNKY)</v>
       </c>
       <c r="E233" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G233" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="F233" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H233" s="3" t="s">
-        <v>1213</v>
-      </c>
+      <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
@@ -13991,30 +14012,32 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="D234" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E234:Z234),")")</f>
-        <v>(MARY|WILLMMARY|WM)</v>
+        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMI)</v>
       </c>
       <c r="E234" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H234" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="F234" s="0" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>1219</v>
-      </c>
-      <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
@@ -14034,27 +14057,29 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>1220</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D235" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E235:Z235),")")</f>
-        <v>(WISCONSIN|WIS)</v>
+        <v>(MARY|WILLMMARY|WM)</v>
       </c>
       <c r="E235" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F235" s="0" t="s">
         <v>1222</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="G235" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
@@ -14087,7 +14112,7 @@
       </c>
       <c r="D236" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E236:Z236),")")</f>
-        <v>(WOFFORD|WOF)</v>
+        <v>(WISCONSIN|WIS)</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>1226</v>
@@ -14116,7 +14141,7 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>1228</v>
       </c>
@@ -14124,21 +14149,21 @@
         <v>1229</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1230</v>
+        <v>30</v>
       </c>
       <c r="D237" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E237:Z237),")")</f>
-        <v>(WYOMING|WYO|WY)</v>
+        <v>(WOFFORD|WOF)</v>
       </c>
       <c r="E237" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F237" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="F237" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G237" s="3" t="s">
-        <v>1233</v>
-      </c>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
@@ -14157,29 +14182,29 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>1234</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D238" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E238:Z238),")")</f>
-        <v>(YALE|YAL)</v>
+        <v>(WYOMING|WYO|WY)</v>
       </c>
       <c r="E238" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F238" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="G238" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
@@ -14203,14 +14228,14 @@
         <v>1238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>414</v>
+        <v>1239</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1239</v>
+        <v>30</v>
       </c>
       <c r="D239" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E239:Z239),")")</f>
-        <v>(YOUNGSTOWN ST|YSU)</v>
+        <v>(YALE|YAL)</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>1240</v>
@@ -14240,8 +14265,25 @@
       <c r="Z239" s="3"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
+      <c r="A240" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D240" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E240:Z240),")")</f>
+        <v>(YOUNGSTOWN ST|YSU)</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>1245</v>
+      </c>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
@@ -14383,16 +14425,39 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
+      <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3"/>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="P246" s="3"/>
+      <c r="Q246" s="3"/>
+      <c r="R246" s="3"/>
+      <c r="S246" s="3"/>
+      <c r="T246" s="3"/>
+      <c r="U246" s="3"/>
+      <c r="V246" s="3"/>
+      <c r="W246" s="3"/>
+      <c r="X246" s="3"/>
+      <c r="Y246" s="3"/>
+      <c r="Z246" s="3"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J123:Z123 E123:H123 E124:Z125 E2:Z2 E58:Z58 H56:Z57 E56:F56 E57:G57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z75 I74:Z74 F74:G74 E78:Z89 E76:G76 I76:Z76 E95:Z98 H94:Z94 E93:F94 E101:Z103 E100:G100 I100:Z100 E106:Z106 H105:Z105 E105:F105 H108:Z108 E108 E109:Z113 E117:Z122 E115:H115 J114:Z115 E116:G116 I116:Z116 E128:Z130 H127:Z127 E127:F127 E133:Z144 E131:F131 H131:Z131 F148:Z160 E145:I145 L145:Z145 E165:Z166 E164:G164 I164:Z164 E168:Z170 I167:Z167 E167:G167 E172:Z182 E171:J171 N171:Z171 E184:Z186 J183:Z183 E183:H183 E189:Z191 E187:H187 K187:Z187 E194:Z195 I192:Z192 E192:G193 I193:Z193 E198:Z198 I196:Z196 E196:G196 E197:H197 J197:Z197 E200:Z200 E199:I199 K199:Z199 E205:Z211 E204:G204 I204:Z204 E3:H3 J3:Z3 E114:G115 I114 E4:Z9 E10:F10 H10:Z10 E41:Z47 E40:F40 H40:Z40 E91:Z92 E90:F90 H90:Z90 E24:Z35 E23 G23:Z23 E146:E160 E162:Z162 G161:Z161 E161 F104:Z104 E203:Z203 E201:F202 H202:Z202 E126 G126:Z126 F68:Z69 F67:G67 I67:Z67 E50:Z55 E48 G48:Z48 M99:Z99 E99:F100 I99:K99 G99 E77 G77:Z77 F188:Z188 E107 G107:Z107 K146:Z146 H146:I147 F146:F147 E132:I132 K132:Z132 F49:Z49 E37:Z39 E36 G36:Z36 H201:Z201 J147:Z147 E63:G63 I63:Z63 J93:Z93 G93:H93 E11:Z22 E163 G163:Z163">
+  <conditionalFormatting sqref="J123:Z123 E123:H123 E124:Z125 E2:Z2 E58:Z58 H56:Z57 E56:F56 E57:G57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z75 I74:Z74 F74:G74 E78:Z89 E76:G76 I76:Z76 E95:Z98 H94:Z94 E93:F94 E101:Z103 E100:G100 I100:Z100 E106:Z106 H105:Z105 E105:F105 H108:Z108 E108 E109:Z113 E117:Z122 E115:H115 J114:Z115 E116:G116 I116:Z116 E128:Z130 H127:Z127 E127:F127 E133:Z144 E131:F131 H131:Z131 F148:Z160 E145:I145 L145:Z145 E165:Z166 E164:G164 I164:Z164 E168:Z170 I167:Z167 E167:G167 E172:Z182 E171:J171 N171:Z171 E184:Z187 J183:Z183 E183:H183 E190:Z192 E188:H188 K188:Z188 E195:Z196 I193:Z193 E193:G194 I194:Z194 E199:Z199 I197:Z197 E197:G197 E198:H198 J198:Z198 E201:Z201 E200:I200 K200:Z200 E206:Z212 E205:G205 I205:Z205 E3:H3 J3:Z3 E114:G115 I114 E4:Z9 E10:F10 H10:Z10 E41:Z47 E40:F40 H40:Z40 E91:Z92 E90:F90 H90:Z90 E24:Z35 E23 G23:Z23 E146:E160 E162:Z162 G161:Z161 E161 F104:Z104 E204:Z204 E202:F203 H203:Z203 E126 G126:Z126 F68:Z69 F67:G67 I67:Z67 E50:Z55 E48 G48:Z48 M99:Z99 E99:F100 I99:K99 G99 E77 G77:Z77 F189:Z189 E107 G107:Z107 K146:Z146 H146:I147 F146:F147 E132:I132 K132:Z132 F49:Z49 E37:Z39 E36 G36:Z36 H202:Z202 J147:Z147 E63:G63 I63:Z63 J93:Z93 G93:H93 E11:Z22 E163 G163:Z163">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E213:Z216 E218:Z218 E217:H217 J217:Z217 E220:Z224 E219:H219 J219:Z219 E229:Z233 E228:H228 J228:Z228 E238:Z245 J237:Z237 E237:G237 E226:Z227 E225:F225 H225:Z225 G212:Z212 E212 E235:Z236 E234 G234:Z234">
+  <conditionalFormatting sqref="E214:Z217 E219:Z219 E218:H218 J218:Z218 E221:Z225 E220:H220 J220:Z220 E230:Z234 E229:H229 J229:Z229 E239:Z246 J238:Z238 E238:G238 E227:Z228 E226:F226 H226:Z226 G213:Z213 E213 E236:Z237 E235 G235:Z235">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/school_colors/school_colors.xlsx
+++ b/school_colors/school_colors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1251">
   <si>
     <t xml:space="preserve">School</t>
   </si>
@@ -3029,6 +3029,21 @@
   </si>
   <si>
     <t xml:space="preserve">SYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarleton State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5A2B81 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FFFFFF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TARLETON ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trlst</t>
   </si>
   <si>
     <t xml:space="preserve">TCU</t>
@@ -3874,12 +3889,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3991,13 +4006,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z247"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F187" activeCellId="0" sqref="F187"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F192" activeCellId="0" sqref="F192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.71"/>
@@ -12005,20 +12020,20 @@
       <c r="Z186" s="3"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="5" t="s">
         <v>981</v>
       </c>
       <c r="D187" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E187:Z187),")")</f>
         <v>(SFrPA)</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="E187" s="4" t="s">
         <v>982</v>
       </c>
       <c r="F187" s="3"/>
@@ -12211,24 +12226,26 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>1003</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="5" t="s">
         <v>1005</v>
       </c>
       <c r="D192" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E192:Z192),")")</f>
-        <v>(TCU)</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F192" s="3"/>
+        <v>(TARLETON ST|trlst)</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>1007</v>
+      </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -12250,29 +12267,26 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>73</v>
+        <v>1009</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>464</v>
+        <v>1010</v>
       </c>
       <c r="D193" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E193:Z193),")")</f>
-        <v>(TEMPLE|TEM|TU)</v>
+        <v>(TCU)</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F193" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="G193" s="3" t="s">
-        <v>1009</v>
-      </c>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
@@ -12294,26 +12308,26 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1011</v>
+        <v>73</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1012</v>
+        <v>464</v>
       </c>
       <c r="D194" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E194:Z194),")")</f>
-        <v>(TENNESSEE|TEN|UT)</v>
+        <v>(TEMPLE|TEM|TU)</v>
       </c>
       <c r="E194" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F194" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="F194" s="3" t="s">
+      <c r="G194" s="3" t="s">
         <v>1014</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>1015</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
@@ -12334,28 +12348,29 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="C195" s="2" t="s">
-        <v>30</v>
+        <v>1017</v>
       </c>
       <c r="D195" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E195:Z195),")")</f>
-        <v>(TENNESSEE ST|TSU)</v>
+        <v>(TENNESSEE|TEN|UT)</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
+        <v>1019</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>1020</v>
+      </c>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
@@ -12377,17 +12392,17 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1020</v>
+        <v>256</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1021</v>
+        <v>30</v>
       </c>
       <c r="D196" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E196:Z196),")")</f>
-        <v>(TENNESSEE TECH|TTU)</v>
+        <v>(TENNESSEE ST|TSU)</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>1022</v>
@@ -12416,7 +12431,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>1024</v>
       </c>
@@ -12428,7 +12443,7 @@
       </c>
       <c r="D197" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E197:Z197),")")</f>
-        <v>(TEXAS|TEX|UT)</v>
+        <v>(TENNESSEE TECH|TTU)</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>1027</v>
@@ -12436,9 +12451,8 @@
       <c r="F197" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="G197" s="3" t="s">
-        <v>1015</v>
-      </c>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
@@ -12466,24 +12480,22 @@
         <v>1030</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>30</v>
+        <v>1031</v>
       </c>
       <c r="D198" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E198:Z198),")")</f>
-        <v>(TEXAS A&amp;M|TEXASAM|TAMU|TAM)</v>
+        <v>(TEXAS|TEX|UT)</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H198" s="3" t="s">
-        <v>1034</v>
-      </c>
+        <v>1020</v>
+      </c>
+      <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
@@ -12502,31 +12514,32 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>1036</v>
-      </c>
       <c r="C199" s="2" t="s">
-        <v>1037</v>
+        <v>30</v>
       </c>
       <c r="D199" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E199:Z199),")")</f>
-        <v>(TEXAS SOUTHERN|TSU|TXSOFB)</v>
+        <v>(TEXAS A&amp;M|TEXASAM|TAMU|TAM)</v>
       </c>
       <c r="E199" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G199" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="F199" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G199" s="3" t="s">
+      <c r="H199" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
@@ -12545,7 +12558,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>1040</v>
       </c>
@@ -12557,23 +12570,20 @@
       </c>
       <c r="D200" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E200:Z200),")")</f>
-        <v>(TEXAS STATE|TEXSTATE|TSU|TXST|TXS)</v>
+        <v>(TEXAS SOUTHERN|TSU|TXSOFB)</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>1043</v>
       </c>
       <c r="F200" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G200" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="G200" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>1046</v>
-      </c>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
@@ -12591,28 +12601,28 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D201" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E201:Z201),")")</f>
-        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
+        <v>(TEXAS STATE|TEXSTATE|TSU|TXST|TXS)</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="F201" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G201" s="3" t="s">
         <v>1023</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>1049</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>1050</v>
@@ -12620,7 +12630,6 @@
       <c r="I201" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
@@ -12638,31 +12647,35 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>1052</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1053</v>
+        <v>327</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>1054</v>
+        <v>36</v>
       </c>
       <c r="D202" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E202:Z202),")")</f>
-        <v>(CIT|THE CITADEL|THECITADEL)</v>
+        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
       </c>
       <c r="E202" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H202" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="F202" s="3" t="s">
+      <c r="I202" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="G202" s="0" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
@@ -12683,30 +12696,28 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>1059</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>1060</v>
       </c>
       <c r="D203" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E203:Z203),")")</f>
-        <v>(TOLEDO|TOL|UTo|UT)</v>
+        <v>(CIT|THE CITADEL|THECITADEL)</v>
       </c>
       <c r="E203" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F203" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="F203" s="3" t="s">
+      <c r="G203" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="G203" s="0" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H203" s="3" t="s">
-        <v>1015</v>
-      </c>
+      <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
@@ -12726,28 +12737,32 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>1066</v>
       </c>
       <c r="D204" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E204:Z204),")")</f>
-        <v>(TOWSON|TOW)</v>
+        <v>(TOLEDO|TOL|UTo|UT)</v>
       </c>
       <c r="E204" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F204" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="F204" s="3" t="s">
+      <c r="G204" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
+      <c r="H204" s="3" t="s">
+        <v>1020</v>
+      </c>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
@@ -12767,7 +12782,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>1069</v>
       </c>
@@ -12779,7 +12794,7 @@
       </c>
       <c r="D205" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E205:Z205),")")</f>
-        <v>(TROY|TRO|TRY)</v>
+        <v>(TOWSON|TOW)</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>1072</v>
@@ -12787,9 +12802,8 @@
       <c r="F205" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="G205" s="3" t="s">
-        <v>1074</v>
-      </c>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
@@ -12809,19 +12823,19 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>1075</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>946</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>1076</v>
       </c>
       <c r="D206" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E206:Z206),")")</f>
-        <v>(TLN|TULANE)</v>
+        <v>(TROY|TRO|TRY)</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>1077</v>
@@ -12829,8 +12843,9 @@
       <c r="F206" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
+      <c r="G206" s="3" t="s">
+        <v>1079</v>
+      </c>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
@@ -12852,30 +12867,26 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1080</v>
+        <v>946</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>414</v>
+        <v>1081</v>
       </c>
       <c r="D207" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E207:Z207),")")</f>
-        <v>(TULSA|TLS|Tul|TUL)</v>
+        <v>(TLN|TULANE)</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G207" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H207" s="3" t="s">
-        <v>1084</v>
-      </c>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
@@ -12897,24 +12908,30 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>956</v>
-      </c>
       <c r="C208" s="2" t="s">
-        <v>1086</v>
+        <v>414</v>
       </c>
       <c r="D208" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E208:Z208),")")</f>
-        <v>(UAB)</v>
+        <v>(TULSA|TLS|Tul|TUL)</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
+        <v>1086</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>1089</v>
+      </c>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
@@ -12936,24 +12953,22 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>198</v>
+        <v>956</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>387</v>
+        <v>1091</v>
       </c>
       <c r="D209" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E209:Z209),")")</f>
-        <v>(UC DAVIS|UCD)</v>
+        <v>(UAB)</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>1089</v>
-      </c>
+        <v>1090</v>
+      </c>
+      <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
@@ -12977,22 +12992,24 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1091</v>
+        <v>198</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>36</v>
+        <v>387</v>
       </c>
       <c r="D210" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E210:Z210),")")</f>
-        <v>(UCF)</v>
+        <v>(UC DAVIS|UCD)</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F210" s="3"/>
+        <v>1093</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>1094</v>
+      </c>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
@@ -13016,24 +13033,22 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="D211" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E211:Z211),")")</f>
-        <v>(UCLA|UCL)</v>
+        <v>(UCF)</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>1094</v>
-      </c>
+        <v>1095</v>
+      </c>
+      <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
@@ -13057,30 +13072,26 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1097</v>
+        <v>120</v>
       </c>
       <c r="D212" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E212:Z212),")")</f>
-        <v>(MASSACHUSETTS|UMASS|UMA|MAS)</v>
+        <v>(UCLA|UCL)</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="G212" s="3" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H212" s="3" t="s">
-        <v>1101</v>
-      </c>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
@@ -13100,30 +13111,32 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>1102</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>1104</v>
       </c>
       <c r="D213" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E213:Z213),")")</f>
-        <v>(LV|NLV|UNLV)</v>
+        <v>(MASSACHUSETTS|UMASS|UMA|MAS)</v>
       </c>
       <c r="E213" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G213" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="F213" s="0" t="s">
+      <c r="H213" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="G213" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
@@ -13143,25 +13156,29 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>929</v>
+        <v>1107</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>454</v>
+        <v>1108</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>283</v>
+        <v>1109</v>
       </c>
       <c r="D214" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E214:Z214),")")</f>
-        <v>(USC)</v>
+        <v>(LV|NLV|UNLV)</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
+        <v>1110</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>1107</v>
+      </c>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
@@ -13184,27 +13201,23 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>1107</v>
+        <v>929</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1108</v>
+        <v>454</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1109</v>
+        <v>283</v>
       </c>
       <c r="D215" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E215:Z215),")")</f>
-        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
+        <v>(USC)</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G215" s="3" t="s">
-        <v>1112</v>
-      </c>
+        <v>929</v>
+      </c>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
@@ -13227,17 +13240,17 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="C216" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D216" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E216:Z216),")")</f>
-        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
+        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>1115</v>
@@ -13248,12 +13261,8 @@
       <c r="G216" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="H216" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I216" s="3" t="s">
-        <v>1119</v>
-      </c>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
@@ -13274,29 +13283,33 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>327</v>
+        <v>1119</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1121</v>
+        <v>95</v>
       </c>
       <c r="D217" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E217:Z217),")")</f>
-        <v>(UTAH|UTA|UTE)</v>
+        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
       </c>
       <c r="E217" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G217" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="H217" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="G217" s="3" t="s">
+      <c r="I217" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
@@ -13315,19 +13328,19 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>1125</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>1126</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D218" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E218:Z218),")")</f>
-        <v>(UTAH ST|UTAHST|USU|US)</v>
+        <v>(UTAH|UTA|UTE)</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>1127</v>
@@ -13338,9 +13351,8 @@
       <c r="G218" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="H218" s="3" t="s">
-        <v>1130</v>
-      </c>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
@@ -13359,31 +13371,32 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>1011</v>
-      </c>
       <c r="C219" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D219" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E219:Z219),")")</f>
-        <v>(UTEP|TEP|UTE)</v>
+        <v>(UTAH ST|UTAHST|USU|US)</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
+        <v>1134</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>1135</v>
+      </c>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
@@ -13402,32 +13415,31 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>36</v>
+        <v>1016</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1134</v>
+        <v>19</v>
       </c>
       <c r="D220" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E220:Z220),")")</f>
-        <v>(VANDERBILT|VANDY|VAN|VU)</v>
+        <v>(UTEP|TEP|UTE)</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H220" s="3" t="s">
-        <v>1138</v>
-      </c>
+        <v>1129</v>
+      </c>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
@@ -13446,29 +13458,32 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>1139</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>1140</v>
       </c>
       <c r="D221" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E221:Z221),")")</f>
-        <v>(VILLANOVA|VU)</v>
+        <v>(VANDERBILT|VANDY|VAN|VU)</v>
       </c>
       <c r="E221" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F221" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="F221" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
+      <c r="G221" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>1143</v>
+      </c>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
@@ -13489,27 +13504,25 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1143</v>
+        <v>658</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D222" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E222:Z222),")")</f>
-        <v>(VIRGINIA|VA|UVA)</v>
+        <v>(VILLANOVA|VU)</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>1147</v>
-      </c>
+        <v>1143</v>
+      </c>
+      <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
@@ -13532,33 +13545,29 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>1149</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>1150</v>
       </c>
       <c r="D223" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E223:Z223),")")</f>
-        <v>(VIRGINIA TECH|VATECH|VT|VaT|VAT)</v>
+        <v>(VIRGINIA|VA|UVA)</v>
       </c>
       <c r="E223" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F223" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="F223" s="3" t="s">
+      <c r="G223" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="G223" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H223" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I223" s="3" t="s">
-        <v>1155</v>
-      </c>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
@@ -13579,25 +13588,33 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>577</v>
+        <v>1155</v>
       </c>
       <c r="D224" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E224:Z224),")")</f>
-        <v>(VMI)</v>
+        <v>(VIRGINIA TECH|VATECH|VT|VaT|VAT)</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
-      <c r="I224" s="3"/>
+      <c r="F224" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>1160</v>
+      </c>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
@@ -13618,24 +13635,22 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1160</v>
+        <v>577</v>
       </c>
       <c r="D225" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E225:Z225),")")</f>
-        <v>(WAGNER|WAG)</v>
+        <v>(VMI)</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="F225" s="3" t="s">
-        <v>1162</v>
-      </c>
+      <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
@@ -13657,7 +13672,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>1163</v>
       </c>
@@ -13665,24 +13680,20 @@
         <v>1164</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>36</v>
+        <v>1165</v>
       </c>
       <c r="D226" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E226:Z226),")")</f>
-        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
+        <v>(WAGNER|WAG)</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G226" s="0" t="s">
         <v>1167</v>
       </c>
-      <c r="H226" s="3" t="s">
-        <v>1168</v>
-      </c>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
@@ -13702,35 +13713,33 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>1170</v>
-      </c>
       <c r="C227" s="2" t="s">
-        <v>1171</v>
+        <v>36</v>
       </c>
       <c r="D227" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E227:Z227),")")</f>
-        <v>(WASHINGTON|WASH|UW|WAS|U W)</v>
+        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
       </c>
       <c r="E227" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G227" s="0" t="s">
         <v>1172</v>
       </c>
-      <c r="F227" s="3" t="s">
+      <c r="H227" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="G227" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H227" s="3" t="s">
-        <v>1175</v>
-      </c>
-      <c r="I227" s="3" t="s">
-        <v>1176</v>
-      </c>
+      <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
@@ -13751,31 +13760,33 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D228" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E228:Z228),")")</f>
-        <v>(WASHINGTON ST|WSU|WASHST|COU)</v>
+        <v>(WASHINGTON|WASH|UW|WAS|U W)</v>
       </c>
       <c r="E228" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H228" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="F228" s="3" t="s">
+      <c r="I228" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="G228" s="3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H228" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
@@ -13794,32 +13805,33 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>1184</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>1186</v>
       </c>
       <c r="D229" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E229:Z229),")")</f>
-        <v>(WEBER ST|WEBERST|WEBER|WSU)</v>
+        <v>(WASHINGTON ST|WSU|WASHST|COU)</v>
       </c>
       <c r="E229" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G229" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="F229" s="3" t="s">
+      <c r="H229" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="G229" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H229" s="3" t="s">
-        <v>1181</v>
-      </c>
+      <c r="I229" s="3"/>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
@@ -13838,33 +13850,32 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C230" s="2" t="s">
-        <v>957</v>
+        <v>1191</v>
       </c>
       <c r="D230" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E230:Z230),")")</f>
-        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
+        <v>(WEBER ST|WEBERST|WEBER|WSU)</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I230" s="3"/>
+        <v>1186</v>
+      </c>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
@@ -13888,26 +13899,26 @@
         <v>1195</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1196</v>
+        <v>198</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>1197</v>
+        <v>957</v>
       </c>
       <c r="D231" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E231:Z231),")")</f>
-        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCU)</v>
+        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
       </c>
       <c r="E231" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G231" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="F231" s="3" t="s">
+      <c r="H231" s="3" t="s">
         <v>1199</v>
-      </c>
-      <c r="G231" s="3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H231" s="3" t="s">
-        <v>1201</v>
       </c>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
@@ -13930,26 +13941,30 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>1202</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D232" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E232:Z232),")")</f>
-        <v>(WESTRN ILLINOIS|WIU)</v>
+        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCU)</v>
       </c>
       <c r="E232" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="G232" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
+      <c r="H232" s="3" t="s">
+        <v>1206</v>
+      </c>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
@@ -13971,27 +13986,25 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>381</v>
+        <v>1208</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1207</v>
+        <v>54</v>
       </c>
       <c r="D233" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E233:Z233),")")</f>
-        <v>(WESTRN KENTUCKY|WKU|WESTERNKY)</v>
+        <v>(WESTRN ILLINOIS|WIU)</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G233" s="3" t="s">
         <v>1210</v>
       </c>
+      <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
@@ -14017,27 +14030,25 @@
         <v>1211</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>1212</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>1213</v>
       </c>
       <c r="D234" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E234:Z234),")")</f>
-        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMI)</v>
+        <v>(WESTRN KENTUCKY|WKU|WESTERNKY)</v>
       </c>
       <c r="E234" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F234" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="G234" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="G234" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H234" s="3" t="s">
-        <v>1217</v>
-      </c>
+      <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
@@ -14057,30 +14068,32 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>1218</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>1220</v>
       </c>
       <c r="D235" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E235:Z235),")")</f>
-        <v>(MARY|WILLMMARY|WM)</v>
+        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMI)</v>
       </c>
       <c r="E235" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G235" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="F235" s="0" t="s">
+      <c r="H235" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="G235" s="3" t="s">
-        <v>1223</v>
-      </c>
-      <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
@@ -14100,27 +14113,29 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>1225</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D236" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E236:Z236),")")</f>
-        <v>(WISCONSIN|WIS)</v>
+        <v>(MARY|WILLMMARY|WM)</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="F236" s="3" t="s">
+      <c r="F236" s="0" t="s">
         <v>1227</v>
       </c>
-      <c r="G236" s="3"/>
+      <c r="G236" s="3" t="s">
+        <v>1228</v>
+      </c>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
@@ -14143,23 +14158,23 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D237" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E237:Z237),")")</f>
-        <v>(WOFFORD|WOF)</v>
+        <v>(WISCONSIN|WIS)</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
@@ -14182,19 +14197,19 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1234</v>
+        <v>30</v>
       </c>
       <c r="D238" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E238:Z238),")")</f>
-        <v>(WYOMING|WYO|WY)</v>
+        <v>(WOFFORD|WOF)</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>1235</v>
@@ -14202,9 +14217,9 @@
       <c r="F238" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="G238" s="3" t="s">
-        <v>1237</v>
-      </c>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
@@ -14223,19 +14238,19 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>1239</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D239" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E239:Z239),")")</f>
-        <v>(YALE|YAL)</v>
+        <v>(WYOMING|WYO|WY)</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>1240</v>
@@ -14243,9 +14258,9 @@
       <c r="F239" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
+      <c r="G239" s="3" t="s">
+        <v>1242</v>
+      </c>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
@@ -14266,23 +14281,23 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>414</v>
+        <v>1244</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1243</v>
+        <v>30</v>
       </c>
       <c r="D240" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E240:Z240),")")</f>
-        <v>(YOUNGSTOWN ST|YSU)</v>
+        <v>(YALE|YAL)</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
@@ -14306,8 +14321,25 @@
       <c r="Z240" s="3"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
+      <c r="A241" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D241" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E241:Z241),")")</f>
+        <v>(YOUNGSTOWN ST|YSU)</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>1250</v>
+      </c>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
@@ -14449,15 +14481,38 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3"/>
+      <c r="Q247" s="3"/>
+      <c r="R247" s="3"/>
+      <c r="S247" s="3"/>
+      <c r="T247" s="3"/>
+      <c r="U247" s="3"/>
+      <c r="V247" s="3"/>
+      <c r="W247" s="3"/>
+      <c r="X247" s="3"/>
+      <c r="Y247" s="3"/>
+      <c r="Z247" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A193:A1048576 A1:A191">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J123:Z123 E123:H123 E124:Z125 E2:Z2 E58:Z58 H56:Z57 E56:F56 E57:G57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z75 I74:Z74 F74:G74 E78:Z89 E76:G76 I76:Z76 E95:Z98 H94:Z94 E93:F94 E101:Z103 E100:G100 I100:Z100 E106:Z106 H105:Z105 E105:F105 H108:Z108 E108 E109:Z113 E117:Z122 E115:H115 J114:Z115 E116:G116 I116:Z116 E128:Z130 H127:Z127 E127:F127 E133:Z144 E131:F131 H131:Z131 F148:Z160 E145:I145 L145:Z145 E165:Z166 E164:G164 I164:Z164 E168:Z170 I167:Z167 E167:G167 E172:Z182 E171:J171 N171:Z171 E184:Z187 J183:Z183 E183:H183 E190:Z192 E188:H188 K188:Z188 E195:Z196 I193:Z193 E193:G194 I194:Z194 E199:Z199 I197:Z197 E197:G197 E198:H198 J198:Z198 E201:Z201 E200:I200 K200:Z200 E206:Z212 E205:G205 I205:Z205 E3:H3 J3:Z3 E114:G115 I114 E4:Z9 E10:F10 H10:Z10 E41:Z47 E40:F40 H40:Z40 E91:Z92 E90:F90 H90:Z90 E24:Z35 E23 G23:Z23 E146:E160 E162:Z162 G161:Z161 E161 F104:Z104 E204:Z204 E202:F203 H203:Z203 E126 G126:Z126 F68:Z69 F67:G67 I67:Z67 E50:Z55 E48 G48:Z48 M99:Z99 E99:F100 I99:K99 G99 E77 G77:Z77 F189:Z189 E107 G107:Z107 K146:Z146 H146:I147 F146:F147 E132:I132 K132:Z132 F49:Z49 E37:Z39 E36 G36:Z36 H202:Z202 J147:Z147 E63:G63 I63:Z63 J93:Z93 G93:H93 E11:Z22 E163 G163:Z163">
+  <conditionalFormatting sqref="J123:Z123 E123:H123 E124:Z125 E2:Z2 E58:Z58 H56:Z57 E56:F56 E57:G57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z75 I74:Z74 F74:G74 E78:Z89 E76:G76 I76:Z76 E95:Z98 H94:Z94 E93:F94 E101:Z103 E100:G100 I100:Z100 E106:Z106 H105:Z105 E105:F105 H108:Z108 E108 E109:Z113 E117:Z122 E115:H115 J114:Z115 E116:G116 I116:Z116 E128:Z130 H127:Z127 E127:F127 E133:Z144 E131:F131 H131:Z131 F148:Z160 E145:I145 L145:Z145 E165:Z166 E164:G164 I164:Z164 E168:Z170 I167:Z167 E167:G167 E172:Z182 E171:J171 N171:Z171 E184:Z187 J183:Z183 E183:H183 E188:H188 K188:Z188 E196:Z197 I194:Z194 E194:G195 I195:Z195 E200:Z200 I198:Z198 E198:G198 E199:H199 J199:Z199 E202:Z202 E201:I201 K201:Z201 E207:Z213 E206:G206 I206:Z206 E3:H3 J3:Z3 E114:G115 I114 E4:Z9 E10:F10 H10:Z10 E41:Z47 E40:F40 H40:Z40 E91:Z92 E90:F90 H90:Z90 E24:Z35 E23 G23:Z23 E146:E160 E162:Z162 G161:Z161 E161 F104:Z104 E205:Z205 E203:F204 H204:Z204 E126 G126:Z126 F68:Z69 F67:G67 I67:Z67 E50:Z55 E48 G48:Z48 M99:Z99 E99:F100 I99:K99 G99 E77 G77:Z77 F189:Z189 E107 G107:Z107 K146:Z146 H146:I147 F146:F147 E132:I132 K132:Z132 F49:Z49 E37:Z39 E36 G36:Z36 H203:Z203 J147:Z147 E63:G63 I63:Z63 J93:Z93 G93:H93 E11:Z22 E163 G163:Z163 E190:Z193">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E214:Z217 E219:Z219 E218:H218 J218:Z218 E221:Z225 E220:H220 J220:Z220 E230:Z234 E229:H229 J229:Z229 E239:Z246 J238:Z238 E238:G238 E227:Z228 E226:F226 H226:Z226 G213:Z213 E213 E236:Z237 E235 G235:Z235">
+  <conditionalFormatting sqref="E215:Z218 E220:Z220 E219:H219 J219:Z219 E222:Z226 E221:H221 J221:Z221 E231:Z235 E230:H230 J230:Z230 E240:Z247 J239:Z239 E239:G239 E228:Z229 E227:F227 H227:Z227 G214:Z214 E214 E237:Z238 E236 G236:Z236">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/school_colors/school_colors.xlsx
+++ b/school_colors/school_colors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="1257">
   <si>
     <t xml:space="preserve">School</t>
   </si>
@@ -103,6 +103,9 @@
     <t xml:space="preserve">ALABAMA</t>
   </si>
   <si>
+    <t xml:space="preserve">Alab</t>
+  </si>
+  <si>
     <t xml:space="preserve">UA</t>
   </si>
   <si>
@@ -1292,6 +1295,21 @@
   </si>
   <si>
     <t xml:space="preserve">HOUSTON BAPTIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#003896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FC4C02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HstnB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCU</t>
   </si>
   <si>
     <t xml:space="preserve">Howard</t>
@@ -3817,13 +3835,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3889,12 +3907,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4006,13 +4024,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z247"/>
+  <dimension ref="A1:Z248"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F192" activeCellId="0" sqref="F192"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.71"/>
@@ -4170,7 +4188,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>23</v>
       </c>
@@ -4182,15 +4200,17 @@
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E5:Z5),")")</f>
-        <v>(ALABAMA|UA)</v>
+        <v>(ALABAMA|Alab|UA)</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4213,26 +4233,26 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E6:Z6),")")</f>
         <v>(AAMU|ALABAMA A&amp;M|AAM)</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4256,23 +4276,23 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E7:Z7),")")</f>
         <v>(ALST|ALABAMA ST)</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -4297,26 +4317,26 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E8:Z8),")")</f>
         <v>(ALBANY|ALB|UALBANY)</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -4340,29 +4360,29 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E9:Z9),")")</f>
         <v>(ALCORN ST|ALCN|ALCORNST|ALC)</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -4385,29 +4405,29 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E10:Z10),")")</f>
         <v>(APPALACHIAN ST|APPALCHAN|APP STATE|APP)</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4430,29 +4450,29 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E11:Z11),")")</f>
         <v>(ARIZONA|ARIZ|ARI|ARZ)</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4475,26 +4495,26 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E12:Z12),")")</f>
         <v>(ARIZONA ST|ARIZONAST|ASU)</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -4518,29 +4538,29 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E13:Z13),")")</f>
         <v>(ARKANSAS|ARK|Ark|AR)</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4563,32 +4583,32 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E14:Z14),")")</f>
         <v>(ARKANSAS ST|ARKST|ASU|ARST|A-ST)</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4610,23 +4630,23 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E15:Z15),")")</f>
         <v>(UAPB|ARK PINE BLUFF)</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -4651,26 +4671,26 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E16:Z16),")")</f>
         <v>(ARMY|ARM|AWP)</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -4694,26 +4714,26 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E17:Z17),")")</f>
         <v>(AUBURN|AUB|AU)</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -4737,26 +4757,26 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E18:Z18),")")</f>
         <v>(AUSTINPEAY|APSU|APS)</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -4780,29 +4800,29 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E19:Z19),")")</f>
         <v>(BALL ST|BALLST|BALL|BSU)</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -4825,29 +4845,29 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E20:Z20),")")</f>
         <v>(BAYLOR|BU|BAY|Baylor)</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -4870,26 +4890,26 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E21:Z21),")")</f>
         <v>(BCU|BETHUNE COOKMAN|BETHCOOK)</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -4913,32 +4933,32 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E22:Z22),")")</f>
         <v>(BOISE ST|BOISEST|BSU|BOISE|BS)</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -4960,35 +4980,35 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E23:Z23),")")</f>
         <v>(BOSTON COLLEGE|BOSTONCOLL|BOSTCOLL|BOS|BC|BC\.)</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -5009,35 +5029,35 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E24:Z24),")")</f>
         <v>(BOWLING GREEN|BOWLGREEN|BOW|BGSU|BGS|BG)</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -5058,23 +5078,23 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E25:Z25),")")</f>
         <v>(BRYANT|BRY)</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -5099,20 +5119,20 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E26:Z26),")")</f>
         <v>(BUCKNELL)</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -5138,26 +5158,26 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E27:Z27),")")</f>
         <v>(BUFFALO|UB|BUF)</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -5181,20 +5201,20 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E28:Z28),")")</f>
         <v>(BYU)</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -5220,23 +5240,23 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E29:Z29),")")</f>
         <v>(CAL POLY|CP)</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -5261,26 +5281,26 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E30:Z30),")")</f>
         <v>(CALIFORNIA|CAL|Cal)</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -5304,23 +5324,23 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E31:Z31),")")</f>
         <v>(CAMPBELL|CAM)</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -5345,26 +5365,26 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E32:Z32),")")</f>
         <v>(CENTRAL ARK|UCA|CENTRALARK)</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -5388,23 +5408,23 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E33:Z33),")")</f>
         <v>(CCSU|CENTRAL CONN)</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -5429,26 +5449,26 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E34:Z34),")")</f>
         <v>(CENTMICH|CENTRAL MICH|CMU)</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -5472,29 +5492,29 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E35:Z35),")")</f>
         <v>(CHARLESTON SOU|CHASOTHERN|CSU|CHSO)</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -5517,29 +5537,29 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E36:Z36),")")</f>
         <v>(CHARLOTTE|CHAR|CHA|CLT)</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -5562,29 +5582,29 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E37:Z37),")")</f>
         <v>(CHATTANOOGA|CHATTANOOG|CHA|UTC)</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -5607,23 +5627,23 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E38:Z38),")")</f>
         <v>(CINCINNATI|CIN)</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -5648,26 +5668,26 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E39:Z39),")")</f>
         <v>(CLEMSON|CU|CLE)</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -5691,29 +5711,29 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E40:Z40),")")</f>
         <v>(CCU|COASTL CAROLINA|COASTALCAR|COASTAL)</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -5736,20 +5756,20 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E41:Z41),")")</f>
         <v>(COLGATE)</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -5775,29 +5795,29 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E42:Z42),")")</f>
         <v>(COLORADO|COLO|COL|CU)</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -5820,29 +5840,29 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E43:Z43),")")</f>
         <v>(COLORADO ST|COLOST|CSU|CS)</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -5865,29 +5885,29 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E44:Z44),")")</f>
         <v>(CONNECTICUT|UCONN|CON|UCO)</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -5910,23 +5930,23 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E45:Z45),")")</f>
         <v>(DELAWARE|DEL)</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -5951,23 +5971,23 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E46:Z46),")")</f>
         <v>(DELAWARE ST|DSU)</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -5992,23 +6012,23 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E47:Z47),")")</f>
         <v>(DRAKE|DU)</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -6033,26 +6053,26 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E48:Z48),")")</f>
         <v>(DUKE|DUK|DU)</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -6076,23 +6096,23 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E49:Z49),")")</f>
         <v>(DUQUESNE|DUQ)</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -6117,26 +6137,26 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E50:Z50),")")</f>
         <v>(EAST CAROLINA|EASTCRLINA|ECU)</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -6160,23 +6180,23 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E51:Z51),")")</f>
         <v>(ETSU|EAST TENN ST)</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -6201,23 +6221,23 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D52" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E52:Z52),")")</f>
         <v>(EASTRN ILLINOIS|EIU)</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -6242,26 +6262,26 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E53:Z53),")")</f>
         <v>(EKU|EASTRN KENTUCKY|EASTERNKY)</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -6285,26 +6305,26 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D54" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E54:Z54),")")</f>
         <v>(EASTMICH|EASTRN MICHIGAN|EMU)</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -6328,26 +6348,26 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E55:Z55),")")</f>
         <v>(EASTERN WASH|EWU|EASTWASH)</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -6371,23 +6391,23 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E56:Z56),")")</f>
         <v>(ELON|ELO)</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -6411,29 +6431,29 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E57:Z57),")")</f>
         <v>(FLORIDA|FLA|UFL|UF)</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -6456,29 +6476,29 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E58:Z58),")")</f>
         <v>(FLORIDA A&amp;M|FLORIDAAM|FAMU|FAM)</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -6501,29 +6521,29 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E59:Z59),")")</f>
         <v>(FLA ATLANTIC|FLAATLANTC|FAU20\d+|FAU)</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -6545,26 +6565,26 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D60" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E60:Z60),")")</f>
         <v>(FIU|FLORIDA INTL|FLAINTL)</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -6588,29 +6608,29 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E61:Z61),")")</f>
         <v>(FLORIDAST|FSU|FS|FLORIDA ST)</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -6633,29 +6653,29 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D62" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E62:Z62),")")</f>
         <v>(FORDHAM|FORD|FOR|FHU)</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -6678,35 +6698,35 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E63:Z63),")")</f>
         <v>(FRESNO ST|FRESNOST|FRS|FST|FSU|FS)</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -6727,23 +6747,23 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D64" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E64:Z64),")")</f>
         <v>(FURMAN|FUR)</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -6767,23 +6787,23 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D65" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E65:Z65),")")</f>
         <v>(GWU|WEBB)</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -6808,26 +6828,26 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D66" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E66:Z66),")")</f>
         <v>(GEORGIA|UGA|Georgia)</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -6851,35 +6871,35 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D67" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E67:Z67),")")</f>
         <v>(GA SOUTHERN|GASOUTHERN|GAS|GSO|GSU|GS)</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -6900,32 +6920,32 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D68" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E68:Z68),")")</f>
         <v>(GEORGIA ST|GSU|GEORGIAST|GAST|GST)</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -6947,32 +6967,32 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D69" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E69:Z69),")")</f>
         <v>(GEORGIA TECH|GATECH|GT|GAT|GIT)</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -6994,26 +7014,26 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E70:Z70),")")</f>
         <v>(GRAMBLING|GRAM|GSU)</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -7036,23 +7056,23 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D71" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E71:Z71),")")</f>
         <v>(HAMPTON|HAM)</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -7076,29 +7096,29 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D72" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E72:Z72),")")</f>
         <v>(HAWAII|Hawaii|HAW|UH)</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F72" s="4" t="s">
         <v>406</v>
       </c>
+      <c r="F72" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="G72" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -7121,23 +7141,23 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E73:Z73),")")</f>
         <v>(HC|HOLY CROSS)</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -7162,26 +7182,26 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D74" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E74:Z74),")")</f>
         <v>(HOUSTON|HOU|UHO)</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -7204,23 +7224,23 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D75" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E75:Z75),")")</f>
         <v>(HBU|HOUSTON BAPTIST)</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -7245,27 +7265,26 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B76" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="6" t="s">
         <v>426</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="D76" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E76:Z76),")")</f>
-        <v>(HOWARD|HOWFB14|HOW)</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F76" s="3" t="s">
+        <v>(HstnB|HCU)</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="F76" s="5" t="s">
         <v>429</v>
       </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -7290,25 +7309,24 @@
         <v>430</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="D77" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E77:Z77),")")</f>
-        <v>(IDAHO|IDAHO17|IDA)</v>
+        <v>(HOWARD|HOWFB14|HOW)</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="H77" s="3"/>
+        <v>435</v>
+      </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -7328,28 +7346,28 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>36</v>
+        <v>388</v>
       </c>
       <c r="D78" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E78:Z78),")")</f>
-        <v>(IDAHO ST|ISU|IDAHOST)</v>
+        <v>(IDAHO|IDAHO17|IDA)</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="F78" s="3" t="s">
         <v>437</v>
       </c>
+      <c r="F78" s="0" t="s">
+        <v>438</v>
+      </c>
       <c r="G78" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -7373,17 +7391,17 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>441</v>
+        <v>37</v>
       </c>
       <c r="D79" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E79:Z79),")")</f>
-        <v>(ILLINOIS|ILL)</v>
+        <v>(IDAHO ST|ISU|IDAHOST)</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>442</v>
@@ -7391,7 +7409,9 @@
       <c r="F79" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="G79" s="3"/>
+      <c r="G79" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -7414,27 +7434,25 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D80" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E80:Z80),")")</f>
-        <v>(ILLINOIS ST|ILS|ISU)</v>
+        <v>(ILLINOIS|ILL)</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>437</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -7457,25 +7475,27 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>36</v>
+        <v>452</v>
       </c>
       <c r="D81" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E81:Z81),")")</f>
-        <v>(INCARNATEW|UIW)</v>
+        <v>(ILLINOIS ST|ILS|ISU)</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="G81" s="3"/>
+        <v>454</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -7498,27 +7518,25 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="D82" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E82:Z82),")")</f>
-        <v>(INDIANA|IND|INS)</v>
+        <v>(INCARNATEW|UIW)</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="G82" s="3" t="s">
         <v>458</v>
       </c>
+      <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -7547,24 +7565,22 @@
         <v>460</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>30</v>
+        <v>461</v>
       </c>
       <c r="D83" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E83:Z83),")")</f>
-        <v>(INDIANAST|INDIANA ST|INS|ISU)</v>
+        <v>(INDIANA|IND|INS)</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>437</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -7586,29 +7602,29 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D84" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E84:Z84),")")</f>
-        <v>(IOWA|IOW|UI|IWA)</v>
+        <v>(INDIANAST|INDIANA ST|INS|ISU)</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -7634,14 +7650,14 @@
         <v>469</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>470</v>
+        <v>37</v>
       </c>
       <c r="D85" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E85:Z85),")")</f>
-        <v>(IOWA ST|IOWAST|ISU)</v>
+        <v>(IOWA|IOW|UI|IWA)</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>471</v>
@@ -7650,9 +7666,11 @@
         <v>472</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="H85" s="3"/>
+        <v>473</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -7674,26 +7692,26 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D86" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E86:Z86),")")</f>
-        <v>(JACKSON ST|JACKST|JKST)</v>
+        <v>(IOWA ST|IOWAST|ISU)</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -7720,23 +7738,23 @@
         <v>479</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>327</v>
+        <v>480</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>178</v>
+        <v>481</v>
       </c>
       <c r="D87" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E87:Z87),")")</f>
-        <v>(JACKSONVILLE ST|JAXVILLEST|JSU)</v>
+        <v>(JACKSON ST|JACKST|JKST)</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7760,23 +7778,27 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>484</v>
+        <v>328</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>485</v>
+        <v>179</v>
       </c>
       <c r="D88" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E88:Z88),")")</f>
-        <v>(JMU)</v>
+        <v>(JACKSONVILLE ST|JAXVILLEST|JSU)</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+      <c r="F88" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -7799,33 +7821,25 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D89" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E89:Z89),")")</f>
-        <v>(KANSAS|KAN|KU|Kansas|Kan)</v>
+        <v>(JMU)</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G89" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>493</v>
-      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -7844,33 +7858,35 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="D90" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E90:Z90),")")</f>
-        <v>(KANSAS ST|KANSASST|KSU|KS)</v>
+        <v>(KANSAS|KAN|KU|Kansas|Kan)</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="G90" s="0" t="s">
+      <c r="H90" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -7889,28 +7905,32 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D91" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E91:Z91),")")</f>
-        <v>(KENNESAW ST|KSU)</v>
+        <v>(KANSAS ST|KANSASST|KSU|KS)</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>503</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+        <v>504</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>506</v>
+      </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -7932,30 +7952,26 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>506</v>
+        <v>7</v>
       </c>
       <c r="D92" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E92:Z92),")")</f>
-        <v>(KENT ST|KENTST|KSU|KENT)</v>
+        <v>(KENNESAW ST|KSU)</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>509</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -7975,32 +7991,33 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>510</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>511</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>36</v>
+        <v>512</v>
       </c>
       <c r="D93" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E93:Z93),")")</f>
-        <v>(KENTUCKY|Kent|UKY|UK)</v>
+        <v>(KENT ST|KENTST|KSU|KENT)</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>514</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -8021,26 +8038,30 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D94" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E94:Z94),")")</f>
-        <v>(LAFAYETTE|LAFAYETT)</v>
+        <v>(KENTUCKY|Kent|UKY|UK)</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
+        <v>518</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>520</v>
+      </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -8059,27 +8080,24 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>519</v>
+        <v>198</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>520</v>
+        <v>133</v>
       </c>
       <c r="D95" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E95:Z95),")")</f>
-        <v>(LAMAR|LU|LAM)</v>
+        <v>(LAFAYETTE|LAFAYETT)</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="G95" s="3" t="s">
         <v>523</v>
       </c>
       <c r="H95" s="3"/>
@@ -8114,13 +8132,17 @@
       </c>
       <c r="D96" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E96:Z96),")")</f>
-        <v>(LEHIGH)</v>
+        <v>(LAMAR|LU|LAM)</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="F96" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>529</v>
+      </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -8143,27 +8165,23 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D97" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E97:Z97),")")</f>
-        <v>(LIBERTY|LIB|LU)</v>
+        <v>(LEHIGH)</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>522</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -8186,25 +8204,27 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>178</v>
+        <v>535</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>536</v>
       </c>
       <c r="D98" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E98:Z98),")")</f>
-        <v>(LIU|LONG ISLAND)</v>
+        <v>(LIBERTY|LIB|LU)</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="G98" s="3"/>
+        <v>538</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>528</v>
+      </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -8225,41 +8245,32 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>537</v>
+        <v>179</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>538</v>
+        <v>13</v>
       </c>
       <c r="D99" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E99:Z99),")")</f>
-        <v>(LA|LOUISIANA|LOU|UL LAFAYETTE|ULLAFAYTTE|ULL|UL)</v>
+        <v>(LIU|LONG ISLAND)</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="G99" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>545</v>
-      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
@@ -8277,31 +8288,39 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>85</v>
+        <v>544</v>
       </c>
       <c r="D100" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E100:Z100),")")</f>
-        <v>(UL MONROE|ULMONROE|ULM)</v>
+        <v>(LA|LOUISIANA|LOU|UL LAFAYETTE|ULLAFAYTTE|ULL|UL)</v>
       </c>
       <c r="E100" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
+      <c r="K100" s="3" t="s">
+        <v>551</v>
+      </c>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
@@ -8317,19 +8336,19 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>553</v>
+        <v>86</v>
       </c>
       <c r="D101" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E101:Z101),")")</f>
-        <v>(LOUISIANA TECH|LATECH|LAT|TECH)</v>
+        <v>(UL MONROE|ULMONROE|ULM)</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>554</v>
@@ -8339,9 +8358,6 @@
       </c>
       <c r="G101" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -8364,28 +8380,30 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D102" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E102:Z102),")")</f>
-        <v>(LOUISVILLE|LOU|UL)</v>
+        <v>(LOUISIANA TECH|LATECH|LAT|TECH)</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>560</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="H102" s="3"/>
+        <v>562</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>563</v>
+      </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -8407,25 +8425,27 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>563</v>
+        <v>37</v>
       </c>
       <c r="D103" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E103:Z103),")")</f>
-        <v>(LSU|LS)</v>
+        <v>(LOUISVILLE|LOU|UL)</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="G103" s="3"/>
+        <v>547</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>551</v>
+      </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -8446,25 +8466,25 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D104" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E104:Z104),")")</f>
-        <v>(MAINE|MAI)</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>568</v>
+        <v>(LSU|LS)</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -8489,24 +8509,25 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D105" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E105:Z105),")")</f>
-        <v>(MARSHALL|MAR)</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>573</v>
+        <v>(MAINE|MAI)</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>574</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>574</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -8527,27 +8548,26 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D106" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E106:Z106),")")</f>
-        <v>(MARYLAND|UMD)</v>
+        <v>(MARSHALL|MAR)</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="G106" s="3"/>
+        <v>580</v>
+      </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -8568,29 +8588,27 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D107" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E107:Z107),")")</f>
-        <v>(MCNEESE ST|MCNEESE|MCN)</v>
+        <v>(MARYLAND|UMD)</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="F107" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>585</v>
       </c>
+      <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -8616,27 +8634,25 @@
         <v>586</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>12</v>
+        <v>587</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D108" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E108:Z108),")")</f>
-        <v>(MEMPHIS|MEM-ROAD|MEM_ROAD|MEM)</v>
+        <v>(MCNEESE ST|MCNEESE|MCN)</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="G108" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>591</v>
       </c>
+      <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -8656,28 +8672,32 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>592</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D109" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E109:Z109),")")</f>
-        <v>(MERCER|MER)</v>
+        <v>(MEMPHIS|MEM-ROAD|MEM_ROAD|MEM)</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
+      <c r="G109" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>597</v>
+      </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -8699,33 +8719,27 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>598</v>
+        <v>37</v>
       </c>
       <c r="D110" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E110:Z110),")")</f>
-        <v>(MIAMI FL|MIAMIFL|MIAMI|UM|MIA)</v>
+        <v>(MERCER|MER)</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="G110" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="H110" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>603</v>
-      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
@@ -8744,34 +8758,34 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E111:Z111),")")</f>
-        <v>(MIAMI OH|MIAMIOH|MIAMI|MIA|MU)</v>
+        <v>(MIAMI FL|MIAMIFL|MIAMI|UM|MIA)</v>
       </c>
       <c r="E111" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="G111" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>601</v>
-      </c>
       <c r="H111" s="3" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -8791,19 +8805,19 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>611</v>
+        <v>37</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E112:Z112),")")</f>
-        <v>(MICHIGAN|MICH|MIC)</v>
+        <v>(MIAMI OH|MIAMIOH|MIAMI|MIA|MU)</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>612</v>
@@ -8812,10 +8826,14 @@
         <v>613</v>
       </c>
       <c r="G112" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="I112" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -8842,20 +8860,20 @@
         <v>616</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>30</v>
+        <v>617</v>
       </c>
       <c r="D113" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E113:Z113),")")</f>
-        <v>(MICHIGANST|MSU|MICHIGAN ST)</v>
+        <v>(MICHIGAN|MICH|MIC)</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -8877,35 +8895,31 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>36</v>
+        <v>622</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>621</v>
+        <v>31</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E114:Z114),")")</f>
-        <v>(MIDDLE TENN|MIDDLETENN|MTSU|MTS|MT)</v>
+        <v>(MICHIGANST|MSU|MICHIGAN ST)</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="H114" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="I114" s="3" t="s">
-        <v>626</v>
-      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -8926,29 +8940,32 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="D115" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E115:Z115),")")</f>
-        <v>(MINNESOTA|MINN|MIN|UMN)</v>
+        <v>(MIDDLE TENN|MIDDLETENN|MTSU|MTS|MT)</v>
       </c>
       <c r="E115" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="H115" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -8970,17 +8987,17 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>635</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E116:Z116),")")</f>
-        <v>(MISSISSIPPI ST|MISSSTATE|MS State|MSSTATE|MSU|MS)</v>
+        <v>(MINNESOTA|MINN|MIN|UMN)</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>636</v>
@@ -8991,15 +9008,10 @@
       <c r="G116" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="H116" s="0" t="s">
+      <c r="H116" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="I116" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>640</v>
-      </c>
+      <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -9017,19 +9029,19 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E117:Z117),")")</f>
-        <v>(MISS VALLEY ST|MVSU)</v>
+        <v>(MISSISSIPPI ST|MISSSTATE|MS State|MSSTATE|MSU|MS)</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>642</v>
@@ -9037,10 +9049,18 @@
       <c r="F117" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="G117" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>646</v>
+      </c>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
@@ -9060,27 +9080,25 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>645</v>
+        <v>31</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E118:Z118),")")</f>
-        <v>(MISSOURI|MIZ|MU)</v>
+        <v>(MISS VALLEY ST|MVSU)</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>608</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -9103,25 +9121,27 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>649</v>
+        <v>37</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>36</v>
+        <v>651</v>
       </c>
       <c r="D119" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E119:Z119),")")</f>
-        <v>(MSU|MISSOURI ST)</v>
+        <v>(MISSOURI|MIZ|MU)</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="G119" s="3"/>
+        <v>653</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>614</v>
+      </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -9144,23 +9164,23 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>19</v>
+        <v>655</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>652</v>
+        <v>37</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E120:Z120),")")</f>
-        <v>(MONMOUTH|MU)</v>
+        <v>(MSU|MISSOURI ST)</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>653</v>
+        <v>624</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>608</v>
+        <v>656</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -9185,23 +9205,23 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>655</v>
+        <v>19</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>267</v>
+        <v>658</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E121:Z121),")")</f>
-        <v>(MONTANA|UM)</v>
+        <v>(MONMOUTH|MU)</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -9226,23 +9246,23 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E122:Z122),")")</f>
-        <v>(MONTANA ST|MSU)</v>
+        <v>(MONTANA|UM)</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -9267,26 +9287,27 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>662</v>
+        <v>206</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E123:Z123),")")</f>
-        <v>(MORGAN ST|MSU)</v>
+        <v>(MONTANA ST|MSU)</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -9307,29 +9328,26 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E124:Z124),")")</f>
-        <v>(MURRAY ST|MURRAYST|MUR)</v>
+        <v>(MORGAN ST|MSU)</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>669</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="G124" s="3"/>
       <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -9353,22 +9371,24 @@
         <v>670</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D125" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E125:Z125),")")</f>
-        <v>(NAVY|NAV)</v>
+        <v>(MURRAY ST|MURRAYST|MUR)</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="G125" s="3"/>
+        <v>674</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>675</v>
+      </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -9389,32 +9409,28 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>327</v>
+        <v>664</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>36</v>
+        <v>677</v>
       </c>
       <c r="D126" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E126:Z126),")")</f>
-        <v>(NC STATE|NCSTATE|NCS|ST)</v>
+        <v>(NAVY|NAV)</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="H126" s="3" t="s">
         <v>678</v>
       </c>
+      <c r="F126" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -9436,25 +9452,30 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>680</v>
+        <v>328</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D127" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E127:Z127),")")</f>
-        <v>(NEBRASKA|NEB)</v>
+        <v>(NC STATE|NCSTATE|NCS|ST)</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="F127" s="0" t="s">
         <v>682</v>
       </c>
-      <c r="H127" s="3"/>
+      <c r="G127" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>684</v>
+      </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -9474,32 +9495,27 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>61</v>
+        <v>686</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>684</v>
+        <v>37</v>
       </c>
       <c r="D128" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E128:Z128),")")</f>
-        <v>(NEVADA|NEV|NV|UNR)</v>
+        <v>(NEBRASKA|NEB)</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="H128" s="3" t="s">
         <v>688</v>
       </c>
+      <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -9524,14 +9540,14 @@
         <v>689</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>690</v>
       </c>
       <c r="D129" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E129:Z129),")")</f>
-        <v>(NEW HAMPSHIRE|UNH)</v>
+        <v>(NEVADA|NEV|NV|UNR)</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>691</v>
@@ -9539,8 +9555,12 @@
       <c r="F129" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
+      <c r="G129" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>694</v>
+      </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -9560,32 +9580,28 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>360</v>
+        <v>696</v>
       </c>
       <c r="D130" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E130:Z130),")")</f>
-        <v>(NEW MEXICO|NM|NEWMEXICO|UNM)</v>
+        <v>(NEW HAMPSHIRE|UNH)</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>697</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -9607,17 +9623,17 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>699</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>36</v>
+        <v>361</v>
       </c>
       <c r="D131" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E131:Z131),")")</f>
-        <v>(NEWMEXST|NEW MEXICO ST|NMS[Tt]|NMSU|NMS)</v>
+        <v>(NEW MEXICO|NM|NEWMEXICO|UNM)</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>700</v>
@@ -9625,15 +9641,13 @@
       <c r="F131" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="G131" s="0" t="s">
+      <c r="G131" s="3" t="s">
         <v>702</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="I131" s="3" t="s">
-        <v>704</v>
-      </c>
+      <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
@@ -9654,33 +9668,34 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>706</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>707</v>
+        <v>37</v>
       </c>
       <c r="D132" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E132:Z132),")")</f>
-        <v>(NICHOLLS ST|NICHOLLS|NICH|NIC|NSU)</v>
+        <v>(NEWMEXST|NEW MEXICO ST|NMS[Tt]|NMSU|NMS)</v>
       </c>
       <c r="E132" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="G132" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="I132" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="H132" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>712</v>
-      </c>
+      <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -9698,30 +9713,35 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="D133" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E133:Z133),")")</f>
-        <v>(NORFOLK ST|NSU)</v>
+        <v>(NICHOLLS ST|NICHOLLS|NICH|NIC|NSU)</v>
       </c>
       <c r="E133" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="G133" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
+      <c r="H133" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>718</v>
+      </c>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -9741,27 +9761,25 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D134" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E134:Z134),")")</f>
-        <v>(NORTH ALABAMA|UNA|NORTHALA)</v>
+        <v>(NORFOLK ST|NSU)</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>722</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -9794,7 +9812,7 @@
       </c>
       <c r="D135" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E135:Z135),")")</f>
-        <v>(NORTH CAROLINA|UNC|NC)</v>
+        <v>(NORTH ALABAMA|UNA|NORTHALA)</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>726</v>
@@ -9837,7 +9855,7 @@
       </c>
       <c r="D136" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E136:Z136),")")</f>
-        <v>(NC A&amp;T|NCAT|A&amp;T|NCCU)</v>
+        <v>(NORTH CAROLINA|UNC|NC)</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>732</v>
@@ -9848,9 +9866,7 @@
       <c r="G136" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="H136" s="3" t="s">
-        <v>735</v>
-      </c>
+      <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -9872,26 +9888,30 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="D137" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E137:Z137),")")</f>
-        <v>(NC CENTRAL|NCCU)</v>
+        <v>(NC A&amp;T|NCAT|A&amp;T|NCCU)</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>738</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
+        <v>739</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>741</v>
+      </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -9913,23 +9933,23 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>741</v>
+        <v>593</v>
       </c>
       <c r="D138" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E138:Z138),")")</f>
-        <v>(NORTH DAKOTA|UND)</v>
+        <v>(NC CENTRAL|NCCU)</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -9954,23 +9974,23 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D139" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E139:Z139),")")</f>
-        <v>(NO DAKOTA ST|NDSU)</v>
+        <v>(NORTH DAKOTA|UND)</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -9995,30 +10015,26 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>36</v>
+        <v>752</v>
       </c>
       <c r="D140" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E140:Z140),")")</f>
-        <v>(NORTH TEXAS|UNT|NORTHTEXAS|NT)</v>
+        <v>(NO DAKOTA ST|NDSU)</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="H140" s="3" t="s">
         <v>754</v>
       </c>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -10046,11 +10062,11 @@
         <v>756</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="D141" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E141:Z141),")")</f>
-        <v>(NAU|NORTHRN ARIZONA)</v>
+        <v>(NORTH TEXAS|UNT|NORTHTEXAS|NT)</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>757</v>
@@ -10058,8 +10074,12 @@
       <c r="F141" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
+      <c r="G141" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>760</v>
+      </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -10081,30 +10101,26 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>761</v>
+        <v>258</v>
       </c>
       <c r="D142" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E142:Z142),")")</f>
-        <v>(NORTHERN COLO|UNCO|NC|UNC)</v>
+        <v>(NAU|NORTHRN ARIZONA)</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>727</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -10126,26 +10142,30 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>107</v>
+        <v>766</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>767</v>
       </c>
       <c r="D143" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E143:Z143),")")</f>
-        <v>(NORTHERNIL|NIU)</v>
+        <v>(NORTHERN COLO|UNCO|NC|UNC)</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
+        <v>769</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>733</v>
+      </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -10167,27 +10187,25 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>768</v>
+        <v>108</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D144" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E144:Z144),")")</f>
-        <v>(NORTHERN IOWA|UNI|NORTHIOWA)</v>
+        <v>(NORTHERNIL|NIU)</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>771</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -10208,35 +10226,33 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D145" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E145:Z145),")")</f>
-        <v>(NORTHWESTERN|NORTHWSTRN|NWU|NOR|NU)</v>
+        <v>(NORTHERN IOWA|UNI|NORTHIOWA)</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="H145" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="I145" s="3" t="s">
-        <v>778</v>
-      </c>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
@@ -10255,34 +10271,33 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>780</v>
-      </c>
       <c r="C146" s="2" t="s">
-        <v>781</v>
+        <v>31</v>
       </c>
       <c r="D146" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E146:Z146),")")</f>
-        <v>(NORTHWESTERN ST|NSU|NWSTATE|NWST|NWLA)</v>
+        <v>(NORTHWESTERN|NORTHWSTRN|NWU|NOR|NU)</v>
       </c>
       <c r="E146" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="G146" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="G146" s="0" t="s">
+      <c r="H146" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="I146" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="I146" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
@@ -10301,23 +10316,23 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>35</v>
+        <v>787</v>
       </c>
       <c r="D147" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E147:Z147),")")</f>
-        <v>(NOTRE DAME|NOTREDAME|NDAME|ND|UND)</v>
+        <v>(NORTHWESTERN ST|NSU|NWSTATE|NWST|NWLA)</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>788</v>
+        <v>718</v>
       </c>
       <c r="G147" s="0" t="s">
         <v>789</v>
@@ -10326,9 +10341,8 @@
         <v>790</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="J147" s="3"/>
+        <v>791</v>
+      </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
@@ -10346,31 +10360,35 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>792</v>
+        <v>96</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>793</v>
+        <v>36</v>
       </c>
       <c r="D148" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E148:Z148),")")</f>
-        <v>(OHIO|OU|OHI)</v>
+        <v>(NOTRE DAME|NOTREDAME|NDAME|ND|UND)</v>
       </c>
       <c r="E148" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F148" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="G148" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="G148" s="3" t="s">
+      <c r="H148" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
+      <c r="I148" s="3" t="s">
+        <v>749</v>
+      </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -10401,7 +10419,7 @@
       </c>
       <c r="D149" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E149:Z149),")")</f>
-        <v>(OHIO STATE|OHIO ST|OHIOST|OHIO|OSU)</v>
+        <v>(OHIO|OU|OHI)</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>800</v>
@@ -10412,12 +10430,8 @@
       <c r="G149" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="H149" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>803</v>
-      </c>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -10438,29 +10452,33 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="D150" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E150:Z150),")")</f>
-        <v>(OKLAHOMA|OU|OKL)</v>
+        <v>(OHIO STATE|OHIO ST|OHIOST|OHIO|OSU)</v>
       </c>
       <c r="E150" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="F150" s="3" t="s">
         <v>807</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>795</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
+      <c r="H150" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>809</v>
+      </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -10481,26 +10499,26 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>36</v>
+        <v>812</v>
       </c>
       <c r="D151" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E151:Z151),")")</f>
-        <v>(OKLAHOMA ST|OKLAST|OSU)</v>
+        <v>(OKLAHOMA|OU|OKL)</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -10524,26 +10542,26 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>388</v>
+        <v>816</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="D152" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E152:Z152),")")</f>
-        <v>(OLDDOMNION|OLDDOMINION|ODU)</v>
+        <v>(OKLAHOMA ST|OKLAST|OSU)</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
@@ -10567,33 +10585,29 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>445</v>
+        <v>389</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>818</v>
+        <v>251</v>
       </c>
       <c r="D153" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E153:Z153),")")</f>
-        <v>(OLE MISS|OLEMISS|OM|OLE|MIS)</v>
+        <v>(OLDDOMNION|OLDDOMINION|ODU)</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="H153" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="I153" s="3" t="s">
-        <v>823</v>
-      </c>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -10614,27 +10628,33 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="D154" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E154:Z154),")")</f>
-        <v>(OREGON|ORE)</v>
+        <v>(OLE MISS|OLEMISS|OM|OLE|MIS)</v>
       </c>
       <c r="E154" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="H154" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
+      <c r="I154" s="3" t="s">
+        <v>829</v>
+      </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -10655,27 +10675,25 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>36</v>
+        <v>832</v>
       </c>
       <c r="D155" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E155:Z155),")")</f>
-        <v>(OREGON ST|OREGONST|OSU)</v>
+        <v>(OREGON|ORE)</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>803</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -10698,30 +10716,28 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>19</v>
+        <v>836</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D156" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E156:Z156),")")</f>
-        <v>(PENN STATE|PENN ST|PENNST|PSU)</v>
+        <v>(OREGON ST|OREGONST|OSU)</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>837</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -10743,17 +10759,17 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>839</v>
+        <v>19</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="D157" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E157:Z157),")")</f>
-        <v>(PITTSBURGH|UP|PIT)</v>
+        <v>(PENN STATE|PENN ST|PENNST|PSU)</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>840</v>
@@ -10764,7 +10780,9 @@
       <c r="G157" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="H157" s="3"/>
+      <c r="H157" s="3" t="s">
+        <v>843</v>
+      </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
@@ -10786,25 +10804,27 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>113</v>
+        <v>845</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D158" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E158:Z158),")")</f>
-        <v>(PORTLAND ST|PSU)</v>
+        <v>(PITTSBURGH|UP|PIT)</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="G158" s="3"/>
+        <v>847</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>848</v>
+      </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -10827,27 +10847,25 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>846</v>
+        <v>114</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>629</v>
+        <v>31</v>
       </c>
       <c r="D159" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E159:Z159),")")</f>
-        <v>(PRAIRIE VIEW|PVAM|PVU)</v>
+        <v>(PORTLAND ST|PSU)</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>849</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -10870,25 +10888,27 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>399</v>
+        <v>852</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>73</v>
+        <v>635</v>
       </c>
       <c r="D160" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E160:Z160),")")</f>
-        <v>(PRESBYTERIAN|PC)</v>
+        <v>(PRAIRIE VIEW|PVAM|PVU)</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="G160" s="3"/>
+        <v>854</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>855</v>
+      </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -10909,29 +10929,27 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D161" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E161:Z161),")")</f>
-        <v>(PERDUE|PURDUE|PUR)</v>
+        <v>(PRESBYTERIAN|PC)</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="F161" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>856</v>
-      </c>
+        <v>857</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -10952,27 +10970,29 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>858</v>
+        <v>341</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>474</v>
+        <v>37</v>
       </c>
       <c r="D162" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E162:Z162),")")</f>
-        <v>(RHODE ISLAND|URI)</v>
+        <v>(PERDUE|PURDUE|PUR)</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="F162" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="G162" s="3"/>
+      <c r="F162" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>862</v>
+      </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -10993,32 +11013,28 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>658</v>
+        <v>864</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>862</v>
+        <v>480</v>
       </c>
       <c r="D163" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E163:Z163),")")</f>
-        <v>(RICE|Rice|RIC|RCE)</v>
+        <v>(RHODE ISLAND|URI)</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="F163" s="0" t="s">
-        <v>861</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="H163" s="3" t="s">
         <v>865</v>
       </c>
+      <c r="F163" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -11040,26 +11056,29 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>867</v>
+        <v>664</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>454</v>
+        <v>868</v>
       </c>
       <c r="D164" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E164:Z164),")")</f>
-        <v>(RICHMOND|RIC|UR)</v>
+        <v>(RICE|Rice|RIC|RCE)</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>864</v>
+        <v>869</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>867</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>871</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -11080,28 +11099,29 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>872</v>
+        <v>460</v>
       </c>
       <c r="D165" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E165:Z165),")")</f>
-        <v>(RMU|ROBERT MORRIS)</v>
+        <v>(RICHMOND|RIC|UR)</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
+        <v>870</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>875</v>
+      </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
@@ -11121,29 +11141,27 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>60</v>
+        <v>877</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D166" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E166:Z166),")")</f>
-        <v>(RUTGERS|RUT|RU)</v>
+        <v>(RMU|ROBERT MORRIS)</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>879</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -11166,17 +11184,17 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>881</v>
+        <v>61</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>882</v>
       </c>
       <c r="D167" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E167:Z167),")")</f>
-        <v>(SACRAMENTO ST|SAC|SSU)</v>
+        <v>(RUTGERS|RUT|RU)</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>883</v>
@@ -11187,6 +11205,7 @@
       <c r="G167" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -11206,7 +11225,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>886</v>
       </c>
@@ -11214,22 +11233,21 @@
         <v>887</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>30</v>
+        <v>888</v>
       </c>
       <c r="D168" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E168:Z168),")")</f>
-        <v>(SAM HOUSTON ST|SAMHOUSTON|SHSU)</v>
+        <v>(SACRAMENTO ST|SAC|SSU)</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="H168" s="3"/>
+        <v>891</v>
+      </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
@@ -11251,17 +11269,17 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>893</v>
+        <v>31</v>
       </c>
       <c r="D169" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E169:Z169),")")</f>
-        <v>(SAMFORD|SAM)</v>
+        <v>(SAM HOUSTON ST|SAMHOUSTON|SHSU)</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>894</v>
@@ -11269,7 +11287,9 @@
       <c r="F169" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="G169" s="3"/>
+      <c r="G169" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -11292,23 +11312,23 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D170" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E170:Z170),")")</f>
-        <v>(SAN DIEGO|USD)</v>
+        <v>(SAMFORD|SAM)</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -11331,38 +11351,33 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>872</v>
+        <v>903</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>36</v>
+        <v>904</v>
       </c>
       <c r="D171" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E171:Z171),")")</f>
-        <v>(SAN DIEGO ST|SANDIEGOST|SAN DIEGO|SDSU|SDS|SD)</v>
+        <v>(SAN DIEGO|USD)</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="J171" s="3" t="s">
         <v>906</v>
       </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
@@ -11382,34 +11397,33 @@
         <v>907</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>908</v>
+        <v>878</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>909</v>
+        <v>37</v>
       </c>
       <c r="D172" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E172:Z172),")")</f>
-        <v>(SAN JOSÉ ST|SAN JOSE ST|SJSU|SJS|SJ)</v>
+        <v>(SAN DIEGO ST|SANDIEGOST|SAN DIEGO|SDSU|SDS|SD)</v>
       </c>
       <c r="E172" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="H172" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="I172" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="G172" s="3" t="s">
+      <c r="J172" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="H172" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-      <c r="L172" s="3"/>
-      <c r="M172" s="3"/>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
@@ -11424,29 +11438,35 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>917</v>
       </c>
       <c r="D173" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E173:Z173),")")</f>
-        <v>(SAVANNAH ST|SSU)</v>
+        <v>(SAN JOSÉ ST|SAN JOSE ST|SJSU|SJS|SJ)</v>
       </c>
       <c r="E173" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="G173" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="F173" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
+      <c r="H173" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
@@ -11467,22 +11487,24 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>126</v>
+        <v>922</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>414</v>
+        <v>923</v>
       </c>
       <c r="D174" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E174:Z174),")")</f>
-        <v>(SMU)</v>
+        <v>(SAVANNAH ST|SSU)</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="F174" s="3"/>
+        <v>924</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>891</v>
+      </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
@@ -11506,27 +11528,23 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>658</v>
+        <v>127</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>921</v>
+        <v>415</v>
       </c>
       <c r="D175" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E175:Z175),")")</f>
-        <v>(SOUTH ALABAMA|USA|SOUTHALA)</v>
+        <v>(SMU)</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>924</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -11549,30 +11567,28 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>308</v>
+        <v>664</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>36</v>
+        <v>927</v>
       </c>
       <c r="D176" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E176:Z176),")")</f>
-        <v>(SOUTH CAROLINA|SOCAROLINA|SC|USC)</v>
+        <v>(SOUTH ALABAMA|USA|SOUTHALA)</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>929</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
@@ -11594,29 +11610,29 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>931</v>
+        <v>309</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>932</v>
+        <v>37</v>
       </c>
       <c r="D177" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E177:Z177),")")</f>
-        <v>(CAROLINA ST|SOCARST|SCSU|SCS)</v>
+        <v>(SOUTH CAROLINA|SOCAROLINA|SC|USC)</v>
       </c>
       <c r="E177" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="F177" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="G177" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="G177" s="3" t="s">
+      <c r="H177" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>936</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
@@ -11639,28 +11655,30 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>938</v>
       </c>
       <c r="D178" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E178:Z178),")")</f>
-        <v>(SOUTH DAKOTA|USD|SDU)</v>
+        <v>(CAROLINA ST|SOCARST|SCSU|SCS)</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>939</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="H178" s="3"/>
+        <v>941</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>942</v>
+      </c>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
@@ -11682,26 +11700,26 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>126</v>
+        <v>565</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D179" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E179:Z179),")")</f>
-        <v>(SO DAKOTA ST|SDSU|SODAKOTAST)</v>
+        <v>(SOUTH DAKOTA|USD|SDU)</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
@@ -11725,23 +11743,23 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>946</v>
+        <v>127</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D180" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E180:Z180),")")</f>
-        <v>(SOUFLA|SOUTH FLORIDA|USF)</v>
+        <v>(SO DAKOTA ST|SDSU|SODAKOTAST)</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>949</v>
+        <v>910</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>950</v>
@@ -11771,23 +11789,23 @@
         <v>951</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>414</v>
+        <v>952</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>36</v>
+        <v>953</v>
       </c>
       <c r="D181" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E181:Z181),")")</f>
-        <v>(SEMO|SEM|SE MISSOURI)</v>
+        <v>(SOUFLA|SOUTH FLORIDA|USF)</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
@@ -11811,17 +11829,17 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>956</v>
+        <v>415</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>957</v>
+        <v>37</v>
       </c>
       <c r="D182" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E182:Z182),")")</f>
-        <v>(SE LOUISIANA|SLU)</v>
+        <v>(SEMO|SEM|SE MISSOURI)</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>958</v>
@@ -11829,7 +11847,9 @@
       <c r="F182" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="G182" s="3"/>
+      <c r="G182" s="3" t="s">
+        <v>960</v>
+      </c>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
@@ -11850,32 +11870,29 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>283</v>
+        <v>963</v>
       </c>
       <c r="D183" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E183:Z183),")")</f>
-        <v>(SOUTHERN|SOU|SUBR|SU)</v>
+        <v>(SE LOUISIANA|SLU)</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="H183" s="3" t="s">
         <v>965</v>
       </c>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
@@ -11894,7 +11911,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>966</v>
       </c>
@@ -11902,11 +11919,11 @@
         <v>967</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="D184" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E184:Z184),")")</f>
-        <v>(SIU|SOUTHN ILLINOIS)</v>
+        <v>(SOUTHERN|SOU|SUBR|SU)</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>968</v>
@@ -11914,9 +11931,12 @@
       <c r="F184" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
+      <c r="G184" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>971</v>
+      </c>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
@@ -11937,27 +11957,25 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>36</v>
+        <v>973</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>971</v>
+        <v>37</v>
       </c>
       <c r="D185" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E185:Z185),")")</f>
-        <v>(SOUTHERN MISS|SOUMISS|USM)</v>
+        <v>(SIU|SOUTHN ILLINOIS)</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>974</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
@@ -11980,25 +11998,27 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>976</v>
+        <v>37</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>36</v>
+        <v>977</v>
       </c>
       <c r="D186" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E186:Z186),")")</f>
-        <v>(SOUTHERN UTAH|SUU)</v>
+        <v>(SOUTHERN MISS|SOUMISS|USM)</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="G186" s="3"/>
+        <v>979</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>980</v>
+      </c>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
@@ -12019,24 +12039,26 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="C187" s="5" t="s">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
         <v>981</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D187" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E187:Z187),")")</f>
-        <v>(SFrPA)</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="F187" s="3"/>
+        <v>(SOUTHERN UTAH|SUU)</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>984</v>
+      </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
@@ -12059,31 +12081,27 @@
       <c r="Z187" s="3"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>983</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="C188" s="2" t="s">
+      <c r="A188" s="5" t="s">
         <v>985</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>987</v>
       </c>
       <c r="D188" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E188:Z188),")")</f>
-        <v>(STANFORD|STAN|STA|SU)</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="G188" s="3" t="s">
+        <v>(SFrPA)</v>
+      </c>
+      <c r="E188" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="H188" s="3" t="s">
-        <v>965</v>
-      </c>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
@@ -12113,18 +12131,20 @@
       </c>
       <c r="D189" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E189:Z189),")")</f>
-        <v>(SFAFB|SFA)</v>
-      </c>
-      <c r="E189" s="0" t="s">
+        <v>(STANFORD|STAN|STA|SU)</v>
+      </c>
+      <c r="E189" s="3" t="s">
         <v>992</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
+      <c r="G189" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>971</v>
+      </c>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
@@ -12142,25 +12162,25 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>454</v>
+        <v>996</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D190" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E190:Z190),")")</f>
-        <v>(STONY BROOK|SBU)</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>996</v>
+        <v>(SFAFB|SFA)</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>998</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -12185,27 +12205,25 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>999</v>
+        <v>460</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D191" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E191:Z191),")")</f>
-        <v>(SYRACUSE|SU|SYR)</v>
+        <v>(STONY BROOK|SBU)</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>1002</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
@@ -12226,27 +12244,29 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B192" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="B192" s="2" t="s">
         <v>1005</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>1006</v>
       </c>
       <c r="D192" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E192:Z192),")")</f>
-        <v>(TARLETON ST|trlst)</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F192" s="6" t="s">
+        <v>(SYRACUSE|SU|SYR)</v>
+      </c>
+      <c r="E192" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="G192" s="3"/>
+      <c r="F192" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>1008</v>
+      </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
@@ -12267,24 +12287,26 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B193" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="B193" s="6" t="s">
         <v>1010</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>1011</v>
       </c>
       <c r="D193" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E193:Z193),")")</f>
-        <v>(TCU)</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F193" s="3"/>
+        <v>(TARLETON ST|trlst)</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>1013</v>
+      </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
@@ -12306,29 +12328,26 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>73</v>
+        <v>1015</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>464</v>
+        <v>1016</v>
       </c>
       <c r="D194" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E194:Z194),")")</f>
-        <v>(TEMPLE|TEM|TU)</v>
+        <v>(TCU)</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G194" s="3" t="s">
         <v>1014</v>
       </c>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
@@ -12350,17 +12369,17 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1016</v>
+        <v>74</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1017</v>
+        <v>470</v>
       </c>
       <c r="D195" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E195:Z195),")")</f>
-        <v>(TENNESSEE|TEN|UT)</v>
+        <v>(TEMPLE|TEM|TU)</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>1018</v>
@@ -12390,28 +12409,29 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>1021</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>256</v>
+        <v>1022</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>30</v>
+        <v>1023</v>
       </c>
       <c r="D196" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E196:Z196),")")</f>
-        <v>(TENNESSEE ST|TSU)</v>
+        <v>(TENNESSEE|TEN|UT)</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
+        <v>1025</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
@@ -12433,23 +12453,23 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1025</v>
+        <v>257</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1026</v>
+        <v>31</v>
       </c>
       <c r="D197" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E197:Z197),")")</f>
-        <v>(TENNESSEE TECH|TTU)</v>
+        <v>(TENNESSEE ST|TSU)</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -12472,29 +12492,28 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D198" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E198:Z198),")")</f>
-        <v>(TEXAS|TEX|UT)</v>
+        <v>(TENNESSEE TECH|TTU)</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>1020</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
@@ -12516,30 +12535,28 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>30</v>
+        <v>1037</v>
       </c>
       <c r="D199" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E199:Z199),")")</f>
-        <v>(TEXAS A&amp;M|TEXASAM|TAMU|TAM)</v>
+        <v>(TEXAS|TEX|UT)</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H199" s="3" t="s">
-        <v>1039</v>
-      </c>
+        <v>1026</v>
+      </c>
+      <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
@@ -12558,7 +12575,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>1040</v>
       </c>
@@ -12566,23 +12583,24 @@
         <v>1041</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1042</v>
+        <v>31</v>
       </c>
       <c r="D200" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E200:Z200),")")</f>
-        <v>(TEXAS SOUTHERN|TSU|TXSOFB)</v>
+        <v>(TEXAS A&amp;M|TEXASAM|TAMU|TAM)</v>
       </c>
       <c r="E200" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F200" s="3" t="s">
         <v>1043</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>1023</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
+      <c r="H200" s="3" t="s">
+        <v>1045</v>
+      </c>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
@@ -12601,35 +12619,32 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D201" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E201:Z201),")")</f>
-        <v>(TEXAS STATE|TEXSTATE|TSU|TXST|TXS)</v>
+        <v>(TEXAS SOUTHERN|TSU|TXSOFB)</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>1049</v>
+        <v>1029</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H201" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="I201" s="3" t="s">
-        <v>1051</v>
-      </c>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
@@ -12647,36 +12662,35 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="C202" s="2" t="s">
-        <v>36</v>
+        <v>1053</v>
       </c>
       <c r="D202" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E202:Z202),")")</f>
-        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
+        <v>(TEXAS STATE|TEXSTATE|TSU|TXST|TXS)</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>1028</v>
+        <v>1055</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>1054</v>
+        <v>1029</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J202" s="3"/>
+        <v>1057</v>
+      </c>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
@@ -12694,31 +12708,35 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1058</v>
+        <v>328</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>1059</v>
+        <v>37</v>
       </c>
       <c r="D203" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E203:Z203),")")</f>
-        <v>(CIT|THE CITADEL|THECITADEL)</v>
+        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
       </c>
       <c r="E203" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G203" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="F203" s="3" t="s">
+      <c r="H203" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="G203" s="0" t="s">
+      <c r="I203" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
@@ -12749,7 +12767,7 @@
       </c>
       <c r="D204" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E204:Z204),")")</f>
-        <v>(TOLEDO|TOL|UTo|UT)</v>
+        <v>(CIT|THE CITADEL|THECITADEL)</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>1066</v>
@@ -12760,9 +12778,7 @@
       <c r="G204" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="H204" s="3" t="s">
-        <v>1020</v>
-      </c>
+      <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
@@ -12782,7 +12798,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>1069</v>
       </c>
@@ -12794,7 +12810,7 @@
       </c>
       <c r="D205" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E205:Z205),")")</f>
-        <v>(TOWSON|TOW)</v>
+        <v>(TOLEDO|TOL|UTo|UT)</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>1072</v>
@@ -12802,8 +12818,12 @@
       <c r="F205" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
+      <c r="G205" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
@@ -12823,29 +12843,28 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D206" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E206:Z206),")")</f>
-        <v>(TROY|TRO|TRY)</v>
+        <v>(TOWSON|TOW)</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G206" s="3" t="s">
         <v>1079</v>
       </c>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
@@ -12865,28 +12884,29 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>1080</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>946</v>
+        <v>1081</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D207" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E207:Z207),")")</f>
-        <v>(TLN|TULANE)</v>
+        <v>(TROY|TRO|TRY)</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
+        <v>1084</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>1085</v>
+      </c>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
@@ -12908,30 +12928,26 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1085</v>
+        <v>952</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>414</v>
+        <v>1087</v>
       </c>
       <c r="D208" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E208:Z208),")")</f>
-        <v>(TULSA|TLS|Tul|TUL)</v>
+        <v>(TLN|TULANE)</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H208" s="3" t="s">
         <v>1089</v>
       </c>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
@@ -12956,21 +12972,27 @@
         <v>1090</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>956</v>
+        <v>1091</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1091</v>
+        <v>415</v>
       </c>
       <c r="D209" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E209:Z209),")")</f>
-        <v>(UAB)</v>
+        <v>(TULSA|TLS|Tul|TUL)</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
+        <v>1092</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>1095</v>
+      </c>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
@@ -12992,24 +13014,22 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>198</v>
+        <v>962</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>387</v>
+        <v>1097</v>
       </c>
       <c r="D210" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E210:Z210),")")</f>
-        <v>(UC DAVIS|UCD)</v>
+        <v>(UAB)</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>1094</v>
-      </c>
+        <v>1096</v>
+      </c>
+      <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
@@ -13033,22 +13053,24 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1096</v>
+        <v>199</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>36</v>
+        <v>388</v>
       </c>
       <c r="D211" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E211:Z211),")")</f>
-        <v>(UCF)</v>
+        <v>(UC DAVIS|UCD)</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F211" s="3"/>
+        <v>1099</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>1100</v>
+      </c>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
@@ -13072,24 +13094,22 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="D212" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E212:Z212),")")</f>
-        <v>(UCLA|UCL)</v>
+        <v>(UCF)</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>1099</v>
-      </c>
+        <v>1101</v>
+      </c>
+      <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
@@ -13113,30 +13133,26 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1102</v>
+        <v>121</v>
       </c>
       <c r="D213" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E213:Z213),")")</f>
-        <v>(MASSACHUSETTS|UMASS|UMA|MAS)</v>
+        <v>(UCLA|UCL)</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>1103</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G213" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="H213" s="3" t="s">
-        <v>1106</v>
-      </c>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
@@ -13156,30 +13172,32 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="C214" s="2" t="s">
         <v>1108</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>1109</v>
       </c>
       <c r="D214" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E214:Z214),")")</f>
-        <v>(LV|NLV|UNLV)</v>
+        <v>(MASSACHUSETTS|UMASS|UMA|MAS)</v>
       </c>
       <c r="E214" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F214" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="F214" s="0" t="s">
+      <c r="G214" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="G214" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="H214" s="3"/>
+      <c r="H214" s="3" t="s">
+        <v>1112</v>
+      </c>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
@@ -13199,25 +13217,29 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>929</v>
+        <v>1113</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>454</v>
+        <v>1114</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>283</v>
+        <v>1115</v>
       </c>
       <c r="D215" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E215:Z215),")")</f>
-        <v>(USC)</v>
+        <v>(LV|NLV|UNLV)</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
+        <v>1116</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>1113</v>
+      </c>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
@@ -13240,27 +13262,23 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>1112</v>
+        <v>935</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1113</v>
+        <v>460</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1114</v>
+        <v>284</v>
       </c>
       <c r="D216" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E216:Z216),")")</f>
-        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
+        <v>(USC)</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>1117</v>
-      </c>
+        <v>935</v>
+      </c>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
@@ -13289,27 +13307,23 @@
         <v>1119</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>95</v>
+        <v>1120</v>
       </c>
       <c r="D217" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E217:Z217),")")</f>
-        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
+        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H217" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="I217" s="3" t="s">
-        <v>1124</v>
-      </c>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
@@ -13330,29 +13344,33 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="C218" s="2" t="s">
-        <v>1126</v>
+        <v>96</v>
       </c>
       <c r="D218" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E218:Z218),")")</f>
-        <v>(UTAH|UTA|UTE)</v>
+        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
       </c>
       <c r="E218" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F218" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="F218" s="3" t="s">
+      <c r="G218" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="G218" s="3" t="s">
+      <c r="H218" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
+      <c r="I218" s="3" t="s">
+        <v>1130</v>
+      </c>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
@@ -13371,32 +13389,31 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1131</v>
+        <v>328</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>13</v>
+        <v>1132</v>
       </c>
       <c r="D219" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E219:Z219),")")</f>
-        <v>(UTAH ST|UTAHST|USU|US)</v>
+        <v>(UTAH|UTA|UTE)</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H219" s="3" t="s">
         <v>1135</v>
       </c>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
@@ -13415,31 +13432,32 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>1136</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1016</v>
+        <v>1137</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D220" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E220:Z220),")")</f>
-        <v>(UTEP|TEP|UTE)</v>
+        <v>(UTAH ST|UTAHST|USU|US)</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
+        <v>1140</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>1141</v>
+      </c>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
@@ -13458,32 +13476,31 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>36</v>
+        <v>1022</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1139</v>
+        <v>19</v>
       </c>
       <c r="D221" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E221:Z221),")")</f>
-        <v>(VANDERBILT|VANDY|VAN|VU)</v>
+        <v>(UTEP|TEP|UTE)</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H221" s="3" t="s">
-        <v>1143</v>
-      </c>
+        <v>1135</v>
+      </c>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
@@ -13502,29 +13519,32 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>1144</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>658</v>
+        <v>37</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>1145</v>
       </c>
       <c r="D222" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E222:Z222),")")</f>
-        <v>(VILLANOVA|VU)</v>
+        <v>(VANDERBILT|VANDY|VAN|VU)</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>1146</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
+        <v>1147</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>1149</v>
+      </c>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
@@ -13545,27 +13565,25 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1148</v>
+        <v>664</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D223" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E223:Z223),")")</f>
-        <v>(VIRGINIA|VA|UVA)</v>
+        <v>(VILLANOVA|VU)</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>1152</v>
-      </c>
+        <v>1149</v>
+      </c>
+      <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
@@ -13598,7 +13616,7 @@
       </c>
       <c r="D224" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E224:Z224),")")</f>
-        <v>(VIRGINIA TECH|VATECH|VT|VaT|VAT)</v>
+        <v>(VIRGINIA|VA|UVA)</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>1156</v>
@@ -13609,12 +13627,8 @@
       <c r="G224" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="H224" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I224" s="3" t="s">
-        <v>1160</v>
-      </c>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
@@ -13635,25 +13649,33 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>1161</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="D225" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E225:Z225),")")</f>
-        <v>(VMI)</v>
+        <v>(VIRGINIA TECH|VATECH|VT|VaT|VAT)</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
+        <v>1162</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>1166</v>
+      </c>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
@@ -13674,24 +13696,22 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1165</v>
+        <v>583</v>
       </c>
       <c r="D226" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E226:Z226),")")</f>
-        <v>(WAGNER|WAG)</v>
+        <v>(VMI)</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F226" s="3" t="s">
         <v>1167</v>
       </c>
+      <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
@@ -13713,32 +13733,28 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>36</v>
+        <v>1171</v>
       </c>
       <c r="D227" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E227:Z227),")")</f>
-        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
+        <v>(WAGNER|WAG)</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G227" s="0" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H227" s="3" t="s">
         <v>1173</v>
       </c>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
@@ -13758,7 +13774,7 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>1174</v>
       </c>
@@ -13766,27 +13782,25 @@
         <v>1175</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1176</v>
+        <v>37</v>
       </c>
       <c r="D228" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E228:Z228),")")</f>
-        <v>(WASHINGTON|WASH|UW|WAS|U W)</v>
+        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
       </c>
       <c r="E228" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F228" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="F228" s="3" t="s">
+      <c r="G228" s="0" t="s">
         <v>1178</v>
       </c>
-      <c r="G228" s="3" t="s">
+      <c r="H228" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="H228" s="3" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I228" s="3" t="s">
-        <v>1181</v>
-      </c>
+      <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
@@ -13807,31 +13821,33 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>1182</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>1184</v>
       </c>
       <c r="D229" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E229:Z229),")")</f>
-        <v>(WASHINGTON ST|WSU|WASHST|COU)</v>
+        <v>(WASHINGTON|WASH|UW|WAS|U W)</v>
       </c>
       <c r="E229" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G229" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="F229" s="3" t="s">
+      <c r="H229" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="G229" s="3" t="s">
+      <c r="I229" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="H229" s="3" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I229" s="3"/>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
@@ -13850,32 +13866,33 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="C230" s="2" t="s">
         <v>1190</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>1191</v>
       </c>
       <c r="D230" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E230:Z230),")")</f>
-        <v>(WEBER ST|WEBERST|WEBER|WSU)</v>
+        <v>(WASHINGTON ST|WSU|WASHST|COU)</v>
       </c>
       <c r="E230" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F230" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="F230" s="3" t="s">
+      <c r="G230" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="G230" s="3" t="s">
+      <c r="H230" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="H230" s="3" t="s">
-        <v>1186</v>
-      </c>
+      <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
@@ -13894,33 +13911,32 @@
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>1195</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>198</v>
+        <v>1196</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>957</v>
+        <v>1197</v>
       </c>
       <c r="D231" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E231:Z231),")")</f>
-        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
+        <v>(WEBER ST|WEBERST|WEBER|WSU)</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I231" s="3"/>
+        <v>1192</v>
+      </c>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
@@ -13941,29 +13957,29 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1201</v>
+        <v>199</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1202</v>
+        <v>963</v>
       </c>
       <c r="D232" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E232:Z232),")")</f>
-        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCU)</v>
+        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
       </c>
       <c r="E232" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="G232" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="G232" s="3" t="s">
+      <c r="H232" s="3" t="s">
         <v>1205</v>
-      </c>
-      <c r="H232" s="3" t="s">
-        <v>1206</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
@@ -13986,17 +14002,17 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="C233" s="2" t="s">
         <v>1208</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D233" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E233:Z233),")")</f>
-        <v>(WESTRN ILLINOIS|WIU)</v>
+        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCU)</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>1209</v>
@@ -14004,8 +14020,12 @@
       <c r="F233" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
+      <c r="G233" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>1212</v>
+      </c>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
@@ -14027,27 +14047,25 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>381</v>
+        <v>1214</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1212</v>
+        <v>55</v>
       </c>
       <c r="D234" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E234:Z234),")")</f>
-        <v>(WESTRN KENTUCKY|WKU|WESTERNKY)</v>
+        <v>(WESTRN ILLINOIS|WIU)</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>1215</v>
-      </c>
+        <v>1216</v>
+      </c>
+      <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
@@ -14070,17 +14088,17 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1217</v>
+        <v>382</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="D235" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E235:Z235),")")</f>
-        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMI)</v>
+        <v>(WESTRN KENTUCKY|WKU|WESTERNKY)</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>1219</v>
@@ -14091,9 +14109,7 @@
       <c r="G235" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="H235" s="3" t="s">
-        <v>1222</v>
-      </c>
+      <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
@@ -14113,30 +14129,32 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>1224</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>1225</v>
       </c>
       <c r="D236" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E236:Z236),")")</f>
-        <v>(MARY|WILLMMARY|WM)</v>
+        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMI)</v>
       </c>
       <c r="E236" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F236" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="F236" s="0" t="s">
+      <c r="G236" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="G236" s="3" t="s">
+      <c r="H236" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
@@ -14156,7 +14174,7 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>1229</v>
       </c>
@@ -14164,19 +14182,21 @@
         <v>1230</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>30</v>
+        <v>1231</v>
       </c>
       <c r="D237" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E237:Z237),")")</f>
-        <v>(WISCONSIN|WIS)</v>
+        <v>(MARY|WILLMMARY|WM)</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F237" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="G237" s="3"/>
+      <c r="F237" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>1234</v>
+      </c>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
@@ -14199,23 +14219,23 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D238" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E238:Z238),")")</f>
-        <v>(WOFFORD|WOF)</v>
+        <v>(WISCONSIN|WIS)</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
@@ -14238,29 +14258,29 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1239</v>
+        <v>31</v>
       </c>
       <c r="D239" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E239:Z239),")")</f>
-        <v>(WYOMING|WYO|WY)</v>
+        <v>(WOFFORD|WOF)</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G239" s="3" t="s">
         <v>1242</v>
       </c>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
@@ -14279,7 +14299,7 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>1243</v>
       </c>
@@ -14287,21 +14307,21 @@
         <v>1244</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>30</v>
+        <v>1245</v>
       </c>
       <c r="D240" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E240:Z240),")")</f>
-        <v>(YALE|YAL)</v>
+        <v>(WYOMING|WYO|WY)</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>1246</v>
-      </c>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
+        <v>1247</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>1248</v>
+      </c>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
@@ -14322,23 +14342,23 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>414</v>
+        <v>1250</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1248</v>
+        <v>31</v>
       </c>
       <c r="D241" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E241:Z241),")")</f>
-        <v>(YOUNGSTOWN ST|YSU)</v>
+        <v>(YALE|YAL)</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
@@ -14362,8 +14382,25 @@
       <c r="Z241" s="3"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
+      <c r="A242" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D242" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E242:Z242),")")</f>
+        <v>(YOUNGSTOWN ST|YSU)</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>1256</v>
+      </c>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
@@ -14505,14 +14542,38 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
     </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
+      <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3"/>
+      <c r="Q248" s="3"/>
+      <c r="R248" s="3"/>
+      <c r="S248" s="3"/>
+      <c r="T248" s="3"/>
+      <c r="U248" s="3"/>
+      <c r="V248" s="3"/>
+      <c r="W248" s="3"/>
+      <c r="X248" s="3"/>
+      <c r="Y248" s="3"/>
+      <c r="Z248" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A193:A1048576 A1:A191">
+  <conditionalFormatting sqref="A194:A1048576 A77:A192 A1:A75">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J123:Z123 E123:H123 E124:Z125 E2:Z2 E58:Z58 H56:Z57 E56:F56 E57:G57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z75 I74:Z74 F74:G74 E78:Z89 E76:G76 I76:Z76 E95:Z98 H94:Z94 E93:F94 E101:Z103 E100:G100 I100:Z100 E106:Z106 H105:Z105 E105:F105 H108:Z108 E108 E109:Z113 E117:Z122 E115:H115 J114:Z115 E116:G116 I116:Z116 E128:Z130 H127:Z127 E127:F127 E133:Z144 E131:F131 H131:Z131 F148:Z160 E145:I145 L145:Z145 E165:Z166 E164:G164 I164:Z164 E168:Z170 I167:Z167 E167:G167 E172:Z182 E171:J171 N171:Z171 E184:Z187 J183:Z183 E183:H183 E188:H188 K188:Z188 E196:Z197 I194:Z194 E194:G195 I195:Z195 E200:Z200 I198:Z198 E198:G198 E199:H199 J199:Z199 E202:Z202 E201:I201 K201:Z201 E207:Z213 E206:G206 I206:Z206 E3:H3 J3:Z3 E114:G115 I114 E4:Z9 E10:F10 H10:Z10 E41:Z47 E40:F40 H40:Z40 E91:Z92 E90:F90 H90:Z90 E24:Z35 E23 G23:Z23 E146:E160 E162:Z162 G161:Z161 E161 F104:Z104 E205:Z205 E203:F204 H204:Z204 E126 G126:Z126 F68:Z69 F67:G67 I67:Z67 E50:Z55 E48 G48:Z48 M99:Z99 E99:F100 I99:K99 G99 E77 G77:Z77 F189:Z189 E107 G107:Z107 K146:Z146 H146:I147 F146:F147 E132:I132 K132:Z132 F49:Z49 E37:Z39 E36 G36:Z36 H203:Z203 J147:Z147 E63:G63 I63:Z63 J93:Z93 G93:H93 E11:Z22 E163 G163:Z163 E190:Z193">
+  <conditionalFormatting sqref="J124:Z124 E124:H124 E125:Z126 E2:Z2 E58:Z58 H56:Z57 E56:F56 E57:G57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 I74:Z74 F74:G74 E79:Z90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E102:Z104 E101:G101 I101:Z101 E107:Z107 H106:Z106 E106:F106 H109:Z109 E109 E110:Z114 E118:Z123 E116:H116 J115:Z116 E117:G117 I117:Z117 E129:Z131 H128:Z128 E128:F128 E134:Z145 E132:F132 H132:Z132 F149:Z161 E146:I146 L146:Z146 E166:Z167 E165:G165 I165:Z165 E169:Z171 I168:Z168 E168:G168 E173:Z183 E172:J172 N172:Z172 E185:Z188 J184:Z184 E184:H184 E189:H189 K189:Z189 E197:Z198 I195:Z195 E195:G196 I196:Z196 E201:Z201 I199:Z199 E199:G199 E200:H200 J200:Z200 E203:Z203 E202:I202 K202:Z202 E208:Z214 E207:G207 I207:Z207 E3:H3 J3:Z3 E115:G116 I115 E4:Z9 E10:F10 H10:Z10 E41:Z47 E40:F40 H40:Z40 E92:Z93 E91:F91 H91:Z91 E24:Z35 E23 G23:Z23 E147:E161 E163:Z163 G162:Z162 E162 F105:Z105 E206:Z206 E204:F205 H205:Z205 E127 G127:Z127 F68:Z69 F67:G67 I67:Z67 E50:Z55 E48 G48:Z48 M100:Z100 E100:F101 I100:K100 G100 E78 G78:Z78 F190:Z190 E108 G108:Z108 K147:Z147 H147:I148 F147:F148 E133:I133 K133:Z133 F49:Z49 E37:Z39 E36 G36:Z36 H204:Z204 J148:Z148 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z22 E164 G164:Z164 E191:Z194">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E215:Z218 E220:Z220 E219:H219 J219:Z219 E222:Z226 E221:H221 J221:Z221 E231:Z235 E230:H230 J230:Z230 E240:Z247 J239:Z239 E239:G239 E228:Z229 E227:F227 H227:Z227 G214:Z214 E214 E237:Z238 E236 G236:Z236">
+  <conditionalFormatting sqref="E216:Z219 E221:Z221 E220:H220 J220:Z220 E223:Z227 E222:H222 J222:Z222 E232:Z236 E231:H231 J231:Z231 E241:Z248 J240:Z240 E240:G240 E229:Z230 E228:F228 H228:Z228 G215:Z215 E215 E238:Z239 E237 G237:Z237">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/school_colors/school_colors.xlsx
+++ b/school_colors/school_colors.xlsx
@@ -3801,7 +3801,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3829,12 +3829,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3886,7 +3880,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3904,10 +3898,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4027,10 +4017,10 @@
   <dimension ref="A1:Z248"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.71"/>
@@ -4043,7 +4033,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -4060,7 +4050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -4147,7 +4137,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>18</v>
       </c>
@@ -4231,7 +4221,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>29</v>
       </c>
@@ -4274,7 +4264,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>35</v>
       </c>
@@ -4358,7 +4348,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>46</v>
       </c>
@@ -4493,7 +4483,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>67</v>
       </c>
@@ -4581,7 +4571,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>79</v>
       </c>
@@ -4628,7 +4618,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>85</v>
       </c>
@@ -4669,7 +4659,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>89</v>
       </c>
@@ -4755,7 +4745,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>101</v>
       </c>
@@ -4843,7 +4833,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>113</v>
       </c>
@@ -4888,7 +4878,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>119</v>
       </c>
@@ -4931,7 +4921,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>125</v>
       </c>
@@ -5076,7 +5066,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>150</v>
       </c>
@@ -5117,7 +5107,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>155</v>
       </c>
@@ -5156,7 +5146,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>158</v>
       </c>
@@ -5199,7 +5189,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>163</v>
       </c>
@@ -5238,7 +5228,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>166</v>
       </c>
@@ -5279,7 +5269,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>171</v>
       </c>
@@ -5322,7 +5312,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>177</v>
       </c>
@@ -5363,7 +5353,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>182</v>
       </c>
@@ -5406,7 +5396,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>188</v>
       </c>
@@ -5447,7 +5437,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>191</v>
       </c>
@@ -5490,7 +5480,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>197</v>
       </c>
@@ -5625,7 +5615,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>217</v>
       </c>
@@ -5666,7 +5656,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>221</v>
       </c>
@@ -5754,7 +5744,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>234</v>
       </c>
@@ -5793,7 +5783,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>238</v>
       </c>
@@ -5883,7 +5873,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>249</v>
       </c>
@@ -5928,7 +5918,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>256</v>
       </c>
@@ -5969,7 +5959,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>261</v>
       </c>
@@ -6010,7 +6000,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>266</v>
       </c>
@@ -6135,7 +6125,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>277</v>
       </c>
@@ -6178,7 +6168,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>283</v>
       </c>
@@ -6219,7 +6209,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>287</v>
       </c>
@@ -6260,7 +6250,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>292</v>
       </c>
@@ -6303,7 +6293,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>297</v>
       </c>
@@ -6346,7 +6336,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>302</v>
       </c>
@@ -6474,7 +6464,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>320</v>
       </c>
@@ -6563,7 +6553,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>333</v>
       </c>
@@ -6606,7 +6596,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>339</v>
       </c>
@@ -6785,7 +6775,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>364</v>
       </c>
@@ -6826,7 +6816,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>368</v>
       </c>
@@ -6918,7 +6908,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>380</v>
       </c>
@@ -6965,7 +6955,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>387</v>
       </c>
@@ -7111,7 +7101,7 @@
       <c r="E72" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="4" t="s">
         <v>407</v>
       </c>
       <c r="G72" s="3" t="s">
@@ -7139,7 +7129,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>410</v>
       </c>
@@ -7222,7 +7212,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>420</v>
       </c>
@@ -7267,20 +7257,20 @@
       <c r="A76" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>427</v>
       </c>
       <c r="D76" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E76:Z76),")")</f>
         <v>(HstnB|HCU)</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>429</v>
       </c>
       <c r="G76" s="3"/>
@@ -7389,7 +7379,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>440</v>
       </c>
@@ -7432,7 +7422,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>445</v>
       </c>
@@ -7473,7 +7463,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>450</v>
       </c>
@@ -7516,7 +7506,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>455</v>
       </c>
@@ -7557,7 +7547,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>459</v>
       </c>
@@ -7600,7 +7590,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>465</v>
       </c>
@@ -7645,7 +7635,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>469</v>
       </c>
@@ -7690,7 +7680,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>475</v>
       </c>
@@ -7733,7 +7723,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>479</v>
       </c>
@@ -7776,7 +7766,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>485</v>
       </c>
@@ -7819,7 +7809,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>489</v>
       </c>
@@ -7858,7 +7848,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>493</v>
       </c>
@@ -7950,7 +7940,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>507</v>
       </c>
@@ -7991,7 +7981,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>510</v>
       </c>
@@ -8120,7 +8110,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>524</v>
       </c>
@@ -8163,7 +8153,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>530</v>
       </c>
@@ -8202,7 +8192,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>534</v>
       </c>
@@ -8245,7 +8235,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>539</v>
       </c>
@@ -8378,7 +8368,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>557</v>
       </c>
@@ -8423,7 +8413,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>564</v>
       </c>
@@ -8466,7 +8456,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>567</v>
       </c>
@@ -8588,7 +8578,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>581</v>
       </c>
@@ -8717,7 +8707,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>598</v>
       </c>
@@ -8758,7 +8748,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>602</v>
       </c>
@@ -8852,7 +8842,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>615</v>
       </c>
@@ -8895,7 +8885,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>621</v>
       </c>
@@ -9078,7 +9068,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>647</v>
       </c>
@@ -9119,7 +9109,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>650</v>
       </c>
@@ -9162,7 +9152,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>654</v>
       </c>
@@ -9203,7 +9193,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>657</v>
       </c>
@@ -9244,7 +9234,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>660</v>
       </c>
@@ -9285,7 +9275,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>663</v>
       </c>
@@ -9326,7 +9316,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>666</v>
       </c>
@@ -9366,7 +9356,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>670</v>
       </c>
@@ -9409,7 +9399,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>676</v>
       </c>
@@ -9535,7 +9525,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>689</v>
       </c>
@@ -9580,7 +9570,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>695</v>
       </c>
@@ -9759,7 +9749,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>719</v>
       </c>
@@ -9800,7 +9790,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>723</v>
       </c>
@@ -9843,7 +9833,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>729</v>
       </c>
@@ -9886,7 +9876,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>735</v>
       </c>
@@ -9931,7 +9921,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>742</v>
       </c>
@@ -9972,7 +9962,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>745</v>
       </c>
@@ -10013,7 +10003,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>750</v>
       </c>
@@ -10054,7 +10044,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>755</v>
       </c>
@@ -10099,7 +10089,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>761</v>
       </c>
@@ -10140,7 +10130,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>765</v>
       </c>
@@ -10185,7 +10175,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>770</v>
       </c>
@@ -10226,7 +10216,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>773</v>
       </c>
@@ -10407,7 +10397,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>797</v>
       </c>
@@ -10450,7 +10440,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>803</v>
       </c>
@@ -10497,7 +10487,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>810</v>
       </c>
@@ -10540,7 +10530,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>815</v>
       </c>
@@ -10583,7 +10573,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>819</v>
       </c>
@@ -10626,7 +10616,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>823</v>
       </c>
@@ -10673,7 +10663,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>830</v>
       </c>
@@ -10714,7 +10704,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>835</v>
       </c>
@@ -10757,7 +10747,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>839</v>
       </c>
@@ -10802,7 +10792,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>844</v>
       </c>
@@ -10845,7 +10835,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>849</v>
       </c>
@@ -10886,7 +10876,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>851</v>
       </c>
@@ -10929,7 +10919,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>856</v>
       </c>
@@ -11013,7 +11003,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>863</v>
       </c>
@@ -11141,7 +11131,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>876</v>
       </c>
@@ -11267,7 +11257,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>892</v>
       </c>
@@ -11310,7 +11300,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>897</v>
       </c>
@@ -11351,7 +11341,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>902</v>
       </c>
@@ -11485,7 +11475,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>921</v>
       </c>
@@ -11526,7 +11516,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>925</v>
       </c>
@@ -11565,7 +11555,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>926</v>
       </c>
@@ -11608,7 +11598,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>931</v>
       </c>
@@ -11653,7 +11643,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>936</v>
       </c>
@@ -11698,7 +11688,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>943</v>
       </c>
@@ -11741,7 +11731,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>947</v>
       </c>
@@ -11784,7 +11774,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>951</v>
       </c>
@@ -11827,7 +11817,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>957</v>
       </c>
@@ -11870,7 +11860,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>961</v>
       </c>
@@ -11955,7 +11945,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>972</v>
       </c>
@@ -11996,7 +11986,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>976</v>
       </c>
@@ -12039,7 +12029,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>981</v>
       </c>
@@ -12081,20 +12071,20 @@
       <c r="Z187" s="3"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="5" t="s">
         <v>986</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" s="5" t="s">
         <v>987</v>
       </c>
       <c r="D188" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E188:Z188),")")</f>
         <v>(SFrPA)</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="E188" s="4" t="s">
         <v>988</v>
       </c>
       <c r="F188" s="3"/>
@@ -12203,7 +12193,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>1000</v>
       </c>
@@ -12244,7 +12234,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>1004</v>
       </c>
@@ -12291,20 +12281,20 @@
       <c r="A193" s="0" t="s">
         <v>1009</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C193" s="5" t="s">
         <v>1011</v>
       </c>
       <c r="D193" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E193:Z193),")")</f>
         <v>(TARLETON ST|trlst)</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="F193" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="G193" s="3"/>
@@ -12328,7 +12318,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>1014</v>
       </c>
@@ -12451,7 +12441,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>1027</v>
       </c>
@@ -12492,7 +12482,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>1030</v>
       </c>
@@ -12619,7 +12609,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>1046</v>
       </c>
@@ -12708,7 +12698,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>1058</v>
       </c>
@@ -12843,7 +12833,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>1075</v>
       </c>
@@ -12926,7 +12916,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>1086</v>
       </c>
@@ -12967,7 +12957,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>1090</v>
       </c>
@@ -13012,7 +13002,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>1096</v>
       </c>
@@ -13051,7 +13041,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>1098</v>
       </c>
@@ -13092,7 +13082,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>1101</v>
       </c>
@@ -13131,7 +13121,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>1103</v>
       </c>
@@ -13172,7 +13162,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>1106</v>
       </c>
@@ -13260,7 +13250,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>935</v>
       </c>
@@ -13299,7 +13289,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>1118</v>
       </c>
@@ -13342,7 +13332,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>1124</v>
       </c>
@@ -13389,7 +13379,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>1131</v>
       </c>
@@ -13476,7 +13466,7 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>1142</v>
       </c>
@@ -13563,7 +13553,7 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>1150</v>
       </c>
@@ -13604,7 +13594,7 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>1153</v>
       </c>
@@ -13647,7 +13637,7 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>1159</v>
       </c>
@@ -13694,7 +13684,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>1167</v>
       </c>
@@ -13733,7 +13723,7 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>1169</v>
       </c>
@@ -13819,7 +13809,7 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>1180</v>
       </c>
@@ -13866,7 +13856,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>1188</v>
       </c>
@@ -13955,7 +13945,7 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>1201</v>
       </c>
@@ -14000,7 +13990,7 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>1206</v>
       </c>
@@ -14045,7 +14035,7 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>1213</v>
       </c>
@@ -14086,7 +14076,7 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>1217</v>
       </c>
@@ -14129,7 +14119,7 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>1222</v>
       </c>
@@ -14217,7 +14207,7 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>1235</v>
       </c>
@@ -14258,7 +14248,7 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>1239</v>
       </c>
@@ -14340,7 +14330,7 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>1249</v>
       </c>
@@ -14381,7 +14371,7 @@
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>1253</v>
       </c>
@@ -14422,7 +14412,7 @@
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
@@ -14446,7 +14436,7 @@
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
@@ -14470,7 +14460,7 @@
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
@@ -14494,7 +14484,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
@@ -14518,7 +14508,7 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
@@ -14542,7 +14532,7 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
@@ -14570,7 +14560,7 @@
   <conditionalFormatting sqref="A194:A1048576 A77:A192 A1:A75">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J124:Z124 E124:H124 E125:Z126 E2:Z2 E58:Z58 H56:Z57 E56:F56 E57:G57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 I74:Z74 F74:G74 E79:Z90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E102:Z104 E101:G101 I101:Z101 E107:Z107 H106:Z106 E106:F106 H109:Z109 E109 E110:Z114 E118:Z123 E116:H116 J115:Z116 E117:G117 I117:Z117 E129:Z131 H128:Z128 E128:F128 E134:Z145 E132:F132 H132:Z132 F149:Z161 E146:I146 L146:Z146 E166:Z167 E165:G165 I165:Z165 E169:Z171 I168:Z168 E168:G168 E173:Z183 E172:J172 N172:Z172 E185:Z188 J184:Z184 E184:H184 E189:H189 K189:Z189 E197:Z198 I195:Z195 E195:G196 I196:Z196 E201:Z201 I199:Z199 E199:G199 E200:H200 J200:Z200 E203:Z203 E202:I202 K202:Z202 E208:Z214 E207:G207 I207:Z207 E3:H3 J3:Z3 E115:G116 I115 E4:Z9 E10:F10 H10:Z10 E41:Z47 E40:F40 H40:Z40 E92:Z93 E91:F91 H91:Z91 E24:Z35 E23 G23:Z23 E147:E161 E163:Z163 G162:Z162 E162 F105:Z105 E206:Z206 E204:F205 H205:Z205 E127 G127:Z127 F68:Z69 F67:G67 I67:Z67 E50:Z55 E48 G48:Z48 M100:Z100 E100:F101 I100:K100 G100 E78 G78:Z78 F190:Z190 E108 G108:Z108 K147:Z147 H147:I148 F147:F148 E133:I133 K133:Z133 F49:Z49 E37:Z39 E36 G36:Z36 H204:Z204 J148:Z148 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z22 E164 G164:Z164 E191:Z194">
+  <conditionalFormatting sqref="J124:Z124 E124:H124 E125:Z126 E2:Z2 E58:Z58 H56:Z57 E56:F56 E57:G57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 I74:Z74 F74:G74 E79:Z90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E102:Z104 E101:G101 I101:Z101 E107:Z107 H106:Z106 E106:F106 H109:Z109 E108:E109 E110:Z114 E118:Z123 E116:H116 J115:Z116 E115:G117 I117:Z117 E129:Z131 H128:Z128 E128:F128 E134:Z145 E132:F132 H132:Z132 F149:Z161 E146:I146 L146:Z146 E166:Z167 E165:G165 I165:Z165 E169:Z171 I168:Z168 E168:G168 E173:Z183 E172:J172 N172:Z172 E185:Z188 J184:Z184 E184:H184 E189:H189 K189:Z189 E197:Z198 I195:Z196 E195:G196 E201:Z201 I199:Z199 E199:G199 E200:H200 J200:Z200 E203:Z203 E202:I202 K202:Z202 E208:Z214 E207:G207 I207:Z207 E3:H3 J3:Z3 I115 E4:Z9 E10:F10 H10:Z10 E41:Z47 E40:F40 H40:Z40 E92:Z93 E91:F91 H91:Z91 E24:Z35 E23 G23:Z23 E147:E162 E163:Z163 G162:Z162 F105:Z105 E206:Z206 E204:F205 H204:Z205 E127 G127:Z127 F68:Z69 F67:G67 I67:Z67 E50:Z55 E48 G48:Z48 M100:Z100 E100:F101 I100:K100 G100 E78 G78:Z78 F190:Z190 G108:Z108 K147:Z147 H147:I148 F147:F148 E133:I133 K133:Z133 F49:Z49 E37:Z39 E36 G36:Z36 J148:Z148 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z22 E164 G164:Z164 E191:Z194">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E216:Z219 E221:Z221 E220:H220 J220:Z220 E223:Z227 E222:H222 J222:Z222 E232:Z236 E231:H231 J231:Z231 E241:Z248 J240:Z240 E240:G240 E229:Z230 E228:F228 H228:Z228 G215:Z215 E215 E238:Z239 E237 G237:Z237">

--- a/school_colors/school_colors.xlsx
+++ b/school_colors/school_colors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1262">
   <si>
     <t xml:space="preserve">School</t>
   </si>
@@ -3446,6 +3446,21 @@
   </si>
   <si>
     <t xml:space="preserve">US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#BA1C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#003058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTAH TECH</t>
   </si>
   <si>
     <t xml:space="preserve">UTEP</t>
@@ -3801,7 +3816,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3836,6 +3851,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3880,7 +3901,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3903,6 +3924,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4014,13 +4039,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z248"/>
+  <dimension ref="A1:Z249"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F221" activeCellId="0" sqref="F221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.71"/>
@@ -13471,26 +13496,25 @@
         <v>1142</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1022</v>
+        <v>1143</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>19</v>
+        <v>1144</v>
       </c>
       <c r="D221" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E221:Z221),")")</f>
-        <v>(UTEP|TEP|UTE)</v>
+        <v>(UTU|UTAH TECH|Utah)</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>1143</v>
+        <v>1145</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>1146</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
@@ -13511,30 +13535,29 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>37</v>
+        <v>1022</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1145</v>
+        <v>19</v>
       </c>
       <c r="D222" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E222:Z222),")")</f>
-        <v>(VANDERBILT|VANDY|VAN|VU)</v>
+        <v>(UTEP|TEP|UTE)</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="H222" s="3" t="s">
-        <v>1149</v>
-      </c>
+        <v>1135</v>
+      </c>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
@@ -13555,27 +13578,30 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>1150</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>1151</v>
       </c>
       <c r="D223" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E223:Z223),")")</f>
-        <v>(VILLANOVA|VU)</v>
+        <v>(VANDERBILT|VANDY|VAN|VU)</v>
       </c>
       <c r="E223" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F223" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="F223" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
+      <c r="G223" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>1154</v>
+      </c>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
@@ -13596,27 +13622,25 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1154</v>
+        <v>664</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D224" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E224:Z224),")")</f>
-        <v>(VIRGINIA|VA|UVA)</v>
+        <v>(VILLANOVA|VU)</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="G224" s="3" t="s">
-        <v>1158</v>
-      </c>
+        <v>1154</v>
+      </c>
+      <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
@@ -13639,33 +13663,29 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="C225" s="2" t="s">
         <v>1160</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>1161</v>
       </c>
       <c r="D225" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E225:Z225),")")</f>
-        <v>(VIRGINIA TECH|VATECH|VT|VaT|VAT)</v>
+        <v>(VIRGINIA|VA|UVA)</v>
       </c>
       <c r="E225" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F225" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="F225" s="3" t="s">
+      <c r="G225" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="G225" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="H225" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="I225" s="3" t="s">
-        <v>1166</v>
-      </c>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
@@ -13686,25 +13706,33 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>583</v>
+        <v>1166</v>
       </c>
       <c r="D226" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E226:Z226),")")</f>
-        <v>(VMI)</v>
+        <v>(VIRGINIA TECH|VATECH|VT|VaT|VAT)</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
+      <c r="F226" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>1171</v>
+      </c>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
@@ -13725,24 +13753,22 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1171</v>
+        <v>583</v>
       </c>
       <c r="D227" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E227:Z227),")")</f>
-        <v>(WAGNER|WAG)</v>
+        <v>(VMI)</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="F227" s="3" t="s">
-        <v>1173</v>
-      </c>
+      <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
@@ -13772,24 +13798,20 @@
         <v>1175</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>37</v>
+        <v>1176</v>
       </c>
       <c r="D228" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E228:Z228),")")</f>
-        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
+        <v>(WAGNER|WAG)</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G228" s="0" t="s">
         <v>1178</v>
       </c>
-      <c r="H228" s="3" t="s">
-        <v>1179</v>
-      </c>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
@@ -13811,33 +13833,31 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>1181</v>
-      </c>
       <c r="C229" s="2" t="s">
-        <v>1182</v>
+        <v>37</v>
       </c>
       <c r="D229" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E229:Z229),")")</f>
-        <v>(WASHINGTON|WASH|UW|WAS|U W)</v>
+        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
       </c>
       <c r="E229" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G229" s="0" t="s">
         <v>1183</v>
       </c>
-      <c r="F229" s="3" t="s">
+      <c r="H229" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="G229" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H229" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="I229" s="3" t="s">
-        <v>1187</v>
-      </c>
+      <c r="I229" s="3"/>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
@@ -13858,31 +13878,33 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D230" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E230:Z230),")")</f>
-        <v>(WASHINGTON ST|WSU|WASHST|COU)</v>
+        <v>(WASHINGTON|WASH|UW|WAS|U W)</v>
       </c>
       <c r="E230" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H230" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="F230" s="3" t="s">
+      <c r="I230" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="G230" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H230" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
@@ -13903,30 +13925,31 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>1195</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>1197</v>
       </c>
       <c r="D231" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E231:Z231),")")</f>
-        <v>(WEBER ST|WEBERST|WEBER|WSU)</v>
+        <v>(WASHINGTON ST|WSU|WASHST|COU)</v>
       </c>
       <c r="E231" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G231" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="F231" s="3" t="s">
+      <c r="H231" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="G231" s="3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H231" s="3" t="s">
-        <v>1192</v>
-      </c>
+      <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
@@ -13947,31 +13970,30 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="C232" s="2" t="s">
-        <v>963</v>
+        <v>1202</v>
       </c>
       <c r="D232" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E232:Z232),")")</f>
-        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
+        <v>(WEBER ST|WEBERST|WEBER|WSU)</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I232" s="3"/>
+        <v>1197</v>
+      </c>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
@@ -13995,26 +14017,26 @@
         <v>1206</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1207</v>
+        <v>199</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1208</v>
+        <v>963</v>
       </c>
       <c r="D233" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E233:Z233),")")</f>
-        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCU)</v>
+        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
       </c>
       <c r="E233" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G233" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="H233" s="3" t="s">
         <v>1210</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H233" s="3" t="s">
-        <v>1212</v>
       </c>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
@@ -14037,26 +14059,30 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>1213</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D234" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E234:Z234),")")</f>
-        <v>(WESTRN ILLINOIS|WIU)</v>
+        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCU)</v>
       </c>
       <c r="E234" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F234" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="G234" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
+      <c r="H234" s="3" t="s">
+        <v>1217</v>
+      </c>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
@@ -14078,27 +14104,25 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>382</v>
+        <v>1219</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1218</v>
+        <v>55</v>
       </c>
       <c r="D235" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E235:Z235),")")</f>
-        <v>(WESTRN KENTUCKY|WKU|WESTERNKY)</v>
+        <v>(WESTRN ILLINOIS|WIU)</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G235" s="3" t="s">
         <v>1221</v>
       </c>
+      <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
@@ -14124,27 +14148,25 @@
         <v>1222</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>1223</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>1224</v>
       </c>
       <c r="D236" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E236:Z236),")")</f>
-        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMI)</v>
+        <v>(WESTRN KENTUCKY|WKU|WESTERNKY)</v>
       </c>
       <c r="E236" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F236" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="F236" s="3" t="s">
+      <c r="G236" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="G236" s="3" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H236" s="3" t="s">
-        <v>1228</v>
-      </c>
+      <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
@@ -14166,28 +14188,30 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>1229</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>1231</v>
       </c>
       <c r="D237" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E237:Z237),")")</f>
-        <v>(MARY|WILLMMARY|WM)</v>
+        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMI)</v>
       </c>
       <c r="E237" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G237" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="F237" s="0" t="s">
+      <c r="H237" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="G237" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
@@ -14209,25 +14233,27 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>1236</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D238" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E238:Z238),")")</f>
-        <v>(WISCONSIN|WIS)</v>
+        <v>(MARY|WILLMMARY|WM)</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="F238" s="0" t="s">
         <v>1238</v>
       </c>
-      <c r="G238" s="3"/>
+      <c r="G238" s="3" t="s">
+        <v>1239</v>
+      </c>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
@@ -14250,23 +14276,23 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D239" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E239:Z239),")")</f>
-        <v>(WOFFORD|WOF)</v>
+        <v>(WISCONSIN|WIS)</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
@@ -14291,17 +14317,17 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1245</v>
+        <v>31</v>
       </c>
       <c r="D240" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E240:Z240),")")</f>
-        <v>(WYOMING|WYO|WY)</v>
+        <v>(WOFFORD|WOF)</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>1246</v>
@@ -14309,9 +14335,9 @@
       <c r="F240" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="G240" s="3" t="s">
-        <v>1248</v>
-      </c>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
@@ -14332,17 +14358,17 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>1250</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D241" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E241:Z241),")")</f>
-        <v>(YALE|YAL)</v>
+        <v>(WYOMING|WYO|WY)</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>1251</v>
@@ -14350,9 +14376,9 @@
       <c r="F241" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
+      <c r="G241" s="3" t="s">
+        <v>1253</v>
+      </c>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
@@ -14373,23 +14399,23 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>415</v>
+        <v>1255</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1254</v>
+        <v>31</v>
       </c>
       <c r="D242" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E242:Z242),")")</f>
-        <v>(YOUNGSTOWN ST|YSU)</v>
+        <v>(YALE|YAL)</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
@@ -14413,8 +14439,25 @@
       <c r="Z242" s="3"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
+      <c r="A243" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D243" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E243:Z243),")")</f>
+        <v>(YOUNGSTOWN ST|YSU)</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>1261</v>
+      </c>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
@@ -14556,14 +14599,38 @@
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
     </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
+      <c r="K249" s="3"/>
+      <c r="L249" s="3"/>
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3"/>
+      <c r="Q249" s="3"/>
+      <c r="R249" s="3"/>
+      <c r="S249" s="3"/>
+      <c r="T249" s="3"/>
+      <c r="U249" s="3"/>
+      <c r="V249" s="3"/>
+      <c r="W249" s="3"/>
+      <c r="X249" s="3"/>
+      <c r="Y249" s="3"/>
+      <c r="Z249" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A194:A1048576 A77:A192 A1:A75">
+  <conditionalFormatting sqref="A222:A1048576 A77:A192 A1:A75 A194:A220">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:Z124 E124:H124 E125:Z126 E2:Z2 E58:Z58 H56:Z57 E56:F56 E57:G57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 I74:Z74 F74:G74 E79:Z90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E102:Z104 E101:G101 I101:Z101 E107:Z107 H106:Z106 E106:F106 H109:Z109 E108:E109 E110:Z114 E118:Z123 E116:H116 J115:Z116 E115:G117 I117:Z117 E129:Z131 H128:Z128 E128:F128 E134:Z145 E132:F132 H132:Z132 F149:Z161 E146:I146 L146:Z146 E166:Z167 E165:G165 I165:Z165 E169:Z171 I168:Z168 E168:G168 E173:Z183 E172:J172 N172:Z172 E185:Z188 J184:Z184 E184:H184 E189:H189 K189:Z189 E197:Z198 I195:Z196 E195:G196 E201:Z201 I199:Z199 E199:G199 E200:H200 J200:Z200 E203:Z203 E202:I202 K202:Z202 E208:Z214 E207:G207 I207:Z207 E3:H3 J3:Z3 I115 E4:Z9 E10:F10 H10:Z10 E41:Z47 E40:F40 H40:Z40 E92:Z93 E91:F91 H91:Z91 E24:Z35 E23 G23:Z23 E147:E162 E163:Z163 G162:Z162 F105:Z105 E206:Z206 E204:F205 H204:Z205 E127 G127:Z127 F68:Z69 F67:G67 I67:Z67 E50:Z55 E48 G48:Z48 M100:Z100 E100:F101 I100:K100 G100 E78 G78:Z78 F190:Z190 G108:Z108 K147:Z147 H147:I148 F147:F148 E133:I133 K133:Z133 F49:Z49 E37:Z39 E36 G36:Z36 J148:Z148 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z22 E164 G164:Z164 E191:Z194">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E216:Z219 E221:Z221 E220:H220 J220:Z220 E223:Z227 E222:H222 J222:Z222 E232:Z236 E231:H231 J231:Z231 E241:Z248 J240:Z240 E240:G240 E229:Z230 E228:F228 H228:Z228 G215:Z215 E215 E238:Z239 E237 G237:Z237">
+  <conditionalFormatting sqref="E216:Z219 E222:Z222 E220:H220 J220:Z221 E224:Z228 E223:H223 J223:Z223 E233:Z237 E232:H232 J232:Z232 E242:Z249 J241:Z241 E241:G241 E230:Z231 E229:F229 H229:Z229 G215:Z215 E215 E239:Z240 E238 G238:Z238 E221 G221:H221">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/school_colors/school_colors.xlsx
+++ b/school_colors/school_colors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1263">
   <si>
     <t xml:space="preserve">School</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">ALABAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALA</t>
   </si>
   <si>
     <t xml:space="preserve">Alab</t>
@@ -3816,7 +3819,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3851,12 +3854,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3901,7 +3898,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3924,10 +3921,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4041,11 +4034,11 @@
   </sheetPr>
   <dimension ref="A1:Z249"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F221" activeCellId="0" sqref="F221"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.71"/>
@@ -4215,18 +4208,20 @@
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E5:Z5),")")</f>
-        <v>(ALABAMA|Alab|UA)</v>
+        <v>(ALABAMA|ALA|Alab|UA)</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4248,26 +4243,26 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E6:Z6),")")</f>
         <v>(AAMU|ALABAMA A&amp;M|AAM)</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4291,23 +4286,23 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E7:Z7),")")</f>
         <v>(ALST|ALABAMA ST)</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -4332,26 +4327,26 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E8:Z8),")")</f>
         <v>(ALBANY|ALB|UALBANY)</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -4375,29 +4370,29 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E9:Z9),")")</f>
         <v>(ALCORN ST|ALCN|ALCORNST|ALC)</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -4420,29 +4415,29 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E10:Z10),")")</f>
         <v>(APPALACHIAN ST|APPALCHAN|APP STATE|APP)</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4465,29 +4460,29 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E11:Z11),")")</f>
         <v>(ARIZONA|ARIZ|ARI|ARZ)</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4510,26 +4505,26 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E12:Z12),")")</f>
         <v>(ARIZONA ST|ARIZONAST|ASU)</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -4553,29 +4548,29 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E13:Z13),")")</f>
         <v>(ARKANSAS|ARK|Ark|AR)</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4598,32 +4593,32 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E14:Z14),")")</f>
         <v>(ARKANSAS ST|ARKST|ASU|ARST|A-ST)</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4645,23 +4640,23 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E15:Z15),")")</f>
         <v>(UAPB|ARK PINE BLUFF)</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -4686,26 +4681,26 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E16:Z16),")")</f>
         <v>(ARMY|ARM|AWP)</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -4729,26 +4724,26 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E17:Z17),")")</f>
         <v>(AUBURN|AUB|AU)</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -4772,26 +4767,26 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E18:Z18),")")</f>
         <v>(AUSTINPEAY|APSU|APS)</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -4815,29 +4810,29 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E19:Z19),")")</f>
         <v>(BALL ST|BALLST|BALL|BSU)</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -4860,29 +4855,29 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E20:Z20),")")</f>
         <v>(BAYLOR|BU|BAY|Baylor)</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -4905,26 +4900,26 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E21:Z21),")")</f>
         <v>(BCU|BETHUNE COOKMAN|BETHCOOK)</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -4948,32 +4943,32 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E22:Z22),")")</f>
         <v>(BOISE ST|BOISEST|BSU|BOISE|BS)</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -4995,35 +4990,35 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E23:Z23),")")</f>
         <v>(BOSTON COLLEGE|BOSTONCOLL|BOSTCOLL|BOS|BC|BC\.)</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -5044,35 +5039,35 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E24:Z24),")")</f>
         <v>(BOWLING GREEN|BOWLGREEN|BOW|BGSU|BGS|BG)</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -5093,23 +5088,23 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E25:Z25),")")</f>
         <v>(BRYANT|BRY)</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -5134,20 +5129,20 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E26:Z26),")")</f>
         <v>(BUCKNELL)</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -5173,26 +5168,26 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E27:Z27),")")</f>
         <v>(BUFFALO|UB|BUF)</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -5216,20 +5211,20 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E28:Z28),")")</f>
         <v>(BYU)</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -5255,23 +5250,23 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E29:Z29),")")</f>
         <v>(CAL POLY|CP)</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -5296,26 +5291,26 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E30:Z30),")")</f>
         <v>(CALIFORNIA|CAL|Cal)</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -5339,23 +5334,23 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E31:Z31),")")</f>
         <v>(CAMPBELL|CAM)</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -5380,26 +5375,26 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E32:Z32),")")</f>
         <v>(CENTRAL ARK|UCA|CENTRALARK)</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -5423,23 +5418,23 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E33:Z33),")")</f>
         <v>(CCSU|CENTRAL CONN)</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -5464,26 +5459,26 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E34:Z34),")")</f>
         <v>(CENTMICH|CENTRAL MICH|CMU)</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -5507,29 +5502,29 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E35:Z35),")")</f>
         <v>(CHARLESTON SOU|CHASOTHERN|CSU|CHSO)</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -5552,29 +5547,29 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E36:Z36),")")</f>
         <v>(CHARLOTTE|CHAR|CHA|CLT)</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -5597,29 +5592,29 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E37:Z37),")")</f>
         <v>(CHATTANOOGA|CHATTANOOG|CHA|UTC)</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -5642,23 +5637,23 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E38:Z38),")")</f>
         <v>(CINCINNATI|CIN)</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -5683,26 +5678,26 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E39:Z39),")")</f>
         <v>(CLEMSON|CU|CLE)</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -5726,29 +5721,29 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E40:Z40),")")</f>
         <v>(CCU|COASTL CAROLINA|COASTALCAR|COASTAL)</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -5771,20 +5766,20 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E41:Z41),")")</f>
         <v>(COLGATE)</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -5810,29 +5805,29 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E42:Z42),")")</f>
         <v>(COLORADO|COLO|COL|CU)</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -5855,29 +5850,29 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E43:Z43),")")</f>
         <v>(COLORADO ST|COLOST|CSU|CS)</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -5900,29 +5895,29 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E44:Z44),")")</f>
         <v>(CONNECTICUT|UCONN|CON|UCO)</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -5945,23 +5940,23 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E45:Z45),")")</f>
         <v>(DELAWARE|DEL)</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -5986,23 +5981,23 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E46:Z46),")")</f>
         <v>(DELAWARE ST|DSU)</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -6027,23 +6022,23 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E47:Z47),")")</f>
         <v>(DRAKE|DU)</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -6068,26 +6063,26 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E48:Z48),")")</f>
         <v>(DUKE|DUK|DU)</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -6111,23 +6106,23 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E49:Z49),")")</f>
         <v>(DUQUESNE|DUQ)</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -6152,26 +6147,26 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E50:Z50),")")</f>
         <v>(EAST CAROLINA|EASTCRLINA|ECU)</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -6195,23 +6190,23 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E51:Z51),")")</f>
         <v>(ETSU|EAST TENN ST)</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -6236,23 +6231,23 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D52" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E52:Z52),")")</f>
         <v>(EASTRN ILLINOIS|EIU)</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -6277,26 +6272,26 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E53:Z53),")")</f>
         <v>(EKU|EASTRN KENTUCKY|EASTERNKY)</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -6320,26 +6315,26 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E54:Z54),")")</f>
         <v>(EASTMICH|EASTRN MICHIGAN|EMU)</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -6363,26 +6358,26 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E55:Z55),")")</f>
         <v>(EASTERN WASH|EWU|EASTWASH)</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -6406,23 +6401,23 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E56:Z56),")")</f>
         <v>(ELON|ELO)</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -6446,29 +6441,29 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E57:Z57),")")</f>
         <v>(FLORIDA|FLA|UFL|UF)</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -6491,29 +6486,29 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E58:Z58),")")</f>
         <v>(FLORIDA A&amp;M|FLORIDAAM|FAMU|FAM)</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -6536,29 +6531,29 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E59:Z59),")")</f>
         <v>(FLA ATLANTIC|FLAATLANTC|FAU20\d+|FAU)</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -6580,26 +6575,26 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D60" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E60:Z60),")")</f>
         <v>(FIU|FLORIDA INTL|FLAINTL)</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -6623,29 +6618,29 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E61:Z61),")")</f>
         <v>(FLORIDAST|FSU|FS|FLORIDA ST)</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -6668,29 +6663,29 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E62:Z62),")")</f>
         <v>(FORDHAM|FORD|FOR|FHU)</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -6713,35 +6708,35 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E63:Z63),")")</f>
         <v>(FRESNO ST|FRESNOST|FRS|FST|FSU|FS)</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -6762,23 +6757,23 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D64" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E64:Z64),")")</f>
         <v>(FURMAN|FUR)</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -6802,23 +6797,23 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E65:Z65),")")</f>
         <v>(GWU|WEBB)</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -6843,26 +6838,26 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D66" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E66:Z66),")")</f>
         <v>(GEORGIA|UGA|Georgia)</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -6886,35 +6881,35 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D67" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E67:Z67),")")</f>
         <v>(GA SOUTHERN|GASOUTHERN|GAS|GSO|GSU|GS)</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -6935,32 +6930,32 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D68" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E68:Z68),")")</f>
         <v>(GEORGIA ST|GSU|GEORGIAST|GAST|GST)</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -6982,32 +6977,32 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D69" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E69:Z69),")")</f>
         <v>(GEORGIA TECH|GATECH|GT|GAT|GIT)</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -7029,26 +7024,26 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D70" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E70:Z70),")")</f>
         <v>(GRAMBLING|GRAM|GSU)</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -7071,23 +7066,23 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E71:Z71),")")</f>
         <v>(HAMPTON|HAM)</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -7111,29 +7106,29 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D72" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E72:Z72),")")</f>
         <v>(HAWAII|Hawaii|HAW|UH)</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -7156,23 +7151,23 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D73" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E73:Z73),")")</f>
         <v>(HC|HOLY CROSS)</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -7197,26 +7192,26 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D74" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E74:Z74),")")</f>
         <v>(HOUSTON|HOU|UHO)</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -7239,23 +7234,23 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D75" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E75:Z75),")")</f>
         <v>(HBU|HOUSTON BAPTIST)</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -7280,23 +7275,23 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D76" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E76:Z76),")")</f>
         <v>(HstnB|HCU)</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -7321,26 +7316,26 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D77" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E77:Z77),")")</f>
         <v>(HOWARD|HOWFB14|HOW)</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -7363,26 +7358,26 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D78" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E78:Z78),")")</f>
         <v>(IDAHO|IDAHO17|IDA)</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -7406,26 +7401,26 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D79" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E79:Z79),")")</f>
         <v>(IDAHO ST|ISU|IDAHOST)</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -7449,23 +7444,23 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D80" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E80:Z80),")")</f>
         <v>(ILLINOIS|ILL)</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -7490,26 +7485,26 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D81" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E81:Z81),")")</f>
         <v>(ILLINOIS ST|ILS|ISU)</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -7533,23 +7528,23 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D82" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E82:Z82),")")</f>
         <v>(INCARNATEW|UIW)</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -7574,26 +7569,26 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D83" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E83:Z83),")")</f>
         <v>(INDIANA|IND|INS)</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -7617,29 +7612,29 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E84:Z84),")")</f>
         <v>(INDIANAST|INDIANA ST|INS|ISU)</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -7662,29 +7657,29 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D85" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E85:Z85),")")</f>
         <v>(IOWA|IOW|UI|IWA)</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -7707,26 +7702,26 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D86" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E86:Z86),")")</f>
         <v>(IOWA ST|IOWAST|ISU)</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -7750,26 +7745,26 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D87" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E87:Z87),")")</f>
         <v>(JACKSON ST|JACKST|JKST)</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7793,26 +7788,26 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D88" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E88:Z88),")")</f>
         <v>(JACKSONVILLE ST|JAXVILLEST|JSU)</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -7836,20 +7831,20 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D89" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E89:Z89),")")</f>
         <v>(JMU)</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -7875,32 +7870,32 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D90" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E90:Z90),")")</f>
         <v>(KANSAS|KAN|KU|Kansas|Kan)</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -7922,29 +7917,29 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D91" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E91:Z91),")")</f>
         <v>(KANSAS ST|KANSASST|KSU|KS)</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -7967,10 +7962,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>7</v>
@@ -7980,10 +7975,10 @@
         <v>(KENNESAW ST|KSU)</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -8008,29 +8003,29 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D93" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E93:Z93),")")</f>
         <v>(KENT ST|KENTST|KSU|KENT)</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -8053,29 +8048,29 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D94" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E94:Z94),")")</f>
         <v>(KENTUCKY|Kent|UKY|UK)</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
@@ -8097,23 +8092,23 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D95" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E95:Z95),")")</f>
         <v>(LAFAYETTE|LAFAYETT)</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -8137,26 +8132,26 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D96" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E96:Z96),")")</f>
         <v>(LAMAR|LU|LAM)</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -8180,20 +8175,20 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D97" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E97:Z97),")")</f>
         <v>(LEHIGH)</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -8219,26 +8214,26 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D98" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E98:Z98),")")</f>
         <v>(LIBERTY|LIB|LU)</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -8262,10 +8257,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
@@ -8275,10 +8270,10 @@
         <v>(LIU|LONG ISLAND)</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -8303,38 +8298,38 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D100" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E100:Z100),")")</f>
         <v>(LA|LOUISIANA|LOU|UL LAFAYETTE|ULLAFAYTTE|ULL|UL)</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
@@ -8353,26 +8348,26 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D101" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E101:Z101),")")</f>
         <v>(UL MONROE|ULMONROE|ULM)</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -8395,29 +8390,29 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D102" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E102:Z102),")")</f>
         <v>(LOUISIANA TECH|LATECH|LAT|TECH)</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -8440,26 +8435,26 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D103" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E103:Z103),")")</f>
         <v>(LOUISVILLE|LOU|UL)</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -8483,23 +8478,23 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D104" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E104:Z104),")")</f>
         <v>(LSU|LS)</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -8524,23 +8519,23 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D105" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E105:Z105),")")</f>
         <v>(MAINE|MAI)</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -8565,23 +8560,23 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D106" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E106:Z106),")")</f>
         <v>(MARSHALL|MAR)</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -8605,23 +8600,23 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D107" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E107:Z107),")")</f>
         <v>(MARYLAND|UMD)</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -8646,26 +8641,26 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D108" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E108:Z108),")")</f>
         <v>(MCNEESE ST|MCNEESE|MCN)</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -8689,29 +8684,29 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D109" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E109:Z109),")")</f>
         <v>(MEMPHIS|MEM-ROAD|MEM_ROAD|MEM)</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -8734,23 +8729,23 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D110" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E110:Z110),")")</f>
         <v>(MERCER|MER)</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -8775,32 +8770,32 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E111:Z111),")")</f>
         <v>(MIAMI FL|MIAMIFL|MIAMI|UM|MIA)</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -8822,32 +8817,32 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E112:Z112),")")</f>
         <v>(MIAMI OH|MIAMIOH|MIAMI|MIA|MU)</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -8869,26 +8864,26 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D113" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E113:Z113),")")</f>
         <v>(MICHIGAN|MICH|MIC)</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -8912,26 +8907,26 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E114:Z114),")")</f>
         <v>(MICHIGANST|MSU|MICHIGAN ST)</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -8955,32 +8950,32 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D115" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E115:Z115),")")</f>
         <v>(MIDDLE TENN|MIDDLETENN|MTSU|MTS|MT)</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -9002,29 +8997,29 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E116:Z116),")")</f>
         <v>(MINNESOTA|MINN|MIN|UMN)</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -9046,35 +9041,35 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E117:Z117),")")</f>
         <v>(MISSISSIPPI ST|MISSSTATE|MS State|MSSTATE|MSU|MS)</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -9095,23 +9090,23 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E118:Z118),")")</f>
         <v>(MISS VALLEY ST|MVSU)</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -9136,26 +9131,26 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D119" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E119:Z119),")")</f>
         <v>(MISSOURI|MIZ|MU)</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -9179,23 +9174,23 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E120:Z120),")")</f>
         <v>(MSU|MISSOURI ST)</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -9220,23 +9215,23 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E121:Z121),")")</f>
         <v>(MONMOUTH|MU)</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -9261,23 +9256,23 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E122:Z122),")")</f>
         <v>(MONTANA|UM)</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -9302,23 +9297,23 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E123:Z123),")")</f>
         <v>(MONTANA ST|MSU)</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -9343,23 +9338,23 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E124:Z124),")")</f>
         <v>(MORGAN ST|MSU)</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -9383,26 +9378,26 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D125" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E125:Z125),")")</f>
         <v>(MURRAY ST|MURRAYST|MUR)</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
@@ -9426,23 +9421,23 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D126" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E126:Z126),")")</f>
         <v>(NAVY|NAV)</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -9467,29 +9462,29 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D127" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E127:Z127),")")</f>
         <v>(NC STATE|NCSTATE|NCS|ST)</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
@@ -9512,23 +9507,23 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D128" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E128:Z128),")")</f>
         <v>(NEBRASKA|NEB)</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -9552,29 +9547,29 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D129" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E129:Z129),")")</f>
         <v>(NEVADA|NEV|NV|UNR)</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
@@ -9597,23 +9592,23 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D130" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E130:Z130),")")</f>
         <v>(NEW HAMPSHIRE|UNH)</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -9638,29 +9633,29 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D131" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E131:Z131),")")</f>
         <v>(NEW MEXICO|NM|NEWMEXICO|UNM)</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -9683,32 +9678,32 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D132" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E132:Z132),")")</f>
         <v>(NEWMEXST|NEW MEXICO ST|NMS[Tt]|NMSU|NMS)</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -9730,32 +9725,32 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D133" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E133:Z133),")")</f>
         <v>(NICHOLLS ST|NICHOLLS|NICH|NIC|NSU)</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
@@ -9776,23 +9771,23 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D134" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E134:Z134),")")</f>
         <v>(NORFOLK ST|NSU)</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -9817,26 +9812,26 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D135" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E135:Z135),")")</f>
         <v>(NORTH ALABAMA|UNA|NORTHALA)</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -9860,26 +9855,26 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D136" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E136:Z136),")")</f>
         <v>(NORTH CAROLINA|UNC|NC)</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -9903,29 +9898,29 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D137" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E137:Z137),")")</f>
         <v>(NC A&amp;T|NCAT|A&amp;T|NCCU)</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -9948,23 +9943,23 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D138" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E138:Z138),")")</f>
         <v>(NC CENTRAL|NCCU)</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -9989,23 +9984,23 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D139" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E139:Z139),")")</f>
         <v>(NORTH DAKOTA|UND)</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -10030,23 +10025,23 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D140" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E140:Z140),")")</f>
         <v>(NO DAKOTA ST|NDSU)</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -10071,29 +10066,29 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D141" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E141:Z141),")")</f>
         <v>(NORTH TEXAS|UNT|NORTHTEXAS|NT)</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -10116,23 +10111,23 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D142" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E142:Z142),")")</f>
         <v>(NAU|NORTHRN ARIZONA)</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -10157,29 +10152,29 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D143" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E143:Z143),")")</f>
         <v>(NORTHERN COLO|UNCO|NC|UNC)</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G143" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="H143" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>733</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -10202,10 +10197,10 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>13</v>
@@ -10215,10 +10210,10 @@
         <v>(NORTHERNIL|NIU)</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -10243,26 +10238,26 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D145" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E145:Z145),")")</f>
         <v>(NORTHERN IOWA|UNI|NORTHIOWA)</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
@@ -10286,32 +10281,32 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D146" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E146:Z146),")")</f>
         <v>(NORTHWESTERN|NORTHWSTRN|NWU|NOR|NU)</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -10331,32 +10326,32 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D147" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E147:Z147),")")</f>
         <v>(NORTHWESTERN ST|NSU|NWSTATE|NWST|NWLA)</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -10377,32 +10372,32 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D148" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E148:Z148),")")</f>
         <v>(NOTRE DAME|NOTREDAME|NDAME|ND|UND)</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -10424,26 +10419,26 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D149" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E149:Z149),")")</f>
         <v>(OHIO|OU|OHI)</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
@@ -10467,32 +10462,32 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D150" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E150:Z150),")")</f>
         <v>(OHIO STATE|OHIO ST|OHIOST|OHIO|OSU)</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -10514,26 +10509,26 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D151" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E151:Z151),")")</f>
         <v>(OKLAHOMA|OU|OKL)</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -10557,26 +10552,26 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D152" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E152:Z152),")")</f>
         <v>(OKLAHOMA ST|OKLAST|OSU)</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
@@ -10600,26 +10595,26 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D153" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E153:Z153),")")</f>
         <v>(OLDDOMNION|OLDDOMINION|ODU)</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
@@ -10643,32 +10638,32 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D154" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E154:Z154),")")</f>
         <v>(OLE MISS|OLEMISS|OM|OLE|MIS)</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -10690,23 +10685,23 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D155" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E155:Z155),")")</f>
         <v>(OREGON|ORE)</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -10731,26 +10726,26 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D156" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E156:Z156),")")</f>
         <v>(OREGON ST|OREGONST|OSU)</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -10774,29 +10769,29 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D157" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E157:Z157),")")</f>
         <v>(PENN STATE|PENN ST|PENNST|PSU)</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -10819,26 +10814,26 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D158" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E158:Z158),")")</f>
         <v>(PITTSBURGH|UP|PIT)</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -10862,23 +10857,23 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D159" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E159:Z159),")")</f>
         <v>(PORTLAND ST|PSU)</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -10903,26 +10898,26 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D160" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E160:Z160),")")</f>
         <v>(PRAIRIE VIEW|PVAM|PVU)</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -10946,23 +10941,23 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D161" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E161:Z161),")")</f>
         <v>(PRESBYTERIAN|PC)</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -10987,26 +10982,26 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D162" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E162:Z162),")")</f>
         <v>(PERDUE|PURDUE|PUR)</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -11030,23 +11025,23 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D163" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E163:Z163),")")</f>
         <v>(RHODE ISLAND|URI)</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -11071,29 +11066,29 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D164" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E164:Z164),")")</f>
         <v>(RICE|Rice|RIC|RCE)</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -11116,26 +11111,26 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D165" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E165:Z165),")")</f>
         <v>(RICHMOND|RIC|UR)</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -11158,23 +11153,23 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D166" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E166:Z166),")")</f>
         <v>(RMU|ROBERT MORRIS)</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -11199,26 +11194,26 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D167" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E167:Z167),")")</f>
         <v>(RUTGERS|RUT|RU)</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -11242,26 +11237,26 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D168" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E168:Z168),")")</f>
         <v>(SACRAMENTO ST|SAC|SSU)</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
@@ -11284,26 +11279,26 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D169" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E169:Z169),")")</f>
         <v>(SAM HOUSTON ST|SAMHOUSTON|SHSU)</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -11327,23 +11322,23 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D170" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E170:Z170),")")</f>
         <v>(SAMFORD|SAM)</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -11368,23 +11363,23 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D171" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E171:Z171),")")</f>
         <v>(SAN DIEGO|USD)</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -11409,35 +11404,35 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D172" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E172:Z172),")")</f>
         <v>(SAN DIEGO ST|SANDIEGOST|SAN DIEGO|SDSU|SDS|SD)</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
@@ -11455,32 +11450,32 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D173" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E173:Z173),")")</f>
         <v>(SAN JOSÉ ST|SAN JOSE ST|SJSU|SJS|SJ)</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
@@ -11502,23 +11497,23 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D174" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E174:Z174),")")</f>
         <v>(SAVANNAH ST|SSU)</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -11543,20 +11538,20 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D175" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E175:Z175),")")</f>
         <v>(SMU)</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -11582,26 +11577,26 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D176" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E176:Z176),")")</f>
         <v>(SOUTH ALABAMA|USA|SOUTHALA)</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -11625,29 +11620,29 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D177" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E177:Z177),")")</f>
         <v>(SOUTH CAROLINA|SOCAROLINA|SC|USC)</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
@@ -11670,29 +11665,29 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D178" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E178:Z178),")")</f>
         <v>(CAROLINA ST|SOCARST|SCSU|SCS)</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
@@ -11715,26 +11710,26 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D179" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E179:Z179),")")</f>
         <v>(SOUTH DAKOTA|USD|SDU)</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
@@ -11758,26 +11753,26 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D180" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E180:Z180),")")</f>
         <v>(SO DAKOTA ST|SDSU|SODAKOTAST)</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
@@ -11801,26 +11796,26 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D181" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E181:Z181),")")</f>
         <v>(SOUFLA|SOUTH FLORIDA|USF)</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
@@ -11844,26 +11839,26 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D182" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E182:Z182),")")</f>
         <v>(SEMO|SEM|SE MISSOURI)</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
@@ -11887,23 +11882,23 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D183" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E183:Z183),")")</f>
         <v>(SE LOUISIANA|SLU)</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -11928,29 +11923,29 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D184" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E184:Z184),")")</f>
         <v>(SOUTHERN|SOU|SUBR|SU)</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
@@ -11972,23 +11967,23 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D185" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E185:Z185),")")</f>
         <v>(SIU|SOUTHN ILLINOIS)</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
@@ -12013,26 +12008,26 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D186" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E186:Z186),")")</f>
         <v>(SOUTHERN MISS|SOUMISS|USM)</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
@@ -12056,23 +12051,23 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D187" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E187:Z187),")")</f>
         <v>(SOUTHERN UTAH|SUU)</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -12097,20 +12092,20 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D188" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E188:Z188),")")</f>
         <v>(SFrPA)</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
@@ -12136,29 +12131,29 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D189" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E189:Z189),")")</f>
         <v>(STANFORD|STAN|STA|SU)</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
@@ -12179,23 +12174,23 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D190" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E190:Z190),")")</f>
         <v>(SFAFB|SFA)</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -12220,23 +12215,23 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D191" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E191:Z191),")")</f>
         <v>(STONY BROOK|SBU)</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -12261,26 +12256,26 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D192" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E192:Z192),")")</f>
         <v>(SYRACUSE|SU|SYR)</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -12304,23 +12299,23 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D193" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E193:Z193),")")</f>
         <v>(TARLETON ST|trlst)</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -12345,20 +12340,20 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D194" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E194:Z194),")")</f>
         <v>(TCU)</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -12384,26 +12379,26 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D195" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E195:Z195),")")</f>
         <v>(TEMPLE|TEM|TU)</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
@@ -12426,26 +12421,26 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D196" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E196:Z196),")")</f>
         <v>(TENNESSEE|TEN|UT)</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
@@ -12468,23 +12463,23 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D197" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E197:Z197),")")</f>
         <v>(TENNESSEE ST|TSU)</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -12509,23 +12504,23 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D198" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E198:Z198),")")</f>
         <v>(TENNESSEE TECH|TTU)</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
@@ -12550,26 +12545,26 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D199" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E199:Z199),")")</f>
         <v>(TEXAS|TEX|UT)</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
@@ -12592,29 +12587,29 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D200" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E200:Z200),")")</f>
         <v>(TEXAS A&amp;M|TEXASAM|TAMU|TAM)</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
@@ -12636,26 +12631,26 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D201" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E201:Z201),")")</f>
         <v>(TEXAS SOUTHERN|TSU|TXSOFB)</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
@@ -12679,32 +12674,32 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D202" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E202:Z202),")")</f>
         <v>(TEXAS STATE|TEXSTATE|TSU|TXST|TXS)</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
@@ -12725,32 +12720,32 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D203" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E203:Z203),")")</f>
         <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
@@ -12772,26 +12767,26 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D204" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E204:Z204),")")</f>
         <v>(CIT|THE CITADEL|THECITADEL)</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
@@ -12815,29 +12810,29 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D205" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E205:Z205),")")</f>
         <v>(TOLEDO|TOL|UTo|UT)</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
@@ -12860,23 +12855,23 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D206" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E206:Z206),")")</f>
         <v>(TOWSON|TOW)</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -12901,26 +12896,26 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D207" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E207:Z207),")")</f>
         <v>(TROY|TRO|TRY)</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
@@ -12943,23 +12938,23 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D208" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E208:Z208),")")</f>
         <v>(TLN|TULANE)</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -12984,29 +12979,29 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D209" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E209:Z209),")")</f>
         <v>(TULSA|TLS|Tul|TUL)</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
@@ -13029,20 +13024,20 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D210" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E210:Z210),")")</f>
         <v>(UAB)</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -13068,23 +13063,23 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D211" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E211:Z211),")")</f>
         <v>(UC DAVIS|UCD)</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
@@ -13109,20 +13104,20 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D212" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E212:Z212),")")</f>
         <v>(UCF)</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -13148,23 +13143,23 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D213" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E213:Z213),")")</f>
         <v>(UCLA|UCL)</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
@@ -13189,29 +13184,29 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D214" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E214:Z214),")")</f>
         <v>(MASSACHUSETTS|UMASS|UMA|MAS)</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
@@ -13234,26 +13229,26 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D215" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E215:Z215),")")</f>
         <v>(LV|NLV|UNLV)</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
@@ -13277,20 +13272,20 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D216" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E216:Z216),")")</f>
         <v>(USC)</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -13316,26 +13311,26 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D217" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E217:Z217),")")</f>
         <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
@@ -13359,32 +13354,32 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D218" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E218:Z218),")")</f>
         <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
@@ -13406,26 +13401,26 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D219" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E219:Z219),")")</f>
         <v>(UTAH|UTA|UTE)</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
@@ -13449,10 +13444,10 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>13</v>
@@ -13462,16 +13457,16 @@
         <v>(UTAH ST|UTAHST|USU|US)</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
@@ -13493,26 +13488,26 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D221" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E221:Z221),")")</f>
         <v>(UTU|UTAH TECH|Utah)</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F221" s="6" t="s">
         <v>1146</v>
       </c>
+      <c r="F221" s="4" t="s">
+        <v>1147</v>
+      </c>
       <c r="G221" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H221" s="3"/>
       <c r="J221" s="3"/>
@@ -13535,10 +13530,10 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>19</v>
@@ -13548,13 +13543,13 @@
         <v>(UTEP|TEP|UTE)</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
@@ -13578,29 +13573,29 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D223" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E223:Z223),")")</f>
         <v>(VANDERBILT|VANDY|VAN|VU)</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
@@ -13622,23 +13617,23 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D224" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E224:Z224),")")</f>
         <v>(VILLANOVA|VU)</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
@@ -13663,26 +13658,26 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D225" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E225:Z225),")")</f>
         <v>(VIRGINIA|VA|UVA)</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
@@ -13706,32 +13701,32 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D226" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E226:Z226),")")</f>
         <v>(VIRGINIA TECH|VATECH|VT|VaT|VAT)</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
@@ -13753,20 +13748,20 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D227" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E227:Z227),")")</f>
         <v>(VMI)</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
@@ -13792,23 +13787,23 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D228" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E228:Z228),")")</f>
         <v>(WAGNER|WAG)</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
@@ -13833,29 +13828,29 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D229" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E229:Z229),")")</f>
         <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
@@ -13878,32 +13873,32 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D230" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E230:Z230),")")</f>
         <v>(WASHINGTON|WASH|UW|WAS|U W)</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
@@ -13925,29 +13920,29 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D231" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E231:Z231),")")</f>
         <v>(WASHINGTON ST|WSU|WASHST|COU)</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
@@ -13970,29 +13965,29 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D232" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E232:Z232),")")</f>
         <v>(WEBER ST|WEBERST|WEBER|WSU)</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
@@ -14014,29 +14009,29 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D233" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E233:Z233),")")</f>
         <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
@@ -14059,29 +14054,29 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D234" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E234:Z234),")")</f>
         <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCU)</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
@@ -14104,23 +14099,23 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D235" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E235:Z235),")")</f>
         <v>(WESTRN ILLINOIS|WIU)</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
@@ -14145,26 +14140,26 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D236" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E236:Z236),")")</f>
         <v>(WESTRN KENTUCKY|WKU|WESTERNKY)</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
@@ -14188,29 +14183,29 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D237" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E237:Z237),")")</f>
         <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMI)</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
@@ -14233,26 +14228,26 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D238" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E238:Z238),")")</f>
         <v>(MARY|WILLMMARY|WM)</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
@@ -14276,23 +14271,23 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D239" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E239:Z239),")")</f>
         <v>(WISCONSIN|WIS)</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
@@ -14317,23 +14312,23 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D240" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E240:Z240),")")</f>
         <v>(WOFFORD|WOF)</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
@@ -14358,26 +14353,26 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D241" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E241:Z241),")")</f>
         <v>(WYOMING|WYO|WY)</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
@@ -14399,23 +14394,23 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D242" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E242:Z242),")")</f>
         <v>(YALE|YAL)</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
@@ -14440,23 +14435,23 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D243" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E243:Z243),")")</f>
         <v>(YOUNGSTOWN ST|YSU)</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
@@ -14627,7 +14622,7 @@
   <conditionalFormatting sqref="A222:A1048576 A77:A192 A1:A75 A194:A220">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J124:Z124 E124:H124 E125:Z126 E2:Z2 E58:Z58 H56:Z57 E56:F56 E57:G57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 I74:Z74 F74:G74 E79:Z90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E102:Z104 E101:G101 I101:Z101 E107:Z107 H106:Z106 E106:F106 H109:Z109 E108:E109 E110:Z114 E118:Z123 E116:H116 J115:Z116 E115:G117 I117:Z117 E129:Z131 H128:Z128 E128:F128 E134:Z145 E132:F132 H132:Z132 F149:Z161 E146:I146 L146:Z146 E166:Z167 E165:G165 I165:Z165 E169:Z171 I168:Z168 E168:G168 E173:Z183 E172:J172 N172:Z172 E185:Z188 J184:Z184 E184:H184 E189:H189 K189:Z189 E197:Z198 I195:Z196 E195:G196 E201:Z201 I199:Z199 E199:G199 E200:H200 J200:Z200 E203:Z203 E202:I202 K202:Z202 E208:Z214 E207:G207 I207:Z207 E3:H3 J3:Z3 I115 E4:Z9 E10:F10 H10:Z10 E41:Z47 E40:F40 H40:Z40 E92:Z93 E91:F91 H91:Z91 E24:Z35 E23 G23:Z23 E147:E162 E163:Z163 G162:Z162 F105:Z105 E206:Z206 E204:F205 H204:Z205 E127 G127:Z127 F68:Z69 F67:G67 I67:Z67 E50:Z55 E48 G48:Z48 M100:Z100 E100:F101 I100:K100 G100 E78 G78:Z78 F190:Z190 G108:Z108 K147:Z147 H147:I148 F147:F148 E133:I133 K133:Z133 F49:Z49 E37:Z39 E36 G36:Z36 J148:Z148 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z22 E164 G164:Z164 E191:Z194">
+  <conditionalFormatting sqref="J124:Z124 E124:H124 E125:Z126 E2:Z2 E58:Z58 H56:Z57 E56:F56 E57:G57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 I74:Z74 F74:G74 E79:Z90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E102:Z104 E101:G101 I101:Z101 E107:Z107 H106:Z106 E106:F106 H109:Z109 E108:E109 E110:Z114 E118:Z123 E116:H116 J115:Z116 E115:G117 I117:Z117 E129:Z131 H128:Z128 E128:F128 E134:Z145 E132:F132 H132:Z132 F149:Z161 E146:I146 L146:Z146 E166:Z167 E165:G165 I165:Z165 E169:Z171 I168:Z168 E168:G168 E173:Z183 E172:J172 N172:Z172 E185:Z188 J184:Z184 E184:H184 E189:H189 K189:Z189 E197:Z198 I195:Z196 E195:G196 E201:Z201 I199:Z199 E199:G199 E200:H200 J200:Z200 E203:Z203 E202:I202 K202:Z202 E208:Z214 E207:G207 I207:Z207 E3:H3 J3:Z3 I115 E4:Z4 E10:F10 H10:Z10 E41:Z47 E40:F40 H40:Z40 E92:Z93 E91:F91 H91:Z91 E24:Z35 E23 G23:Z23 E147:E162 E163:Z163 G162:Z162 F105:Z105 E206:Z206 E204:F205 H204:Z205 E127 G127:Z127 F68:Z69 F67:G67 I67:Z67 E50:Z55 E48 G48:Z48 M100:Z100 E100:F101 I100:K100 G100 E78 G78:Z78 F190:Z190 G108:Z108 K147:Z147 H147:I148 F147:F148 E133:I133 K133:Z133 F49:Z49 E37:Z39 E36 G36:Z36 J148:Z148 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z22 E164 G164:Z164 E191:Z194 E6:Z9 E5 G5:Z5">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E216:Z219 E222:Z222 E220:H220 J220:Z221 E224:Z228 E223:H223 J223:Z223 E233:Z237 E232:H232 J232:Z232 E242:Z249 J241:Z241 E241:G241 E230:Z231 E229:F229 H229:Z229 G215:Z215 E215 E239:Z240 E238 G238:Z238 E221 G221:H221">

--- a/school_colors/school_colors.xlsx
+++ b/school_colors/school_colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\program_project\CFB\school_colors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A230088F-240A-457F-80F8-3AF9374EF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FA8166-9D2A-40D5-96DC-07F5C6AE4255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5670" windowWidth="25440" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="school_colors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="1375">
   <si>
     <t>School</t>
   </si>
@@ -4632,8 +4632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>(ALABAMA|ALA|Alab|UA)</v>
+        <v>(ALABAMA|ALA|Alabama|Alab|UA)</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -4759,9 +4759,12 @@
         <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10907,7 +10910,7 @@
   <conditionalFormatting sqref="E216:Z218 G219:Z219 E219 E222:Z222 E220:H220 J220:Z221 E225:Z225 E228:Z229 E227:F227 H227:Z227 G226:Z226 E226 E224:F224 H224:Z224 E234:Z234 E236:Z237 E238:G238 I238:Z238 E235:G235 I235:Z235 E233:H233 J233:Z233 E243:Z250 J242:Z242 E242 G242:H242 E232:Z232 H230:Z231 E230:F231 G215:Z215 E215 E241:Z241 G239:Z240 E239:E240 E221 G221:H221 F223:Z223">
     <cfRule type="duplicateValues" dxfId="1" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I109 H100:J100 J124:Z124 E124:H124 E125:Z125 G127:Z127 I126:Z126 F126:G126 E2:Z2 E58:Z58 E56:F57 H56:Z56 K57:Z57 G57:I57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 J74:Z74 F74:H74 E79:Z79 E81:Z89 G80:Z80 E80 K91:Z91 H91:I91 L90:Z90 G90:J90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E103:Z104 K102:Z102 E102:I102 I101:Z101 E107:Z107 H106:Z106 E106:F106 E108:E109 E110:Z110 E113:Z114 E112:G112 I112:Z112 E111:H111 J111:Z111 E118:Z118 E120:Z122 E123:F123 H123:Z123 J119:Z119 E119:H119 E115:G116 J115:Z116 J117:K117 M117:Z117 E116:H117 E130:Z130 K131:Z131 E131:I131 G129:I129 K129:Z129 E128:F129 H128:Z128 E134:Z137 E139:Z145 G138:Z138 E138 E132:G132 F152:Z153 J151:Z151 F151:H151 L150:Z150 F150:J150 G149:H149 J149:Z149 F156:Z161 I155:Z155 F155:G155 L154:Z154 F154:J154 E146:I146 L146:Z146 E166:Z166 I168:Z168 J167:Z167 E165:G165 I165:Z165 E169:Z171 E168:G168 E167:H167 E174:Z176 E173:F173 H173:Z173 E179:Z181 E183:Z183 J182:Z182 E182:H182 E177:F178 E172:G172 I172:K172 N172:Z172 E185:Z188 J184:Z184 E184:H184 E189 G189:I189 K189:Z189 E197:Z197 G198:Z199 G195:Z195 J196:Z196 F196:H196 E195:E196 E201:Z201 E198:E199 E200:F200 H200:Z200 E203:Z203 E202:F202 H202:Z202 E208:Z208 E210:Z210 E212:Z213 E214:F214 H214:Z214 G211:Z211 E211 G209:Z209 E209 E207:G207 I207:Z207 E3:H3 J3:Z3 I115 E4:Z4 E10:F10 I10:Z10 E92:Z93 E90:F91 E23 G23:Z23 E147:E162 E163:Z163 G162:Z162 F105:Z105 E206:Z206 E204:F204 E205 G205 H204:Z204 I205:Z205 E126:E127 F68:Z68 L69:Z69 F69:J69 F67:G67 I67:Z67 E50:Z53 E55:Z55 E54:F54 H54:Z54 E48 G48:Z48 E101:G101 N100:Z100 L100 E100:F100 J78:Z78 E78:F78 H78 F190:Z190 J108:Z108 K109:Z109 F109 G108:H108 K147:Z147 H147:I147 F147:F149 E133:I133 K133:Z133 F49:Z49 E37:Z37 E39:F40 H39:Z40 G38:Z38 E38 E36 G36:Z36 L148:Z148 H148:J148 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z11 E13:Z13 E12:F12 H12:Z12 E15:Z15 G16:Z16 E16 E14:F14 H14:Z14 E164 G164:Z164 E191:Z194 E6:Z9 E5 G5:Z5 L132:Z132 I132:J132 E18:Z18 E20:Z21 E22:F22 H22:Z22 E19:G19 I19:Z19 E17:F17 H17:Z17 E24:Z28 E30:Z33 G29:Z29 E29 E35:Z35 E34:F34 H34:Z34 E41:Z42 E45:Z47 H43:Z44 E43:F44 H177:Z178">
+  <conditionalFormatting sqref="I109 H100:J100 J124:Z124 E124:H124 E125:Z125 G127:Z127 I126:Z126 F126:G126 E2:Z2 E58:Z58 E56:F57 H56:Z56 K57:Z57 G57:I57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 J74:Z74 F74:H74 E79:Z79 E81:Z89 G80:Z80 E80 K91:Z91 H91:I91 L90:Z90 G90:J90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E103:Z104 K102:Z102 E102:I102 I101:Z101 E107:Z107 H106:Z106 E106:F106 E108:E109 E110:Z110 E113:Z114 E112:G112 I112:Z112 E111:H111 J111:Z111 E118:Z118 E120:Z122 E123:F123 H123:Z123 J119:Z119 E119:H119 E115:G116 J115:Z116 J117:K117 M117:Z117 E116:H117 E130:Z130 K131:Z131 E131:I131 G129:I129 K129:Z129 E128:F129 H128:Z128 E134:Z137 E139:Z145 G138:Z138 E138 E132:G132 F152:Z153 J151:Z151 F151:H151 L150:Z150 F150:J150 G149:H149 J149:Z149 F156:Z161 I155:Z155 F155:G155 L154:Z154 F154:J154 E146:I146 L146:Z146 E166:Z166 I168:Z168 J167:Z167 E165:G165 I165:Z165 E169:Z171 E168:G168 E167:H167 E174:Z176 E173:F173 H173:Z173 E179:Z181 E183:Z183 J182:Z182 E182:H182 E177:F178 E172:G172 I172:K172 N172:Z172 E185:Z188 J184:Z184 E184:H184 E189 G189:I189 K189:Z189 E197:Z197 G198:Z199 G195:Z195 J196:Z196 F196:H196 E195:E196 E201:Z201 E198:E199 E200:F200 H200:Z200 E203:Z203 E202:F202 H202:Z202 E208:Z208 E210:Z210 E212:Z213 E214:F214 H214:Z214 G211:Z211 E211 G209:Z209 E209 E207:G207 I207:Z207 E3:H3 J3:Z3 I115 E4:Z4 E10:F10 I10:Z10 E92:Z93 E90:F91 E23 G23:Z23 E147:E162 E163:Z163 G162:Z162 F105:Z105 E206:Z206 E204:F204 E205 G205 H204:Z204 I205:Z205 E126:E127 F68:Z68 L69:Z69 F69:J69 F67:G67 I67:Z67 E50:Z53 E55:Z55 E54:F54 H54:Z54 E48 G48:Z48 E101:G101 N100:Z100 L100 E100:F100 J78:Z78 E78:F78 H78 F190:Z190 J108:Z108 K109:Z109 F109 G108:H108 K147:Z147 H147:I147 F147:F149 E133:I133 K133:Z133 F49:Z49 E37:Z37 E39:F40 H39:Z40 G38:Z38 E38 E36 G36:Z36 L148:Z148 H148:J148 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z11 E13:Z13 E12:F12 H12:Z12 E15:Z15 G16:Z16 E16 E14:F14 H14:Z14 E164 G164:Z164 E191:Z194 E6:Z9 E5 L132:Z132 I132:J132 E18:Z18 E20:Z21 E22:F22 H22:Z22 E19:G19 I19:Z19 E17:F17 H17:Z17 E24:Z28 E30:Z33 G29:Z29 E29 E35:Z35 E34:F34 H34:Z34 E41:Z42 E45:Z47 H43:Z44 E43:F44 H177:Z178 G5:Z5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/school_colors/school_colors.xlsx
+++ b/school_colors/school_colors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1380">
   <si>
     <t xml:space="preserve">School</t>
   </si>
@@ -2845,6 +2845,9 @@
     <t xml:space="preserve">RCE</t>
   </si>
   <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Richmond</t>
   </si>
   <si>
@@ -2887,9 +2890,6 @@
     <t xml:space="preserve">RUT</t>
   </si>
   <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sacramento State</t>
   </si>
   <si>
@@ -3425,6 +3425,21 @@
   </si>
   <si>
     <t xml:space="preserve">TAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas A&amp;M-Commerce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1D2953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#E8A311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXCC</t>
   </si>
   <si>
     <t xml:space="preserve">Texas Southern</t>
@@ -4155,7 +4170,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4188,6 +4203,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -4234,7 +4257,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4257,6 +4280,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4368,20 +4395,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z250"/>
+  <dimension ref="A1:Z251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G181" activeCellId="0" sqref="G181"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I165" activeCellId="0" sqref="I165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.71"/>
@@ -11543,7 +11570,7 @@
       </c>
       <c r="D164" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E164:Z164),")")</f>
-        <v>(RICE|Rice|RIC|RCE)</v>
+        <v>(RICE|Rice|RIC|RCE|RU)</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>938</v>
@@ -11557,7 +11584,9 @@
       <c r="H164" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="I164" s="3"/>
+      <c r="I164" s="3" t="s">
+        <v>941</v>
+      </c>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
@@ -11578,10 +11607,10 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>490</v>
@@ -11591,13 +11620,13 @@
         <v>(RICHMOND|RIC|UR)</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>939</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -11620,23 +11649,23 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D166" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E166:Z166),")")</f>
         <v>(RMU|ROBERT MORRIS)</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -11661,29 +11690,29 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D167" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E167:Z167),")")</f>
         <v>(RUTGERS|Rutgr|RUT|RU)</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -11875,7 +11904,7 @@
         <v>977</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>38</v>
@@ -13143,32 +13172,30 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="6" t="s">
         <v>1137</v>
       </c>
       <c r="D201" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E201:Z201),")")</f>
-        <v>(TEXAS SOUTHERN|TSU|TXSOFB|TexSo)</v>
+        <v>(Texas A&amp;M-Commerce|TAMC|TXCC)</v>
       </c>
       <c r="E201" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F201" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="F201" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G201" s="3" t="s">
+      <c r="G201" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="H201" s="3" t="s">
-        <v>1140</v>
-      </c>
+      <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
@@ -13190,36 +13217,32 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>1142</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>1143</v>
       </c>
       <c r="D202" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E202:Z202),")")</f>
-        <v>(TEXAS STATE|TEXSTATE|TexSt|TSU|TXST|TXS)</v>
+        <v>(TEXAS SOUTHERN|TSU|TXSOFB|TexSo)</v>
       </c>
       <c r="E202" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G202" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="F202" s="3" t="s">
+      <c r="H202" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="G202" s="0" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H202" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I202" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="J202" s="3" t="s">
-        <v>1148</v>
-      </c>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
@@ -13239,34 +13262,36 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>351</v>
+        <v>1147</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>38</v>
+        <v>1148</v>
       </c>
       <c r="D203" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E203:Z203),")")</f>
-        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
+        <v>(TEXAS STATE|TEXSTATE|TexSt|TSU|TXST|TXS)</v>
       </c>
       <c r="E203" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F203" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="F203" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G203" s="3" t="s">
+      <c r="G203" s="0" t="s">
         <v>1151</v>
       </c>
       <c r="H203" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I203" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="I203" s="3" t="s">
+      <c r="J203" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
@@ -13289,26 +13314,30 @@
         <v>1154</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1155</v>
+        <v>351</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>1156</v>
+        <v>38</v>
       </c>
       <c r="D204" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E204:Z204),")")</f>
-        <v>(CIT|THE CITADEL|THECITADEL)</v>
+        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
       </c>
       <c r="E204" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H204" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="F204" s="3" t="s">
+      <c r="I204" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="G204" s="0" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
@@ -13329,33 +13358,29 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>1161</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>1162</v>
       </c>
       <c r="D205" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E205:Z205),")")</f>
-        <v>(TOLEDO|Toled|TOL|UTo|UT)</v>
+        <v>(CIT|THE CITADEL|THECITADEL)</v>
       </c>
       <c r="E205" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F205" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="F205" s="0" t="s">
+      <c r="G205" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="G205" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H205" s="0" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I205" s="3" t="s">
-        <v>1113</v>
-      </c>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
@@ -13376,27 +13401,33 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>1167</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>1169</v>
       </c>
       <c r="D206" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E206:Z206),")")</f>
-        <v>(TOWSON|TOW)</v>
+        <v>(TOLEDO|Toled|TOL|UTo|UT)</v>
       </c>
       <c r="E206" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F206" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G206" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="F206" s="3" t="s">
+      <c r="H206" s="0" t="s">
         <v>1171</v>
       </c>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
+      <c r="I206" s="3" t="s">
+        <v>1113</v>
+      </c>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
@@ -13427,7 +13458,7 @@
       </c>
       <c r="D207" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E207:Z207),")")</f>
-        <v>(TROY|TRO|TRY)</v>
+        <v>(TOWSON|TOW)</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>1175</v>
@@ -13435,9 +13466,8 @@
       <c r="F207" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="G207" s="3" t="s">
-        <v>1177</v>
-      </c>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
@@ -13459,17 +13489,17 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>1178</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>1030</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>1179</v>
       </c>
       <c r="D208" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E208:Z208),")")</f>
-        <v>(TLN|TULANE|Tulan)</v>
+        <v>(TROY|TRO|TRY)</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>1180</v>
@@ -13480,7 +13510,6 @@
       <c r="G208" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
@@ -13505,30 +13534,26 @@
         <v>1183</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>1184</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="D209" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E209:Z209),")")</f>
-        <v>(TULSA|Tulsa|TLS|Tul|TUL)</v>
+        <v>(TLN|TULANE|Tulan)</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="F209" s="0" t="s">
-        <v>1183</v>
+      <c r="F209" s="3" t="s">
+        <v>1186</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="H209" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="I209" s="3" t="s">
-        <v>1188</v>
-      </c>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
@@ -13549,25 +13574,33 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>1042</v>
-      </c>
       <c r="C210" s="2" t="s">
-        <v>1190</v>
+        <v>442</v>
       </c>
       <c r="D210" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E210:Z210),")")</f>
-        <v>(UAB)</v>
+        <v>(TULSA|Tulsa|TLS|Tul|TUL)</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
+        <v>1190</v>
+      </c>
+      <c r="F210" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>1193</v>
+      </c>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
@@ -13588,27 +13621,23 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>214</v>
+        <v>1042</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>414</v>
+        <v>1195</v>
       </c>
       <c r="D211" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E211:Z211),")")</f>
-        <v>(UC DAVIS|UCDav|UCD)</v>
+        <v>(UAB)</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F211" s="0" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G211" s="3" t="s">
         <v>1194</v>
       </c>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
@@ -13631,23 +13660,27 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1196</v>
+        <v>214</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="D212" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E212:Z212),")")</f>
-        <v>(UCF)</v>
+        <v>(UC DAVIS|UCDav|UCD)</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
+        <v>1197</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>1199</v>
+      </c>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
@@ -13670,24 +13703,22 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="D213" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E213:Z213),")")</f>
-        <v>(UCLA|UCL)</v>
+        <v>(UCF)</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>1199</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
@@ -13711,33 +13742,27 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1202</v>
+        <v>129</v>
       </c>
       <c r="D214" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E214:Z214),")")</f>
-        <v>(MASSACHUSETTS|UMASS|UMass|UMA|MAS)</v>
+        <v>(UCLA|UCL)</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="G214" s="0" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H214" s="3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I214" s="3" t="s">
-        <v>1206</v>
-      </c>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
@@ -13758,29 +13783,33 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>1207</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>1209</v>
       </c>
       <c r="D215" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E215:Z215),")")</f>
-        <v>(LV|NLV|UNLV)</v>
+        <v>(MASSACHUSETTS|UMASS|UMass|UMA|MAS)</v>
       </c>
       <c r="E215" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H215" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="F215" s="0" t="s">
+      <c r="I215" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="G215" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
@@ -13801,23 +13830,27 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>1010</v>
+        <v>1212</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>490</v>
+        <v>1213</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>305</v>
+        <v>1214</v>
       </c>
       <c r="D216" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E216:Z216),")")</f>
-        <v>(USC)</v>
+        <v>(LV|NLV|UNLV)</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
+        <v>1215</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>1212</v>
+      </c>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
@@ -13840,27 +13873,23 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>1212</v>
+        <v>1010</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1213</v>
+        <v>490</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1214</v>
+        <v>305</v>
       </c>
       <c r="D217" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E217:Z217),")")</f>
-        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
+        <v>(USC)</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>1217</v>
-      </c>
+        <v>1010</v>
+      </c>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
@@ -13883,17 +13912,17 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>1219</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D218" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E218:Z218),")")</f>
-        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
+        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>1220</v>
@@ -13904,12 +13933,8 @@
       <c r="G218" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="H218" s="3" t="s">
-        <v>1223</v>
-      </c>
-      <c r="I218" s="3" t="s">
-        <v>1224</v>
-      </c>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
@@ -13930,31 +13955,33 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>351</v>
+        <v>1224</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1226</v>
+        <v>101</v>
       </c>
       <c r="D219" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E219:Z219),")")</f>
-        <v>(UTAH|Utah|UTA|UTE)</v>
+        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
       </c>
       <c r="E219" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G219" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="F219" s="0" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G219" s="3" t="s">
+      <c r="H219" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="H219" s="3" t="s">
+      <c r="I219" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
@@ -13978,30 +14005,28 @@
         <v>1230</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>1231</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D220" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E220:Z220),")")</f>
-        <v>(UTAH ST|UTAHST|USU|US|UthSt)</v>
+        <v>(UTAH|Utah|UTA|UTE)</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="F220" s="3" t="s">
+      <c r="F220" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G220" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="G220" s="3" t="s">
+      <c r="H220" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="H220" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I220" s="0" t="s">
-        <v>1236</v>
-      </c>
+      <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
@@ -14022,28 +14047,33 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1239</v>
+        <v>13</v>
       </c>
       <c r="D221" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E221:Z221),")")</f>
-        <v>(UTU|UTAH TECH|Utah)</v>
+        <v>(UTAH ST|UTAHST|USU|US|UthSt)</v>
       </c>
       <c r="E221" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H221" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="F221" s="4" t="s">
+      <c r="I221" s="0" t="s">
         <v>1241</v>
       </c>
-      <c r="G221" s="3" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
@@ -14067,26 +14097,25 @@
         <v>1242</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1108</v>
+        <v>1243</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>19</v>
+        <v>1244</v>
       </c>
       <c r="D222" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E222:Z222),")")</f>
-        <v>(UTEP|TEP|UTE)</v>
+        <v>(UTU|UTAH TECH|Utah)</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>1243</v>
+        <v>1245</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>1246</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
@@ -14106,27 +14135,27 @@
       <c r="Z222" s="3"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>1246</v>
+      <c r="A223" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D223" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E223:Z223),")")</f>
-        <v>(VALPARAISO|Valpo|VAL)</v>
-      </c>
-      <c r="E223" s="4" t="s">
+        <v>(UTEP|TEP|UTE)</v>
+      </c>
+      <c r="E223" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="F223" s="4" t="s">
+      <c r="F223" s="3" t="s">
         <v>1248</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
@@ -14149,34 +14178,30 @@
       <c r="Z223" s="3"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="A224" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B224" s="5" t="s">
         <v>1250</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="5" t="s">
         <v>1251</v>
       </c>
       <c r="D224" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E224:Z224),")")</f>
-        <v>(VANDERBILT|VANDY|Vandy|VAN|VU)</v>
-      </c>
-      <c r="E224" s="3" t="s">
+        <v>(VALPARAISO|Valpo|VAL)</v>
+      </c>
+      <c r="E224" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="F224" s="3" t="s">
+      <c r="F224" s="4" t="s">
         <v>1253</v>
       </c>
-      <c r="G224" s="0" t="s">
+      <c r="G224" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="H224" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I224" s="3" t="s">
-        <v>1256</v>
-      </c>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
@@ -14197,27 +14222,33 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>709</v>
+        <v>38</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D225" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E225:Z225),")")</f>
-        <v>(VILLANOVA|VU)</v>
+        <v>(VANDERBILT|VANDY|Vandy|VAN|VU)</v>
       </c>
       <c r="E225" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G225" s="0" t="s">
         <v>1259</v>
       </c>
-      <c r="F225" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
+      <c r="H225" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>1261</v>
+      </c>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
@@ -14238,30 +14269,26 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1261</v>
+        <v>709</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D226" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E226:Z226),")")</f>
-        <v>(VIRGINIA|Virg|VA|UVA)</v>
+        <v>(VILLANOVA|VU)</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F226" s="0" t="s">
         <v>1264</v>
       </c>
-      <c r="G226" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="H226" s="3" t="s">
-        <v>1266</v>
-      </c>
+      <c r="F226" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
@@ -14283,36 +14310,32 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>1267</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>1269</v>
       </c>
       <c r="D227" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E227:Z227),")")</f>
-        <v>(VIRGINIA TECH|VATECH|VTech|VT|VaT|VAT)</v>
+        <v>(VIRGINIA|Virg|VA|UVA)</v>
       </c>
       <c r="E227" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F227" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G227" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="F227" s="3" t="s">
+      <c r="H227" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="G227" s="0" t="s">
-        <v>1272</v>
-      </c>
-      <c r="H227" s="3" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I227" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="J227" s="3" t="s">
-        <v>1275</v>
-      </c>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
@@ -14332,26 +14355,36 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>621</v>
+        <v>1274</v>
       </c>
       <c r="D228" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E228:Z228),")")</f>
-        <v>(VMI)</v>
+        <v>(VIRGINIA TECH|VATECH|VTech|VT|VaT|VAT)</v>
       </c>
       <c r="E228" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F228" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
+      <c r="G228" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>1280</v>
+      </c>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
       <c r="M228" s="3"/>
@@ -14371,24 +14404,22 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1280</v>
+        <v>621</v>
       </c>
       <c r="D229" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E229:Z229),")")</f>
-        <v>(WAGNER|WAG)</v>
+        <v>(VMI)</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="F229" s="3" t="s">
-        <v>1282</v>
-      </c>
+      <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
@@ -14418,24 +14449,20 @@
         <v>1284</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>38</v>
+        <v>1285</v>
       </c>
       <c r="D230" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E230:Z230),")")</f>
-        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
+        <v>(WAGNER|WAG)</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G230" s="0" t="s">
         <v>1287</v>
       </c>
-      <c r="H230" s="3" t="s">
-        <v>1288</v>
-      </c>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
@@ -14457,36 +14484,32 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>1290</v>
-      </c>
       <c r="C231" s="2" t="s">
-        <v>1291</v>
+        <v>38</v>
       </c>
       <c r="D231" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E231:Z231),")")</f>
-        <v>(WASHINGTON|WASH|Wash|UW|WAS|U W)</v>
+        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
       </c>
       <c r="E231" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G231" s="0" t="s">
         <v>1292</v>
       </c>
-      <c r="F231" s="3" t="s">
+      <c r="H231" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="G231" s="0" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H231" s="3" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I231" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="J231" s="3" t="s">
-        <v>1297</v>
-      </c>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3"/>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
       <c r="M231" s="3"/>
@@ -14506,34 +14529,36 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="D232" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E232:Z232),")")</f>
-        <v>(WASHINGTON ST|WSU|WASHST|COU|WshSt)</v>
+        <v>(WASHINGTON|WASH|Wash|UW|WAS|U W)</v>
       </c>
       <c r="E232" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G232" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I232" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="J232" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="G232" s="3" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H232" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I232" s="3" t="s">
-        <v>1305</v>
-      </c>
-      <c r="J232" s="3"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
@@ -14553,32 +14578,32 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D233" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E233:Z233),")")</f>
-        <v>(WEBER ST|WEBERST|WEBER|WSU|WebSt)</v>
+        <v>(WASHINGTON ST|WSU|WASHST|COU|WshSt)</v>
       </c>
       <c r="E233" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H233" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="I233" s="3" t="s">
         <v>1310</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="H233" s="3" t="s">
-        <v>1302</v>
-      </c>
-      <c r="I233" s="0" t="s">
-        <v>1312</v>
       </c>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
@@ -14600,17 +14625,17 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>1313</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>1043</v>
       </c>
       <c r="D234" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E234:Z234),")")</f>
-        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
+        <v>(WEBER ST|WEBERST|WEBER|WSU|WebSt)</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>1314</v>
@@ -14622,9 +14647,11 @@
         <v>1316</v>
       </c>
       <c r="H234" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I234" s="0" t="s">
         <v>1317</v>
       </c>
-      <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
@@ -14648,30 +14675,28 @@
         <v>1318</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1319</v>
+        <v>214</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1320</v>
+        <v>1043</v>
       </c>
       <c r="D235" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E235:Z235),")")</f>
-        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCaro|WCU)</v>
+        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
       </c>
       <c r="E235" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G235" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="H235" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="G235" s="3" t="s">
-        <v>1323</v>
-      </c>
-      <c r="H235" s="0" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I235" s="3" t="s">
-        <v>1325</v>
-      </c>
+      <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
@@ -14692,27 +14717,33 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>56</v>
+        <v>1325</v>
       </c>
       <c r="D236" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E236:Z236),")")</f>
-        <v>(WESTRN ILLINOIS|WIU)</v>
+        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCaro|WCU)</v>
       </c>
       <c r="E236" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G236" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="F236" s="3" t="s">
+      <c r="H236" s="0" t="s">
         <v>1329</v>
       </c>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
+      <c r="I236" s="3" t="s">
+        <v>1330</v>
+      </c>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
@@ -14733,30 +14764,26 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>408</v>
+        <v>1332</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1331</v>
+        <v>56</v>
       </c>
       <c r="D237" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E237:Z237),")")</f>
-        <v>(WESTRN KENTUCKY|WKU|WESTERNKY|WKent)</v>
+        <v>(WESTRN ILLINOIS|WIU)</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="G237" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="H237" s="3" t="s">
-        <v>1335</v>
-      </c>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
@@ -14778,33 +14805,31 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>1336</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>1338</v>
       </c>
       <c r="D238" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E238:Z238),")")</f>
-        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMich|WMI)</v>
+        <v>(WESTRN KENTUCKY|WKU|WESTERNKY|WKent)</v>
       </c>
       <c r="E238" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G238" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="H238" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="G238" s="3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="H238" s="0" t="s">
-        <v>1342</v>
-      </c>
-      <c r="I238" s="3" t="s">
-        <v>1343</v>
-      </c>
+      <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
@@ -14825,29 +14850,33 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="D239" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E239:Z239),")")</f>
-        <v>(MARY|WILLMMARY|WM)</v>
+        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMich|WMI)</v>
       </c>
       <c r="E239" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H239" s="0" t="s">
         <v>1347</v>
       </c>
-      <c r="F239" s="0" t="s">
+      <c r="I239" s="3" t="s">
         <v>1348</v>
       </c>
-      <c r="G239" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
@@ -14868,17 +14897,17 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>1350</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="C240" s="2" t="s">
         <v>1351</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D240" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E240:Z240),")")</f>
-        <v>(WISCONSIN|Wisc|WIS)</v>
+        <v>(MARY|WILLMMARY|WM)</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>1352</v>
@@ -14921,15 +14950,17 @@
       </c>
       <c r="D241" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E241:Z241),")")</f>
-        <v>(WOFFORD|WOF)</v>
+        <v>(WISCONSIN|Wisc|WIS)</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="F241" s="3" t="s">
+      <c r="F241" s="0" t="s">
         <v>1358</v>
       </c>
-      <c r="G241" s="3"/>
+      <c r="G241" s="3" t="s">
+        <v>1359</v>
+      </c>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
@@ -14952,30 +14983,27 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1361</v>
+        <v>32</v>
       </c>
       <c r="D242" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E242:Z242),")")</f>
-        <v>(WYOMING|Wyom|WYO|WY)</v>
+        <v>(WOFFORD|WOF)</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="F242" s="0" t="s">
+      <c r="F242" s="3" t="s">
         <v>1363</v>
       </c>
-      <c r="G242" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H242" s="3" t="s">
-        <v>1365</v>
-      </c>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
@@ -14996,27 +15024,30 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>1366</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D243" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E243:Z243),")")</f>
-        <v>(YALE|YAL)</v>
+        <v>(WYOMING|Wyom|WYO|WY)</v>
       </c>
       <c r="E243" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F243" s="0" t="s">
         <v>1368</v>
       </c>
-      <c r="F243" s="3" t="s">
+      <c r="G243" s="3" t="s">
         <v>1369</v>
       </c>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
+      <c r="H243" s="3" t="s">
+        <v>1370</v>
+      </c>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
@@ -15037,27 +15068,25 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>442</v>
+        <v>1372</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1371</v>
+        <v>32</v>
       </c>
       <c r="D244" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E244:Z244),")")</f>
-        <v>(YOUNGSTOWN ST|YSU|YngSt)</v>
+        <v>(YALE|YAL)</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="G244" s="3" t="s">
         <v>1374</v>
       </c>
+      <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
@@ -15079,9 +15108,28 @@
       <c r="Z244" s="3"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
+      <c r="A245" s="0" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D245" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E245:Z245),")")</f>
+        <v>(YOUNGSTOWN ST|YSU|YngSt)</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>1379</v>
+      </c>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
@@ -15222,14 +15270,38 @@
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
     </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="P251" s="3"/>
+      <c r="Q251" s="3"/>
+      <c r="R251" s="3"/>
+      <c r="S251" s="3"/>
+      <c r="T251" s="3"/>
+      <c r="U251" s="3"/>
+      <c r="V251" s="3"/>
+      <c r="W251" s="3"/>
+      <c r="X251" s="3"/>
+      <c r="Y251" s="3"/>
+      <c r="Z251" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A222:A1048576 A77:A192 A1:A75 A194:A220">
+  <conditionalFormatting sqref="A223:A1048576 A77:A192 A1:A75 A202:A221 A194:A200">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E216:Z218 G219:Z219 E219 E222:Z222 E220:H220 J220:Z221 E225:Z225 E228:Z229 E227:F227 H227:Z227 G226:Z226 E226 E224:F224 H224:Z224 E234:Z234 E236:Z237 E238:G238 I238:Z238 E235:G235 I235:Z235 E233:H233 J233:Z233 E243:Z250 J242:Z242 E242 G242:H242 E232:Z232 H230:Z231 E230:F231 G215:Z215 E215 E241:Z241 G239:Z240 E239:E240 E221 G221:H221 F223:Z223">
+  <conditionalFormatting sqref="E217:Z219 G220:Z220 E220 E223:Z223 E221:H221 J221:Z222 E226:Z226 E229:Z230 E228:F228 H228:Z228 G227:Z227 E227 E225:F225 H225:Z225 E235:Z235 E237:Z238 E239:G239 I239:Z239 E236:G236 I236:Z236 E234:H234 J234:Z234 E244:Z251 J243:Z243 E243 G243:H243 E233:Z233 H231:Z232 E231:F232 G216:Z216 E216 E242:Z242 G240:Z241 E240:E241 E222 G222:H222 F224:Z224">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I109 H100:J100 J124:Z124 E124:H124 E125:Z125 G127:Z127 I126:Z126 F126:G126 E2:Z2 E58:Z58 E56:F57 H56:Z56 K57:Z57 G57:I57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 J74:Z74 F74:H74 E79:Z79 E81:Z89 G80:Z80 E80 K91:Z91 H91:I91 L90:Z90 G90:J90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E103:Z104 K102:Z102 E102:I102 I101:Z101 E107:Z107 H106:Z106 E106:F106 E108:E109 E110:Z110 E113:Z114 E112:G112 I112:Z112 E111:H111 J111:Z111 E118:Z118 E120:Z122 E123:F123 H123:Z123 J119:Z119 E119:H119 E115:G116 J115:Z116 J117:K117 M117:Z117 E116:H117 E130:Z130 K131:Z131 E131:I131 G129:I129 K129:Z129 E128:F129 H128:Z128 E134:Z137 E139:Z145 G138:Z138 E138 E132:G132 F152:Z153 J151:Z151 F151:H151 L150:Z150 F150:J150 G149:H149 J149:Z149 F156:Z161 I155:Z155 F155:G155 L154:Z154 F154:J154 E146:I146 L146:Z146 E166:Z166 I168:Z168 J167:Z167 E165:G165 I165:Z165 E169:Z171 E168:G168 E167:H167 E174:Z176 E173:F173 H173:Z173 E179:Z180 E183:Z183 J182:Z182 E182:H182 E177:F178 E172:G172 I172:K172 N172:Z172 E185:Z188 J184:Z184 E184:H184 E189 G189:I189 K189:Z189 E197:Z197 G198:Z199 G195:Z195 J196:Z196 F196:H196 E195:E196 E201:Z201 E198:E199 E200:F200 H200:Z200 E203:Z203 E202:F202 H202:Z202 E208:Z208 E210:Z210 E212:Z213 E214:F214 H214:Z214 G211:Z211 E211 G209:Z209 E209 E207:G207 I207:Z207 E3:H3 J3:Z3 I115 E4:Z4 E10:F10 I10:Z10 E92:Z93 E90:F91 E23 G23:Z23 E147:E162 E163:Z163 G162:Z162 F105:Z105 E206:Z206 E204:F204 E205 G205 H204:Z204 I205:Z205 E126:E127 F68:Z68 L69:Z69 F69:J69 F67:G67 I67:Z67 E50:Z53 E55:Z55 E54:F54 H54:Z54 E48 G48:Z48 E101:G101 N100:Z100 L100 E100:F100 J78:Z78 E78:F78 H78 F190:Z190 J108:Z108 K109:Z109 F109 G108:H108 K147:Z147 H147:I147 F147:F149 E133:I133 K133:Z133 F49:Z49 E37:Z37 E39:F40 H39:Z40 G38:Z38 E38 E36 G36:Z36 L148:Z148 H148:J148 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z11 E13:Z13 E12:F12 H12:Z12 E15:Z15 G16:Z16 E16 E14:F14 H14:Z14 E164 G164:Z164 E191:Z194 E6:Z9 E5 L132:Z132 I132:J132 E18:Z18 E20:Z21 E22:F22 H22:Z22 E19:G19 I19:Z19 E17:F17 H17:Z17 E24:Z28 E30:Z33 G29:Z29 E29 E35:Z35 E34:F34 H34:Z34 E41:Z42 E45:Z47 H43:Z44 E43:F44 H177:Z178 G5:Z5 E181:F181 H181:Z181">
+  <conditionalFormatting sqref="I109 H100:J100 J124:Z124 E124:H124 E125:Z125 G127:Z127 I126:Z126 F126:G126 E2:Z2 E58:Z58 E56:F57 H56:Z56 K57:Z57 G57:I57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 J74:Z74 F74:H74 E79:Z79 E81:Z89 G80:Z80 E80 K91:Z91 H91:I91 L90:Z90 G90:J90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E103:Z104 K102:Z102 E102:I102 I101:Z101 E107:Z107 H106:Z106 E106:F106 E108:E109 E110:Z110 E113:Z114 E112:G112 I112:Z112 E111:H111 J111:Z111 E118:Z118 E120:Z122 E123:F123 H123:Z123 J119:Z119 E119:H119 E115:G116 J115:Z116 J117:K117 M117:Z117 E116:H117 E130:Z130 K131:Z131 E131:I131 G129:I129 K129:Z129 E128:F129 H128:Z128 E134:Z137 E139:Z145 G138:Z138 E138 E132:G132 F152:Z153 J151:Z151 F151:H151 L150:Z150 F150:J150 G149:H149 J149:Z149 F156:Z161 I155:Z155 F155:G155 L154:Z154 F154:J154 E146:I146 L146:Z146 E166:Z166 I168:Z168 J167:Z167 E165:G165 I165:Z165 E169:Z171 E168:G168 E167:H167 E174:Z176 E173:F173 H173:Z173 E179:Z180 E183:Z183 J182:Z182 E182:H182 E177:F178 E172:G172 I172:K172 N172:Z172 E185:Z188 J184:Z184 E184:H184 E189 G189:I189 K189:Z189 E197:Z197 G198:Z199 G195:Z195 J196:Z196 F196:H196 E195:E196 E202:Z202 E198:E199 E200:F200 H200:Z201 E204:Z204 E203:F203 H203:Z203 E209:Z209 E211:Z211 E213:Z214 E215:F215 H215:Z215 G212:Z212 E212 G210:Z210 E210 E208:G208 I208:Z208 E3:H3 J3:Z3 I115 E4:Z4 E10:F10 I10:Z10 E92:Z93 E90:F91 E23 G23:Z23 E147:E162 E163:Z163 G162:Z162 F105:Z105 E207:Z207 E205:F205 E206 G206 H205:Z205 I206:Z206 E126:E127 F68:Z68 L69:Z69 F69:J69 F67:G67 I67:Z67 E50:Z53 E55:Z55 E54:F54 H54:Z54 E48 G48:Z48 E101:G101 N100:Z100 L100 E100:F100 J78:Z78 E78:F78 H78 F190:Z190 J108:Z108 K109:Z109 F109 G108:H108 K147:Z147 H147:I147 F147:F149 E133:I133 K133:Z133 F49:Z49 E37:Z37 E39:F40 H39:Z40 G38:Z38 E38 E36 G36:Z36 L148:Z148 H148:J148 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z11 E13:Z13 E12:F12 H12:Z12 E15:Z15 G16:Z16 E16 E14:F14 H14:Z14 E164 G164:Z164 E191:Z194 E6:Z9 E5 L132:Z132 I132:J132 E18:Z18 E20:Z21 E22:F22 H22:Z22 E19:G19 I19:Z19 E17:F17 H17:Z17 E24:Z28 E30:Z33 G29:Z29 E29 E35:Z35 E34:F34 H34:Z34 E41:Z42 E45:Z47 H43:Z44 E43:F44 H177:Z178 G5:Z5 E181:F181 H181:Z181 E201">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/school_colors/school_colors.xlsx
+++ b/school_colors/school_colors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1384">
   <si>
     <t xml:space="preserve">School</t>
   </si>
@@ -1946,6 +1946,18 @@
   </si>
   <si>
     <t xml:space="preserve">MER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merrimack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#003768 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FDB813 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRMK</t>
   </si>
   <si>
     <t xml:space="preserve">Miami</t>
@@ -4395,13 +4407,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z251"/>
+  <dimension ref="A1:Z252"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I165" activeCellId="0" sqref="I165"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E111" activeCellId="0" sqref="E111:G111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.71"/>
@@ -9209,38 +9221,30 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="5" t="s">
         <v>644</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E111:Z111),")")</f>
-        <v>(MIAMI FL|MIAMIFL|MIAMI|UM|MiaFl|MIA)</v>
+        <v>(Merrimack|MER|MRMK)</v>
       </c>
       <c r="E111" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>650</v>
-      </c>
+      <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
@@ -9260,35 +9264,35 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>38</v>
+        <v>648</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E112:Z112),")")</f>
-        <v>(MIAMI OH|MIAMIOH|MIAMI|MiaOh|MIA|MU)</v>
+        <v>(MIAMI FL|MIAMIFL|MIAMI|UM|MiaFl|MIA)</v>
       </c>
       <c r="E112" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="I112" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="J112" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="H112" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>656</v>
       </c>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -9309,30 +9313,36 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>659</v>
+        <v>38</v>
       </c>
       <c r="D113" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E113:Z113),")")</f>
-        <v>(MICHIGAN|MICH|MIC)</v>
+        <v>(MIAMI OH|MIAMIOH|MIAMI|MiaOh|MIA|MU)</v>
       </c>
       <c r="E113" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="J113" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
@@ -9352,30 +9362,28 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E114:Z114),")")</f>
-        <v>(MICHIGANST|MSU|MICHIGAN ST|MchSt)</v>
+        <v>(MICHIGAN|MICH|MIC)</v>
       </c>
       <c r="E114" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>668</v>
-      </c>
+      <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -9397,33 +9405,31 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>38</v>
+        <v>668</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>670</v>
+        <v>32</v>
       </c>
       <c r="D115" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E115:Z115),")")</f>
-        <v>(MIDDLE TENN|MIDDLETENN|MTSU|MTS|MT)</v>
+        <v>(MICHIGANST|MSU|MICHIGAN ST|MchSt)</v>
       </c>
       <c r="E115" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="G115" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="H115" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>675</v>
-      </c>
+      <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -9444,29 +9450,32 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>677</v>
+        <v>38</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E116:Z116),")")</f>
-        <v>(MINNESOTA|MINN|MIN|UMN)</v>
+        <v>(MIDDLE TENN|MIDDLETENN|MTSU|MTS|MT)</v>
       </c>
       <c r="E116" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="I116" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>682</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -9488,39 +9497,33 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>31</v>
+        <v>681</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E117:Z117),")")</f>
-        <v>(MISSISSIPPI ST|MISSSTATE|MisSt|MS State|MSSTATE|MSU|MS)</v>
+        <v>(MINNESOTA|MINN|MIN|UMN)</v>
       </c>
       <c r="E117" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="H117" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>690</v>
-      </c>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
@@ -9538,30 +9541,39 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>32</v>
+        <v>688</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E118:Z118),")")</f>
-        <v>(MISS VALLEY ST|MVSU)</v>
+        <v>(MISSISSIPPI ST|MISSSTATE|MisSt|MS State|MSSTATE|MSU|MS)</v>
       </c>
       <c r="E118" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="H118" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="I118" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
+      <c r="J118" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>694</v>
+      </c>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
@@ -9579,17 +9591,17 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>695</v>
+        <v>32</v>
       </c>
       <c r="D119" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E119:Z119),")")</f>
-        <v>(MISSOURI|Misso|MIZ|MU)</v>
+        <v>(MISS VALLEY ST|MVSU)</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>696</v>
@@ -9597,12 +9609,9 @@
       <c r="F119" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>656</v>
-      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -9623,27 +9632,30 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E120:Z120),")")</f>
-        <v>(MSU|MISSOURI ST)</v>
+        <v>(MISSOURI|Misso|MIZ|MU)</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
+      <c r="G120" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>660</v>
+      </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -9664,23 +9676,23 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>19</v>
+        <v>704</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>703</v>
+        <v>38</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E121:Z121),")")</f>
-        <v>(MONMOUTH|MU)</v>
+        <v>(MSU|MISSOURI ST)</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>704</v>
+        <v>670</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -9705,23 +9717,23 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>706</v>
+        <v>19</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>289</v>
+        <v>707</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E122:Z122),")")</f>
-        <v>(MONTANA|UM)</v>
+        <v>(MONMOUTH|MU)</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -9746,30 +9758,26 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E123:Z123),")")</f>
-        <v>(MONTANA ST|MntSt|MTnSt|MSU)</v>
+        <v>(MONTANA|UM)</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>666</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -9791,26 +9799,31 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>714</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>715</v>
+        <v>221</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E124:Z124),")")</f>
-        <v>(MORGAN ST|MSU)</v>
+        <v>(MONTANA ST|MntSt|MTnSt|MSU)</v>
       </c>
       <c r="E124" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="G124" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
+      <c r="H124" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -9841,19 +9854,16 @@
       </c>
       <c r="D125" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E125:Z125),")")</f>
-        <v>(MURRAY ST|MURRAYST|MUR)</v>
+        <v>(MORGAN ST|MSU)</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>720</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>722</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="G125" s="3"/>
       <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -9874,27 +9884,28 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="D126" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E126:Z126),")")</f>
-        <v>(NAVY|Navy|NAV)</v>
+        <v>(MURRAY ST|MURRAYST|MUR)</v>
       </c>
       <c r="E126" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>723</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>726</v>
       </c>
+      <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -9919,26 +9930,23 @@
         <v>727</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>351</v>
+        <v>713</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>38</v>
+        <v>728</v>
       </c>
       <c r="D127" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E127:Z127),")")</f>
-        <v>(NC STATE|NCSTATE|NCS|ST)</v>
+        <v>(NAVY|Navy|NAV)</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="F127" s="0" t="s">
         <v>729</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>727</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>731</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
@@ -9961,28 +9969,30 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>733</v>
+        <v>351</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D128" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E128:Z128),")")</f>
-        <v>(NEBRASKA|NEB|Neb)</v>
+        <v>(NC STATE|NCSTATE|NCS|ST)</v>
       </c>
       <c r="E128" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="H128" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="G128" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -10004,33 +10014,30 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>738</v>
+        <v>38</v>
       </c>
       <c r="D129" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E129:Z129),")")</f>
-        <v>(NEVADA|Nevad|NEV|NV|UNR)</v>
+        <v>(NEBRASKA|NEB|Neb)</v>
       </c>
       <c r="E129" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="G129" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="G129" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>743</v>
-      </c>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
@@ -10050,28 +10057,33 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D130" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E130:Z130),")")</f>
-        <v>(NEW HAMPSHIRE|UNH)</v>
+        <v>(NEVADA|Nevad|NEV|NV|UNR)</v>
       </c>
       <c r="E130" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="H130" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="I130" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
@@ -10094,30 +10106,25 @@
         <v>748</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>386</v>
+        <v>749</v>
       </c>
       <c r="D131" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E131:Z131),")")</f>
-        <v>(NEW MEXICO|NMex|NM|NEWMEXICO|UNM)</v>
+        <v>(NEW HAMPSHIRE|UNH)</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="G131" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>753</v>
-      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
@@ -10137,36 +10144,34 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>755</v>
+        <v>114</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>38</v>
+        <v>386</v>
       </c>
       <c r="D132" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E132:Z132),")")</f>
-        <v>(NEWMEXST|NEW MEXICO ST|NMxSt|NMS[Tt]|NMSU|NMS)</v>
+        <v>(NEW MEXICO|NMex|NM|NEWMEXICO|UNM)</v>
       </c>
       <c r="E132" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="H132" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="I132" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="G132" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="H132" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>761</v>
-      </c>
+      <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
@@ -10185,34 +10190,36 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>764</v>
+        <v>38</v>
       </c>
       <c r="D133" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E133:Z133),")")</f>
-        <v>(NICHOLLS ST|NICHOLLS|NICH|NIC|NSU)</v>
+        <v>(NEWMEXST|NEW MEXICO ST|NMxSt|NMS[Tt]|NMSU|NMS)</v>
       </c>
       <c r="E133" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="H133" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="J133" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
@@ -10231,28 +10238,33 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D134" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E134:Z134),")")</f>
-        <v>(NORFOLK ST|NSU)</v>
+        <v>(NICHOLLS ST|NICHOLLS|NICH|NIC|NSU)</v>
       </c>
       <c r="E134" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I134" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
@@ -10282,17 +10294,15 @@
       </c>
       <c r="D135" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E135:Z135),")")</f>
-        <v>(NORTH ALABAMA|UNA|NORTHALA)</v>
+        <v>(NORFOLK ST|NSU)</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>777</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>779</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
@@ -10315,30 +10325,28 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="D136" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E136:Z136),")")</f>
-        <v>(NORTH CAROLINA|UNC|NC|NCaro)</v>
+        <v>(NORTH ALABAMA|UNA|NORTHALA)</v>
       </c>
       <c r="E136" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="G136" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="F136" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>786</v>
-      </c>
+      <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -10360,29 +10368,29 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D137" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E137:Z137),")")</f>
-        <v>(NC A&amp;T|NCAT|A&amp;T|NCCU)</v>
+        <v>(NORTH CAROLINA|UNC|NC|NCaro)</v>
       </c>
       <c r="E137" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="H137" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>793</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -10405,28 +10413,30 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>632</v>
+        <v>793</v>
       </c>
       <c r="D138" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E138:Z138),")")</f>
-        <v>(NC CENTRAL|NCCtl|NCCU)</v>
+        <v>(NC A&amp;T|NCAT|A&amp;T|NCCU)</v>
       </c>
       <c r="E138" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="G138" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="F138" s="0" t="s">
+      <c r="H138" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="G138" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
@@ -10454,19 +10464,21 @@
         <v>799</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>800</v>
+        <v>632</v>
       </c>
       <c r="D139" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E139:Z139),")")</f>
-        <v>(NORTH DAKOTA|UND)</v>
+        <v>(NC CENTRAL|NCCtl|NCCU)</v>
       </c>
       <c r="E139" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F139" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="G139" s="3"/>
+      <c r="G139" s="3" t="s">
+        <v>797</v>
+      </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -10489,27 +10501,25 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="D140" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E140:Z140),")")</f>
-        <v>(NO DAKOTA ST|NDSU|NDkSt)</v>
+        <v>(NORTH DAKOTA|UND)</v>
       </c>
       <c r="E140" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>808</v>
-      </c>
+      <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -10532,33 +10542,29 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D141" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E141:Z141),")")</f>
-        <v>(NORTH TEXAS|UNT|NORTHTEXAS|NT|NoTex)</v>
+        <v>(NO DAKOTA ST|NDSU|NDkSt)</v>
       </c>
       <c r="E141" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="G141" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="G141" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>815</v>
-      </c>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -10579,27 +10585,33 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="D142" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E142:Z142),")")</f>
-        <v>(NAU|NORTHRN ARIZONA)</v>
+        <v>(NORTH TEXAS|UNT|NORTHTEXAS|NT|NoTex)</v>
       </c>
       <c r="E142" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="H142" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="I142" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
@@ -10626,24 +10638,20 @@
         <v>821</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>822</v>
+        <v>278</v>
       </c>
       <c r="D143" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E143:Z143),")")</f>
-        <v>(NORTHERN COLO|UNCO|NC|UNC)</v>
+        <v>(NAU|NORTHRN ARIZONA)</v>
       </c>
       <c r="E143" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>784</v>
-      </c>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -10665,26 +10673,30 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>826</v>
       </c>
       <c r="D144" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E144:Z144),")")</f>
-        <v>(NORTHERNIL|NIU)</v>
+        <v>(NORTHERN COLO|UNCO|NC|UNC)</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
+        <v>828</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>788</v>
+      </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -10706,17 +10718,17 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>829</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D145" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E145:Z145),")")</f>
-        <v>(NORTHERN IOWA|UNI|NORTHIOWA)</v>
+        <v>(NORTHERNIL|NIU)</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>830</v>
@@ -10724,9 +10736,7 @@
       <c r="F145" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="G145" s="3" t="s">
-        <v>832</v>
-      </c>
+      <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -10749,36 +10759,31 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>834</v>
-      </c>
       <c r="C146" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D146" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E146:Z146),")")</f>
-        <v>(NORTHWESTERN|NORTHWSTRN|NWU|NOR|NU|Nwest)</v>
+        <v>(NORTHERN IOWA|UNI|NORTHIOWA)</v>
       </c>
       <c r="E146" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="F146" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="G146" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="G146" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="J146" s="0" t="s">
-        <v>840</v>
-      </c>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
@@ -10797,37 +10802,36 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>843</v>
+        <v>32</v>
       </c>
       <c r="D147" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E147:Z147),")")</f>
-        <v>(NORTHWESTERN ST|NSU|NWSTATE|NWST|NWLA|NWSt)</v>
+        <v>(NORTHWESTERN|NORTHWSTRN|NWU|NOR|NU|Nwest)</v>
       </c>
       <c r="E147" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="J147" s="0" t="s">
         <v>844</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="G147" s="0" t="s">
-        <v>845</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="J147" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
@@ -10846,36 +10850,37 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>101</v>
+        <v>846</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>37</v>
+        <v>847</v>
       </c>
       <c r="D148" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E148:Z148),")")</f>
-        <v>(NOTRE DAME|NOTREDAME|NDAME|NDame|ND|UND)</v>
+        <v>(NORTHWESTERN ST|NSU|NWSTATE|NWST|NWLA|NWSt)</v>
       </c>
       <c r="E148" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="G148" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="H148" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="I148" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="G148" s="0" t="s">
+      <c r="J148" s="0" t="s">
         <v>852</v>
       </c>
-      <c r="H148" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>802</v>
-      </c>
+      <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
@@ -10894,32 +10899,36 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>856</v>
+        <v>101</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>857</v>
+        <v>37</v>
       </c>
       <c r="D149" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E149:Z149),")")</f>
-        <v>(OHIO|Ohio|OU|OHI)</v>
+        <v>(NOTRE DAME|NOTREDAME|NDAME|NDame|ND|UND)</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="G149" s="3" t="s">
-        <v>859</v>
+      <c r="G149" s="0" t="s">
+        <v>856</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
+        <v>857</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>806</v>
+      </c>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
@@ -10938,36 +10947,32 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>863</v>
       </c>
       <c r="D150" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E150:Z150),")")</f>
-        <v>(OHIO STATE|OHIO ST|OHIOST|OHIO|OSU|OhSt)</v>
+        <v>(OHIO|Ohio|OU|OHI)</v>
       </c>
       <c r="E150" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="H150" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>868</v>
-      </c>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
@@ -10986,32 +10991,36 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D151" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E151:Z151),")")</f>
-        <v>(OKLAHOMA|OU|Okla|OKL)</v>
+        <v>(OHIO STATE|OHIO ST|OHIOST|OHIO|OSU|OhSt)</v>
       </c>
       <c r="E151" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="J151" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="H151" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
@@ -11030,31 +11039,30 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D152" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E152:Z152),")")</f>
-        <v>(OKLAHOMA ST|OKLAST|OSU|OKSt)</v>
+        <v>(OKLAHOMA|OU|Okla|OKL)</v>
       </c>
       <c r="E152" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="G152" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="H152" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="G152" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="H152" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -11075,17 +11083,17 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="D153" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E153:Z153),")")</f>
-        <v>(OLDDOMNION|OLDDOMINION|ODU)</v>
+        <v>(OKLAHOMA ST|OKLAST|OSU|OKSt)</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>881</v>
@@ -11094,9 +11102,11 @@
         <v>882</v>
       </c>
       <c r="G153" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="H153" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -11121,33 +11131,28 @@
         <v>884</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>480</v>
+        <v>415</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>885</v>
+        <v>270</v>
       </c>
       <c r="D154" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E154:Z154),")")</f>
-        <v>(OLE MISS|OLEMISS|OM|OLE|Miss|MIS)</v>
+        <v>(OLDDOMNION|OLDDOMINION|ODU)</v>
       </c>
       <c r="E154" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F154" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="G154" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="G154" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>891</v>
-      </c>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
@@ -11166,30 +11171,36 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>893</v>
+        <v>480</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D155" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E155:Z155),")")</f>
-        <v>(OREGON|Oregn|ORE)</v>
+        <v>(OLE MISS|OLEMISS|OM|OLE|Miss|MIS)</v>
       </c>
       <c r="E155" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="J155" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
@@ -11208,29 +11219,26 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>898</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D156" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E156:Z156),")")</f>
-        <v>(OREGON ST|OREGONST|OSU|OrgSt)</v>
+        <v>(OREGON|Oregn|ORE)</v>
       </c>
       <c r="E156" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="F156" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="G156" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>902</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -11253,17 +11261,17 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D157" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E157:Z157),")")</f>
-        <v>(PENN STATE|PENN ST|PENNST|PSU|PnSt)</v>
+        <v>(OREGON ST|OREGONST|OSU|OrgSt)</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>904</v>
@@ -11272,14 +11280,12 @@
         <v>905</v>
       </c>
       <c r="G157" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="H157" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="H157" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>908</v>
-      </c>
+      <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -11300,29 +11306,33 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>910</v>
+        <v>19</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="D158" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E158:Z158),")")</f>
-        <v>(PITTSBURGH|UP|PIT)</v>
+        <v>(PENN STATE|PENN ST|PENNST|PSU|PnSt)</v>
       </c>
       <c r="E158" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="H158" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="I158" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="G158" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -11343,26 +11353,26 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C159" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="D159" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E159:Z159),")")</f>
-        <v>(PORTLAND ST|PSU|PrtSt)</v>
+        <v>(PITTSBURGH|UP|PIT)</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>915</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
@@ -11386,30 +11396,28 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>918</v>
+        <v>121</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>678</v>
+        <v>32</v>
       </c>
       <c r="D160" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E160:Z160),")")</f>
-        <v>(PRAIRIE VIEW|PVAM|PVU|PraVw)</v>
+        <v>(PORTLAND ST|PSU|PrtSt)</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>919</v>
       </c>
       <c r="F160" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="G160" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>922</v>
-      </c>
+      <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -11431,28 +11439,30 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>427</v>
+        <v>922</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>78</v>
+        <v>682</v>
       </c>
       <c r="D161" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E161:Z161),")")</f>
-        <v>(PRESBYTERIAN|PC|Presb)</v>
+        <v>(PRAIRIE VIEW|PVAM|PVU|PraVw)</v>
       </c>
       <c r="E161" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="F161" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="F161" s="3" t="s">
+      <c r="G161" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="G161" s="3" t="s">
+      <c r="H161" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
@@ -11477,27 +11487,25 @@
         <v>927</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D162" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E162:Z162),")")</f>
-        <v>(PERDUE|PURDUE|PUR|Prdue)</v>
+        <v>(PRESBYTERIAN|PC|Presb)</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="F162" s="0" t="s">
+      <c r="F162" s="3" t="s">
         <v>929</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="H162" s="3" t="s">
-        <v>931</v>
-      </c>
+      <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
@@ -11519,26 +11527,30 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>933</v>
+        <v>365</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>510</v>
+        <v>38</v>
       </c>
       <c r="D163" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E163:Z163),")")</f>
-        <v>(RHODE ISLAND|URI)</v>
+        <v>(PERDUE|PURDUE|PUR|Prdue)</v>
       </c>
       <c r="E163" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="G163" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="H163" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -11563,30 +11575,24 @@
         <v>936</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>709</v>
+        <v>937</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>937</v>
+        <v>510</v>
       </c>
       <c r="D164" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E164:Z164),")")</f>
-        <v>(RICE|Rice|RIC|RCE|RU)</v>
+        <v>(RHODE ISLAND|URI)</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="F164" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="G164" s="3" t="s">
+      <c r="F164" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="H164" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>941</v>
-      </c>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
@@ -11607,28 +11613,33 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>943</v>
+        <v>713</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>490</v>
+        <v>941</v>
       </c>
       <c r="D165" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E165:Z165),")")</f>
-        <v>(RICHMOND|RIC|UR)</v>
+        <v>(RICE|Rice|RIC|RCE|RU)</v>
       </c>
       <c r="E165" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="H165" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="G165" s="3" t="s">
+      <c r="I165" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
@@ -11655,20 +11666,21 @@
         <v>947</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>948</v>
+        <v>490</v>
       </c>
       <c r="D166" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E166:Z166),")")</f>
-        <v>(RMU|ROBERT MORRIS)</v>
+        <v>(RICHMOND|RIC|UR)</v>
       </c>
       <c r="E166" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="G166" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
@@ -11690,17 +11702,17 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>952</v>
       </c>
       <c r="D167" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E167:Z167),")")</f>
-        <v>(RUTGERS|Rutgr|RUT|RU)</v>
+        <v>(RMU|ROBERT MORRIS)</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>953</v>
@@ -11708,12 +11720,9 @@
       <c r="F167" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="G167" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="H167" s="3" t="s">
-        <v>941</v>
-      </c>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
@@ -11734,28 +11743,30 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>956</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="D168" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E168:Z168),")")</f>
-        <v>(SACRAMENTO ST|SAC|SSU)</v>
+        <v>(RUTGERS|Rutgr|RUT|RU)</v>
       </c>
       <c r="E168" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="G168" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="I168" s="3"/>
+      <c r="H168" s="3" t="s">
+        <v>945</v>
+      </c>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
@@ -11776,28 +11787,27 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D169" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E169:Z169),")")</f>
-        <v>(SAM HOUSTON ST|SAMHOUSTON|SHSU)</v>
+        <v>(SACRAMENTO ST|SAC|SSU)</v>
       </c>
       <c r="E169" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="F169" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="G169" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="G169" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
@@ -11819,25 +11829,27 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>968</v>
-      </c>
       <c r="C170" s="2" t="s">
-        <v>969</v>
+        <v>32</v>
       </c>
       <c r="D170" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E170:Z170),")")</f>
-        <v>(SAMFORD|SAM)</v>
+        <v>(SAM HOUSTON ST|SAMHOUSTON|SHSU)</v>
       </c>
       <c r="E170" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="G170" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="F170" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -11860,23 +11872,23 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>974</v>
       </c>
       <c r="D171" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E171:Z171),")")</f>
-        <v>(SAN DIEGO|USD)</v>
+        <v>(SAMFORD|SAM)</v>
       </c>
       <c r="E171" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="F171" s="3" t="s">
         <v>975</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>976</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -11901,39 +11913,31 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>948</v>
-      </c>
       <c r="C172" s="2" t="s">
-        <v>38</v>
+        <v>978</v>
       </c>
       <c r="D172" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E172:Z172),")")</f>
-        <v>(SAN DIEGO ST|SANDIEGOST|SAN DIEGO|SDSt|SDSU|SDS|SD)</v>
+        <v>(SAN DIEGO|USD)</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="H172" s="0" t="s">
         <v>980</v>
       </c>
-      <c r="I172" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="J172" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="K172" s="3" t="s">
-        <v>983</v>
-      </c>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3"/>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
@@ -11950,39 +11954,39 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>985</v>
+        <v>952</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>986</v>
+        <v>38</v>
       </c>
       <c r="D173" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E173:Z173),")")</f>
-        <v>(SAN JOSÉ ST|SAN JOSE ST|SJSt|SJSU|SJS|SJ)</v>
+        <v>(SAN DIEGO ST|SANDIEGOST|SAN DIEGO|SDSt|SDSU|SDS|SD)</v>
       </c>
       <c r="E173" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="H173" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="K173" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="F173" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="G173" s="0" t="s">
-        <v>989</v>
-      </c>
-      <c r="H173" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="J173" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="K173" s="3"/>
-      <c r="L173" s="3"/>
-      <c r="M173" s="3"/>
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
@@ -11999,30 +12003,36 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D174" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E174:Z174),")")</f>
-        <v>(SAVANNAH ST|SSU|SavSt)</v>
+        <v>(SAN JOSÉ ST|SAN JOSE ST|SJSt|SJSU|SJS|SJ)</v>
       </c>
       <c r="E174" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="G174" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="J174" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="F174" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
@@ -12042,23 +12052,27 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C175" s="2" t="s">
-        <v>442</v>
+        <v>999</v>
       </c>
       <c r="D175" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E175:Z175),")")</f>
-        <v>(SMU)</v>
+        <v>(SAVANNAH ST|SSU|SavSt)</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
+        <v>1000</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>1001</v>
+      </c>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -12081,30 +12095,24 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>709</v>
+        <v>136</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1000</v>
+        <v>442</v>
       </c>
       <c r="D176" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E176:Z176),")")</f>
-        <v>(SOUTH ALABAMA|USA|SOUTHALA|SAlab)</v>
+        <v>(SMU)</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F176" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="G176" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>1004</v>
-      </c>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
@@ -12126,33 +12134,31 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>331</v>
+        <v>713</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>38</v>
+        <v>1004</v>
       </c>
       <c r="D177" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E177:Z177),")")</f>
-        <v>(SOUTH CAROLINA|SOCAROLINA|SCaro|SC|USC)</v>
+        <v>(SOUTH ALABAMA|USA|SOUTHALA|SAlab)</v>
       </c>
       <c r="E177" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F177" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="G177" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="G177" s="0" t="s">
+      <c r="H177" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="H177" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I177" s="3" t="s">
-        <v>1010</v>
-      </c>
+      <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
@@ -12173,36 +12179,34 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1012</v>
+        <v>331</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1013</v>
+        <v>38</v>
       </c>
       <c r="D178" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E178:Z178),")")</f>
-        <v>(CAROLINA ST|SOCARST|SCSt|SCST|SCSU|SCS)</v>
+        <v>(SOUTH CAROLINA|SOCAROLINA|SCaro|SC|USC)</v>
       </c>
       <c r="E178" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G178" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I178" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="F178" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G178" s="0" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>1019</v>
-      </c>
+      <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
@@ -12222,32 +12226,36 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>602</v>
+        <v>1016</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D179" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E179:Z179),")")</f>
-        <v>(SOUTH DAKOTA|USD|SDU|SDako)</v>
+        <v>(CAROLINA ST|SOCARST|SCSt|SCST|SCSU|SCS)</v>
       </c>
       <c r="E179" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G179" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I179" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="F179" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="G179" s="3" t="s">
+      <c r="J179" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="H179" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
@@ -12267,28 +12275,30 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>1025</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>1026</v>
       </c>
       <c r="D180" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E180:Z180),")")</f>
-        <v>(SO DAKOTA ST|SDSU|SODAKOTAST)</v>
+        <v>(SOUTH DAKOTA|USD|SDU|SDako)</v>
       </c>
       <c r="E180" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="G180" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="F180" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="G180" s="3" t="s">
+      <c r="H180" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
@@ -12308,35 +12318,31 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>1029</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>1030</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="D181" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E181:Z181),")")</f>
-        <v>(SOUFLA|SOUTH FLORIDA|South Florida|USF|SFla)</v>
+        <v>(SO DAKOTA ST|SDSU|SODAKOTAST)</v>
       </c>
       <c r="E181" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="F181" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G181" s="0" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I181" s="3" t="s">
-        <v>1035</v>
-      </c>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
@@ -12355,31 +12361,34 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>442</v>
+        <v>1034</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>38</v>
+        <v>1035</v>
       </c>
       <c r="D182" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E182:Z182),")")</f>
-        <v>(SEMO|SEMo|SEM|SE MISSOURI)</v>
+        <v>(SOUFLA|SOUTH FLORIDA|South Florida|USF|SFla)</v>
       </c>
       <c r="E182" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F182" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="G182" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H182" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="G182" s="3" t="s">
+      <c r="I182" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="H182" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
@@ -12401,29 +12410,30 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1042</v>
+        <v>442</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1043</v>
+        <v>38</v>
       </c>
       <c r="D183" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E183:Z183),")")</f>
-        <v>(SE LOUISIANA|SLU|SELa)</v>
+        <v>(SEMO|SEMo|SEM|SE MISSOURI)</v>
       </c>
       <c r="E183" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H183" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="F183" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
@@ -12444,30 +12454,29 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="D184" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E184:Z184),")")</f>
-        <v>(SOUTHERN|SOU|SUBR|SU)</v>
+        <v>(SE LOUISIANA|SLU|SELa)</v>
       </c>
       <c r="E184" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F184" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="F184" s="3" t="s">
+      <c r="G184" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="G184" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H184" s="3" t="s">
-        <v>1052</v>
-      </c>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
@@ -12488,27 +12497,30 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="D185" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E185:Z185),")")</f>
-        <v>(SIU|SOUTHN ILLINOIS)</v>
+        <v>(SOUTHERN|SOU|SUBR|SU)</v>
       </c>
       <c r="E185" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G185" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="H185" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
@@ -12532,14 +12544,14 @@
         <v>1057</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>1058</v>
       </c>
       <c r="D186" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E186:Z186),")")</f>
-        <v>(SOUTHERN MISS|SOUMISS|USM|SoMis)</v>
+        <v>(SIU|SOUTHN ILLINOIS)</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>1059</v>
@@ -12547,12 +12559,8 @@
       <c r="F186" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="G186" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>1062</v>
-      </c>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
@@ -12574,28 +12582,30 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1064</v>
+        <v>38</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>38</v>
+        <v>1062</v>
       </c>
       <c r="D187" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E187:Z187),")")</f>
-        <v>(SOUTHERN UTAH|SUU|SoUth)</v>
+        <v>(SOUTHERN MISS|SOUMISS|USM|SoMis)</v>
       </c>
       <c r="E187" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G187" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="H187" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="G187" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
@@ -12616,24 +12626,28 @@
       <c r="Z187" s="3"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="B188" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>1070</v>
+      <c r="C188" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D188" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E188:Z188),")")</f>
-        <v>(SFrPA)</v>
-      </c>
-      <c r="E188" s="4" t="s">
+        <v>(SOUTHERN UTAH|SUU|SoUth)</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
@@ -12655,34 +12669,27 @@
       <c r="Z188" s="3"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="4" t="s">
         <v>1072</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="5" t="s">
         <v>1073</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="5" t="s">
         <v>1074</v>
       </c>
       <c r="D189" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E189:Z189),")")</f>
-        <v>(STANFORD|Stanf|STAN|STA|SU)</v>
-      </c>
-      <c r="E189" s="3" t="s">
+        <v>(SFrPA)</v>
+      </c>
+      <c r="E189" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="F189" s="0" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I189" s="3" t="s">
-        <v>1052</v>
-      </c>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
@@ -12702,28 +12709,33 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D190" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E190:Z190),")")</f>
-        <v>(SFAFB|SFA)</v>
-      </c>
-      <c r="E190" s="0" t="s">
+        <v>(STANFORD|Stanf|STAN|STA|SU)</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F190" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H190" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="F190" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
+      <c r="I190" s="3" t="s">
+        <v>1056</v>
+      </c>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
@@ -12743,27 +12755,25 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>1085</v>
       </c>
       <c r="D191" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E191:Z191),")")</f>
-        <v>(STONY BROOK|SBU|StBrk)</v>
-      </c>
-      <c r="E191" s="3" t="s">
+        <v>(SFAFB|SFA)</v>
+      </c>
+      <c r="E191" s="0" t="s">
         <v>1086</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="G191" s="3" t="s">
-        <v>1088</v>
-      </c>
+      <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
@@ -12786,26 +12796,26 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>1089</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>1091</v>
       </c>
       <c r="D192" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E192:Z192),")")</f>
-        <v>(SYRACUSE|SU|SYR)</v>
+        <v>(STONY BROOK|SBU|StBrk)</v>
       </c>
       <c r="E192" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G192" s="3" t="s">
         <v>1092</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>1093</v>
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -12829,25 +12839,27 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="C193" s="2" t="s">
         <v>1095</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>1096</v>
       </c>
       <c r="D193" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E193:Z193),")")</f>
-        <v>(TARLETON ST|trlst)</v>
-      </c>
-      <c r="E193" s="4" t="s">
+        <v>(SYRACUSE|SU|SYR)</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G193" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="F193" s="4" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
@@ -12870,22 +12882,24 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B194" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="5" t="s">
         <v>1100</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>1101</v>
       </c>
       <c r="D194" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E194:Z194),")")</f>
-        <v>(TCU)</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F194" s="3"/>
+        <v>(TARLETON ST|trlst)</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>1102</v>
+      </c>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
@@ -12909,30 +12923,24 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>78</v>
+        <v>1104</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>500</v>
+        <v>1105</v>
       </c>
       <c r="D195" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E195:Z195),")")</f>
-        <v>(TEMPLE|Temp|TEM|TU)</v>
+        <v>(TCU)</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="F195" s="0" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>1106</v>
-      </c>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
@@ -12954,30 +12962,31 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1108</v>
+        <v>78</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1109</v>
+        <v>500</v>
       </c>
       <c r="D196" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E196:Z196),")")</f>
-        <v>(TENNESSEE|Tenn|TEN|UT)</v>
+        <v>(TEMPLE|Temp|TEM|TU)</v>
       </c>
       <c r="E196" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H196" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="F196" s="3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>1113</v>
-      </c>
+      <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
@@ -12998,27 +13007,30 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>277</v>
+        <v>1112</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>32</v>
+        <v>1113</v>
       </c>
       <c r="D197" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E197:Z197),")")</f>
-        <v>(TENNESSEE ST|TSU)</v>
+        <v>(TENNESSEE|Tenn|TEN|UT)</v>
       </c>
       <c r="E197" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F197" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="G197" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
+      <c r="H197" s="3" t="s">
+        <v>1117</v>
+      </c>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
@@ -13039,27 +13051,25 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1118</v>
+        <v>277</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1119</v>
+        <v>32</v>
       </c>
       <c r="D198" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E198:Z198),")")</f>
-        <v>(TENNESSEE TECH|TnTch|TTU)</v>
+        <v>(TENNESSEE ST|TSU)</v>
       </c>
       <c r="E198" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F198" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="F198" s="0" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>1122</v>
-      </c>
+      <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
@@ -13082,30 +13092,28 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>1123</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>1125</v>
       </c>
       <c r="D199" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E199:Z199),")")</f>
-        <v>(TEXAS|Texas|TEX|UT)</v>
+        <v>(TENNESSEE TECH|TnTch|TTU)</v>
       </c>
       <c r="E199" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G199" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="F199" s="0" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H199" s="3" t="s">
-        <v>1113</v>
-      </c>
+      <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
@@ -13127,33 +13135,31 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>1129</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D200" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E200:Z200),")")</f>
-        <v>(TEXAS A&amp;M|TEXASAM|TexAM|TAMU|TAM)</v>
+        <v>(TEXAS|Texas|TEX|UT)</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="F200" s="3" t="s">
+      <c r="F200" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G200" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="G200" s="0" t="s">
-        <v>1132</v>
-      </c>
       <c r="H200" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>1134</v>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
@@ -13172,31 +13178,35 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>1137</v>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D201" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E201:Z201),")")</f>
-        <v>(Texas A&amp;M-Commerce|TAMC|TXCC)</v>
+        <v>(TEXAS A&amp;M|TEXASAM|TexAM|TAMU|TAM)</v>
       </c>
       <c r="E201" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F201" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="F201" s="3" t="s">
+      <c r="G201" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I201" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="G201" s="0" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
@@ -13215,32 +13225,30 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="C202" s="6" t="s">
         <v>1141</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>1142</v>
       </c>
       <c r="D202" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E202:Z202),")")</f>
-        <v>(TEXAS SOUTHERN|TSU|TXSOFB|TexSo)</v>
+        <v>(Texas A&amp;M-Commerce|TAMC|TXCC)</v>
       </c>
       <c r="E202" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G202" s="0" t="s">
         <v>1143</v>
       </c>
-      <c r="F202" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="H202" s="3" t="s">
-        <v>1145</v>
-      </c>
+      <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
@@ -13262,36 +13270,32 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>1146</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>1148</v>
       </c>
       <c r="D203" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E203:Z203),")")</f>
-        <v>(TEXAS STATE|TEXSTATE|TexSt|TSU|TXST|TXS)</v>
+        <v>(TEXAS SOUTHERN|TSU|TXSOFB|TexSo)</v>
       </c>
       <c r="E203" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H203" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="F203" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G203" s="0" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H203" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I203" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="J203" s="3" t="s">
-        <v>1153</v>
-      </c>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
@@ -13311,34 +13315,36 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>351</v>
+        <v>1151</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>38</v>
+        <v>1152</v>
       </c>
       <c r="D204" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E204:Z204),")")</f>
-        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
+        <v>(TEXAS STATE|TEXSTATE|TexSt|TSU|TXST|TXS)</v>
       </c>
       <c r="E204" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G204" s="0" t="s">
         <v>1155</v>
       </c>
-      <c r="F204" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G204" s="3" t="s">
+      <c r="H204" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I204" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="H204" s="3" t="s">
+      <c r="J204" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="I204" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
@@ -13358,29 +13364,33 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1160</v>
+        <v>351</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1161</v>
+        <v>38</v>
       </c>
       <c r="D205" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E205:Z205),")")</f>
-        <v>(CIT|THE CITADEL|THECITADEL)</v>
+        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
       </c>
       <c r="E205" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I205" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="F205" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G205" s="0" t="s">
-        <v>1164</v>
-      </c>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
@@ -13401,33 +13411,29 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>1165</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>1167</v>
       </c>
       <c r="D206" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E206:Z206),")")</f>
-        <v>(TOLEDO|Toled|TOL|UTo|UT)</v>
+        <v>(CIT|THE CITADEL|THECITADEL)</v>
       </c>
       <c r="E206" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G206" s="0" t="s">
         <v>1168</v>
       </c>
-      <c r="F206" s="0" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H206" s="0" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I206" s="3" t="s">
-        <v>1113</v>
-      </c>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
@@ -13448,27 +13454,33 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="D207" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E207:Z207),")")</f>
-        <v>(TOWSON|TOW)</v>
+        <v>(TOLEDO|Toled|TOL|UTo|UT)</v>
       </c>
       <c r="E207" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H207" s="0" t="s">
         <v>1175</v>
       </c>
-      <c r="F207" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
+      <c r="I207" s="3" t="s">
+        <v>1117</v>
+      </c>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
@@ -13489,27 +13501,26 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="C208" s="2" t="s">
         <v>1178</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>1179</v>
       </c>
       <c r="D208" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E208:Z208),")")</f>
-        <v>(TROY|TRO|TRY)</v>
+        <v>(TOWSON|TOW)</v>
       </c>
       <c r="E208" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F208" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="F208" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>1182</v>
-      </c>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
@@ -13531,28 +13542,27 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>1183</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>1184</v>
       </c>
       <c r="D209" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E209:Z209),")")</f>
-        <v>(TLN|TULANE|Tulan)</v>
+        <v>(TROY|TRO|TRY)</v>
       </c>
       <c r="E209" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F209" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="F209" s="3" t="s">
+      <c r="G209" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="G209" s="3" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
@@ -13574,33 +13584,29 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>1188</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="D210" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E210:Z210),")")</f>
-        <v>(TULSA|Tulsa|TLS|Tul|TUL)</v>
+        <v>(TLN|TULANE|Tulan)</v>
       </c>
       <c r="E210" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F210" s="3" t="s">
         <v>1190</v>
-      </c>
-      <c r="F210" s="0" t="s">
-        <v>1188</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="H210" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I210" s="3" t="s">
-        <v>1193</v>
-      </c>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
@@ -13621,25 +13627,33 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1042</v>
+        <v>1193</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1195</v>
+        <v>442</v>
       </c>
       <c r="D211" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E211:Z211),")")</f>
-        <v>(UAB)</v>
+        <v>(TULSA|Tulsa|TLS|Tul|TUL)</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
+      <c r="F211" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>1197</v>
+      </c>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
@@ -13660,27 +13674,23 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>214</v>
+        <v>1046</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>414</v>
+        <v>1199</v>
       </c>
       <c r="D212" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E212:Z212),")")</f>
-        <v>(UC DAVIS|UCDav|UCD)</v>
+        <v>(UAB)</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F212" s="0" t="s">
         <v>1198</v>
       </c>
-      <c r="G212" s="3" t="s">
-        <v>1199</v>
-      </c>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
@@ -13706,20 +13716,24 @@
         <v>1200</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1201</v>
+        <v>214</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="D213" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E213:Z213),")")</f>
-        <v>(UCF)</v>
+        <v>(UC DAVIS|UCDav|UCD)</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
+        <v>1201</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>1203</v>
+      </c>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
@@ -13742,24 +13756,22 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="D214" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E214:Z214),")")</f>
-        <v>(UCLA|UCL)</v>
+        <v>(UCF)</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F214" s="3" t="s">
         <v>1204</v>
       </c>
+      <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
@@ -13783,33 +13795,27 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1207</v>
+        <v>129</v>
       </c>
       <c r="D215" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E215:Z215),")")</f>
-        <v>(MASSACHUSETTS|UMASS|UMass|UMA|MAS)</v>
+        <v>(UCLA|UCL)</v>
       </c>
       <c r="E215" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F215" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="F215" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G215" s="0" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H215" s="3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I215" s="3" t="s">
-        <v>1211</v>
-      </c>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
@@ -13830,29 +13836,33 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="D216" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E216:Z216),")")</f>
-        <v>(LV|NLV|UNLV)</v>
+        <v>(MASSACHUSETTS|UMASS|UMass|UMA|MAS)</v>
       </c>
       <c r="E216" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I216" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="F216" s="0" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
@@ -13873,23 +13883,27 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>1010</v>
+        <v>1216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>490</v>
+        <v>1217</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>305</v>
+        <v>1218</v>
       </c>
       <c r="D217" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E217:Z217),")")</f>
-        <v>(USC)</v>
+        <v>(LV|NLV|UNLV)</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
+        <v>1219</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>1216</v>
+      </c>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
@@ -13912,27 +13926,23 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>1217</v>
+        <v>1014</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1218</v>
+        <v>490</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1219</v>
+        <v>305</v>
       </c>
       <c r="D218" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E218:Z218),")")</f>
-        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
+        <v>(USC)</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>1222</v>
-      </c>
+        <v>1014</v>
+      </c>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
@@ -13955,33 +13965,29 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>1223</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D219" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E219:Z219),")")</f>
-        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
+        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
       </c>
       <c r="E219" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F219" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="F219" s="3" t="s">
+      <c r="G219" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="G219" s="3" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H219" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I219" s="3" t="s">
-        <v>1229</v>
-      </c>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
@@ -14002,31 +14008,33 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>351</v>
+        <v>1228</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1231</v>
+        <v>101</v>
       </c>
       <c r="D220" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E220:Z220),")")</f>
-        <v>(UTAH|Utah|UTA|UTE)</v>
+        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
       </c>
       <c r="E220" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H220" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="F220" s="0" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G220" s="3" t="s">
+      <c r="I220" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="H220" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
@@ -14047,33 +14055,31 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>1235</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D221" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E221:Z221),")")</f>
-        <v>(UTAH ST|UTAHST|USU|US|UthSt)</v>
+        <v>(UTAH|Utah|UTA|UTE)</v>
       </c>
       <c r="E221" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F221" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G221" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="F221" s="3" t="s">
+      <c r="H221" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="G221" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H221" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="I221" s="0" t="s">
-        <v>1241</v>
-      </c>
+      <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
@@ -14094,28 +14100,33 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1244</v>
+        <v>13</v>
       </c>
       <c r="D222" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E222:Z222),")")</f>
-        <v>(UTU|UTAH TECH|Utah)</v>
+        <v>(UTAH ST|UTAHST|USU|US|UthSt)</v>
       </c>
       <c r="E222" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="I222" s="0" t="s">
         <v>1245</v>
       </c>
-      <c r="F222" s="4" t="s">
-        <v>1246</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
@@ -14136,29 +14147,28 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>1247</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>1108</v>
-      </c>
       <c r="C223" s="2" t="s">
-        <v>19</v>
+        <v>1248</v>
       </c>
       <c r="D223" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E223:Z223),")")</f>
-        <v>(UTEP|TEP|UTE)</v>
+        <v>(UTU|UTAH TECH|Utah)</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>1248</v>
+        <v>1249</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>1250</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
@@ -14178,27 +14188,27 @@
       <c r="Z223" s="3"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="4" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C224" s="5" t="s">
+      <c r="A224" s="0" t="s">
         <v>1251</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D224" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E224:Z224),")")</f>
-        <v>(VALPARAISO|Valpo|VAL)</v>
-      </c>
-      <c r="E224" s="4" t="s">
+        <v>(UTEP|TEP|UTE)</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F224" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="F224" s="4" t="s">
-        <v>1253</v>
-      </c>
       <c r="G224" s="3" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
@@ -14221,34 +14231,30 @@
       <c r="Z224" s="3"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="A225" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C225" s="5" t="s">
         <v>1255</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>1256</v>
       </c>
       <c r="D225" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E225:Z225),")")</f>
-        <v>(VANDERBILT|VANDY|Vandy|VAN|VU)</v>
-      </c>
-      <c r="E225" s="3" t="s">
+        <v>(VALPARAISO|Valpo|VAL)</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F225" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="F225" s="3" t="s">
+      <c r="G225" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="G225" s="0" t="s">
-        <v>1259</v>
-      </c>
-      <c r="H225" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="I225" s="3" t="s">
-        <v>1261</v>
-      </c>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
@@ -14269,27 +14275,33 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>709</v>
+        <v>38</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D226" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E226:Z226),")")</f>
-        <v>(VILLANOVA|VU)</v>
+        <v>(VANDERBILT|VANDY|Vandy|VAN|VU)</v>
       </c>
       <c r="E226" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G226" s="0" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H226" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="F226" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
+      <c r="I226" s="3" t="s">
+        <v>1265</v>
+      </c>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
@@ -14310,30 +14322,26 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1266</v>
+        <v>713</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>1267</v>
       </c>
       <c r="D227" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E227:Z227),")")</f>
-        <v>(VIRGINIA|Virg|VA|UVA)</v>
+        <v>(VILLANOVA|VU)</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="F227" s="0" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G227" s="3" t="s">
-        <v>1270</v>
-      </c>
-      <c r="H227" s="3" t="s">
-        <v>1271</v>
-      </c>
+      <c r="F227" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
@@ -14355,36 +14363,32 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D228" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E228:Z228),")")</f>
-        <v>(VIRGINIA TECH|VATECH|VTech|VT|VaT|VAT)</v>
+        <v>(VIRGINIA|Virg|VA|UVA)</v>
       </c>
       <c r="E228" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H228" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="F228" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="G228" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="H228" s="3" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I228" s="3" t="s">
-        <v>1279</v>
-      </c>
-      <c r="J228" s="3" t="s">
-        <v>1280</v>
-      </c>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
       <c r="M228" s="3"/>
@@ -14404,26 +14408,36 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>621</v>
+        <v>1278</v>
       </c>
       <c r="D229" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E229:Z229),")")</f>
-        <v>(VMI)</v>
+        <v>(VIRGINIA TECH|VATECH|VTech|VT|VaT|VAT)</v>
       </c>
       <c r="E229" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G229" s="0" t="s">
         <v>1281</v>
       </c>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
+      <c r="H229" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>1284</v>
+      </c>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
@@ -14443,24 +14457,22 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1285</v>
+        <v>621</v>
       </c>
       <c r="D230" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E230:Z230),")")</f>
-        <v>(WAGNER|WAG)</v>
+        <v>(VMI)</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>1287</v>
-      </c>
+        <v>1285</v>
+      </c>
+      <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
@@ -14484,17 +14496,17 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="C231" s="2" t="s">
         <v>1289</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D231" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E231:Z231),")")</f>
-        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
+        <v>(WAGNER|WAG)</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>1290</v>
@@ -14502,12 +14514,8 @@
       <c r="F231" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="G231" s="0" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H231" s="3" t="s">
-        <v>1293</v>
-      </c>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
@@ -14529,36 +14537,32 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1296</v>
+        <v>38</v>
       </c>
       <c r="D232" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E232:Z232),")")</f>
-        <v>(WASHINGTON|WASH|Wash|UW|WAS|U W)</v>
+        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
       </c>
       <c r="E232" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G232" s="0" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H232" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="F232" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G232" s="0" t="s">
-        <v>1299</v>
-      </c>
-      <c r="H232" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I232" s="3" t="s">
-        <v>1301</v>
-      </c>
-      <c r="J232" s="3" t="s">
-        <v>1302</v>
-      </c>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
@@ -14578,34 +14582,36 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="D233" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E233:Z233),")")</f>
-        <v>(WASHINGTON ST|WSU|WASHST|COU|WshSt)</v>
+        <v>(WASHINGTON|WASH|Wash|UW|WAS|U W)</v>
       </c>
       <c r="E233" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G233" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J233" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="F233" s="3" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>1308</v>
-      </c>
-      <c r="H233" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I233" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="J233" s="3"/>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
       <c r="M233" s="3"/>
@@ -14625,32 +14631,32 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="D234" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E234:Z234),")")</f>
-        <v>(WEBER ST|WEBERST|WEBER|WSU|WebSt)</v>
+        <v>(WASHINGTON ST|WSU|WASHST|COU|WshSt)</v>
       </c>
       <c r="E234" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I234" s="3" t="s">
         <v>1314</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H234" s="3" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I234" s="0" t="s">
-        <v>1317</v>
       </c>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
@@ -14672,31 +14678,33 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>214</v>
+        <v>1316</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1043</v>
+        <v>1317</v>
       </c>
       <c r="D235" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E235:Z235),")")</f>
-        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
+        <v>(WEBER ST|WEBERST|WEBER|WSU|WebSt)</v>
       </c>
       <c r="E235" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F235" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="G235" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="G235" s="3" t="s">
+      <c r="H235" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I235" s="0" t="s">
         <v>1321</v>
       </c>
-      <c r="H235" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
@@ -14717,33 +14725,31 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1324</v>
+        <v>214</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1325</v>
+        <v>1047</v>
       </c>
       <c r="D236" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E236:Z236),")")</f>
-        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCaro|WCU)</v>
+        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
       </c>
       <c r="E236" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H236" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="F236" s="3" t="s">
-        <v>1327</v>
-      </c>
-      <c r="G236" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="H236" s="0" t="s">
-        <v>1329</v>
-      </c>
-      <c r="I236" s="3" t="s">
-        <v>1330</v>
-      </c>
+      <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
@@ -14764,27 +14770,33 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>56</v>
+        <v>1329</v>
       </c>
       <c r="D237" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E237:Z237),")")</f>
-        <v>(WESTRN ILLINOIS|WIU)</v>
+        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCaro|WCU)</v>
       </c>
       <c r="E237" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H237" s="0" t="s">
         <v>1333</v>
       </c>
-      <c r="F237" s="3" t="s">
+      <c r="I237" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
-      <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
@@ -14808,14 +14820,14 @@
         <v>1335</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>408</v>
+        <v>1336</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1336</v>
+        <v>56</v>
       </c>
       <c r="D238" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E238:Z238),")")</f>
-        <v>(WESTRN KENTUCKY|WKU|WESTERNKY|WKent)</v>
+        <v>(WESTRN ILLINOIS|WIU)</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>1337</v>
@@ -14823,12 +14835,8 @@
       <c r="F238" s="3" t="s">
         <v>1338</v>
       </c>
-      <c r="G238" s="3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="H238" s="3" t="s">
-        <v>1340</v>
-      </c>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
@@ -14850,33 +14858,31 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1342</v>
+        <v>408</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="D239" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E239:Z239),")")</f>
-        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMich|WMI)</v>
+        <v>(WESTRN KENTUCKY|WKU|WESTERNKY|WKent)</v>
       </c>
       <c r="E239" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H239" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="F239" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="G239" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="H239" s="0" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I239" s="3" t="s">
-        <v>1348</v>
-      </c>
+      <c r="I239" s="3"/>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
@@ -14897,29 +14903,33 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="D240" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E240:Z240),")")</f>
-        <v>(MARY|WILLMMARY|WM)</v>
+        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMich|WMI)</v>
       </c>
       <c r="E240" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H240" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I240" s="3" t="s">
         <v>1352</v>
       </c>
-      <c r="F240" s="0" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G240" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
@@ -14940,26 +14950,26 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>1355</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D241" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E241:Z241),")")</f>
-        <v>(WISCONSIN|Wisc|WIS)</v>
+        <v>(MARY|WILLMMARY|WM)</v>
       </c>
       <c r="E241" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F241" s="0" t="s">
         <v>1357</v>
       </c>
-      <c r="F241" s="0" t="s">
+      <c r="G241" s="3" t="s">
         <v>1358</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>1359</v>
       </c>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
@@ -14983,25 +14993,27 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>1360</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>1361</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D242" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E242:Z242),")")</f>
-        <v>(WOFFORD|WOF)</v>
+        <v>(WISCONSIN|Wisc|WIS)</v>
       </c>
       <c r="E242" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F242" s="0" t="s">
         <v>1362</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="G242" s="3" t="s">
         <v>1363</v>
       </c>
-      <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
@@ -15030,24 +15042,21 @@
         <v>1365</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1366</v>
+        <v>32</v>
       </c>
       <c r="D243" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E243:Z243),")")</f>
-        <v>(WYOMING|Wyom|WYO|WY)</v>
+        <v>(WOFFORD|WOF)</v>
       </c>
       <c r="E243" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F243" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="F243" s="0" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G243" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H243" s="3" t="s">
-        <v>1370</v>
-      </c>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
@@ -15068,27 +15077,30 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>32</v>
+        <v>1370</v>
       </c>
       <c r="D244" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E244:Z244),")")</f>
-        <v>(YALE|YAL)</v>
+        <v>(WYOMING|Wyom|WYO|WY)</v>
       </c>
       <c r="E244" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F244" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G244" s="3" t="s">
         <v>1373</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="H244" s="3" t="s">
         <v>1374</v>
       </c>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
@@ -15112,14 +15124,14 @@
         <v>1375</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>442</v>
+        <v>1376</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1376</v>
+        <v>32</v>
       </c>
       <c r="D245" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E245:Z245),")")</f>
-        <v>(YOUNGSTOWN ST|YSU|YngSt)</v>
+        <v>(YALE|YAL)</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>1377</v>
@@ -15127,9 +15139,7 @@
       <c r="F245" s="3" t="s">
         <v>1378</v>
       </c>
-      <c r="G245" s="3" t="s">
-        <v>1379</v>
-      </c>
+      <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
@@ -15151,9 +15161,28 @@
       <c r="Z245" s="3"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
+      <c r="A246" s="0" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D246" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E246:Z246),")")</f>
+        <v>(YOUNGSTOWN ST|YSU|YngSt)</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>1383</v>
+      </c>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
@@ -15294,14 +15323,38 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3"/>
+      <c r="J252" s="3"/>
+      <c r="K252" s="3"/>
+      <c r="L252" s="3"/>
+      <c r="M252" s="3"/>
+      <c r="N252" s="3"/>
+      <c r="O252" s="3"/>
+      <c r="P252" s="3"/>
+      <c r="Q252" s="3"/>
+      <c r="R252" s="3"/>
+      <c r="S252" s="3"/>
+      <c r="T252" s="3"/>
+      <c r="U252" s="3"/>
+      <c r="V252" s="3"/>
+      <c r="W252" s="3"/>
+      <c r="X252" s="3"/>
+      <c r="Y252" s="3"/>
+      <c r="Z252" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A223:A1048576 A77:A192 A1:A75 A202:A221 A194:A200">
+  <conditionalFormatting sqref="A224:A1048576 A77:A193 A1:A75 A203:A222 A195:A201">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E217:Z219 G220:Z220 E220 E223:Z223 E221:H221 J221:Z222 E226:Z226 E229:Z230 E228:F228 H228:Z228 G227:Z227 E227 E225:F225 H225:Z225 E235:Z235 E237:Z238 E239:G239 I239:Z239 E236:G236 I236:Z236 E234:H234 J234:Z234 E244:Z251 J243:Z243 E243 G243:H243 E233:Z233 H231:Z232 E231:F232 G216:Z216 E216 E242:Z242 G240:Z241 E240:E241 E222 G222:H222 F224:Z224">
+  <conditionalFormatting sqref="E218:Z220 G221:Z221 E221 E224:Z224 E222:H222 J222:Z223 E227:Z227 E230:Z231 E229:F229 H229:Z229 G228:Z228 E228 E226:F226 H226:Z226 E236:Z236 E238:Z239 E240:G240 I240:Z240 E237:G237 I237:Z237 E235:H235 J235:Z235 E245:Z252 J244:Z244 E244 G244:H244 E234:Z234 H232:Z233 E232:F233 G217:Z217 E217 E243:Z243 G241:Z242 E241:E242 E223 G223:H223 F225:Z225">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I109 H100:J100 J124:Z124 E124:H124 E125:Z125 G127:Z127 I126:Z126 F126:G126 E2:Z2 E58:Z58 E56:F57 H56:Z56 K57:Z57 G57:I57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 J74:Z74 F74:H74 E79:Z79 E81:Z89 G80:Z80 E80 K91:Z91 H91:I91 L90:Z90 G90:J90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E103:Z104 K102:Z102 E102:I102 I101:Z101 E107:Z107 H106:Z106 E106:F106 E108:E109 E110:Z110 E113:Z114 E112:G112 I112:Z112 E111:H111 J111:Z111 E118:Z118 E120:Z122 E123:F123 H123:Z123 J119:Z119 E119:H119 E115:G116 J115:Z116 J117:K117 M117:Z117 E116:H117 E130:Z130 K131:Z131 E131:I131 G129:I129 K129:Z129 E128:F129 H128:Z128 E134:Z137 E139:Z145 G138:Z138 E138 E132:G132 F152:Z153 J151:Z151 F151:H151 L150:Z150 F150:J150 G149:H149 J149:Z149 F156:Z161 I155:Z155 F155:G155 L154:Z154 F154:J154 E146:I146 L146:Z146 E166:Z166 I168:Z168 J167:Z167 E165:G165 I165:Z165 E169:Z171 E168:G168 E167:H167 E174:Z176 E173:F173 H173:Z173 E179:Z180 E183:Z183 J182:Z182 E182:H182 E177:F178 E172:G172 I172:K172 N172:Z172 E185:Z188 J184:Z184 E184:H184 E189 G189:I189 K189:Z189 E197:Z197 G198:Z199 G195:Z195 J196:Z196 F196:H196 E195:E196 E202:Z202 E198:E199 E200:F200 H200:Z201 E204:Z204 E203:F203 H203:Z203 E209:Z209 E211:Z211 E213:Z214 E215:F215 H215:Z215 G212:Z212 E212 G210:Z210 E210 E208:G208 I208:Z208 E3:H3 J3:Z3 I115 E4:Z4 E10:F10 I10:Z10 E92:Z93 E90:F91 E23 G23:Z23 E147:E162 E163:Z163 G162:Z162 F105:Z105 E207:Z207 E205:F205 E206 G206 H205:Z205 I206:Z206 E126:E127 F68:Z68 L69:Z69 F69:J69 F67:G67 I67:Z67 E50:Z53 E55:Z55 E54:F54 H54:Z54 E48 G48:Z48 E101:G101 N100:Z100 L100 E100:F100 J78:Z78 E78:F78 H78 F190:Z190 J108:Z108 K109:Z109 F109 G108:H108 K147:Z147 H147:I147 F147:F149 E133:I133 K133:Z133 F49:Z49 E37:Z37 E39:F40 H39:Z40 G38:Z38 E38 E36 G36:Z36 L148:Z148 H148:J148 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z11 E13:Z13 E12:F12 H12:Z12 E15:Z15 G16:Z16 E16 E14:F14 H14:Z14 E164 G164:Z164 E191:Z194 E6:Z9 E5 L132:Z132 I132:J132 E18:Z18 E20:Z21 E22:F22 H22:Z22 E19:G19 I19:Z19 E17:F17 H17:Z17 E24:Z28 E30:Z33 G29:Z29 E29 E35:Z35 E34:F34 H34:Z34 E41:Z42 E45:Z47 H43:Z44 E43:F44 H177:Z178 G5:Z5 E181:F181 H181:Z181 E201">
+  <conditionalFormatting sqref="I109 H100:J100 J125:Z125 E125:H125 E126:Z126 G128:Z128 I127:Z127 F127:G127 E2:Z2 E58:Z58 E56:F57 H56:Z56 K57:Z57 G57:I57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 J74:Z74 F74:H74 E79:Z79 E81:Z89 G80:Z80 E80 K91:Z91 H91:I91 L90:Z90 G90:J90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E103:Z104 K102:Z102 E102:I102 I101:Z101 E107:Z107 H106:Z106 E106:F106 E108:E109 E110:Z110 E114:Z115 E113:G113 I113:Z113 E112:H112 J112:Z112 E119:Z119 E121:Z123 E124:F124 H124:Z124 J120:Z120 E120:H120 E116:G117 J116:Z117 J118:K118 M118:Z118 E117:H118 E131:Z131 K132:Z132 E132:I132 G130:I130 K130:Z130 E129:F130 H129:Z129 E135:Z138 E140:Z146 G139:Z139 E139 E133:G133 F153:Z154 J152:Z152 F152:H152 L151:Z151 F151:J151 G150:H150 J150:Z150 F157:Z162 I156:Z156 F156:G156 L155:Z155 F155:J155 E147:I147 L147:Z147 E167:Z167 I169:Z169 J168:Z168 E166:G166 I166:Z166 E170:Z172 E169:G169 E168:H168 E175:Z177 E174:F174 H174:Z174 E180:Z181 E184:Z184 J183:Z183 E183:H183 E178:F179 E173:G173 I173:K173 N173:Z173 E186:Z189 J185:Z185 E185:H185 E190 G190:I190 K190:Z190 E198:Z198 G199:Z200 G196:Z196 J197:Z197 F197:H197 E196:E197 E203:Z203 E199:E200 E201:F201 H201:Z202 E205:Z205 E204:F204 H204:Z204 E210:Z210 E212:Z212 E214:Z215 E216:F216 H216:Z216 G213:Z213 E213 G211:Z211 E211 E209:G209 I209:Z209 E3:H3 J3:Z3 I116 E4:Z4 E10:F10 I10:Z10 E92:Z93 E90:F91 E23 G23:Z23 E148:E163 E164:Z164 G163:Z163 F105:Z105 E208:Z208 E206:F206 E207 G207 H206:Z206 I207:Z207 E127:E128 F68:Z68 L69:Z69 F69:J69 F67:G67 I67:Z67 E50:Z53 E55:Z55 E54:F54 H54:Z54 E48 G48:Z48 E101:G101 N100:Z100 L100 E100:F100 J78:Z78 E78:F78 H78 F191:Z191 J108:Z108 K109:Z109 F109 G108:H108 K148:Z148 H148:I148 F148:F150 E134:I134 K134:Z134 F49:Z49 E37:Z37 E39:F40 H39:Z40 G38:Z38 E38 E36 G36:Z36 L149:Z149 H149:J149 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z11 E13:Z13 E12:F12 H12:Z12 E15:Z15 G16:Z16 E16 E14:F14 H14:Z14 E165 G165:Z165 E192:Z195 E6:Z9 E5 L133:Z133 I133:J133 E18:Z18 E20:Z21 E22:F22 H22:Z22 E19:G19 I19:Z19 E17:F17 H17:Z17 E24:Z28 E30:Z33 G29:Z29 E29 E35:Z35 E34:F34 H34:Z34 E41:Z42 E45:Z47 H43:Z44 E43:F44 H178:Z179 G5:Z5 E182:F182 H182:Z182 E202 J111:Z111 E111 E111">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/school_colors/school_colors.xlsx
+++ b/school_colors/school_colors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1389">
   <si>
     <t xml:space="preserve">School</t>
   </si>
@@ -835,6 +835,9 @@
     <t xml:space="preserve">#7C878E</t>
   </si>
   <si>
+    <t xml:space="preserve">CONN</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONNECTICUT</t>
   </si>
   <si>
@@ -2918,6 +2921,18 @@
   </si>
   <si>
     <t xml:space="preserve">SSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacred Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CE1141 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B1B3B6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHU</t>
   </si>
   <si>
     <t xml:space="preserve">Sam Houston State</t>
@@ -4182,13 +4197,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4207,6 +4221,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -4269,7 +4290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4282,11 +4303,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4294,7 +4323,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4407,13 +4436,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z252"/>
+  <dimension ref="A1:Z253"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E111" activeCellId="0" sqref="E111:G111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E170" activeCellId="0" sqref="E170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.71"/>
@@ -6308,7 +6337,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>268</v>
       </c>
@@ -6320,24 +6349,26 @@
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E44:Z44),")")</f>
-        <v>(CONNECTICUT|UCONN|UConn|CON|UCO)</v>
-      </c>
-      <c r="E44" s="3" t="s">
+        <v>(CONN|CONNECTICUT|UCONN|UConn|CON|UCO)</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>271</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="0" t="s">
         <v>274</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="J44" s="3"/>
+      <c r="J44" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -6357,23 +6388,23 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E45:Z45),")")</f>
         <v>(DELAWARE|DEL)</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -6398,26 +6429,26 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E46:Z46),")")</f>
         <v>(DELAWARE ST|DSU|DelSt)</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -6441,23 +6472,23 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E47:Z47),")")</f>
         <v>(DRAKE|DU)</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -6482,7 +6513,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
@@ -6495,13 +6526,13 @@
         <v>(DUKE|DUK|DU)</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -6525,7 +6556,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>19</v>
@@ -6538,10 +6569,10 @@
         <v>(DUQUESNE|DUQ)</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -6566,26 +6597,26 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E50:Z50),")")</f>
         <v>(EAST CAROLINA|EASTCRLINA|ECU)</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -6609,23 +6640,23 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E51:Z51),")")</f>
         <v>(ETSU|EAST TENN ST)</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -6650,23 +6681,23 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D52" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E52:Z52),")")</f>
         <v>(EASTRN ILLINOIS|EIU)</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -6691,10 +6722,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>32</v>
@@ -6704,13 +6735,13 @@
         <v>(EKU|EASTRN KENTUCKY|EASTERNKY)</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -6734,10 +6765,10 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>38</v>
@@ -6747,16 +6778,16 @@
         <v>(EASTMICH|EASTRN MICHIGAN|EMich|EMU)</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -6779,26 +6810,26 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E55:Z55),")")</f>
         <v>(EASTERN WASH|EWU|EASTWASH)</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -6822,23 +6853,23 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E56:Z56),")")</f>
         <v>(ELON|ELO)</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -6862,32 +6893,32 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E57:Z57),")")</f>
         <v>(FLORIDA|FLA|Fla|UFL|UF)</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -6908,29 +6939,29 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E58:Z58),")")</f>
         <v>(FLORIDA A&amp;M|FLORIDAAM|FAMU|FAM)</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -6953,32 +6984,32 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E59:Z59),")")</f>
         <v>(FLA ATLANTIC|FLAATLANTC|FAU20\d+|FAU|FlAtl)</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -7000,26 +7031,26 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D60" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E60:Z60),")")</f>
         <v>(FIU|FLORIDA INTL|FLAINTL)</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -7043,32 +7074,32 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E61:Z61),")")</f>
         <v>(FLORIDAST|FSU|FS|FLORIDA ST|FlaSt)</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -7090,10 +7121,10 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>32</v>
@@ -7103,16 +7134,16 @@
         <v>(FORDHAM|FORD|FOR|FHU)</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -7135,35 +7166,35 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E63:Z63),")")</f>
         <v>(FRESNO ST|FRESNOST|FRS|FST|FSU|FS)</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -7184,23 +7215,23 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D64" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E64:Z64),")")</f>
         <v>(FURMAN|FUR)</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -7224,10 +7255,10 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>32</v>
@@ -7237,10 +7268,10 @@
         <v>(GWU|WEBB)</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -7265,7 +7296,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>114</v>
@@ -7278,16 +7309,16 @@
         <v>(GEORGIA|UGA|Georgia|Geo)</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="H66" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -7310,35 +7341,35 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D67" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E67:Z67),")")</f>
         <v>(GA SOUTHERN|GASOUTHERN|GAS|GSO|GSU|GS)</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -7359,32 +7390,32 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D68" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E68:Z68),")")</f>
         <v>(GEORGIA ST|GSU|GEORGIAST|GAST|GST)</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -7406,35 +7437,35 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D69" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E69:Z69),")")</f>
         <v>(GEORGIA TECH|GATECH|GTech|GT|GAT|GIT)</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -7454,10 +7485,10 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>38</v>
@@ -7467,13 +7498,13 @@
         <v>(GRAMBLING|GRAM|GSU)</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -7496,10 +7527,10 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>32</v>
@@ -7509,10 +7540,10 @@
         <v>(HAMPTON|HAM)</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -7536,29 +7567,29 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D72" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E72:Z72),")")</f>
         <v>(HAWAII|Hawaii|HAW|UH)</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -7581,10 +7612,10 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>32</v>
@@ -7594,10 +7625,10 @@
         <v>(HC|HOLY CROSS)</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -7622,29 +7653,29 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D74" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E74:Z74),")")</f>
         <v>(HOUSTON|Houst|HOU|UHO)</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -7666,23 +7697,23 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D75" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E75:Z75),")")</f>
         <v>(HBU|HOUSTON BAPTIST)</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -7707,23 +7738,23 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D76" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E76:Z76),")")</f>
         <v>(HstnB|HCU)</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -7748,26 +7779,26 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D77" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E77:Z77),")")</f>
         <v>(HOWARD|HOWFB14|HOW)</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -7790,29 +7821,29 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D78" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E78:Z78),")")</f>
         <v>(IDAHO|Idaho|IDAHO17|IDA)</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>464</v>
-      </c>
       <c r="G78" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -7834,10 +7865,10 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>38</v>
@@ -7847,13 +7878,13 @@
         <v>(IDAHO ST|ISU|IDAHOST)</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -7877,26 +7908,26 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D80" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E80:Z80),")")</f>
         <v>(ILLINOIS|Illin|ILL)</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -7920,26 +7951,26 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D81" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E81:Z81),")")</f>
         <v>(ILLINOIS ST|ILS|ISU)</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -7963,10 +7994,10 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>38</v>
@@ -7976,13 +8007,13 @@
         <v>(INCARNATEW|UIW|InWrd)</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -8006,26 +8037,26 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D83" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E83:Z83),")")</f>
         <v>(INDIANA|IND|INS)</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -8049,10 +8080,10 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>32</v>
@@ -8062,16 +8093,16 @@
         <v>(INDIANAST|INDIANA ST|INS|ISU)</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -8094,10 +8125,10 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>38</v>
@@ -8107,16 +8138,16 @@
         <v>(IOWA|IOW|UI|IWA)</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -8139,26 +8170,26 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D86" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E86:Z86),")")</f>
         <v>(IOWA ST|IOWAST|ISU)</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -8182,29 +8213,29 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D87" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E87:Z87),")")</f>
         <v>(JACKSON ST|JACKST|JKST|JaxSt)</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -8227,10 +8258,10 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>192</v>
@@ -8240,13 +8271,13 @@
         <v>(JACKSONVILLE ST|JAXVILLEST|JSU)</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -8270,20 +8301,20 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D89" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E89:Z89),")")</f>
         <v>(JMU)</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -8309,35 +8340,35 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D90" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E90:Z90),")")</f>
         <v>(KANSAS|KAN|Kan|KU|Kansas|Kans)</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -8357,32 +8388,32 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D91" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E91:Z91),")")</f>
         <v>(KANSAS ST|KANSASST|KSU|KS|KanSt)</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -8403,10 +8434,10 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>7</v>
@@ -8416,10 +8447,10 @@
         <v>(KENNESAW ST|KSU)</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -8444,32 +8475,32 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D93" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E93:Z93),")")</f>
         <v>(KENT ST|KENTST|KSU|KENT|KntSt)</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -8491,7 +8522,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>136</v>
@@ -8504,16 +8535,16 @@
         <v>(KENTUCKY|Kent|UKY|UK)</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
@@ -8535,7 +8566,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>213</v>
@@ -8548,10 +8579,10 @@
         <v>(LAFAYETTE|LAFAYETT)</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -8575,26 +8606,26 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D96" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E96:Z96),")")</f>
         <v>(LAMAR|LU|LAM)</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -8618,20 +8649,20 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D97" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E97:Z97),")")</f>
         <v>(LEHIGH)</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -8657,26 +8688,26 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D98" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E98:Z98),")")</f>
         <v>(LIBERTY|LIB|LU)</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -8700,7 +8731,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>192</v>
@@ -8713,10 +8744,10 @@
         <v>(LIU|LONG ISLAND)</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -8741,41 +8772,41 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D100" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E100:Z100),")")</f>
         <v>(LOUISIANA|LOU|UL LAFAYETTE|ULLAFAYTTE|ULL|UL|LaLaf|LA)</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
@@ -8793,10 +8824,10 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>91</v>
@@ -8806,16 +8837,16 @@
         <v>(UL MONROE|ULMONROE|ULM|LaMon)</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -8838,32 +8869,32 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D102" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E102:Z102),")")</f>
         <v>(LOUISIANA TECH|LATECH|LaTch|LAT|TECH)</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -8884,10 +8915,10 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>38</v>
@@ -8897,16 +8928,16 @@
         <v>(LOUISVILLE|LOU|UL|Lvile)</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -8929,23 +8960,23 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D104" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E104:Z104),")")</f>
         <v>(LSU|LS)</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -8970,23 +9001,23 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D105" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E105:Z105),")")</f>
         <v>(MAINE|MAI)</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -9011,23 +9042,23 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D106" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E106:Z106),")")</f>
         <v>(MARSHALL|MAR)</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -9051,23 +9082,23 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D107" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E107:Z107),")")</f>
         <v>(MARYLAND|UMD)</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -9092,29 +9123,29 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D108" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E108:Z108),")")</f>
         <v>(MCNEESE ST|MCNEESE|McNSt|MCN)</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -9136,32 +9167,32 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D109" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E109:Z109),")")</f>
         <v>(MEMPHIS|Memph|MEM-ROAD|MEM_ROAD|MEM)</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
@@ -9182,10 +9213,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>38</v>
@@ -9195,10 +9226,10 @@
         <v>(MERCER|MER)</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -9223,26 +9254,26 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E111:Z111),")")</f>
         <v>(Merrimack|MER|MRMK)</v>
       </c>
       <c r="E111" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="F111" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="F111" s="0" t="s">
-        <v>641</v>
-      </c>
       <c r="G111" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -9264,35 +9295,35 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E112:Z112),")")</f>
         <v>(MIAMI FL|MIAMIFL|MIAMI|UM|MiaFl|MIA)</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -9313,10 +9344,10 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>38</v>
@@ -9326,22 +9357,22 @@
         <v>(MIAMI OH|MIAMIOH|MIAMI|MiaOh|MIA|MU)</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -9362,26 +9393,26 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E114:Z114),")")</f>
         <v>(MICHIGAN|MICH|MIC)</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -9405,10 +9436,10 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>32</v>
@@ -9418,16 +9449,16 @@
         <v>(MICHIGANST|MSU|MICHIGAN ST|MchSt)</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -9450,32 +9481,32 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E116:Z116),")")</f>
         <v>(MIDDLE TENN|MIDDLETENN|MTSU|MTS|MT)</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -9497,29 +9528,29 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E117:Z117),")")</f>
         <v>(MINNESOTA|MINN|MIN|UMN)</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -9541,38 +9572,38 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E118:Z118),")")</f>
         <v>(MISSISSIPPI ST|MISSSTATE|MisSt|MS State|MSSTATE|MSU|MS)</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
@@ -9591,7 +9622,7 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>220</v>
@@ -9604,10 +9635,10 @@
         <v>(MISS VALLEY ST|MVSU)</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -9632,29 +9663,29 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E120:Z120),")")</f>
         <v>(MISSOURI|Misso|MIZ|MU)</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -9676,10 +9707,10 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>38</v>
@@ -9689,10 +9720,10 @@
         <v>(MSU|MISSOURI ST)</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -9717,23 +9748,23 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E122:Z122),")")</f>
         <v>(MONMOUTH|MU)</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -9758,23 +9789,23 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E123:Z123),")")</f>
         <v>(MONTANA|UM)</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -9799,10 +9830,10 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>221</v>
@@ -9812,16 +9843,16 @@
         <v>(MONTANA ST|MntSt|MTnSt|MSU)</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
@@ -9844,23 +9875,23 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D125" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E125:Z125),")")</f>
         <v>(MORGAN ST|MSU)</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -9884,26 +9915,26 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D126" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E126:Z126),")")</f>
         <v>(MURRAY ST|MURRAYST|MUR)</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -9927,26 +9958,26 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D127" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E127:Z127),")")</f>
         <v>(NAVY|Navy|NAV)</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
@@ -9969,10 +10000,10 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>38</v>
@@ -9982,16 +10013,16 @@
         <v>(NC STATE|NCSTATE|NCS|ST)</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -10014,10 +10045,10 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>38</v>
@@ -10027,13 +10058,13 @@
         <v>(NEBRASKA|NEB|Neb)</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -10057,32 +10088,32 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D130" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E130:Z130),")")</f>
         <v>(NEVADA|Nevad|NEV|NV|UNR)</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
@@ -10103,23 +10134,23 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D131" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E131:Z131),")")</f>
         <v>(NEW HAMPSHIRE|UNH)</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -10144,32 +10175,32 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D132" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E132:Z132),")")</f>
         <v>(NEW MEXICO|NMex|NM|NEWMEXICO|UNM)</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
@@ -10190,10 +10221,10 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>38</v>
@@ -10203,22 +10234,22 @@
         <v>(NEWMEXST|NEW MEXICO ST|NMxSt|NMS[Tt]|NMSU|NMS)</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -10238,32 +10269,32 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D134" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E134:Z134),")")</f>
         <v>(NICHOLLS ST|NICHOLLS|NICH|NIC|NSU)</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
@@ -10284,23 +10315,23 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D135" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E135:Z135),")")</f>
         <v>(NORFOLK ST|NSU)</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -10325,26 +10356,26 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D136" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E136:Z136),")")</f>
         <v>(NORTH ALABAMA|UNA|NORTHALA)</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -10368,29 +10399,29 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D137" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E137:Z137),")")</f>
         <v>(NORTH CAROLINA|UNC|NC|NCaro)</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -10413,29 +10444,29 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D138" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E138:Z138),")")</f>
         <v>(NC A&amp;T|NCAT|A&amp;T|NCCU)</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -10458,26 +10489,26 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D139" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E139:Z139),")")</f>
         <v>(NC CENTRAL|NCCtl|NCCU)</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -10501,23 +10532,23 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D140" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E140:Z140),")")</f>
         <v>(NORTH DAKOTA|UND)</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -10542,26 +10573,26 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D141" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E141:Z141),")")</f>
         <v>(NO DAKOTA ST|NDSU|NDkSt)</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -10585,10 +10616,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>38</v>
@@ -10598,19 +10629,19 @@
         <v>(NORTH TEXAS|UNT|NORTHTEXAS|NT|NoTex)</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -10632,23 +10663,23 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D143" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E143:Z143),")")</f>
         <v>(NAU|NORTHRN ARIZONA)</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -10673,29 +10704,29 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D144" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E144:Z144),")")</f>
         <v>(NORTHERN COLO|UNCO|NC|UNC)</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G144" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="H144" s="3" t="s">
         <v>789</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>788</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -10718,7 +10749,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>114</v>
@@ -10731,10 +10762,10 @@
         <v>(NORTHERNIL|NIU)</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -10759,10 +10790,10 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>56</v>
@@ -10772,13 +10803,13 @@
         <v>(NORTHERN IOWA|UNI|NORTHIOWA)</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
@@ -10802,10 +10833,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>32</v>
@@ -10815,22 +10846,22 @@
         <v>(NORTHWESTERN|NORTHWSTRN|NWU|NOR|NU|Nwest)</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
@@ -10850,35 +10881,35 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D148" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E148:Z148),")")</f>
         <v>(NORTHWESTERN ST|NSU|NWSTATE|NWST|NWLA|NWSt)</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -10899,7 +10930,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>101</v>
@@ -10912,22 +10943,22 @@
         <v>(NOTRE DAME|NOTREDAME|NDAME|NDame|ND|UND)</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
@@ -10947,29 +10978,29 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D150" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E150:Z150),")")</f>
         <v>(OHIO|Ohio|OU|OHI)</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -10991,35 +11022,35 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D151" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E151:Z151),")")</f>
         <v>(OHIO STATE|OHIO ST|OHIOST|OHIO|OSU|OhSt)</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
@@ -11039,29 +11070,29 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D152" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E152:Z152),")")</f>
         <v>(OKLAHOMA|OU|Okla|OKL)</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -11083,10 +11114,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>38</v>
@@ -11096,16 +11127,16 @@
         <v>(OKLAHOMA ST|OKLAST|OSU|OKSt)</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -11128,10 +11159,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>270</v>
@@ -11141,13 +11172,13 @@
         <v>(OLDDOMNION|OLDDOMINION|ODU)</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -11171,35 +11202,35 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D155" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E155:Z155),")")</f>
         <v>(OLE MISS|OLEMISS|OM|OLE|Miss|MIS)</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
@@ -11219,26 +11250,26 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D156" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E156:Z156),")")</f>
         <v>(OREGON|Oregn|ORE)</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -11261,10 +11292,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>38</v>
@@ -11274,16 +11305,16 @@
         <v>(OREGON ST|OREGONST|OSU|OrgSt)</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -11306,7 +11337,7 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>19</v>
@@ -11319,19 +11350,19 @@
         <v>(PENN STATE|PENN ST|PENNST|PSU|PnSt)</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -11353,10 +11384,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>122</v>
@@ -11366,13 +11397,13 @@
         <v>(PITTSBURGH|UP|PIT)</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
@@ -11396,7 +11427,7 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>121</v>
@@ -11409,13 +11440,13 @@
         <v>(PORTLAND ST|PSU|PrtSt)</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -11439,29 +11470,29 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D161" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E161:Z161),")")</f>
         <v>(PRAIRIE VIEW|PVAM|PVU|PraVw)</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -11484,10 +11515,10 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>78</v>
@@ -11497,13 +11528,13 @@
         <v>(PRESBYTERIAN|PC|Presb)</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -11527,10 +11558,10 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>38</v>
@@ -11540,16 +11571,16 @@
         <v>(PERDUE|PURDUE|PUR|Prdue)</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -11572,23 +11603,23 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D164" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E164:Z164),")")</f>
         <v>(RHODE ISLAND|URI)</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
@@ -11613,32 +11644,32 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D165" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E165:Z165),")")</f>
         <v>(RICE|Rice|RIC|RCE|RU)</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
@@ -11660,26 +11691,26 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D166" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E166:Z166),")")</f>
         <v>(RICHMOND|RIC|UR)</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -11702,23 +11733,23 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D167" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E167:Z167),")")</f>
         <v>(RMU|ROBERT MORRIS)</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -11743,29 +11774,29 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D168" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E168:Z168),")")</f>
         <v>(RUTGERS|Rutgr|RUT|RU)</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
@@ -11787,26 +11818,26 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D169" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E169:Z169),")")</f>
         <v>(SACRAMENTO ST|SAC|SSU)</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -11827,30 +11858,24 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>966</v>
-      </c>
-      <c r="B170" s="2" t="s">
+    <row r="170" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="6" t="s">
         <v>967</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>32</v>
+      <c r="B170" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>969</v>
       </c>
       <c r="D170" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E170:Z170),")")</f>
-        <v>(SAM HOUSTON ST|SAMHOUSTON|SHSU)</v>
+        <v>(SHU)</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="G170" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="H170" s="3"/>
+      <c r="G170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
@@ -11878,19 +11903,21 @@
         <v>972</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>973</v>
+        <v>32</v>
       </c>
       <c r="D171" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E171:Z171),")")</f>
-        <v>(SAMFORD|SAM)</v>
+        <v>(SAM HOUSTON ST|SAMHOUSTON|SHSU)</v>
       </c>
       <c r="E171" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="F171" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="G171" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
@@ -11923,7 +11950,7 @@
       </c>
       <c r="D172" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E172:Z172),")")</f>
-        <v>(SAN DIEGO|USD)</v>
+        <v>(SAMFORD|SAM)</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>979</v>
@@ -11957,36 +11984,28 @@
         <v>981</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>952</v>
+        <v>982</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>38</v>
+        <v>983</v>
       </c>
       <c r="D173" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E173:Z173),")")</f>
-        <v>(SAN DIEGO ST|SANDIEGOST|SAN DIEGO|SDSt|SDSU|SDS|SD)</v>
+        <v>(SAN DIEGO|USD)</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="H173" s="0" t="s">
-        <v>984</v>
-      </c>
-      <c r="I173" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="J173" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="K173" s="3" t="s">
-        <v>987</v>
-      </c>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3"/>
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
@@ -12003,39 +12022,39 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>989</v>
+        <v>953</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>990</v>
+        <v>38</v>
       </c>
       <c r="D174" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E174:Z174),")")</f>
-        <v>(SAN JOSÉ ST|SAN JOSE ST|SJSt|SJSU|SJS|SJ)</v>
+        <v>(SAN DIEGO ST|SANDIEGOST|SAN DIEGO|SDSt|SDSU|SDS|SD)</v>
       </c>
       <c r="E174" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="H174" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="J174" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="K174" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="G174" s="0" t="s">
-        <v>993</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="J174" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="K174" s="3"/>
-      <c r="L174" s="3"/>
-      <c r="M174" s="3"/>
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
@@ -12052,30 +12071,36 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D175" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E175:Z175),")")</f>
-        <v>(SAVANNAH ST|SSU|SavSt)</v>
+        <v>(SAN JOSÉ ST|SAN JOSE ST|SJSt|SJSU|SJS|SJ)</v>
       </c>
       <c r="E175" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="G175" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="I175" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="F175" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="G175" s="3" t="s">
+      <c r="J175" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
@@ -12098,20 +12123,24 @@
         <v>1002</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>136</v>
+        <v>1003</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>442</v>
+        <v>1004</v>
       </c>
       <c r="D176" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E176:Z176),")")</f>
-        <v>(SMU)</v>
+        <v>(SAVANNAH ST|SSU|SavSt)</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
+        <v>1005</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>1006</v>
+      </c>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
@@ -12134,30 +12163,24 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>713</v>
+        <v>136</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1004</v>
+        <v>443</v>
       </c>
       <c r="D177" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E177:Z177),")")</f>
-        <v>(SOUTH ALABAMA|USA|SOUTHALA|SAlab)</v>
+        <v>(SMU)</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G177" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="H177" s="3" t="s">
-        <v>1008</v>
-      </c>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
@@ -12179,17 +12202,17 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>1009</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D178" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E178:Z178),")")</f>
-        <v>(SOUTH CAROLINA|SOCAROLINA|SCaro|SC|USC)</v>
+        <v>(SOUTH ALABAMA|USA|SOUTHALA|SAlab)</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>1010</v>
@@ -12197,15 +12220,13 @@
       <c r="F178" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="G178" s="0" t="s">
+      <c r="G178" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="I178" s="3" t="s">
-        <v>1014</v>
-      </c>
+      <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
@@ -12226,36 +12247,34 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1016</v>
+        <v>332</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1017</v>
+        <v>38</v>
       </c>
       <c r="D179" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E179:Z179),")")</f>
-        <v>(CAROLINA ST|SOCARST|SCSt|SCST|SCSU|SCS)</v>
+        <v>(SOUTH CAROLINA|SOCAROLINA|SCaro|SC|USC)</v>
       </c>
       <c r="E179" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G179" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H179" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="I179" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="G179" s="0" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J179" s="3" t="s">
-        <v>1023</v>
-      </c>
+      <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
@@ -12275,32 +12294,36 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>602</v>
+        <v>1021</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D180" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E180:Z180),")")</f>
-        <v>(SOUTH DAKOTA|USD|SDU|SDako)</v>
+        <v>(CAROLINA ST|SOCARST|SCSt|SCST|SCSU|SCS)</v>
       </c>
       <c r="E180" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G180" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H180" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="F180" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="G180" s="3" t="s">
+      <c r="I180" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="H180" s="3" t="s">
+      <c r="J180" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
@@ -12323,14 +12346,14 @@
         <v>1029</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>136</v>
+        <v>603</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>1030</v>
       </c>
       <c r="D181" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E181:Z181),")")</f>
-        <v>(SO DAKOTA ST|SDSU|SODAKOTAST)</v>
+        <v>(SOUTH DAKOTA|USD|SDU|SDako)</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>1031</v>
@@ -12341,7 +12364,9 @@
       <c r="G181" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="H181" s="3"/>
+      <c r="H181" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
@@ -12361,35 +12386,31 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1034</v>
+        <v>136</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>1035</v>
       </c>
       <c r="D182" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E182:Z182),")")</f>
-        <v>(SOUFLA|SOUTH FLORIDA|South Florida|USF|SFla)</v>
+        <v>(SO DAKOTA ST|SDSU|SODAKOTAST)</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>1036</v>
       </c>
       <c r="F182" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="G182" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="G182" s="0" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H182" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>1039</v>
-      </c>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
@@ -12408,19 +12429,19 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D183" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E183:Z183),")")</f>
-        <v>(SEMO|SEMo|SEM|SE MISSOURI)</v>
+        <v>(SOUFLA|SOUTH FLORIDA|South Florida|USF|SFla)</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>1041</v>
@@ -12428,10 +12449,13 @@
       <c r="F183" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="G183" s="3" t="s">
+      <c r="G183" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H183" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="H183" s="3" t="s">
+      <c r="I183" s="3" t="s">
         <v>1044</v>
       </c>
       <c r="J183" s="3"/>
@@ -12457,26 +12481,27 @@
         <v>1045</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1046</v>
+        <v>443</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1047</v>
+        <v>38</v>
       </c>
       <c r="D184" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E184:Z184),")")</f>
-        <v>(SE LOUISIANA|SLU|SELa)</v>
+        <v>(SEMO|SEMo|SEM|SE MISSOURI)</v>
       </c>
       <c r="E184" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G184" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="F184" s="3" t="s">
+      <c r="H184" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="G184" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
@@ -12497,17 +12522,17 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>1052</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="D185" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E185:Z185),")")</f>
-        <v>(SOUTHERN|SOU|SUBR|SU)</v>
+        <v>(SE LOUISIANA|SLU|SELa)</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>1053</v>
@@ -12518,9 +12543,8 @@
       <c r="G185" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="H185" s="3" t="s">
-        <v>1056</v>
-      </c>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
@@ -12541,27 +12565,30 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>1058</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="D186" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E186:Z186),")")</f>
-        <v>(SIU|SOUTHN ILLINOIS)</v>
+        <v>(SOUTHERN|SOU|SUBR|SU)</v>
       </c>
       <c r="E186" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F186" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="G186" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
+      <c r="H186" s="3" t="s">
+        <v>1061</v>
+      </c>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
@@ -12582,30 +12609,26 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>1062</v>
       </c>
       <c r="D187" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E187:Z187),")")</f>
-        <v>(SOUTHERN MISS|SOUMISS|USM|SoMis)</v>
+        <v>(SIU|SOUTHN ILLINOIS)</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G187" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="H187" s="3" t="s">
-        <v>1066</v>
-      </c>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
@@ -12627,28 +12650,30 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>1067</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D188" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E188:Z188),")")</f>
-        <v>(SOUTHERN UTAH|SUU|SoUth)</v>
+        <v>(SOUTHERN MISS|SOUMISS|USM|SoMis)</v>
       </c>
       <c r="E188" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F188" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="G188" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="G188" s="3" t="s">
+      <c r="H188" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
@@ -12669,24 +12694,28 @@
       <c r="Z188" s="3"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="0" t="s">
         <v>1072</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>1074</v>
+      <c r="C189" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D189" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E189:Z189),")")</f>
-        <v>(SFrPA)</v>
-      </c>
-      <c r="E189" s="4" t="s">
+        <v>(SOUTHERN UTAH|SUU|SoUth)</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F189" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
+      <c r="G189" s="3" t="s">
+        <v>1076</v>
+      </c>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
@@ -12708,34 +12737,27 @@
       <c r="Z189" s="3"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B190" s="2" t="s">
+      <c r="A190" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="B190" s="5" t="s">
         <v>1078</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>1079</v>
       </c>
       <c r="D190" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E190:Z190),")")</f>
-        <v>(STANFORD|Stanf|STAN|STA|SU)</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F190" s="0" t="s">
+        <v>(SFrPA)</v>
+      </c>
+      <c r="E190" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="G190" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H190" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I190" s="3" t="s">
-        <v>1056</v>
-      </c>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
@@ -12755,28 +12777,33 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>1085</v>
       </c>
       <c r="D191" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E191:Z191),")")</f>
-        <v>(SFAFB|SFA)</v>
-      </c>
-      <c r="E191" s="0" t="s">
+        <v>(STANFORD|Stanf|STAN|STA|SU)</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F191" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G191" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="H191" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
+      <c r="I191" s="3" t="s">
+        <v>1061</v>
+      </c>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
@@ -12799,24 +12826,22 @@
         <v>1088</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>490</v>
+        <v>1089</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D192" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E192:Z192),")")</f>
-        <v>(STONY BROOK|SBU|StBrk)</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>1090</v>
+        <v>(SFAFB|SFA)</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>1091</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G192" s="3" t="s">
         <v>1092</v>
       </c>
+      <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
@@ -12842,20 +12867,20 @@
         <v>1093</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>1094</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>1095</v>
       </c>
       <c r="D193" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E193:Z193),")")</f>
-        <v>(SYRACUSE|SU|SYR)</v>
+        <v>(STONY BROOK|SBU|StBrk)</v>
       </c>
       <c r="E193" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F193" s="3" t="s">
         <v>1096</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>1056</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>1097</v>
@@ -12884,23 +12909,25 @@
       <c r="A194" s="0" t="s">
         <v>1098</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="2" t="s">
         <v>1100</v>
       </c>
       <c r="D194" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E194:Z194),")")</f>
-        <v>(TARLETON ST|trlst)</v>
-      </c>
-      <c r="E194" s="4" t="s">
+        <v>(SYRACUSE|SU|SYR)</v>
+      </c>
+      <c r="E194" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="F194" s="4" t="s">
+      <c r="F194" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G194" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
@@ -12925,20 +12952,22 @@
       <c r="A195" s="0" t="s">
         <v>1103</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="5" t="s">
         <v>1104</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="5" t="s">
         <v>1105</v>
       </c>
       <c r="D195" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E195:Z195),")")</f>
-        <v>(TCU)</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F195" s="3"/>
+        <v>(TARLETON ST|trlst)</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>1107</v>
+      </c>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
@@ -12962,30 +12991,24 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>78</v>
+        <v>1109</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>500</v>
+        <v>1110</v>
       </c>
       <c r="D196" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E196:Z196),")")</f>
-        <v>(TEMPLE|Temp|TEM|TU)</v>
+        <v>(TCU)</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F196" s="0" t="s">
         <v>1108</v>
       </c>
-      <c r="G196" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>1110</v>
-      </c>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
@@ -13010,27 +13033,28 @@
         <v>1111</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1112</v>
+        <v>78</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1113</v>
+        <v>501</v>
       </c>
       <c r="D197" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E197:Z197),")")</f>
-        <v>(TENNESSEE|Tenn|TEN|UT)</v>
+        <v>(TEMPLE|Temp|TEM|TU)</v>
       </c>
       <c r="E197" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G197" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="H197" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="G197" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>1117</v>
-      </c>
+      <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
@@ -13051,17 +13075,17 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>1118</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D198" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E198:Z198),")")</f>
-        <v>(TENNESSEE ST|TSU)</v>
+        <v>(TENNESSEE|Tenn|TEN|UT)</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>1119</v>
@@ -13069,9 +13093,12 @@
       <c r="F198" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
+      <c r="G198" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>1122</v>
+      </c>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
@@ -13092,27 +13119,25 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1122</v>
+        <v>278</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1123</v>
+        <v>32</v>
       </c>
       <c r="D199" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E199:Z199),")")</f>
-        <v>(TENNESSEE TECH|TnTch|TTU)</v>
+        <v>(TENNESSEE ST|TSU)</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="F199" s="0" t="s">
+      <c r="F199" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="G199" s="3" t="s">
-        <v>1126</v>
-      </c>
+      <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
@@ -13135,30 +13160,28 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>1128</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>1129</v>
       </c>
       <c r="D200" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E200:Z200),")")</f>
-        <v>(TEXAS|Texas|TEX|UT)</v>
+        <v>(TENNESSEE TECH|TnTch|TTU)</v>
       </c>
       <c r="E200" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F200" s="0" t="s">
         <v>1130</v>
-      </c>
-      <c r="F200" s="0" t="s">
-        <v>1127</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="H200" s="3" t="s">
-        <v>1117</v>
-      </c>
+      <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
@@ -13186,27 +13209,25 @@
         <v>1133</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>32</v>
+        <v>1134</v>
       </c>
       <c r="D201" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E201:Z201),")")</f>
-        <v>(TEXAS A&amp;M|TEXASAM|TexAM|TAMU|TAM)</v>
+        <v>(TEXAS|Texas|TEX|UT)</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F201" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="G201" s="0" t="s">
+      <c r="F201" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G201" s="3" t="s">
         <v>1136</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I201" s="3" t="s">
-        <v>1138</v>
-      </c>
+        <v>1122</v>
+      </c>
+      <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
@@ -13225,31 +13246,35 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>1141</v>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D202" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E202:Z202),")")</f>
-        <v>(Texas A&amp;M-Commerce|TAMC|TXCC)</v>
+        <v>(TEXAS A&amp;M|TEXASAM|TexAM|TAMU|TAM)</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>1139</v>
       </c>
       <c r="F202" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G202" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H202" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="G202" s="0" t="s">
+      <c r="I202" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
@@ -13268,32 +13293,30 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="8" t="s">
         <v>1146</v>
       </c>
       <c r="D203" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E203:Z203),")")</f>
-        <v>(TEXAS SOUTHERN|TSU|TXSOFB|TexSo)</v>
+        <v>(Texas A&amp;M-Commerce|TAMC|TXCC)</v>
       </c>
       <c r="E203" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F203" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="F203" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G203" s="3" t="s">
+      <c r="G203" s="0" t="s">
         <v>1148</v>
       </c>
-      <c r="H203" s="3" t="s">
-        <v>1149</v>
-      </c>
+      <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
@@ -13315,36 +13338,32 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>1151</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>1152</v>
       </c>
       <c r="D204" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E204:Z204),")")</f>
-        <v>(TEXAS STATE|TEXSTATE|TexSt|TSU|TXST|TXS)</v>
+        <v>(TEXAS SOUTHERN|TSU|TXSOFB|TexSo)</v>
       </c>
       <c r="E204" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G204" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="F204" s="3" t="s">
+      <c r="H204" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="G204" s="0" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H204" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I204" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J204" s="3" t="s">
-        <v>1157</v>
-      </c>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
@@ -13364,34 +13383,36 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>351</v>
+        <v>1156</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>38</v>
+        <v>1157</v>
       </c>
       <c r="D205" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E205:Z205),")")</f>
-        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
+        <v>(TEXAS STATE|TEXSTATE|TexSt|TSU|TXST|TXS)</v>
       </c>
       <c r="E205" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F205" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="F205" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G205" s="3" t="s">
+      <c r="G205" s="0" t="s">
         <v>1160</v>
       </c>
       <c r="H205" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I205" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="I205" s="3" t="s">
+      <c r="J205" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
@@ -13414,26 +13435,30 @@
         <v>1163</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1164</v>
+        <v>352</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1165</v>
+        <v>38</v>
       </c>
       <c r="D206" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E206:Z206),")")</f>
-        <v>(CIT|THE CITADEL|THECITADEL)</v>
+        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
       </c>
       <c r="E206" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H206" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="F206" s="3" t="s">
+      <c r="I206" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="G206" s="0" t="s">
-        <v>1168</v>
-      </c>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
@@ -13454,33 +13479,29 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>1170</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>1171</v>
       </c>
       <c r="D207" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E207:Z207),")")</f>
-        <v>(TOLEDO|Toled|TOL|UTo|UT)</v>
+        <v>(CIT|THE CITADEL|THECITADEL)</v>
       </c>
       <c r="E207" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F207" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="F207" s="0" t="s">
+      <c r="G207" s="0" t="s">
         <v>1173</v>
       </c>
-      <c r="G207" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H207" s="0" t="s">
-        <v>1175</v>
-      </c>
-      <c r="I207" s="3" t="s">
-        <v>1117</v>
-      </c>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
@@ -13501,27 +13522,33 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>1176</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>1178</v>
       </c>
       <c r="D208" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E208:Z208),")")</f>
-        <v>(TOWSON|TOW)</v>
+        <v>(TOLEDO|Toled|TOL|UTo|UT)</v>
       </c>
       <c r="E208" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F208" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G208" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="F208" s="3" t="s">
+      <c r="H208" s="0" t="s">
         <v>1180</v>
       </c>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
+      <c r="I208" s="3" t="s">
+        <v>1122</v>
+      </c>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
@@ -13552,7 +13579,7 @@
       </c>
       <c r="D209" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E209:Z209),")")</f>
-        <v>(TROY|TRO|TRY)</v>
+        <v>(TOWSON|TOW)</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>1184</v>
@@ -13560,9 +13587,8 @@
       <c r="F209" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="G209" s="3" t="s">
-        <v>1186</v>
-      </c>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
@@ -13584,17 +13610,17 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>1187</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>1034</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>1188</v>
       </c>
       <c r="D210" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E210:Z210),")")</f>
-        <v>(TLN|TULANE|Tulan)</v>
+        <v>(TROY|TRO|TRY)</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>1189</v>
@@ -13605,7 +13631,6 @@
       <c r="G210" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
@@ -13630,30 +13655,26 @@
         <v>1192</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>1193</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="D211" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E211:Z211),")")</f>
-        <v>(TULSA|Tulsa|TLS|Tul|TUL)</v>
+        <v>(TLN|TULANE|Tulan)</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="F211" s="0" t="s">
-        <v>1192</v>
+      <c r="F211" s="3" t="s">
+        <v>1195</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H211" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="I211" s="3" t="s">
-        <v>1197</v>
-      </c>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
@@ -13674,25 +13695,33 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>1046</v>
-      </c>
       <c r="C212" s="2" t="s">
-        <v>1199</v>
+        <v>443</v>
       </c>
       <c r="D212" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E212:Z212),")")</f>
-        <v>(UAB)</v>
+        <v>(TULSA|Tulsa|TLS|Tul|TUL)</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
+        <v>1199</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>1202</v>
+      </c>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
@@ -13713,27 +13742,23 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>214</v>
+        <v>1051</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>414</v>
+        <v>1204</v>
       </c>
       <c r="D213" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E213:Z213),")")</f>
-        <v>(UC DAVIS|UCDav|UCD)</v>
+        <v>(UAB)</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F213" s="0" t="s">
-        <v>1202</v>
-      </c>
-      <c r="G213" s="3" t="s">
         <v>1203</v>
       </c>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
@@ -13756,23 +13781,27 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1205</v>
+        <v>214</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>38</v>
+        <v>415</v>
       </c>
       <c r="D214" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E214:Z214),")")</f>
-        <v>(UCF)</v>
+        <v>(UC DAVIS|UCDav|UCD)</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
+        <v>1206</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>1208</v>
+      </c>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
@@ -13795,24 +13824,22 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="D215" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E215:Z215),")")</f>
-        <v>(UCLA|UCL)</v>
+        <v>(UCF)</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>1208</v>
-      </c>
+        <v>1209</v>
+      </c>
+      <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
@@ -13836,33 +13863,27 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1211</v>
+        <v>129</v>
       </c>
       <c r="D216" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E216:Z216),")")</f>
-        <v>(MASSACHUSETTS|UMASS|UMass|UMA|MAS)</v>
+        <v>(UCLA|UCL)</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="G216" s="0" t="s">
-        <v>1209</v>
-      </c>
-      <c r="H216" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I216" s="3" t="s">
-        <v>1215</v>
-      </c>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
@@ -13883,29 +13904,33 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>1216</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>1218</v>
       </c>
       <c r="D217" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E217:Z217),")")</f>
-        <v>(LV|NLV|UNLV)</v>
+        <v>(MASSACHUSETTS|UMASS|UMass|UMA|MAS)</v>
       </c>
       <c r="E217" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G217" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H217" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="F217" s="0" t="s">
+      <c r="I217" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="G217" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
@@ -13926,23 +13951,27 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>1014</v>
+        <v>1221</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>490</v>
+        <v>1222</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>305</v>
+        <v>1223</v>
       </c>
       <c r="D218" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E218:Z218),")")</f>
-        <v>(USC)</v>
+        <v>(LV|NLV|UNLV)</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
+        <v>1224</v>
+      </c>
+      <c r="F218" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>1221</v>
+      </c>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
@@ -13965,27 +13994,23 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>1221</v>
+        <v>1019</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1222</v>
+        <v>491</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1223</v>
+        <v>306</v>
       </c>
       <c r="D219" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E219:Z219),")")</f>
-        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
+        <v>(USC)</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>1226</v>
-      </c>
+        <v>1019</v>
+      </c>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
@@ -14008,17 +14033,17 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="C220" s="2" t="s">
         <v>1228</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D220" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E220:Z220),")")</f>
-        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
+        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>1229</v>
@@ -14029,12 +14054,8 @@
       <c r="G220" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="H220" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="I220" s="3" t="s">
-        <v>1233</v>
-      </c>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
@@ -14055,31 +14076,33 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>351</v>
+        <v>1233</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1235</v>
+        <v>101</v>
       </c>
       <c r="D221" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E221:Z221),")")</f>
-        <v>(UTAH|Utah|UTA|UTE)</v>
+        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
       </c>
       <c r="E221" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G221" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="F221" s="0" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G221" s="3" t="s">
+      <c r="H221" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="H221" s="3" t="s">
+      <c r="I221" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
@@ -14103,30 +14126,28 @@
         <v>1239</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>1240</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D222" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E222:Z222),")")</f>
-        <v>(UTAH ST|UTAHST|USU|US|UthSt)</v>
+        <v>(UTAH|Utah|UTA|UTE)</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="F222" s="3" t="s">
+      <c r="F222" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G222" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="G222" s="3" t="s">
+      <c r="H222" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="H222" s="3" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I222" s="0" t="s">
-        <v>1245</v>
-      </c>
+      <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
@@ -14147,28 +14168,33 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1248</v>
+        <v>13</v>
       </c>
       <c r="D223" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E223:Z223),")")</f>
-        <v>(UTU|UTAH TECH|Utah)</v>
+        <v>(UTAH ST|UTAHST|USU|US|UthSt)</v>
       </c>
       <c r="E223" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H223" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="F223" s="4" t="s">
+      <c r="I223" s="0" t="s">
         <v>1250</v>
       </c>
-      <c r="G223" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
@@ -14192,26 +14218,25 @@
         <v>1251</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1112</v>
+        <v>1252</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>19</v>
+        <v>1253</v>
       </c>
       <c r="D224" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E224:Z224),")")</f>
-        <v>(UTEP|TEP|UTE)</v>
+        <v>(UTU|UTAH TECH|Utah)</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>1252</v>
+        <v>1254</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>1255</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H224" s="3"/>
-      <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
@@ -14231,27 +14256,27 @@
       <c r="Z224" s="3"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>1255</v>
+      <c r="A225" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D225" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E225:Z225),")")</f>
-        <v>(VALPARAISO|Valpo|VAL)</v>
-      </c>
-      <c r="E225" s="4" t="s">
+        <v>(UTEP|TEP|UTE)</v>
+      </c>
+      <c r="E225" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="F225" s="4" t="s">
+      <c r="F225" s="3" t="s">
         <v>1257</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
@@ -14274,34 +14299,30 @@
       <c r="Z225" s="3"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="A226" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B226" s="5" t="s">
         <v>1259</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="5" t="s">
         <v>1260</v>
       </c>
       <c r="D226" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E226:Z226),")")</f>
-        <v>(VANDERBILT|VANDY|Vandy|VAN|VU)</v>
-      </c>
-      <c r="E226" s="3" t="s">
+        <v>(VALPARAISO|Valpo|VAL)</v>
+      </c>
+      <c r="E226" s="4" t="s">
         <v>1261</v>
       </c>
-      <c r="F226" s="3" t="s">
+      <c r="F226" s="4" t="s">
         <v>1262</v>
       </c>
-      <c r="G226" s="0" t="s">
+      <c r="G226" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="H226" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I226" s="3" t="s">
-        <v>1265</v>
-      </c>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
@@ -14322,27 +14343,33 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>713</v>
+        <v>38</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D227" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E227:Z227),")")</f>
-        <v>(VILLANOVA|VU)</v>
+        <v>(VANDERBILT|VANDY|Vandy|VAN|VU)</v>
       </c>
       <c r="E227" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G227" s="0" t="s">
         <v>1268</v>
       </c>
-      <c r="F227" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
+      <c r="H227" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>1270</v>
+      </c>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
@@ -14363,30 +14390,26 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1270</v>
+        <v>714</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D228" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E228:Z228),")")</f>
-        <v>(VIRGINIA|Virg|VA|UVA)</v>
+        <v>(VILLANOVA|VU)</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F228" s="0" t="s">
         <v>1273</v>
       </c>
-      <c r="G228" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H228" s="3" t="s">
-        <v>1275</v>
-      </c>
+      <c r="F228" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
@@ -14408,36 +14431,32 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>1276</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>1278</v>
       </c>
       <c r="D229" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E229:Z229),")")</f>
-        <v>(VIRGINIA TECH|VATECH|VTech|VT|VaT|VAT)</v>
+        <v>(VIRGINIA|Virg|VA|UVA)</v>
       </c>
       <c r="E229" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G229" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="F229" s="3" t="s">
+      <c r="H229" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="G229" s="0" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H229" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="I229" s="3" t="s">
-        <v>1283</v>
-      </c>
-      <c r="J229" s="3" t="s">
-        <v>1284</v>
-      </c>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
@@ -14457,26 +14476,36 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>621</v>
+        <v>1283</v>
       </c>
       <c r="D230" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E230:Z230),")")</f>
-        <v>(VMI)</v>
+        <v>(VIRGINIA TECH|VATECH|VTech|VT|VaT|VAT)</v>
       </c>
       <c r="E230" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F230" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
+      <c r="G230" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>1289</v>
+      </c>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
       <c r="M230" s="3"/>
@@ -14496,24 +14525,22 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>1289</v>
+        <v>622</v>
       </c>
       <c r="D231" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E231:Z231),")")</f>
-        <v>(WAGNER|WAG)</v>
+        <v>(VMI)</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="F231" s="3" t="s">
-        <v>1291</v>
-      </c>
+      <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
@@ -14543,24 +14570,20 @@
         <v>1293</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>38</v>
+        <v>1294</v>
       </c>
       <c r="D232" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E232:Z232),")")</f>
-        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
+        <v>(WAGNER|WAG)</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G232" s="0" t="s">
         <v>1296</v>
       </c>
-      <c r="H232" s="3" t="s">
-        <v>1297</v>
-      </c>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
@@ -14582,36 +14605,32 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>1299</v>
-      </c>
       <c r="C233" s="2" t="s">
-        <v>1300</v>
+        <v>38</v>
       </c>
       <c r="D233" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E233:Z233),")")</f>
-        <v>(WASHINGTON|WASH|Wash|UW|WAS|U W)</v>
+        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
       </c>
       <c r="E233" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G233" s="0" t="s">
         <v>1301</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="H233" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="G233" s="0" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H233" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I233" s="3" t="s">
-        <v>1305</v>
-      </c>
-      <c r="J233" s="3" t="s">
-        <v>1306</v>
-      </c>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
       <c r="M233" s="3"/>
@@ -14631,34 +14650,36 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D234" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E234:Z234),")")</f>
-        <v>(WASHINGTON ST|WSU|WASHST|COU|WshSt)</v>
+        <v>(WASHINGTON|WASH|Wash|UW|WAS|U W)</v>
       </c>
       <c r="E234" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G234" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I234" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="J234" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="G234" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H234" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="I234" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
       <c r="M234" s="3"/>
@@ -14678,32 +14699,32 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="D235" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E235:Z235),")")</f>
-        <v>(WEBER ST|WEBERST|WEBER|WSU|WebSt)</v>
+        <v>(WASHINGTON ST|WSU|WASHST|COU|WshSt)</v>
       </c>
       <c r="E235" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H235" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="I235" s="3" t="s">
         <v>1319</v>
-      </c>
-      <c r="G235" s="3" t="s">
-        <v>1320</v>
-      </c>
-      <c r="H235" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I235" s="0" t="s">
-        <v>1321</v>
       </c>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
@@ -14725,17 +14746,17 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>1322</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>1047</v>
       </c>
       <c r="D236" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E236:Z236),")")</f>
-        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
+        <v>(WEBER ST|WEBERST|WEBER|WSU|WebSt)</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>1323</v>
@@ -14747,9 +14768,11 @@
         <v>1325</v>
       </c>
       <c r="H236" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I236" s="0" t="s">
         <v>1326</v>
       </c>
-      <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
@@ -14773,30 +14796,28 @@
         <v>1327</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1328</v>
+        <v>214</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1329</v>
+        <v>1052</v>
       </c>
       <c r="D237" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E237:Z237),")")</f>
-        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCaro|WCU)</v>
+        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
       </c>
       <c r="E237" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G237" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="F237" s="3" t="s">
+      <c r="H237" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="G237" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H237" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I237" s="3" t="s">
-        <v>1334</v>
-      </c>
+      <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
@@ -14817,27 +14838,33 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>56</v>
+        <v>1334</v>
       </c>
       <c r="D238" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E238:Z238),")")</f>
-        <v>(WESTRN ILLINOIS|WIU)</v>
+        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCaro|WCU)</v>
       </c>
       <c r="E238" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G238" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="H238" s="0" t="s">
         <v>1338</v>
       </c>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
+      <c r="I238" s="3" t="s">
+        <v>1339</v>
+      </c>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
@@ -14858,30 +14885,26 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>408</v>
+        <v>1341</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1340</v>
+        <v>56</v>
       </c>
       <c r="D239" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E239:Z239),")")</f>
-        <v>(WESTRN KENTUCKY|WKU|WESTERNKY|WKent)</v>
+        <v>(WESTRN ILLINOIS|WIU)</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="G239" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="H239" s="3" t="s">
-        <v>1344</v>
-      </c>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
@@ -14903,33 +14926,31 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>1345</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>1347</v>
       </c>
       <c r="D240" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E240:Z240),")")</f>
-        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMich|WMI)</v>
+        <v>(WESTRN KENTUCKY|WKU|WESTERNKY|WKent)</v>
       </c>
       <c r="E240" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G240" s="3" t="s">
         <v>1348</v>
       </c>
-      <c r="F240" s="3" t="s">
+      <c r="H240" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="G240" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="H240" s="0" t="s">
-        <v>1351</v>
-      </c>
-      <c r="I240" s="3" t="s">
-        <v>1352</v>
-      </c>
+      <c r="I240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
@@ -14950,29 +14971,33 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D241" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E241:Z241),")")</f>
-        <v>(MARY|WILLMMARY|WM)</v>
+        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMich|WMI)</v>
       </c>
       <c r="E241" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H241" s="0" t="s">
         <v>1356</v>
       </c>
-      <c r="F241" s="0" t="s">
+      <c r="I241" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="G241" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
@@ -14993,17 +15018,17 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>1359</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="C242" s="2" t="s">
         <v>1360</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D242" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E242:Z242),")")</f>
-        <v>(WISCONSIN|Wisc|WIS)</v>
+        <v>(MARY|WILLMMARY|WM)</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>1361</v>
@@ -15046,15 +15071,17 @@
       </c>
       <c r="D243" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E243:Z243),")")</f>
-        <v>(WOFFORD|WOF)</v>
+        <v>(WISCONSIN|Wisc|WIS)</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="F243" s="3" t="s">
+      <c r="F243" s="0" t="s">
         <v>1367</v>
       </c>
-      <c r="G243" s="3"/>
+      <c r="G243" s="3" t="s">
+        <v>1368</v>
+      </c>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
@@ -15077,30 +15104,27 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1370</v>
+        <v>32</v>
       </c>
       <c r="D244" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E244:Z244),")")</f>
-        <v>(WYOMING|Wyom|WYO|WY)</v>
+        <v>(WOFFORD|WOF)</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="F244" s="0" t="s">
+      <c r="F244" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="G244" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H244" s="3" t="s">
-        <v>1374</v>
-      </c>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
@@ -15121,27 +15145,30 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>1375</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D245" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E245:Z245),")")</f>
-        <v>(YALE|YAL)</v>
+        <v>(WYOMING|Wyom|WYO|WY)</v>
       </c>
       <c r="E245" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F245" s="0" t="s">
         <v>1377</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="G245" s="3" t="s">
         <v>1378</v>
       </c>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
-      <c r="I245" s="3"/>
+      <c r="H245" s="3" t="s">
+        <v>1379</v>
+      </c>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
@@ -15162,27 +15189,25 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>442</v>
+        <v>1381</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1380</v>
+        <v>32</v>
       </c>
       <c r="D246" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E246:Z246),")")</f>
-        <v>(YOUNGSTOWN ST|YSU|YngSt)</v>
+        <v>(YALE|YAL)</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>1382</v>
-      </c>
-      <c r="G246" s="3" t="s">
         <v>1383</v>
       </c>
+      <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
@@ -15204,9 +15229,28 @@
       <c r="Z246" s="3"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
+      <c r="A247" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D247" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E247:Z247),")")</f>
+        <v>(YOUNGSTOWN ST|YSU|YngSt)</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>1388</v>
+      </c>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
@@ -15347,14 +15391,38 @@
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
     </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
+      <c r="J253" s="3"/>
+      <c r="K253" s="3"/>
+      <c r="L253" s="3"/>
+      <c r="M253" s="3"/>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
+      <c r="P253" s="3"/>
+      <c r="Q253" s="3"/>
+      <c r="R253" s="3"/>
+      <c r="S253" s="3"/>
+      <c r="T253" s="3"/>
+      <c r="U253" s="3"/>
+      <c r="V253" s="3"/>
+      <c r="W253" s="3"/>
+      <c r="X253" s="3"/>
+      <c r="Y253" s="3"/>
+      <c r="Z253" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A224:A1048576 A77:A193 A1:A75 A203:A222 A195:A201">
+  <conditionalFormatting sqref="A225:A1048576 A171:A194 A1:A75 A204:A223 A196:A202 A77:A169">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E218:Z220 G221:Z221 E221 E224:Z224 E222:H222 J222:Z223 E227:Z227 E230:Z231 E229:F229 H229:Z229 G228:Z228 E228 E226:F226 H226:Z226 E236:Z236 E238:Z239 E240:G240 I240:Z240 E237:G237 I237:Z237 E235:H235 J235:Z235 E245:Z252 J244:Z244 E244 G244:H244 E234:Z234 H232:Z233 E232:F233 G217:Z217 E217 E243:Z243 G241:Z242 E241:E242 E223 G223:H223 F225:Z225">
+  <conditionalFormatting sqref="E219:Z221 G222:Z222 E222 E225:Z225 E223:H223 J223:Z224 E228:Z228 E231:Z232 E230:F230 H230:Z230 G229:Z229 E229 E227:F227 H227:Z227 E237:Z237 E239:Z240 E241:G241 I241:Z241 E238:G238 I238:Z238 E236:H236 J236:Z236 E246:Z253 J245:Z245 E245 G245:H245 E235:Z235 H233:Z234 E233:F234 G218:Z218 E218 E244:Z244 G242:Z243 E242:E243 E224 G224:H224 F226:Z226">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I109 H100:J100 J125:Z125 E125:H125 E126:Z126 G128:Z128 I127:Z127 F127:G127 E2:Z2 E58:Z58 E56:F57 H56:Z56 K57:Z57 G57:I57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 J74:Z74 F74:H74 E79:Z79 E81:Z89 G80:Z80 E80 K91:Z91 H91:I91 L90:Z90 G90:J90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E103:Z104 K102:Z102 E102:I102 I101:Z101 E107:Z107 H106:Z106 E106:F106 E108:E109 E110:Z110 E114:Z115 E113:G113 I113:Z113 E112:H112 J112:Z112 E119:Z119 E121:Z123 E124:F124 H124:Z124 J120:Z120 E120:H120 E116:G117 J116:Z117 J118:K118 M118:Z118 E117:H118 E131:Z131 K132:Z132 E132:I132 G130:I130 K130:Z130 E129:F130 H129:Z129 E135:Z138 E140:Z146 G139:Z139 E139 E133:G133 F153:Z154 J152:Z152 F152:H152 L151:Z151 F151:J151 G150:H150 J150:Z150 F157:Z162 I156:Z156 F156:G156 L155:Z155 F155:J155 E147:I147 L147:Z147 E167:Z167 I169:Z169 J168:Z168 E166:G166 I166:Z166 E170:Z172 E169:G169 E168:H168 E175:Z177 E174:F174 H174:Z174 E180:Z181 E184:Z184 J183:Z183 E183:H183 E178:F179 E173:G173 I173:K173 N173:Z173 E186:Z189 J185:Z185 E185:H185 E190 G190:I190 K190:Z190 E198:Z198 G199:Z200 G196:Z196 J197:Z197 F197:H197 E196:E197 E203:Z203 E199:E200 E201:F201 H201:Z202 E205:Z205 E204:F204 H204:Z204 E210:Z210 E212:Z212 E214:Z215 E216:F216 H216:Z216 G213:Z213 E213 G211:Z211 E211 E209:G209 I209:Z209 E3:H3 J3:Z3 I116 E4:Z4 E10:F10 I10:Z10 E92:Z93 E90:F91 E23 G23:Z23 E148:E163 E164:Z164 G163:Z163 F105:Z105 E208:Z208 E206:F206 E207 G207 H206:Z206 I207:Z207 E127:E128 F68:Z68 L69:Z69 F69:J69 F67:G67 I67:Z67 E50:Z53 E55:Z55 E54:F54 H54:Z54 E48 G48:Z48 E101:G101 N100:Z100 L100 E100:F100 J78:Z78 E78:F78 H78 F191:Z191 J108:Z108 K109:Z109 F109 G108:H108 K148:Z148 H148:I148 F148:F150 E134:I134 K134:Z134 F49:Z49 E37:Z37 E39:F40 H39:Z40 G38:Z38 E38 E36 G36:Z36 L149:Z149 H149:J149 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z11 E13:Z13 E12:F12 H12:Z12 E15:Z15 G16:Z16 E16 E14:F14 H14:Z14 E165 G165:Z165 E192:Z195 E6:Z9 E5 L133:Z133 I133:J133 E18:Z18 E20:Z21 E22:F22 H22:Z22 E19:G19 I19:Z19 E17:F17 H17:Z17 E24:Z28 E30:Z33 G29:Z29 E29 E35:Z35 E34:F34 H34:Z34 E41:Z42 E45:Z47 H43:Z44 E43:F44 H178:Z179 G5:Z5 E182:F182 H182:Z182 E202 J111:Z111 E111 E111">
+  <conditionalFormatting sqref="I109 H100:J100 J125:Z125 E125:H125 E126:Z126 G128:Z128 I127:Z127 F127:G127 E2:Z2 E58:Z58 E56:F57 H56:Z56 K57:Z57 G57:I57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 J74:Z74 F74:H74 E79:Z79 E81:Z89 G80:Z80 E80 K91:Z91 H91:I91 L90:Z90 G90:J90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E103:Z104 K102:Z102 E102:I102 I101:Z101 E107:Z107 H106:Z106 E106:F106 E108:E109 E110:Z110 E114:Z115 E113:G113 I113:Z113 E112:H112 J111:Z112 E119:Z119 E121:Z123 E124:F124 H124:Z124 J120:Z120 E120:H120 E116:G117 J116:Z117 J118:K118 M118:Z118 E117:H118 E131:Z131 K132:Z132 E132:I132 G130:I130 K130:Z130 E129:F130 H129:Z129 E135:Z138 E140:Z146 G139:Z139 E139 E133:G133 F153:Z154 J152:Z152 F152:H152 L151:Z151 F151:J151 G150:H150 J150:Z150 F157:Z162 I156:Z156 F156:G156 L155:Z155 F155:J155 E147:I147 L147:Z147 E167:Z167 I169:Z170 J168:Z168 E166:G166 I166:Z166 E171:Z173 E169:G169 E168:H168 E176:Z178 E175:F175 H175:Z175 E181:Z182 E185:Z185 J184:Z184 E184:H184 E179:F180 E174:G174 I174:K174 N174:Z174 E187:Z190 J186:Z186 E186:H186 E191 G191:I191 K191:Z191 E199:Z199 G200:Z201 G197:Z197 J198:Z198 F198:H198 E197:E198 E204:Z204 E200:E201 E202:F202 H202:Z203 E206:Z206 E205:F205 H205:Z205 E211:Z211 E213:Z213 E215:Z216 E217:F217 H217:Z217 G214:Z214 E214 G212:Z212 E212 E210:G210 I210:Z210 E3:H3 J3:Z3 I116 E4:Z4 E10:F10 I10:Z10 E92:Z93 E90:F91 E23 G23:Z23 E148:E163 E164:Z164 G163:Z163 F105:Z105 E209:Z209 E207:F207 E208 G208 H207:Z207 I208:Z208 E127:E128 F68:Z68 L69:Z69 F69:J69 F67:G67 I67:Z67 E50:Z53 E55:Z55 E54:F54 H54:Z54 E48 G48:Z48 E101:G101 N100:Z100 L100 E100:F100 J78:Z78 E78:F78 H78 F192:Z192 J108:Z108 K109:Z109 F109 G108:H108 K148:Z148 H148:I148 F148:F150 E134:I134 K134:Z134 F49:Z49 E37:Z37 E39:F40 H39:Z40 G38:Z38 E38 E36 G36:Z36 L149:Z149 H149:J149 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z11 E13:Z13 E12:F12 H12:Z12 E15:Z15 G16:Z16 E16 E14:F14 H14:Z14 E165 G165:Z165 E193:Z196 E6:Z9 E5 L133:Z133 I133:J133 E18:Z18 E20:Z21 E22:F22 H22:Z22 E19:G19 I19:Z19 E17:F17 H17:Z17 E24:Z28 E30:Z33 G29:Z29 E29 E35:Z35 E34:F34 H34:Z34 E41:Z42 E45:Z47 H43:Z43 E43:F43 H179:Z180 G5:Z5 E183:F183 H183:Z183 E203 E111 G170 E170 I44:Z44 G44:H44">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/school_colors/school_colors.xlsx
+++ b/school_colors/school_colors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\program_project\CFB\school_colors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE99CC5D-0AA5-4422-98E4-4BF932266311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB4A04C-58F9-4BA9-BF94-CB94553DB155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1392">
   <si>
     <t>School</t>
   </si>
@@ -4203,6 +4203,15 @@
   </si>
   <si>
     <t>YngSt</t>
+  </si>
+  <si>
+    <t>Lindenwood</t>
+  </si>
+  <si>
+    <t>#B5A36A</t>
+  </si>
+  <si>
+    <t>LIN</t>
   </si>
 </sst>
 </file>
@@ -4395,9 +4404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4435,7 +4444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4541,7 +4550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4683,7 +4692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4691,10 +4700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z253"/>
+  <dimension ref="A1:Z254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7560,7 +7569,7 @@
         <v>38</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:D129" si="1">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E66:Z66),")")</f>
+        <f t="shared" ref="D66:D130" si="1">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E66:Z66),")")</f>
         <v>(GEORGIA|UGA|Georgia|Geo)</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -8986,24 +8995,22 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>574</v>
+        <v>1389</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>192</v>
+        <v>1390</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
-        <v>(LIU|LONG ISLAND)</v>
+        <v>(LIN)</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>576</v>
-      </c>
+        <v>1391</v>
+      </c>
+      <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -9027,42 +9034,31 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>578</v>
+        <v>192</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>579</v>
+        <v>13</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
-        <v>(LOUISIANA|LOU|UL LAFAYETTE|ULLAFAYTTE|ULL|UL|LaLaf|LA)</v>
+        <v>(LIU|LONG ISLAND)</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="G100" t="s">
-        <v>582</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K100" t="s">
-        <v>586</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>587</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
@@ -9079,35 +9075,42 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>91</v>
+        <v>579</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
-        <v>(UL MONROE|ULMONROE|ULM|LaMon)</v>
+        <v>(LOUISIANA|LOU|UL LAFAYETTE|ULLAFAYTTE|ULL|UL|LaLaf|LA)</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="H101" t="s">
-        <v>593</v>
-      </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
+        <v>581</v>
+      </c>
+      <c r="G101" t="s">
+        <v>582</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K101" t="s">
+        <v>586</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>587</v>
+      </c>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
@@ -9124,33 +9127,32 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>596</v>
+        <v>91</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="1"/>
-        <v>(LOUISIANA TECH|LATECH|LaTch|LAT|TECH)</v>
+        <v>(UL MONROE|ULMONROE|ULM|LaMon)</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>601</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="H102" t="s">
+        <v>593</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
@@ -9170,32 +9172,33 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
-        <v>(LOUISVILLE|LOU|UL|Lvile)</v>
+        <v>(LOUISIANA TECH|LATECH|LaTch|LAT|TECH)</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
+        <v>600</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>601</v>
+      </c>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
@@ -9215,26 +9218,30 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>608</v>
+        <v>38</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
-        <v>(LSU|LS)</v>
+        <v>(LOUISVILLE|LOU|UL|Lvile)</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+        <v>581</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
@@ -9256,23 +9263,23 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
-        <v>(MAINE|MAI)</v>
-      </c>
-      <c r="E105" t="s">
-        <v>613</v>
+        <v>(LSU|LS)</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>606</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -9297,24 +9304,25 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
-        <v>(MARSHALL|MAR)</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>618</v>
+        <v>(MAINE|MAI)</v>
+      </c>
+      <c r="E106" t="s">
+        <v>613</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>619</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -9337,25 +9345,24 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="1"/>
-        <v>(MARYLAND|UMD)</v>
+        <v>(MARSHALL|MAR)</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="G107" s="3"/>
+        <v>619</v>
+      </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -9378,30 +9385,27 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
-        <v>(MCNEESE ST|MCNEESE|McNSt|MCN)</v>
+        <v>(MARYLAND|UMD)</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F108" t="s">
-        <v>629</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>631</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
@@ -9422,33 +9426,31 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>12</v>
+        <v>626</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
-        <v>(MEMPHIS|Memph|MEM-ROAD|MEM_ROAD|MEM)</v>
+        <v>(MCNEESE ST|MCNEESE|McNSt|MCN)</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="G109" t="s">
-        <v>636</v>
-      </c>
-      <c r="H109" t="s">
-        <v>637</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>638</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="F109" t="s">
+        <v>629</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -9468,28 +9470,33 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>640</v>
+        <v>12</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>38</v>
+        <v>633</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
-        <v>(MERCER|MER)</v>
+        <v>(MEMPHIS|Memph|MEM-ROAD|MEM_ROAD|MEM)</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
+        <v>635</v>
+      </c>
+      <c r="G110" t="s">
+        <v>636</v>
+      </c>
+      <c r="H110" t="s">
+        <v>637</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>638</v>
+      </c>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -9509,27 +9516,27 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>643</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="1"/>
-        <v>(Merrimack|MER|MRMK)</v>
+        <v>(MERCER|MER)</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="F111" t="s">
+        <v>641</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>646</v>
-      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -9550,36 +9557,28 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>647</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>645</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="1"/>
-        <v>(MIAMI FL|MIAMIFL|MIAMI|UM|MiaFl|MIA)</v>
+        <v>(Merrimack|MER|MRMK)</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>651</v>
+        <v>643</v>
+      </c>
+      <c r="F112" t="s">
+        <v>642</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="I112" t="s">
-        <v>654</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>655</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
@@ -9599,35 +9598,35 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>38</v>
+        <v>649</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
-        <v>(MIAMI OH|MIAMIOH|MIAMI|MiaOh|MIA|MU)</v>
+        <v>(MIAMI FL|MIAMIFL|MIAMI|UM|MiaFl|MIA)</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="H113" t="s">
-        <v>660</v>
-      </c>
-      <c r="I113" s="3" t="s">
+      <c r="H113" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="I113" t="s">
+        <v>654</v>
+      </c>
+      <c r="J113" s="3" t="s">
         <v>655</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>661</v>
       </c>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -9648,30 +9647,36 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>664</v>
+        <v>38</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="1"/>
-        <v>(MICHIGAN|MICH|MIC)</v>
+        <v>(MIAMI OH|MIAMIOH|MIAMI|MiaOh|MIA|MU)</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+        <v>652</v>
+      </c>
+      <c r="H114" t="s">
+        <v>660</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>661</v>
+      </c>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -9691,30 +9696,28 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>32</v>
+        <v>664</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="1"/>
-        <v>(MICHIGANST|MSU|MICHIGAN ST|MchSt)</v>
+        <v>(MICHIGAN|MICH|MIC)</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>673</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -9736,33 +9739,31 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>38</v>
+        <v>669</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>675</v>
+        <v>32</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="1"/>
-        <v>(MIDDLE TENN|MIDDLETENN|MTSU|MTS|MT)</v>
+        <v>(MICHIGANST|MSU|MICHIGAN ST|MchSt)</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="H116" t="s">
-        <v>679</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>680</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -9783,29 +9784,32 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>682</v>
+        <v>38</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="1"/>
-        <v>(MINNESOTA|MINN|MIN|UMN)</v>
+        <v>(MIDDLE TENN|MIDDLETENN|MTSU|MTS|MT)</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>687</v>
+        <v>678</v>
+      </c>
+      <c r="H117" t="s">
+        <v>679</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>680</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -9827,39 +9831,33 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>31</v>
+        <v>682</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="1"/>
-        <v>(MISSISSIPPI ST|MISSSTATE|MisSt|MS State|MSSTATE|MSU|MS)</v>
+        <v>(MINNESOTA|MINN|MIN|UMN)</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="I118" t="s">
-        <v>694</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>695</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
@@ -9877,30 +9875,39 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>32</v>
+        <v>689</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="1"/>
-        <v>(MISS VALLEY ST|MVSU)</v>
+        <v>(MISSISSIPPI ST|MISSSTATE|MisSt|MS State|MSSTATE|MSU|MS)</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
+        <v>691</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="I119" t="s">
+        <v>694</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>695</v>
+      </c>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
@@ -9918,30 +9925,27 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>700</v>
+        <v>32</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="1"/>
-        <v>(MISSOURI|Misso|MIZ|MU)</v>
+        <v>(MISS VALLEY ST|MVSU)</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>661</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -9962,27 +9966,30 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>705</v>
+        <v>38</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>38</v>
+        <v>700</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="1"/>
-        <v>(MSU|MISSOURI ST)</v>
+        <v>(MISSOURI|Misso|MIZ|MU)</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
+        <v>702</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>661</v>
+      </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -10003,23 +10010,23 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>19</v>
+        <v>705</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>708</v>
+        <v>38</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="1"/>
-        <v>(MONMOUTH|MU)</v>
+        <v>(MSU|MISSOURI ST)</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>709</v>
+        <v>671</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -10044,23 +10051,23 @@
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>711</v>
+        <v>19</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>290</v>
+        <v>708</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="1"/>
-        <v>(MONTANA|UM)</v>
+        <v>(MONMOUTH|MU)</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -10085,30 +10092,26 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="1"/>
-        <v>(MONTANA ST|MntSt|MTnSt|MSU)</v>
+        <v>(MONTANA|UM)</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="G124" t="s">
-        <v>717</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>671</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -10130,26 +10133,31 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>720</v>
+        <v>221</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="1"/>
-        <v>(MORGAN ST|MSU)</v>
+        <v>(MONTANA ST|MntSt|MTnSt|MSU)</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F125" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G125" t="s">
+        <v>717</v>
+      </c>
+      <c r="H125" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -10170,29 +10178,26 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="1"/>
-        <v>(MURRAY ST|MURRAYST|MUR)</v>
+        <v>(MORGAN ST|MSU)</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>727</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="G126" s="3"/>
       <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
@@ -10213,27 +10218,28 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="1"/>
-        <v>(NAVY|Navy|NAV)</v>
+        <v>(MURRAY ST|MURRAYST|MUR)</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>731</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -10255,29 +10261,26 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>352</v>
+        <v>714</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>38</v>
+        <v>729</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="1"/>
-        <v>(NC STATE|NCSTATE|NCS|ST)</v>
+        <v>(NAVY|Navy|NAV)</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="F128" t="s">
-        <v>734</v>
+        <v>730</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>728</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -10300,28 +10303,30 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>738</v>
+        <v>352</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="1"/>
-        <v>(NEBRASKA|NEB|Neb)</v>
+        <v>(NC STATE|NCSTATE|NCS|ST)</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="G129" t="s">
-        <v>741</v>
-      </c>
-      <c r="H129" s="3"/>
+        <v>733</v>
+      </c>
+      <c r="F129" t="s">
+        <v>734</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>736</v>
+      </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -10343,33 +10348,30 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>64</v>
+        <v>738</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>743</v>
+        <v>38</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" ref="D130:D193" si="2">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E130:Z130),")")</f>
-        <v>(NEVADA|Nevad|NEV|NV|UNR)</v>
+        <f t="shared" si="1"/>
+        <v>(NEBRASKA|NEB|Neb)</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>748</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="G130" t="s">
+        <v>741</v>
+      </c>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
@@ -10389,28 +10391,33 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="2"/>
-        <v>(NEW HAMPSHIRE|UNH)</v>
+        <f t="shared" ref="D131:D194" si="2">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E131:Z131),")")</f>
+        <v>(NEVADA|Nevad|NEV|NV|UNR)</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
+        <v>745</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
@@ -10430,33 +10437,28 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>387</v>
+        <v>750</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="2"/>
-        <v>(NEW MEXICO|NMex|NM|NEWMEXICO|UNM)</v>
+        <v>(NEW HAMPSHIRE|UNH)</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>758</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -10476,36 +10478,34 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>760</v>
+        <v>114</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>38</v>
+        <v>387</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="2"/>
-        <v>(NEWMEXST|NEW MEXICO ST|NMxSt|NMS[Tt]|NMSU|NMS)</v>
+        <v>(NEW MEXICO|NMex|NM|NEWMEXICO|UNM)</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="H133" t="s">
-        <v>764</v>
+        <v>755</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>757</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>766</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
@@ -10524,34 +10524,36 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>769</v>
+        <v>38</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="2"/>
-        <v>(NICHOLLS ST|NICHOLLS|NICH|NIC|NSU)</v>
+        <v>(NEWMEXST|NEW MEXICO ST|NMxSt|NMS[Tt]|NMSU|NMS)</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>773</v>
+        <v>762</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="H134" t="s">
+        <v>764</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="K134" s="3"/>
+        <v>765</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>766</v>
+      </c>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
@@ -10570,28 +10572,33 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="2"/>
-        <v>(NORFOLK ST|NSU)</v>
+        <v>(NICHOLLS ST|NICHOLLS|NICH|NIC|NSU)</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F135" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="I135" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
@@ -10611,27 +10618,25 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="2"/>
-        <v>(NORTH ALABAMA|UNA|NORTHALA)</v>
+        <v>(NORFOLK ST|NSU)</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>784</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -10654,30 +10659,28 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="2"/>
-        <v>(NORTH CAROLINA|UNC|NC|NCaro)</v>
+        <v>(NORTH ALABAMA|UNA|NORTHALA)</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>791</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -10699,29 +10702,29 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="2"/>
-        <v>(NC A&amp;T|NCAT|A&amp;T|NCCU)</v>
+        <v>(NORTH CAROLINA|UNC|NC|NCaro)</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -10744,28 +10747,30 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>633</v>
+        <v>794</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="2"/>
-        <v>(NC CENTRAL|NCCtl|NCCU)</v>
+        <v>(NC A&amp;T|NCAT|A&amp;T|NCCU)</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="F139" t="s">
-        <v>802</v>
+        <v>795</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>796</v>
       </c>
       <c r="G139" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="H139" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -10787,25 +10792,27 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>805</v>
+        <v>633</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="2"/>
-        <v>(NORTH DAKOTA|UND)</v>
+        <v>(NC CENTRAL|NCCtl|NCCU)</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="G140" s="3"/>
+        <v>801</v>
+      </c>
+      <c r="F140" t="s">
+        <v>802</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>798</v>
+      </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -10828,27 +10835,25 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="2"/>
-        <v>(NO DAKOTA ST|NDSU|NDkSt)</v>
+        <v>(NORTH DAKOTA|UND)</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>813</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -10871,33 +10876,29 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>38</v>
+        <v>810</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="2"/>
-        <v>(NORTH TEXAS|UNT|NORTHTEXAS|NT|NoTex)</v>
+        <v>(NO DAKOTA ST|NDSU|NDkSt)</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>820</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
@@ -10918,27 +10919,33 @@
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>279</v>
+        <v>38</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="2"/>
-        <v>(NAU|NORTHRN ARIZONA)</v>
+        <v>(NORTH TEXAS|UNT|NORTHTEXAS|NT|NoTex)</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
+        <v>817</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>820</v>
+      </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
@@ -10959,30 +10966,26 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>827</v>
+        <v>279</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="2"/>
-        <v>(NORTHERN COLO|UNCO|NC|UNC)</v>
+        <v>(NAU|NORTHRN ARIZONA)</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>789</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -11004,26 +11007,30 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>114</v>
+        <v>826</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>827</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="2"/>
-        <v>(NORTHERNIL|NIU)</v>
+        <v>(NORTHERN COLO|UNCO|NC|UNC)</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
+        <v>829</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>789</v>
+      </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -11045,27 +11052,25 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>834</v>
+        <v>114</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="2"/>
-        <v>(NORTHERN IOWA|UNI|NORTHIOWA)</v>
+        <v>(NORTHERNIL|NIU)</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>837</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -11088,36 +11093,31 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="2"/>
-        <v>(NORTHWESTERN|NORTHWSTRN|NWU|NOR|NU|Nwest)</v>
+        <v>(NORTHERN IOWA|UNI|NORTHIOWA)</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="J147" t="s">
-        <v>845</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
@@ -11136,37 +11136,36 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>848</v>
+        <v>32</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="2"/>
-        <v>(NORTHWESTERN ST|NSU|NWSTATE|NWST|NWLA|NWSt)</v>
+        <v>(NORTHWESTERN|NORTHWSTRN|NWU|NOR|NU|Nwest)</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="G148" t="s">
-        <v>850</v>
+        <v>841</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>842</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="J148" t="s">
-        <v>853</v>
-      </c>
-      <c r="K148" s="3"/>
+        <v>845</v>
+      </c>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
@@ -11185,36 +11184,37 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>101</v>
+        <v>847</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>37</v>
+        <v>848</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="2"/>
-        <v>(NOTRE DAME|NOTREDAME|NDAME|NDame|ND|UND)</v>
+        <v>(NORTHWESTERN ST|NSU|NWSTATE|NWST|NWLA|NWSt)</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>856</v>
+        <v>774</v>
       </c>
       <c r="G149" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>807</v>
-      </c>
+        <v>852</v>
+      </c>
+      <c r="J149" t="s">
+        <v>853</v>
+      </c>
+      <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
@@ -11233,32 +11233,36 @@
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>861</v>
+        <v>101</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>862</v>
+        <v>37</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="2"/>
-        <v>(OHIO|Ohio|OU|OHI)</v>
+        <v>(NOTRE DAME|NOTREDAME|NDAME|NDame|ND|UND)</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>864</v>
+        <v>856</v>
+      </c>
+      <c r="G150" t="s">
+        <v>857</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
+        <v>858</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
@@ -11277,36 +11281,32 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="2"/>
-        <v>(OHIO STATE|OHIO ST|OHIOST|OHIO|OSU|OhSt)</v>
+        <v>(OHIO|Ohio|OU|OHI)</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>873</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
@@ -11325,32 +11325,36 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="2"/>
-        <v>(OKLAHOMA|OU|Okla|OKL)</v>
+        <v>(OHIO STATE|OHIO ST|OHIOST|OHIO|OSU|OhSt)</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
+        <v>863</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>873</v>
+      </c>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
@@ -11369,31 +11373,30 @@
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>38</v>
+        <v>876</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="2"/>
-        <v>(OKLAHOMA ST|OKLAST|OSU|OKSt)</v>
+        <v>(OKLAHOMA|OU|Okla|OKL)</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="I153" s="3"/>
+        <v>879</v>
+      </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -11414,28 +11417,30 @@
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>416</v>
+        <v>881</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="2"/>
-        <v>(OLDDOMNION|OLDDOMINION|ODU)</v>
+        <v>(OKLAHOMA ST|OKLAST|OSU|OKSt)</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="H154" s="3"/>
+        <v>872</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>884</v>
+      </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -11457,36 +11462,31 @@
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>481</v>
+        <v>416</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>890</v>
+        <v>270</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="2"/>
-        <v>(OLE MISS|OLEMISS|OM|OLE|Miss|MIS)</v>
+        <v>(OLDDOMNION|OLDDOMINION|ODU)</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="H155" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="J155" s="3" t="s">
-        <v>896</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
@@ -11505,30 +11505,36 @@
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>898</v>
+        <v>481</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="2"/>
-        <v>(OREGON|Oregn|ORE)</v>
+        <v>(OLE MISS|OLEMISS|OM|OLE|Miss|MIS)</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
-      <c r="K156" s="3"/>
+        <v>893</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
@@ -11547,29 +11553,26 @@
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>38</v>
+        <v>899</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="2"/>
-        <v>(OREGON ST|OREGONST|OSU|OrgSt)</v>
+        <v>(OREGON|Oregn|ORE)</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="H157" s="3" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -11592,33 +11595,31 @@
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>19</v>
+        <v>904</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="2"/>
-        <v>(PENN STATE|PENN ST|PENNST|PSU|PnSt)</v>
+        <v>(OREGON ST|OREGONST|OSU|OrgSt)</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>911</v>
+        <v>872</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>913</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -11639,29 +11640,33 @@
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>915</v>
+        <v>19</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="2"/>
-        <v>(PITTSBURGH|UP|PIT)</v>
+        <v>(PENN STATE|PENN ST|PENNST|PSU|PnSt)</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
+        <v>911</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>913</v>
+      </c>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -11682,26 +11687,26 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>121</v>
+        <v>915</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="2"/>
-        <v>(PORTLAND ST|PSU|PrtSt)</v>
+        <v>(PITTSBURGH|UP|PIT)</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -11725,30 +11730,28 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>923</v>
+        <v>121</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>683</v>
+        <v>32</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="2"/>
-        <v>(PRAIRIE VIEW|PVAM|PVU|PraVw)</v>
+        <v>(PORTLAND ST|PSU|PrtSt)</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>927</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
@@ -11770,28 +11773,30 @@
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>428</v>
+        <v>923</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>78</v>
+        <v>683</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="2"/>
-        <v>(PRESBYTERIAN|PC|Presb)</v>
+        <v>(PRAIRIE VIEW|PVAM|PVU|PraVw)</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="H162" s="3"/>
+        <v>926</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
@@ -11813,30 +11818,28 @@
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="2"/>
-        <v>(PERDUE|PURDUE|PUR|Prdue)</v>
+        <v>(PRESBYTERIAN|PC|Presb)</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="F163" t="s">
-        <v>934</v>
+        <v>929</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>930</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="H163" s="3" t="s">
-        <v>936</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -11858,26 +11861,30 @@
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>938</v>
+        <v>366</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>511</v>
+        <v>38</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="2"/>
-        <v>(RHODE ISLAND|URI)</v>
+        <v>(PERDUE|PURDUE|PUR|Prdue)</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
+        <v>933</v>
+      </c>
+      <c r="F164" t="s">
+        <v>934</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>936</v>
+      </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
@@ -11899,33 +11906,27 @@
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>714</v>
+        <v>938</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>942</v>
+        <v>511</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="2"/>
-        <v>(RICE|Rice|RIC|RCE|RU)</v>
+        <v>(RHODE ISLAND|URI)</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="F165" t="s">
-        <v>941</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="H165" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>946</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
@@ -11946,28 +11947,33 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>948</v>
+        <v>714</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>491</v>
+        <v>942</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="2"/>
-        <v>(RICHMOND|RIC|UR)</v>
+        <v>(RICE|Rice|RIC|RCE|RU)</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="F166" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="F166" t="s">
+        <v>941</v>
+      </c>
+      <c r="G166" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="G166" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="I166" s="3"/>
+      <c r="H166" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
@@ -11988,26 +11994,27 @@
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>953</v>
+        <v>491</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="2"/>
-        <v>(RMU|ROBERT MORRIS)</v>
+        <v>(RICHMOND|RIC|UR)</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
+        <v>944</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>950</v>
+      </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -12029,30 +12036,27 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>63</v>
+        <v>952</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="2"/>
-        <v>(RUTGERS|Rutgr|RUT|RU)</v>
+        <v>(RMU|ROBERT MORRIS)</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>946</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
@@ -12073,28 +12077,30 @@
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>962</v>
+        <v>63</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="2"/>
-        <v>(SACRAMENTO ST|SAC|SSU)</v>
+        <v>(RUTGERS|Rutgr|RUT|RU)</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="I169" s="3"/>
+        <v>960</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
@@ -12115,22 +12121,27 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>967</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>968</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>969</v>
+        <v>961</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>963</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="2"/>
-        <v>(SHU)</v>
+        <v>(SACRAMENTO ST|SAC|SSU)</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="G170" s="3"/>
+        <v>964</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>966</v>
+      </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
@@ -12152,28 +12163,22 @@
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>971</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>32</v>
+        <v>967</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>969</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="2"/>
-        <v>(SAM HOUSTON ST|SAMHOUSTON|SHSU)</v>
+        <v>(SHU)</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="H171" s="3"/>
+        <v>970</v>
+      </c>
+      <c r="G171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
@@ -12195,25 +12200,27 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>978</v>
+        <v>32</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="2"/>
-        <v>(SAMFORD|SAM)</v>
+        <v>(SAM HOUSTON ST|SAMHOUSTON|SHSU)</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="G172" s="3"/>
+        <v>974</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>975</v>
+      </c>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
@@ -12236,23 +12243,23 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="2"/>
-        <v>(SAN DIEGO|USD)</v>
+        <v>(SAMFORD|SAM)</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -12277,39 +12284,31 @@
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>953</v>
+        <v>982</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>38</v>
+        <v>983</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="2"/>
-        <v>(SAN DIEGO ST|SANDIEGOST|SAN DIEGO|SDSt|SDSU|SDS|SD)</v>
+        <v>(SAN DIEGO|USD)</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="H174" t="s">
-        <v>989</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="J174" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="K174" s="3" t="s">
-        <v>992</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
@@ -12326,39 +12325,39 @@
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>994</v>
+        <v>953</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>995</v>
+        <v>38</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="2"/>
-        <v>(SAN JOSÉ ST|SAN JOSE ST|SJSt|SJSU|SJS|SJ)</v>
+        <v>(SAN DIEGO ST|SANDIEGOST|SAN DIEGO|SDSt|SDSU|SDS|SD)</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="G175" t="s">
-        <v>998</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>999</v>
+        <v>988</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="H175" t="s">
+        <v>989</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K175" s="3"/>
-      <c r="L175" s="3"/>
-      <c r="M175" s="3"/>
+        <v>991</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>992</v>
+      </c>
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
@@ -12375,30 +12374,36 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="2"/>
-        <v>(SAVANNAH ST|SSU|SavSt)</v>
+        <v>(SAN JOSÉ ST|SAN JOSE ST|SJSt|SJSU|SJS|SJ)</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
+        <v>997</v>
+      </c>
+      <c r="G176" t="s">
+        <v>998</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>1001</v>
+      </c>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
@@ -12418,23 +12423,27 @@
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>136</v>
+        <v>1003</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>443</v>
+        <v>1004</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="2"/>
-        <v>(SMU)</v>
+        <v>(SAVANNAH ST|SSU|SavSt)</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
+        <v>1005</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>1006</v>
+      </c>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
@@ -12457,30 +12466,24 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>714</v>
+        <v>136</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1009</v>
+        <v>443</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="2"/>
-        <v>(SOUTH ALABAMA|USA|SOUTHALA|SAlab)</v>
+        <v>(SMU)</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>1013</v>
-      </c>
+        <v>1007</v>
+      </c>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
@@ -12502,33 +12505,31 @@
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>332</v>
+        <v>714</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>38</v>
+        <v>1009</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="2"/>
-        <v>(SOUTH CAROLINA|SOCAROLINA|SCaro|SC|USC)</v>
+        <v>(SOUTH ALABAMA|USA|SOUTHALA|SAlab)</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G179" t="s">
-        <v>1017</v>
+        <v>1011</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>1012</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>1019</v>
-      </c>
+        <v>1013</v>
+      </c>
+      <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
@@ -12549,36 +12550,34 @@
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1021</v>
+        <v>332</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1022</v>
+        <v>38</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="2"/>
-        <v>(CAROLINA ST|SOCARST|SCSt|SCST|SCSU|SCS)</v>
+        <v>(SOUTH CAROLINA|SOCAROLINA|SCaro|SC|USC)</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="G180" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>1028</v>
-      </c>
+        <v>1019</v>
+      </c>
+      <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
@@ -12598,32 +12597,36 @@
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>603</v>
+        <v>1021</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="2"/>
-        <v>(SOUTH DAKOTA|USD|SDU|SDako)</v>
+        <v>(CAROLINA ST|SOCARST|SCSt|SCST|SCSU|SCS)</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>1032</v>
+        <v>1024</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1025</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
+        <v>1026</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>1028</v>
+      </c>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
@@ -12643,28 +12646,30 @@
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>136</v>
+        <v>603</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="2"/>
-        <v>(SO DAKOTA ST|SDSU|SODAKOTAST)</v>
+        <v>(SOUTH DAKOTA|USD|SDU|SDako)</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H182" s="3"/>
+        <v>1032</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
@@ -12686,33 +12691,29 @@
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1039</v>
+        <v>136</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="2"/>
-        <v>(SOUFLA|SOUTH FLORIDA|South Florida|USF|SFla)</v>
+        <v>(SO DAKOTA ST|SDSU|SODAKOTAST)</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G183" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H183" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I183" s="3" t="s">
-        <v>1044</v>
-      </c>
+        <v>990</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
@@ -12733,29 +12734,32 @@
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>443</v>
+        <v>1039</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>38</v>
+        <v>1040</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="2"/>
-        <v>(SEMO|SEMo|SEM|SE MISSOURI)</v>
+        <v>(SOUFLA|SOUTH FLORIDA|South Florida|USF|SFla)</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>1048</v>
+        <v>1042</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1038</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>1049</v>
+        <v>1043</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>1044</v>
       </c>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
@@ -12777,29 +12781,30 @@
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1051</v>
+        <v>443</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1052</v>
+        <v>38</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="2"/>
-        <v>(SE LOUISIANA|SLU|SELa)</v>
+        <v>(SEMO|SEMo|SEM|SE MISSOURI)</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
+        <v>1048</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>1049</v>
+      </c>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
@@ -12820,30 +12825,29 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>306</v>
+        <v>1052</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="2"/>
-        <v>(SOUTHERN|SOU|SUBR|SU)</v>
+        <v>(SE LOUISIANA|SLU|SELa)</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>1061</v>
-      </c>
+        <v>1055</v>
+      </c>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
@@ -12864,27 +12868,30 @@
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="2"/>
-        <v>(SIU|SOUTHN ILLINOIS)</v>
+        <v>(SOUTHERN|SOU|SUBR|SU)</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
+        <v>1059</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>1061</v>
+      </c>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
@@ -12905,30 +12912,26 @@
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>1067</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="2"/>
-        <v>(SOUTHERN MISS|SOUMISS|USM|SoMis)</v>
+        <v>(SIU|SOUTHN ILLINOIS)</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>1071</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
@@ -12950,28 +12953,30 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1073</v>
+        <v>38</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>38</v>
+        <v>1067</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="2"/>
-        <v>(SOUTHERN UTAH|SUU|SoUth)</v>
+        <v>(SOUTHERN MISS|SOUMISS|USM|SoMis)</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H189" s="3"/>
+        <v>1070</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>1071</v>
+      </c>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
@@ -12992,24 +12997,28 @@
       <c r="Z189" s="3"/>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>1079</v>
+      <c r="A190" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="2"/>
-        <v>(SFrPA)</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
+        <v>(SOUTHERN UTAH|SUU|SoUth)</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>1076</v>
+      </c>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
@@ -13031,34 +13040,27 @@
       <c r="Z190" s="3"/>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>1083</v>
+      <c r="A191" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>1079</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="2"/>
-        <v>(STANFORD|Stanf|STAN|STA|SU)</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F191" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I191" s="3" t="s">
-        <v>1061</v>
-      </c>
+        <v>(SFrPA)</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
@@ -13078,28 +13080,33 @@
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="2"/>
-        <v>(SFAFB|SFA)</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
+        <v>(STANFORD|Stanf|STAN|STA|SU)</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>1061</v>
+      </c>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
@@ -13119,27 +13126,25 @@
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>491</v>
+        <v>1089</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="2"/>
-        <v>(STONY BROOK|SBU|StBrk)</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>1095</v>
+        <v>(SFAFB|SFA)</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1091</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>1097</v>
-      </c>
+        <v>1092</v>
+      </c>
+      <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
@@ -13162,26 +13167,26 @@
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1099</v>
+        <v>491</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" ref="D194:D257" si="3">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E194:Z194),")")</f>
-        <v>(SYRACUSE|SU|SYR)</v>
+        <f t="shared" si="2"/>
+        <v>(STONY BROOK|SBU|StBrk)</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>1061</v>
+        <v>1096</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
@@ -13205,25 +13210,27 @@
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>1105</v>
+        <v>1098</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>1100</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="3"/>
-        <v>(TARLETON ST|trlst)</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G195" s="3"/>
+        <f t="shared" ref="D195:D248" si="3">_xlfn.CONCAT("(",_xlfn.TEXTJOIN("|",TRUE(),E195:Z195),")")</f>
+        <v>(SYRACUSE|SU|SYR)</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>1102</v>
+      </c>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
@@ -13246,22 +13253,24 @@
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>1110</v>
+        <v>1103</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>1105</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="3"/>
-        <v>(TCU)</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F196" s="3"/>
+        <v>(TARLETON ST|trlst)</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>1107</v>
+      </c>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
@@ -13285,30 +13294,24 @@
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>78</v>
+        <v>1109</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>501</v>
+        <v>1110</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="3"/>
-        <v>(TEMPLE|Temp|TEM|TU)</v>
+        <v>(TCU)</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F197" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>1115</v>
-      </c>
+        <v>1108</v>
+      </c>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
@@ -13330,30 +13333,31 @@
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1117</v>
+        <v>78</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1118</v>
+        <v>501</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="3"/>
-        <v>(TENNESSEE|Tenn|TEN|UT)</v>
+        <v>(TEMPLE|Temp|TEM|TU)</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>1120</v>
+        <v>1112</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1113</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>1122</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
@@ -13374,27 +13378,30 @@
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>278</v>
+        <v>1117</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>32</v>
+        <v>1118</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="3"/>
-        <v>(TENNESSEE ST|TSU)</v>
+        <v>(TENNESSEE|Tenn|TEN|UT)</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
+        <v>1120</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>1122</v>
+      </c>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
@@ -13415,27 +13422,25 @@
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1127</v>
+        <v>278</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1128</v>
+        <v>32</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="3"/>
-        <v>(TENNESSEE TECH|TnTch|TTU)</v>
+        <v>(TENNESSEE ST|TSU)</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>1131</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
@@ -13458,30 +13463,28 @@
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="3"/>
-        <v>(TEXAS|Texas|TEX|UT)</v>
+        <v>(TENNESSEE TECH|TnTch|TTU)</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="F201" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H201" s="3" t="s">
-        <v>1122</v>
-      </c>
+        <v>1131</v>
+      </c>
+      <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
@@ -13503,33 +13506,31 @@
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>32</v>
+        <v>1134</v>
       </c>
       <c r="D202" t="str">
         <f t="shared" si="3"/>
-        <v>(TEXAS A&amp;M|TEXASAM|TexAM|TAMU|TAM)</v>
+        <v>(TEXAS|Texas|TEX|UT)</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G202" t="s">
-        <v>1141</v>
+        <v>1135</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>1136</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I202" s="3" t="s">
-        <v>1143</v>
-      </c>
+        <v>1122</v>
+      </c>
+      <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
@@ -13549,30 +13550,34 @@
       <c r="Z202" s="3"/>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>1146</v>
+      <c r="A203" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" si="3"/>
-        <v>(Texas A&amp;M-Commerce|TAMC|TXCC)</v>
+        <v>(TEXAS A&amp;M|TEXASAM|TexAM|TAMU|TAM)</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="G203" t="s">
-        <v>1148</v>
-      </c>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
+        <v>1141</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>1143</v>
+      </c>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
@@ -13592,31 +13597,29 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>1151</v>
+      <c r="A204" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>1146</v>
       </c>
       <c r="D204" t="str">
         <f t="shared" si="3"/>
-        <v>(TEXAS SOUTHERN|TSU|TXSOFB|TexSo)</v>
+        <v>(Texas A&amp;M-Commerce|TAMC|TXCC)</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H204" s="3" t="s">
-        <v>1154</v>
-      </c>
+        <v>1147</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
@@ -13638,36 +13641,32 @@
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="D205" t="str">
         <f t="shared" si="3"/>
-        <v>(TEXAS STATE|TEXSTATE|TexSt|TSU|TXST|TXS)</v>
+        <v>(TEXAS SOUTHERN|TSU|TXSOFB|TexSo)</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G205" t="s">
-        <v>1160</v>
+        <v>1125</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>1153</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I205" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="J205" s="3" t="s">
-        <v>1162</v>
-      </c>
+        <v>1154</v>
+      </c>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
@@ -13687,34 +13686,36 @@
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>352</v>
+        <v>1156</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>38</v>
+        <v>1157</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="3"/>
-        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
+        <v>(TEXAS STATE|TEXSTATE|TexSt|TSU|TXST|TXS)</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>1165</v>
+        <v>1159</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1160</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>1166</v>
+        <v>1125</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>1167</v>
-      </c>
-      <c r="J206" s="3"/>
+        <v>1161</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>1162</v>
+      </c>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
@@ -13734,29 +13735,33 @@
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1169</v>
+        <v>352</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1170</v>
+        <v>38</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" si="3"/>
-        <v>(CIT|THE CITADEL|THECITADEL)</v>
+        <v>(TEXAS TECH|TTU|TEXTC|TEXASTECH|TexTc)</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G207" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
+        <v>1131</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>1167</v>
+      </c>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
@@ -13777,33 +13782,29 @@
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="D208" t="str">
         <f t="shared" si="3"/>
-        <v>(TOLEDO|Toled|TOL|UTo|UT)</v>
+        <v>(CIT|THE CITADEL|THECITADEL)</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H208" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I208" s="3" t="s">
-        <v>1122</v>
-      </c>
+        <v>1171</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
@@ -13824,27 +13825,33 @@
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="D209" t="str">
         <f t="shared" si="3"/>
-        <v>(TOWSON|TOW)</v>
+        <v>(TOLEDO|Toled|TOL|UTo|UT)</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
+        <v>1177</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>1122</v>
+      </c>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
@@ -13865,27 +13872,26 @@
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="3"/>
-        <v>(TROY|TRO|TRY)</v>
+        <v>(TOWSON|TOW)</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>1191</v>
-      </c>
+        <v>1185</v>
+      </c>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
@@ -13907,28 +13913,27 @@
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1039</v>
+        <v>1187</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="3"/>
-        <v>(TLN|TULANE|Tulan)</v>
+        <v>(TROY|TRO|TRY)</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H211" s="3"/>
+        <v>1191</v>
+      </c>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
@@ -13950,33 +13955,29 @@
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1198</v>
+        <v>1039</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>443</v>
+        <v>1193</v>
       </c>
       <c r="D212" t="str">
         <f t="shared" si="3"/>
-        <v>(TULSA|Tulsa|TLS|Tul|TUL)</v>
+        <v>(TLN|TULANE|Tulan)</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1197</v>
+        <v>1194</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>1195</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H212" s="3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="I212" s="3" t="s">
-        <v>1202</v>
-      </c>
+        <v>1196</v>
+      </c>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
@@ -13997,25 +13998,33 @@
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1051</v>
+        <v>1198</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1204</v>
+        <v>443</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="3"/>
-        <v>(UAB)</v>
+        <v>(TULSA|Tulsa|TLS|Tul|TUL)</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
+        <v>1199</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>1202</v>
+      </c>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
@@ -14036,27 +14045,23 @@
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>214</v>
+        <v>1051</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>415</v>
+        <v>1204</v>
       </c>
       <c r="D214" t="str">
         <f t="shared" si="3"/>
-        <v>(UC DAVIS|UCDav|UCD)</v>
+        <v>(UAB)</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F214" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G214" s="3" t="s">
-        <v>1208</v>
-      </c>
+        <v>1203</v>
+      </c>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
@@ -14079,23 +14084,27 @@
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1210</v>
+        <v>214</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>38</v>
+        <v>415</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" si="3"/>
-        <v>(UCF)</v>
+        <v>(UC DAVIS|UCDav|UCD)</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
+        <v>1206</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>1208</v>
+      </c>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
@@ -14118,24 +14127,22 @@
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="D216" t="str">
         <f t="shared" si="3"/>
-        <v>(UCLA|UCL)</v>
+        <v>(UCF)</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>1213</v>
-      </c>
+        <v>1209</v>
+      </c>
+      <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
@@ -14159,33 +14166,27 @@
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1216</v>
+        <v>129</v>
       </c>
       <c r="D217" t="str">
         <f t="shared" si="3"/>
-        <v>(MASSACHUSETTS|UMASS|UMass|UMA|MAS)</v>
+        <v>(UCLA|UCL)</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G217" t="s">
-        <v>1214</v>
-      </c>
-      <c r="H217" s="3" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I217" s="3" t="s">
-        <v>1220</v>
-      </c>
+        <v>1213</v>
+      </c>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
@@ -14206,29 +14207,33 @@
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="3"/>
-        <v>(LV|NLV|UNLV)</v>
+        <v>(MASSACHUSETTS|UMASS|UMass|UMA|MAS)</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
+        <v>1217</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>1220</v>
+      </c>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
@@ -14249,23 +14254,27 @@
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1019</v>
+        <v>1221</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>491</v>
+        <v>1222</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>306</v>
+        <v>1223</v>
       </c>
       <c r="D219" t="str">
         <f t="shared" si="3"/>
-        <v>(USC)</v>
+        <v>(LV|NLV|UNLV)</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
+        <v>1224</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>1221</v>
+      </c>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
@@ -14288,27 +14297,23 @@
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1226</v>
+        <v>1019</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1227</v>
+        <v>491</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1228</v>
+        <v>306</v>
       </c>
       <c r="D220" t="str">
         <f t="shared" si="3"/>
-        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
+        <v>(USC)</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>1231</v>
-      </c>
+        <v>1019</v>
+      </c>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
@@ -14331,33 +14336,29 @@
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>101</v>
+        <v>1228</v>
       </c>
       <c r="D221" t="str">
         <f t="shared" si="3"/>
-        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
+        <v>(TENN MARTIN|UTM|TENNMARTIN)</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H221" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="I221" s="3" t="s">
-        <v>1238</v>
-      </c>
+        <v>1231</v>
+      </c>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
@@ -14378,31 +14379,33 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>352</v>
+        <v>1233</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1240</v>
+        <v>101</v>
       </c>
       <c r="D222" t="str">
         <f t="shared" si="3"/>
-        <v>(UTAH|Utah|UTA|UTE)</v>
+        <v>(UT SAN ANTONIO|UTSA|TEXASSAN|UTS|TSA)</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F222" t="s">
-        <v>1239</v>
+        <v>1234</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>1235</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I222" s="3"/>
+        <v>1237</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>1238</v>
+      </c>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
@@ -14423,33 +14426,31 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1245</v>
+        <v>352</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>13</v>
+        <v>1240</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="3"/>
-        <v>(UTAH ST|UTAHST|USU|US|UthSt)</v>
+        <v>(UTAH|Utah|UTA|UTE)</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>1247</v>
+        <v>1241</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1239</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I223" t="s">
-        <v>1250</v>
-      </c>
+        <v>1243</v>
+      </c>
+      <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
@@ -14470,28 +14471,33 @@
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1253</v>
+        <v>13</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="3"/>
-        <v>(UTU|UTAH TECH|Utah)</v>
+        <v>(UTAH ST|UTAHST|USU|US|UthSt)</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>1255</v>
+        <v>1246</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>1247</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H224" s="3"/>
+        <v>1248</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I224" t="s">
+        <v>1250</v>
+      </c>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
@@ -14512,29 +14518,28 @@
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1117</v>
+        <v>1252</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>19</v>
+        <v>1253</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="3"/>
-        <v>(UTEP|TEP|UTE)</v>
+        <v>(UTU|UTAH TECH|Utah)</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>1255</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
@@ -14554,27 +14559,27 @@
       <c r="Z225" s="3"/>
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>1260</v>
+      <c r="A226" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D226" t="str">
         <f t="shared" si="3"/>
-        <v>(VALPARAISO|Valpo|VAL)</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>1261</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>1262</v>
+        <v>(UTEP|TEP|UTE)</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>1257</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
@@ -14597,34 +14602,30 @@
       <c r="Z226" s="3"/>
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>1265</v>
+      <c r="A227" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>1260</v>
       </c>
       <c r="D227" t="str">
         <f t="shared" si="3"/>
-        <v>(VANDERBILT|VANDY|Vandy|VAN|VU)</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G227" t="s">
-        <v>1268</v>
-      </c>
-      <c r="H227" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I227" s="3" t="s">
-        <v>1270</v>
-      </c>
+        <v>(VALPARAISO|Valpo|VAL)</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
@@ -14645,27 +14646,33 @@
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>714</v>
+        <v>38</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" si="3"/>
-        <v>(VILLANOVA|VU)</v>
+        <v>(VANDERBILT|VANDY|Vandy|VAN|VU)</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="F228" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G228" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I228" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
@@ -14686,30 +14693,26 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1275</v>
+        <v>714</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="3"/>
-        <v>(VIRGINIA|Virg|VA|UVA)</v>
+        <v>(VILLANOVA|VU)</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G229" s="3" t="s">
-        <v>1279</v>
-      </c>
-      <c r="H229" s="3" t="s">
-        <v>1280</v>
-      </c>
+        <v>1273</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
@@ -14731,36 +14734,32 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="3"/>
-        <v>(VIRGINIA TECH|VATECH|VTech|VT|VaT|VAT)</v>
+        <v>(VIRGINIA|Virg|VA|UVA)</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G230" t="s">
-        <v>1286</v>
+        <v>1277</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>1279</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I230" s="3" t="s">
-        <v>1288</v>
-      </c>
-      <c r="J230" s="3" t="s">
-        <v>1289</v>
-      </c>
+        <v>1280</v>
+      </c>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
       <c r="M230" s="3"/>
@@ -14780,26 +14779,36 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>622</v>
+        <v>1283</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="3"/>
-        <v>(VMI)</v>
+        <v>(VIRGINIA TECH|VATECH|VTech|VT|VaT|VAT)</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>1290</v>
-      </c>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
+        <v>1284</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G231" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>1289</v>
+      </c>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
       <c r="M231" s="3"/>
@@ -14819,24 +14828,22 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1294</v>
+        <v>622</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="3"/>
-        <v>(WAGNER|WAG)</v>
+        <v>(VMI)</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>1296</v>
-      </c>
+        <v>1290</v>
+      </c>
+      <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
@@ -14860,30 +14867,26 @@
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>38</v>
+        <v>1294</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="3"/>
-        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
+        <v>(WAGNER|WAG)</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G233" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H233" s="3" t="s">
-        <v>1302</v>
-      </c>
+        <v>1296</v>
+      </c>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
@@ -14905,36 +14908,32 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1305</v>
+        <v>38</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="3"/>
-        <v>(WASHINGTON|WASH|Wash|UW|WAS|U W)</v>
+        <v>(WAKE FOREST|WAKEFOREST|WFU|WF)</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="G234" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I234" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="J234" s="3" t="s">
-        <v>1311</v>
-      </c>
+        <v>1302</v>
+      </c>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
       <c r="M234" s="3"/>
@@ -14954,34 +14953,36 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="3"/>
-        <v>(WASHINGTON ST|WSU|WASHST|COU|WshSt)</v>
+        <v>(WASHINGTON|WASH|Wash|UW|WAS|U W)</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G235" s="3" t="s">
-        <v>1317</v>
+        <v>1307</v>
+      </c>
+      <c r="G235" t="s">
+        <v>1308</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>1319</v>
-      </c>
-      <c r="J235" s="3"/>
+        <v>1310</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>1311</v>
+      </c>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
       <c r="M235" s="3"/>
@@ -15001,32 +15002,32 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="3"/>
-        <v>(WEBER ST|WEBERST|WEBER|WSU|WebSt)</v>
+        <v>(WASHINGTON ST|WSU|WASHST|COU|WshSt)</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I236" t="s">
-        <v>1326</v>
+        <v>1318</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>1319</v>
       </c>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
@@ -15048,31 +15049,33 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>214</v>
+        <v>1321</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1052</v>
+        <v>1322</v>
       </c>
       <c r="D237" t="str">
         <f t="shared" si="3"/>
-        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
+        <v>(WEBER ST|WEBERST|WEBER|WSU|WebSt)</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="I237" s="3"/>
+        <v>1316</v>
+      </c>
+      <c r="I237" t="s">
+        <v>1326</v>
+      </c>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
@@ -15093,33 +15096,31 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1333</v>
+        <v>214</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1334</v>
+        <v>1052</v>
       </c>
       <c r="D238" t="str">
         <f t="shared" si="3"/>
-        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCaro|WCU)</v>
+        <v>(WEST VIRGINIA|WESTVIR|WVU|WVirg)</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="H238" t="s">
-        <v>1338</v>
-      </c>
-      <c r="I238" s="3" t="s">
-        <v>1339</v>
-      </c>
+        <v>1330</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
@@ -15140,27 +15141,33 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>56</v>
+        <v>1334</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" si="3"/>
-        <v>(WESTRN ILLINOIS|WIU)</v>
+        <v>(WESTERN CAROLINA|WESTCARLNA|WESTRN CAROLINA|WCaro|WCU)</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
+        <v>1336</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>1339</v>
+      </c>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
@@ -15181,30 +15188,26 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>409</v>
+        <v>1341</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1345</v>
+        <v>56</v>
       </c>
       <c r="D240" t="str">
         <f t="shared" si="3"/>
-        <v>(WESTRN KENTUCKY|WKU|WESTERNKY|WKent)</v>
+        <v>(WESTRN ILLINOIS|WIU)</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G240" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="H240" s="3" t="s">
-        <v>1349</v>
-      </c>
+        <v>1343</v>
+      </c>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
@@ -15226,33 +15229,31 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1351</v>
+        <v>409</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="D241" t="str">
         <f t="shared" si="3"/>
-        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMich|WMI)</v>
+        <v>(WESTRN KENTUCKY|WKU|WESTERNKY|WKent)</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H241" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I241" s="3" t="s">
-        <v>1357</v>
-      </c>
+        <v>1348</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I241" s="3"/>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
@@ -15273,29 +15274,33 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="D242" t="str">
         <f t="shared" si="3"/>
-        <v>(MARY|WILLMMARY|WM)</v>
+        <v>(WESTMICH|WESTRN MICHIGAN|WMU|WMich|WMI)</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F242" t="s">
-        <v>1362</v>
+        <v>1353</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>1354</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
+        <v>1355</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>1357</v>
+      </c>
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
@@ -15316,26 +15321,26 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>32</v>
+        <v>1360</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" si="3"/>
-        <v>(WISCONSIN|Wisc|WIS)</v>
+        <v>(MARY|WILLMMARY|WM)</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="F243" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
@@ -15359,25 +15364,27 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D244" t="str">
         <f t="shared" si="3"/>
-        <v>(WOFFORD|WOF)</v>
+        <v>(WISCONSIN|Wisc|WIS)</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="G244" s="3"/>
+        <v>1366</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>1368</v>
+      </c>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
@@ -15400,30 +15407,27 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1375</v>
+        <v>32</v>
       </c>
       <c r="D245" t="str">
         <f t="shared" si="3"/>
-        <v>(WYOMING|Wyom|WYO|WY)</v>
+        <v>(WOFFORD|WOF)</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F245" t="s">
-        <v>1377</v>
-      </c>
-      <c r="G245" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H245" s="3" t="s">
-        <v>1379</v>
-      </c>
+        <v>1371</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
@@ -15444,27 +15448,30 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>32</v>
+        <v>1375</v>
       </c>
       <c r="D246" t="str">
         <f t="shared" si="3"/>
-        <v>(YALE|YAL)</v>
+        <v>(WYOMING|Wyom|WYO|WY)</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>1382</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
+        <v>1376</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>1379</v>
+      </c>
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
@@ -15485,27 +15492,25 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>443</v>
+        <v>1381</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1385</v>
+        <v>32</v>
       </c>
       <c r="D247" t="str">
         <f t="shared" si="3"/>
-        <v>(YOUNGSTOWN ST|YSU|YngSt)</v>
+        <v>(YALE|YAL)</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>1387</v>
-      </c>
-      <c r="G247" s="3" t="s">
-        <v>1388</v>
-      </c>
+        <v>1383</v>
+      </c>
+      <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
@@ -15527,9 +15532,28 @@
       <c r="Z247" s="3"/>
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
+      <c r="A248" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D248" t="str">
+        <f t="shared" si="3"/>
+        <v>(YOUNGSTOWN ST|YSU|YngSt)</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>1388</v>
+      </c>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
@@ -15670,14 +15694,38 @@
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
     </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+      <c r="J254" s="3"/>
+      <c r="K254" s="3"/>
+      <c r="L254" s="3"/>
+      <c r="M254" s="3"/>
+      <c r="N254" s="3"/>
+      <c r="O254" s="3"/>
+      <c r="P254" s="3"/>
+      <c r="Q254" s="3"/>
+      <c r="R254" s="3"/>
+      <c r="S254" s="3"/>
+      <c r="T254" s="3"/>
+      <c r="U254" s="3"/>
+      <c r="V254" s="3"/>
+      <c r="W254" s="3"/>
+      <c r="X254" s="3"/>
+      <c r="Y254" s="3"/>
+      <c r="Z254" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A225:A1048576 A171:A194 A1:A75 A204:A223 A196:A202 A77:A169">
+  <conditionalFormatting sqref="A226:A1048576 A172:A195 A1:A75 A205:A224 A197:A203 A77:A170">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E219:Z221 G222:Z222 E222 E225:Z225 E223:H223 J223:Z224 E228:Z228 E231:Z232 E230:F230 H230:Z230 G229:Z229 E229 E227:F227 H227:Z227 E237:Z237 E239:Z240 E241:G241 I241:Z241 E238:G238 I238:Z238 E236:H236 J236:Z236 E246:Z253 J245:Z245 E245 G245:H245 E235:Z235 H233:Z234 E233:F234 G218:Z218 E218 E244:Z244 G242:Z243 E242:E243 E224 G224:H224 F226:Z226">
+  <conditionalFormatting sqref="E220:Z222 G223:Z223 E223 E226:Z226 E224:H224 J224:Z225 E229:Z229 E232:Z233 E231:F231 H231:Z231 G230:Z230 E230 E228:F228 H228:Z228 E238:Z238 E240:Z241 E242:G242 I242:Z242 E239:G239 I239:Z239 E237:H237 J237:Z237 E247:Z254 J246:Z246 E246 G246:H246 E236:Z236 H234:Z235 E234:F235 G219:Z219 E219 E245:Z245 G243:Z244 E243:E244 E225 G225:H225 F227:Z227">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I109 H100:J100 J125:Z125 E125:H125 E126:Z126 G128:Z128 I127:Z127 F127:G127 E2:Z2 E58:Z58 E56:F57 H56:Z56 K57:Z57 G57:I57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 J74:Z74 F74:H74 E79:Z79 E81:Z89 G80:Z80 E80 K91:Z91 H91:I91 L90:Z90 G90:J90 E77:G77 I77:Z77 E96:Z99 H95:Z95 E94:F95 E103:Z104 K102:Z102 E102:I102 I101:Z101 E107:Z107 H106:Z106 E106:F106 E108:E109 E110:Z110 E114:Z115 E113:G113 I113:Z113 E112:H112 J111:Z112 E119:Z119 E121:Z123 E124:F124 H124:Z124 J120:Z120 E120:H120 E116:G117 J116:Z117 J118:K118 M118:Z118 E117:H118 E131:Z131 K132:Z132 E132:I132 G130:I130 K130:Z130 E129:F130 H129:Z129 E135:Z138 E140:Z146 G139:Z139 E139 E133:G133 F153:Z154 J152:Z152 F152:H152 L151:Z151 F151:J151 G150:H150 J150:Z150 F157:Z162 I156:Z156 F156:G156 L155:Z155 F155:J155 E147:I147 L147:Z147 E167:Z167 I169:Z170 J168:Z168 E166:G166 I166:Z166 E171:Z173 E169:G169 E168:H168 E176:Z178 E175:F175 H175:Z175 E181:Z182 E185:Z185 J184:Z184 E184:H184 E179:F180 E174:G174 I174:K174 N174:Z174 E187:Z190 J186:Z186 E186:H186 E191 G191:I191 K191:Z191 E199:Z199 G200:Z201 G197:Z197 J198:Z198 F198:H198 E197:E198 E204:Z204 E200:E201 E202:F202 H202:Z203 E206:Z206 E205:F205 H205:Z205 E211:Z211 E213:Z213 E215:Z216 E217:F217 H217:Z217 G214:Z214 E214 G212:Z212 E212 E210:G210 I210:Z210 E3:H3 J3:Z3 I116 E4:Z4 E10:F10 I10:Z10 E92:Z93 E90:F91 E23 G23:Z23 E148:E163 E164:Z164 G163:Z163 F105:Z105 E209:Z209 E207:F207 E208 G208 H207:Z207 I208:Z208 E127:E128 F68:Z68 L69:Z69 F69:J69 F67:G67 I67:Z67 E50:Z53 E55:Z55 E54:F54 H54:Z54 E48 G48:Z48 E101:G101 N100:Z100 L100 E100:F100 J78:Z78 E78:F78 H78 F192:Z192 J108:Z108 K109:Z109 F109 G108:H108 K148:Z148 H148:I148 F148:F150 E134:I134 K134:Z134 F49:Z49 E37:Z37 E39:F40 H39:Z40 G38:Z38 E38 E36 G36:Z36 L149:Z149 H149:J149 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z11 E13:Z13 E12:F12 H12:Z12 E15:Z15 G16:Z16 E16 E14:F14 H14:Z14 E165 G165:Z165 E193:Z196 E6:Z9 E5 L133:Z133 I133:J133 E18:Z18 E20:Z21 E22:F22 H22:Z22 E19:G19 I19:Z19 E17:F17 H17:Z17 E24:Z28 E30:Z33 G29:Z29 E29 E35:Z35 E34:F34 H34:Z34 E41:Z42 E45:Z47 H43:Z43 E43:F43 H179:Z180 G5:Z5 E183:F183 H183:Z183 E203 E111 G170 E170 I44:Z44 G44:H44">
+  <conditionalFormatting sqref="I110 H101:J101 J126:Z126 E126:H126 E127:Z127 G129:Z129 I128:Z128 F128:G128 E2:Z2 E58:Z58 E56:F57 H56:Z56 K57:Z57 G57:I57 E59:H59 J59:Z59 E60:Z62 H64:Z64 E64:F64 F65:Z66 E65:E70 F72:Z73 I70:Z70 F70:G70 H71:Z71 E71:F71 E72:E74 E75:Z76 J74:Z74 F74:H74 E79:Z79 E81:Z89 G80:Z80 E80 K91:Z91 H91:I91 L90:Z90 G90:J90 E77:G77 I77:Z77 E96:Z100 H95:Z95 E94:F95 E104:Z105 K103:Z103 E103:I103 I102:Z102 E108:Z108 H107:Z107 E107:F107 E109:E110 E111:Z111 E115:Z116 E114:G114 I114:Z114 E113:H113 J112:Z113 E120:Z120 E122:Z124 E125:F125 H125:Z125 J121:Z121 E121:H121 E117:G118 J117:Z118 J119:K119 M119:Z119 E118:H119 E132:Z132 K133:Z133 E133:I133 G131:I131 K131:Z131 E130:F131 H130:Z130 E136:Z139 E141:Z147 G140:Z140 E140 E134:G134 F154:Z155 J153:Z153 F153:H153 L152:Z152 F152:J152 G151:H151 J151:Z151 F158:Z163 I157:Z157 F157:G157 L156:Z156 F156:J156 E148:I148 L148:Z148 E168:Z168 I170:Z171 J169:Z169 E167:G167 I167:Z167 E172:Z174 E170:G170 E169:H169 E177:Z179 E176:F176 H176:Z176 E182:Z183 E186:Z186 J185:Z185 E185:H185 E180:F181 E175:G175 I175:K175 N175:Z175 E188:Z191 J187:Z187 E187:H187 E192 G192:I192 K192:Z192 E200:Z200 G201:Z202 G198:Z198 J199:Z199 F199:H199 E198:E199 E205:Z205 E201:E202 E203:F203 H203:Z204 E207:Z207 E206:F206 H206:Z206 E212:Z212 E214:Z214 E216:Z217 E218:F218 H218:Z218 G215:Z215 E215 G213:Z213 E213 E211:G211 I211:Z211 E3:H3 J3:Z3 I117 E4:Z4 E10:F10 I10:Z10 E92:Z93 E90:F91 E23 G23:Z23 E149:E164 E165:Z165 G164:Z164 F106:Z106 E210:Z210 E208:F208 E209 G209 H208:Z208 I209:Z209 E128:E129 F68:Z68 L69:Z69 F69:J69 F67:G67 I67:Z67 E50:Z53 E55:Z55 E54:F54 H54:Z54 E48 G48:Z48 E102:G102 N101:Z101 L101 E101:F101 J78:Z78 E78:F78 H78 F193:Z193 J109:Z109 K110:Z110 F110 G109:H109 K149:Z149 H149:I149 F149:F151 E135:I135 K135:Z135 F49:Z49 E37:Z37 E39:F40 H39:Z40 G38:Z38 E38 E36 G36:Z36 L150:Z150 H150:J150 E63:G63 I63:Z63 J94:Z94 G94:H94 E11:Z11 E13:Z13 E12:F12 H12:Z12 E15:Z15 G16:Z16 E16 E14:F14 H14:Z14 E166 G166:Z166 E194:Z197 E6:Z9 E5 L134:Z134 I134:J134 E18:Z18 E20:Z21 E22:F22 H22:Z22 E19:G19 I19:Z19 E17:F17 H17:Z17 E24:Z28 E30:Z33 G29:Z29 E29 E35:Z35 E34:F34 H34:Z34 E41:Z42 E45:Z47 H43:Z43 E43:F43 H180:Z181 G5:Z5 E184:F184 H184:Z184 E204 E112 G171 E171 G44:Z44">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
